--- a/papers/cloudcom10/performance/namd_runs.xlsx
+++ b/papers/cloudcom10/performance/namd_runs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="24660" windowHeight="15380" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="32240" windowHeight="22540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NAMD Runtimes" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Fixed" sheetId="9" r:id="rId4"/>
     <sheet name="Deadline" sheetId="8" r:id="rId5"/>
     <sheet name="Pivot" sheetId="4" r:id="rId6"/>
+    <sheet name="Repex" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="2" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="3" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -30,74 +31,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="184">
+  <si>
+    <t>Time-to-Completion (in s)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Time (in s)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stddev</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI 8 core
+Nimbus 8 core</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI 8 core 
+Nimbus 16 core</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI 16 core
+Nimbus 8 core</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Time (in s)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
   <si>
     <t># Poseidon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t># Cloud Pilots</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Start Pilot if not sufficient progress is made</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Deadline Scenario</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Job Size Cloud (in Cores)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Job Size TG (in Cores)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>n/a</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LONI 8cr/8rp</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LONI 8cr/4rp
 Condor P. 8cr/3rp
 Sci. Cloud 8cr/1rp</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Science Cloud 8cr/8rp</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Condor Pool         8cr/8rp</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LONI 8cr/6rp
 Science Cloud      8cr/2rp</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LONI 8cr/4rp 
 Condor P.         8cr/4rp</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>CPU Time (in sec)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Poseidon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LONI</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Gesamt: Summe - Number Instances</t>
@@ -107,64 +175,508 @@
   </si>
   <si>
     <t>m1.large</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB (CHARM)</t>
+  </si>
+  <si>
+    <t>QB (CHARM)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mittelwert - Walltime (in sec)</t>
+  </si>
+  <si>
+    <t>Number Cores (Total)</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>EC2 (c1.xlarge)</t>
+  </si>
+  <si>
+    <t>EC2 (m1.large)</t>
+  </si>
+  <si>
+    <t>EUCA (Indiana)</t>
+  </si>
+  <si>
+    <t>Nimbus (Chicago)</t>
+  </si>
+  <si>
+    <t>f N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuer Run 02.08.10</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (cc1)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>4 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>1 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>2 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>4 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>Summe - Number Instances</t>
+  </si>
+  <si>
+    <t>Average (drop maxima)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus (Chicago)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (c1.xlarge)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walltime (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Times</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Time (in s)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Instances</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_RUNTIME (in min)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Period (in min)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Cloud Pilots</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Pilot Size</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime (in min)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t># Nimbus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stdev (drop maxima)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Runtime (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Poseidon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon, Oliver</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon (CHARM)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 core</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Number Cores (Total)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m1.large)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runs a Workload of 8 replicas in a fixed distribution</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t># TG</t>
+  </si>
+  <si>
+    <t># Nimbus</t>
+  </si>
+  <si>
+    <t># Condor</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Size</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Nodes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment Initiation (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Jobs</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stddev</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mittelwert - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Gesamt: Mittelwert - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Gesamt: STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>Gesamt: Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAGA Pilot Sub-Job Runtime</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead (in s)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead (in %)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUCA (Indiana)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Number Steps: </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAMD Run</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Nodes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue Time
+Nimbus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Poseidon </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMType</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores per Replica</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Replica</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Generations</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>extralarge</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>extralarge</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stddev</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Time (in s)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>First SubJob Active (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Adaptive Scenario</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Time for completion for n jobs</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Jobs run as soon as a resource becomes available</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t># TG</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t># Nimbus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t># EC2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>EC2 m1.large</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Nimbus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LONI 16 core
 Nimbus 16 core</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Run ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Number Replicas</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Memory (in MB)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Number Instances</t>
@@ -174,493 +686,62 @@
   </si>
   <si>
     <t>LONI/Condor</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Resource</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Oliver</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Grid (Poseidon - adjusted)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Science Cloud</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Condor Pool</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>LONI</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Poseidon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Condor Ressourcen</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Condor Number Cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Job Size</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Fixed</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in sec)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon, Oliver</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oliver</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon (CHARM)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 core</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nodes</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>m1.large</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Number Cores (Total)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m1.large)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runs a Workload of 8 replicas in a fixed distribution</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t># TG</t>
-  </si>
-  <si>
-    <t># Nimbus</t>
-  </si>
-  <si>
-    <t># Condor</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-  </si>
-  <si>
-    <t>Average (drop maxima)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus (Chicago)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (c1.xlarge)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walltime (in sec)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Times</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Time (in s)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Instances</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX_RUNTIME (in min)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check Period (in min)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Cloud Pilots</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud Pilot Size</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in min)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in sec)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t># Nimbus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stdev (drop maxima)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ergebnis</t>
-  </si>
-  <si>
-    <t>Mittelwert - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Gesamt: Mittelwert - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Gesamt: STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>Gesamt: Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAGA Pilot Sub-Job Runtime</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead (in s)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead (in %)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon </t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUCA (Indiana)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Number Steps: </t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAMD Run</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Nodes</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queue Time
-Nimbus</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Poseidon </t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus Number Cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 Number Cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Jobs</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stddev</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time-to-Completion (in s)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Time (in s)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stddev</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONI 8 core
-Nimbus 8 core</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONI 8 core 
-Nimbus 16 core</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONI 16 core
-Nimbus 8 core</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Time (in s)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>QB (MPI)</t>
   </si>
   <si>
     <t>QB (MPI)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>QB (CHARM)</t>
-  </si>
-  <si>
-    <t>QB (CHARM)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mittelwert - Walltime (in sec)</t>
-  </si>
-  <si>
-    <t>Number Cores (Total)</t>
-  </si>
-  <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>Gesamtergebnis</t>
-  </si>
-  <si>
-    <t>EC2 (c1.xlarge)</t>
-  </si>
-  <si>
-    <t>EC2 (m1.large)</t>
-  </si>
-  <si>
-    <t>EUCA (Indiana)</t>
-  </si>
-  <si>
-    <t>Nimbus (Chicago)</t>
-  </si>
-  <si>
-    <t>f N</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neuer Run 02.08.10</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (cc1)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>4 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>1 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>2 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>4 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>Summe - Number Instances</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -671,8 +752,18 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -928,23 +1019,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -963,20 +1054,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -996,29 +1087,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1027,7 +1118,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1056,7 +1154,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$I$75,'Setup Times'!$D$96)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$114)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1070,17 +1168,17 @@
                     <c:v>143.9351872602122</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22.86065415500533</c:v>
+                    <c:v>1.528124613752805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.528124613752805</c:v>
+                    <c:v>81.94263057788926</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$I$75,'Setup Times'!$D$96)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$114)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1094,10 +1192,10 @@
                     <c:v>143.9351872602122</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>22.86065415500533</c:v>
+                    <c:v>1.528124613752805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.528124613752805</c:v>
+                    <c:v>81.94263057788926</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1105,9 +1203,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95)</c:f>
+              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$113)</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>EC2 m1.large</c:v>
                 </c:pt>
@@ -1120,15 +1218,18 @@
                 <c:pt idx="3">
                   <c:v>Condor Pool</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95)</c:f>
+              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$113)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>373.44653231865</c:v>
                 </c:pt>
@@ -1141,15 +1242,18 @@
                 <c:pt idx="3" formatCode="General">
                   <c:v>331.2142857142857</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>583.5868558923077</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="644131496"/>
-        <c:axId val="644135992"/>
+        <c:axId val="589831416"/>
+        <c:axId val="589835192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="644131496"/>
+        <c:axId val="589831416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,14 +1269,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644135992"/>
+        <c:crossAx val="589835192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="644135992"/>
+        <c:axId val="589835192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1201,6 +1305,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1217,7 +1322,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644131496"/>
+        <c:crossAx val="589831416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1238,6 +1343,213 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="de-DE"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$114)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>206.4680035082333</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>48.59380013431259</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>143.9351872602122</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.528124613752805</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>86.46372681539437</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$114)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>206.4680035082333</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>48.59380013431259</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>143.9351872602122</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.528124613752805</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>86.46372681539437</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$113)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>EC2 m1.large</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Science Cloud</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LONI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Condor Pool</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Azure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$113)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>373.4465323186499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>356.8313019269999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.073104536535</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>331.2142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>574.5766449454544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="545563672"/>
+        <c:axId val="545602472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="545563672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545602472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="545602472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400">
+                    <a:latin typeface="+mn-lt"/>
+                    <a:cs typeface="Times"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400">
+                    <a:latin typeface="+mn-lt"/>
+                    <a:cs typeface="Times"/>
+                  </a:rPr>
+                  <a:t>Startup Time (in sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="+mn-lt"/>
+                <a:cs typeface="Times"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545563672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="de-DE"/>
@@ -1293,11 +1605,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="644215000"/>
-        <c:axId val="644206024"/>
+        <c:axId val="589924264"/>
+        <c:axId val="589915272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="644215000"/>
+        <c:axId val="589924264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,14 +1625,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644206024"/>
+        <c:crossAx val="589915272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="644206024"/>
+        <c:axId val="589915272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,7 +1667,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644215000"/>
+        <c:crossAx val="589924264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1375,7 +1687,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="de-DE"/>
@@ -1511,11 +1823,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="644255128"/>
-        <c:axId val="644275384"/>
+        <c:axId val="589965480"/>
+        <c:axId val="589985736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="644255128"/>
+        <c:axId val="589965480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,14 +1868,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644275384"/>
+        <c:crossAx val="589985736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="644275384"/>
+        <c:axId val="589985736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1910,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644255128"/>
+        <c:crossAx val="589965480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1622,16 +1934,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1645,6 +1957,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3288,9 +3630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D112:D116"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3305,12 +3647,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -3318,36 +3660,36 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3367,7 +3709,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3387,7 +3729,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3407,7 +3749,7 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3427,7 +3769,7 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3447,7 +3789,7 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -3467,7 +3809,7 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3487,7 +3829,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3507,7 +3849,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -3527,7 +3869,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3547,7 +3889,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3567,7 +3909,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -3587,7 +3929,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3607,7 +3949,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3627,7 +3969,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3647,7 +3989,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -3667,7 +4009,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3698,7 +4040,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3729,7 +4071,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3760,7 +4102,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -3783,7 +4125,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -3806,7 +4148,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -3827,7 +4169,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -3848,7 +4190,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -3869,7 +4211,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -3890,7 +4232,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -3911,7 +4253,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -3932,7 +4274,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -3953,7 +4295,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -3974,7 +4316,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -3995,7 +4337,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -4016,7 +4358,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -4037,7 +4379,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -4058,7 +4400,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="44" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B38" s="44">
         <v>2</v>
@@ -4079,7 +4421,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -4100,7 +4442,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -4121,7 +4463,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -4142,7 +4484,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -4163,7 +4505,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -4184,7 +4526,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4205,7 +4547,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4226,7 +4568,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4257,7 +4599,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4288,7 +4630,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -4309,7 +4651,7 @@
     </row>
     <row r="49" spans="1:8" s="41" customFormat="1">
       <c r="A49" s="41" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B49" s="41">
         <v>2</v>
@@ -4330,7 +4672,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="39" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B50" s="39">
         <v>4</v>
@@ -4351,7 +4693,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -4372,7 +4714,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -4393,7 +4735,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -4414,7 +4756,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -4435,7 +4777,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -4456,7 +4798,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -4477,7 +4819,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -4498,7 +4840,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -4519,7 +4861,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -4540,7 +4882,7 @@
     </row>
     <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4561,7 +4903,7 @@
     </row>
     <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4573,7 +4915,7 @@
     </row>
     <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -4585,7 +4927,7 @@
     </row>
     <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -4597,7 +4939,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4618,7 +4960,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4639,7 +4981,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4670,7 +5012,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4701,7 +5043,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -4732,7 +5074,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -4755,7 +5097,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -4778,7 +5120,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -4801,7 +5143,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -4824,7 +5166,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -4847,7 +5189,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -4870,7 +5212,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -4893,7 +5235,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -4916,7 +5258,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -4939,7 +5281,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -4962,7 +5304,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -4985,7 +5327,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -5008,7 +5350,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -5031,7 +5373,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -5054,7 +5396,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -5077,7 +5419,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5097,7 +5439,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5117,7 +5459,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5137,7 +5479,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5157,7 +5499,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -5177,7 +5519,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -5197,7 +5539,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -5217,7 +5559,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -5237,7 +5579,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5257,7 +5599,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -5277,7 +5619,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -5297,7 +5639,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -5321,12 +5663,12 @@
     <row r="100" spans="1:6" s="66" customFormat="1"/>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -5346,7 +5688,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5366,7 +5708,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5386,7 +5728,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -5406,7 +5748,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -5426,7 +5768,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -5446,7 +5788,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -5466,7 +5808,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -5486,7 +5828,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -5506,7 +5848,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -5526,7 +5868,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -5546,7 +5888,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -5566,7 +5908,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -5586,7 +5928,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5606,7 +5948,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -5626,7 +5968,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5646,7 +5988,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -5666,7 +6008,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -5686,7 +6028,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -5706,7 +6048,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -5726,7 +6068,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -5746,7 +6088,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -5766,7 +6108,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5786,7 +6128,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -5806,7 +6148,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -5825,7 +6167,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -5837,16 +6179,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="M118" sqref="M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.7109375" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
@@ -5855,45 +6197,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5908,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I6" s="17">
         <v>221.43898490266665</v>
@@ -5916,7 +6258,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5932,7 +6274,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I7" s="21">
         <v>27.888301147358074</v>
@@ -5940,7 +6282,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5956,7 +6298,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="18" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="I8" s="21">
         <v>6</v>
@@ -5964,7 +6306,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5982,7 +6324,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I9" s="17">
         <v>230.1513251065</v>
@@ -5990,7 +6332,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6006,7 +6348,7 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I10" s="21">
         <v>21.442701960879447</v>
@@ -6014,7 +6356,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6030,7 +6372,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="18" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="I11" s="21">
         <v>4</v>
@@ -6038,7 +6380,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -6056,7 +6398,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I12" s="17">
         <v>524.47522211100011</v>
@@ -6064,7 +6406,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -6080,7 +6422,7 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I13" s="21">
         <v>249.37176975472715</v>
@@ -6088,7 +6430,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -6104,7 +6446,7 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="18" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="I14" s="21">
         <v>32</v>
@@ -6112,7 +6454,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -6130,7 +6472,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I15" s="17">
         <v>338.08045351500004</v>
@@ -6138,7 +6480,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -6154,7 +6496,7 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I16" s="21">
         <v>46.784586737362908</v>
@@ -6162,7 +6504,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -6178,7 +6520,7 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="18" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="I17" s="21">
         <v>16</v>
@@ -6186,7 +6528,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -6201,7 +6543,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="17">
@@ -6210,7 +6552,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -6225,7 +6567,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="17">
@@ -6234,7 +6576,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6249,7 +6591,7 @@
         <v>0.75</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="25">
@@ -6258,7 +6600,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6275,7 +6617,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -6292,7 +6634,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -6309,7 +6651,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -6326,7 +6668,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -6343,19 +6685,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="C26" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="D26" s="2">
         <f>AVERAGE(D6:D25)</f>
         <v>373.44653231864999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2">
         <f>STDEV(D6:D25)</f>
@@ -6365,42 +6707,42 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="26" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6418,7 +6760,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="J31" s="17">
         <v>302.94028916180002</v>
@@ -6426,7 +6768,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6443,7 +6785,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="J32" s="21">
         <v>17.23574117758357</v>
@@ -6451,7 +6793,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6466,7 +6808,7 @@
         <v>0.5625</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -6476,7 +6818,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -6491,7 +6833,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -6501,7 +6843,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6522,7 +6864,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="J35" s="17">
         <v>305.19036102299998</v>
@@ -6530,7 +6872,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -6548,7 +6890,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="J36" s="21" t="e">
         <v>#DIV/0!</v>
@@ -6556,7 +6898,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -6572,7 +6914,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -6582,7 +6924,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -6598,7 +6940,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -6608,7 +6950,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -6630,7 +6972,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="J39" s="17">
         <v>384.05235557549997</v>
@@ -6638,7 +6980,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -6656,7 +6998,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="J40" s="21">
         <v>32.66972061151673</v>
@@ -6664,7 +7006,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -6680,7 +7022,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -6690,7 +7032,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -6705,7 +7047,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -6715,7 +7057,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -6730,7 +7072,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -6740,7 +7082,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -6755,7 +7097,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -6765,7 +7107,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -6782,7 +7124,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -6799,7 +7141,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -6814,19 +7156,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="C48" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2">
         <f>AVERAGE(D30:D47)</f>
         <v>356.83130192700003</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="C49" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2">
         <f>STDEV(D31:D47)</f>
@@ -6843,40 +7185,40 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B52" s="26"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="G53" s="11" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -6894,7 +7236,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I54" s="17">
         <v>14.1872649193</v>
@@ -6902,7 +7244,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -6918,7 +7260,7 @@
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I55" s="21" t="e">
         <v>#DIV/0!</v>
@@ -6926,7 +7268,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6944,7 +7286,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I56" s="17">
         <v>44.782275199920001</v>
@@ -6952,7 +7294,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -6968,7 +7310,7 @@
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I57" s="21">
         <v>15.843792242505828</v>
@@ -6976,7 +7318,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -6994,7 +7336,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I58" s="17">
         <v>56.964924156674996</v>
@@ -7002,7 +7344,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -7018,7 +7360,7 @@
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I59" s="21">
         <v>9.4994883808250847</v>
@@ -7026,7 +7368,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -7044,7 +7386,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="I60" s="17">
         <v>187.55037531850999</v>
@@ -7052,7 +7394,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -7068,7 +7410,7 @@
       </c>
       <c r="G61" s="32"/>
       <c r="H61" s="18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="I61" s="21">
         <v>179.97433590633514</v>
@@ -7076,7 +7418,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -7091,7 +7433,7 @@
         <v>0.59236111111111112</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="17">
@@ -7100,7 +7442,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -7115,7 +7457,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="25">
@@ -7124,7 +7466,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -7141,7 +7483,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -7158,7 +7500,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -7175,7 +7517,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -7192,7 +7534,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -7209,7 +7551,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -7226,7 +7568,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -7243,7 +7585,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -7260,7 +7602,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -7277,7 +7619,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -7292,36 +7634,36 @@
     </row>
     <row r="74" spans="1:10">
       <c r="C74" t="s">
-        <v>129</v>
+        <v>3</v>
       </c>
       <c r="D74" s="2">
         <f>AVERAGE(D54:D73)</f>
         <v>117.073104536535</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I74" s="55">
         <f>AVERAGE(D54:D63,D65:D66,D68:D70,D73)</f>
         <v>53.003791779293749</v>
       </c>
       <c r="J74" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="C75" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D75" s="2">
         <f>STDEV(D54:D73)</f>
         <v>143.93518726021225</v>
       </c>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I75" s="55">
         <f>STDEV(D54:D63,D65:D66,D68:D70,D73)</f>
@@ -7337,26 +7679,26 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="26" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -7370,7 +7712,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -7384,7 +7726,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -7398,7 +7740,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -7412,7 +7754,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -7426,7 +7768,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -7440,7 +7782,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -7454,7 +7796,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -7468,7 +7810,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -7482,7 +7824,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -7496,7 +7838,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -7510,7 +7852,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -7524,7 +7866,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -7538,7 +7880,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -7556,7 +7898,7 @@
         <v>331.21428571428572</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -7565,12 +7907,286 @@
         <v>1.5281246137528048</v>
       </c>
     </row>
-    <row r="109" spans="8:8">
-      <c r="H109" s="2"/>
+    <row r="97" spans="1:8">
+      <c r="D97" s="55"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="52">
+      <c r="A99" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D99" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="55">
+        <v>102.81096601500001</v>
+      </c>
+      <c r="E100" s="55">
+        <v>540.78749203699999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="55">
+        <v>103.82834100700001</v>
+      </c>
+      <c r="E101" s="55">
+        <v>535.53545093499997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="55">
+        <v>113.127218962</v>
+      </c>
+      <c r="E102" s="55">
+        <v>545.29999999999995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" s="55">
+        <v>103.40554308900001</v>
+      </c>
+      <c r="E103" s="55">
+        <v>803.84470940000006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" s="55">
+        <v>107.666013956</v>
+      </c>
+      <c r="E104" s="55">
+        <v>513.75138115899995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" s="55">
+        <v>103.865900993</v>
+      </c>
+      <c r="E105" s="55">
+        <v>533.84486103100005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="55">
+        <v>102.781521082</v>
+      </c>
+      <c r="E106" s="55">
+        <v>530.13947606099998</v>
+      </c>
+      <c r="F106" s="55"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" s="55">
+        <v>113.22210287999999</v>
+      </c>
+      <c r="E107" s="55">
+        <v>540.12562584900002</v>
+      </c>
+      <c r="F107" s="55"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>16</v>
+      </c>
+      <c r="D108" s="55">
+        <v>102.94403004599999</v>
+      </c>
+      <c r="E108" s="55">
+        <v>640.48868703799997</v>
+      </c>
+      <c r="F108" s="55"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109">
+        <v>16</v>
+      </c>
+      <c r="C109">
+        <v>16</v>
+      </c>
+      <c r="D109" s="55">
+        <v>92.101788044000003</v>
+      </c>
+      <c r="E109" s="55">
+        <v>514.74440503100004</v>
+      </c>
+      <c r="F109" s="55"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>8</v>
+      </c>
+      <c r="D110" s="55">
+        <v>103.42702317200001</v>
+      </c>
+      <c r="E110" s="55">
+        <v>621.78100585899995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>147</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>8</v>
+      </c>
+      <c r="D111" s="55">
+        <v>102.724663019</v>
+      </c>
+      <c r="E111" s="55">
+        <v>635.45893716800003</v>
+      </c>
+      <c r="F111" s="55"/>
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
+        <v>16</v>
+      </c>
+      <c r="D112" s="55">
+        <v>93.759625911699999</v>
+      </c>
+      <c r="E112" s="55">
+        <v>630.82709503199999</v>
+      </c>
+      <c r="F112" s="55"/>
+      <c r="H112" s="55"/>
+    </row>
+    <row r="113" spans="4:6">
+      <c r="D113" t="s">
+        <v>148</v>
+      </c>
+      <c r="E113" s="55">
+        <f>AVERAGE(E100:E112)</f>
+        <v>583.58685589230765</v>
+      </c>
+      <c r="F113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6">
+      <c r="D114" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114">
+        <f>STDEV(E100:E112)</f>
+        <v>81.942630577889261</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -7601,69 +8217,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="28" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="28" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -7698,13 +8314,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -7739,13 +8355,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B8" s="31">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -7780,7 +8396,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -7818,7 +8434,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -7853,7 +8469,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -7894,7 +8510,7 @@
     </row>
     <row r="12" spans="1:14" s="49" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="49" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B12" s="49">
         <v>32</v>
@@ -7935,7 +8551,7 @@
     </row>
     <row r="13" spans="1:14" ht="40" thickTop="1">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -7966,12 +8582,12 @@
         <v>2</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -8002,12 +8618,12 @@
         <v>2</v>
       </c>
       <c r="N14" s="52" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B15" s="41">
         <v>16</v>
@@ -8038,12 +8654,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -8074,12 +8690,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="52" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -8112,7 +8728,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -8145,7 +8761,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -8184,17 +8800,18 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="28" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -8221,17 +8838,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="56" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -8239,7 +8856,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -8247,39 +8864,39 @@
     </row>
     <row r="8" spans="1:10" s="58" customFormat="1" ht="39">
       <c r="A8" s="29" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1">
       <c r="A9" s="62" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B9" s="63">
         <v>0</v>
@@ -8291,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F9" s="63">
         <v>0</v>
@@ -8311,7 +8928,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1">
       <c r="A10" s="62" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B10" s="63">
         <v>0</v>
@@ -8323,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F10" s="63">
         <v>0</v>
@@ -8343,7 +8960,7 @@
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
       <c r="A11" s="62" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B11" s="63">
         <v>0</v>
@@ -8355,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F11" s="63">
         <v>0</v>
@@ -8375,7 +8992,7 @@
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1">
       <c r="A12" s="62" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B12" s="63">
         <v>0</v>
@@ -8387,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="F12" s="63">
         <v>0</v>
@@ -8407,7 +9024,7 @@
     </row>
     <row r="13" spans="1:10" s="61" customFormat="1">
       <c r="A13" s="64" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B13" s="65">
         <v>0</v>
@@ -8419,7 +9036,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F13" s="65">
         <v>0</v>
@@ -8439,7 +9056,7 @@
     </row>
     <row r="14" spans="1:10" s="58" customFormat="1">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -8451,7 +9068,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -8471,7 +9088,7 @@
     </row>
     <row r="15" spans="1:10" s="58" customFormat="1">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -8483,7 +9100,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -8503,7 +9120,7 @@
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -8515,7 +9132,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -8535,7 +9152,7 @@
     </row>
     <row r="17" spans="1:10" s="58" customFormat="1">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -8547,7 +9164,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -8567,7 +9184,7 @@
     </row>
     <row r="18" spans="1:10" s="58" customFormat="1">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -8579,7 +9196,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -8599,7 +9216,7 @@
     </row>
     <row r="19" spans="1:10" s="58" customFormat="1">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -8611,7 +9228,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -8631,7 +9248,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -8644,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -8664,7 +9281,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -8677,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -8697,7 +9314,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -8710,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -8730,7 +9347,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -8743,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -8763,7 +9380,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -8776,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -8796,7 +9413,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -8809,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -8829,7 +9446,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -8842,7 +9459,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -8862,7 +9479,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -8875,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -8895,7 +9512,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -8908,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -8928,7 +9545,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -8941,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -8961,7 +9578,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -8974,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -8994,7 +9611,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -9007,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -9027,7 +9644,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -9040,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -9060,7 +9677,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -9073,7 +9690,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -9093,7 +9710,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -9106,7 +9723,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -9126,7 +9743,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -9139,7 +9756,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -9159,7 +9776,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -9172,7 +9789,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -9192,7 +9809,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -9205,7 +9822,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -9225,7 +9842,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -9238,7 +9855,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -9258,7 +9875,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -9271,7 +9888,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -9291,7 +9908,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -9304,7 +9921,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -9324,7 +9941,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -9337,7 +9954,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -9357,7 +9974,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -9370,7 +9987,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -9390,7 +10007,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -9403,7 +10020,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -9423,7 +10040,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -9436,7 +10053,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -9456,7 +10073,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -9469,7 +10086,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -9489,7 +10106,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -9502,7 +10119,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -9522,7 +10139,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -9535,7 +10152,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -9555,7 +10172,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -9568,7 +10185,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -9588,20 +10205,20 @@
     </row>
     <row r="69" spans="1:15">
       <c r="O69" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B74" s="55">
         <f>AVERAGE(J9:J13)</f>
@@ -9614,7 +10231,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="58" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B75" s="55">
         <f>J27</f>
@@ -9627,7 +10244,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B76" s="55">
         <f>AVERAGE(J20:J25)</f>
@@ -9640,7 +10257,7 @@
     </row>
     <row r="77" spans="1:15" ht="39">
       <c r="A77" s="52" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B77" s="55">
         <f>AVERAGE(J14:J19)</f>
@@ -9653,7 +10270,7 @@
     </row>
     <row r="78" spans="1:15" ht="39">
       <c r="A78" s="52" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B78" s="55">
         <f>AVERAGE(J43:J46)</f>
@@ -9666,7 +10283,7 @@
     </row>
     <row r="79" spans="1:15" ht="39">
       <c r="A79" s="52" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B79" s="55">
         <f>AVERAGE(J34:J42)</f>
@@ -9678,8 +10295,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError sqref="B79" formulaRange="1"/>
@@ -9708,50 +10324,50 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="53" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="54" customFormat="1" ht="39">
       <c r="A5" s="54" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -9790,7 +10406,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9901,7 +10517,7 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9940,7 +10556,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -10179,7 +10795,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -10206,10 +10822,10 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -10221,7 +10837,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -10245,12 +10861,12 @@
         <v>32</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -10267,7 +10883,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20">
@@ -10284,7 +10900,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -10305,7 +10921,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="B8" s="19">
         <v>2070.8984270000001</v>
@@ -10322,7 +10938,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="B9" s="19">
         <v>1095.4940549999999</v>
@@ -10349,7 +10965,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -10370,7 +10986,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -10391,7 +11007,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="B12" s="23">
         <v>1583.1962410000001</v>
@@ -10420,7 +11036,57 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26">
+      <c r="A1" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/cloudcom10/performance/namd_runs.xlsx
+++ b/papers/cloudcom10/performance/namd_runs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="32240" windowHeight="22540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="32240" windowHeight="22540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NAMD Runtimes" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,353 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="195">
+  <si>
+    <t>Condor Pool         8cr/8rp</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI 8cr/6rp
+Science Cloud      8cr/2rp</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI 8cr/4rp 
+Condor P.         8cr/4rp</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU Time (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gesamt: Summe - Number Instances</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB (CHARM)</t>
+  </si>
+  <si>
+    <t>QB (CHARM)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mittelwert - Walltime (in sec)</t>
+  </si>
+  <si>
+    <t>Number Cores (Total)</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>EC2 (c1.xlarge)</t>
+  </si>
+  <si>
+    <t>EC2 (m1.large)</t>
+  </si>
+  <si>
+    <t>EUCA (Indiana)</t>
+  </si>
+  <si>
+    <t>Nimbus (Chicago)</t>
+  </si>
+  <si>
+    <t>f N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuer Run 02.08.10</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (cc1)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>4 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>1 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>2 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>4 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>Summe - Number Instances</t>
+  </si>
+  <si>
+    <t>Average (drop maxima)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus (Chicago)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (c1.xlarge)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walltime (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Times</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Time (in s)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mittelwert </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU/Asia/US</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Size</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Nodes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment Initiation (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Jobs</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stddev</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mittelwert - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Gesamt: Mittelwert - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Gesamt: STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>Gesamt: Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAGA Pilot Sub-Job Runtime</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead (in s)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead (in %)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUCA (Indiana)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Number Steps: </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAMD Run</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Nodes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue Time
+Nimbus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Poseidon </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMType</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores per Replica</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
   <si>
     <t>Time-to-Completion (in s)</t>
     <phoneticPr fontId="14" type="noConversion"/>
@@ -142,451 +488,11 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Condor Pool         8cr/8rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONI 8cr/6rp
-Science Cloud      8cr/2rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONI 8cr/4rp 
-Condor P.         8cr/4rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU Time (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gesamt: Summe - Number Instances</t>
-  </si>
-  <si>
-    <t>Cores</t>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>small</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>QB (CHARM)</t>
-  </si>
-  <si>
-    <t>QB (CHARM)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mittelwert - Walltime (in sec)</t>
-  </si>
-  <si>
-    <t>Number Cores (Total)</t>
-  </si>
-  <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>Gesamtergebnis</t>
-  </si>
-  <si>
-    <t>EC2 (c1.xlarge)</t>
-  </si>
-  <si>
-    <t>EC2 (m1.large)</t>
-  </si>
-  <si>
-    <t>EUCA (Indiana)</t>
-  </si>
-  <si>
-    <t>Nimbus (Chicago)</t>
-  </si>
-  <si>
-    <t>f N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neuer Run 02.08.10</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (cc1)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>4 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>1 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>2 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>4 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>Summe - Number Instances</t>
-  </si>
-  <si>
-    <t>Average (drop maxima)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus (Chicago)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (c1.xlarge)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walltime (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Times</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Time (in s)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Instances</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX_RUNTIME (in min)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check Period (in min)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Cloud Pilots</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud Pilot Size</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in min)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t># Nimbus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stdev (drop maxima)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ergebnis</t>
-  </si>
-  <si>
-    <t>Runtime (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon, Oliver</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oliver</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon (CHARM)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 core</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nodes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Number Cores (Total)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m1.large)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runs a Workload of 8 replicas in a fixed distribution</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t># TG</t>
-  </si>
-  <si>
-    <t># Nimbus</t>
-  </si>
-  <si>
-    <t># Condor</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-  </si>
-  <si>
-    <t>small</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Size</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Nodes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deployment Initiation (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Azure</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Jobs</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stddev</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mittelwert - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Gesamt: Mittelwert - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Gesamt: STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>Gesamt: Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAGA Pilot Sub-Job Runtime</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead (in s)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead (in %)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUCA (Indiana)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Number Steps: </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAMD Run</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Nodes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queue Time
-Nimbus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Poseidon </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>small</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>VMType</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores per Replica</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>Number Replica</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Number Generations</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -741,6 +647,144 @@
   </si>
   <si>
     <t>QB (MPI)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Instances</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_RUNTIME (in min)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Period (in min)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Cloud Pilots</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Pilot Size</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime (in min)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t># Nimbus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stdev (drop maxima)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Runtime (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon, Oliver</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon (CHARM)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 core</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Number Cores (Total)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m1.large)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runs a Workload of 8 replicas in a fixed distribution</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t># TG</t>
+  </si>
+  <si>
+    <t># Nimbus</t>
+  </si>
+  <si>
+    <t># Condor</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1154,7 +1198,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$114)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$117)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1171,14 +1215,14 @@
                     <c:v>1.528124613752805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>81.94263057788926</c:v>
+                    <c:v>74.22758307468693</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$114)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$117)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1195,7 +1239,7 @@
                     <c:v>1.528124613752805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>81.94263057788926</c:v>
+                    <c:v>74.22758307468693</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1203,7 +1247,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$113)</c:f>
+              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$116)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1226,7 +1270,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$113)</c:f>
+              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$116)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1243,17 +1287,17 @@
                   <c:v>331.2142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.5868558923077</c:v>
+                  <c:v>583.5867772134374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="589831416"/>
-        <c:axId val="589835192"/>
+        <c:axId val="647035032"/>
+        <c:axId val="647043016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="589831416"/>
+        <c:axId val="647035032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1269,14 +1313,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589835192"/>
+        <c:crossAx val="647043016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="589835192"/>
+        <c:axId val="647043016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1322,7 +1366,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589831416"/>
+        <c:crossAx val="647035032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1361,7 +1405,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$114)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$117)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1378,14 +1422,14 @@
                     <c:v>1.528124613752805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>86.46372681539437</c:v>
+                    <c:v>74.22758307468693</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$114)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$117)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1402,7 +1446,7 @@
                     <c:v>1.528124613752805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>86.46372681539437</c:v>
+                    <c:v>74.22758307468693</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1410,7 +1454,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$113)</c:f>
+              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$116)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1433,15 +1477,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$113)</c:f>
+              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$116)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>373.4465323186499</c:v>
+                  <c:v>373.44653231865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>356.8313019269999</c:v>
+                  <c:v>356.831301927</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>117.073104536535</c:v>
@@ -1450,17 +1494,17 @@
                   <c:v>331.2142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>574.5766449454544</c:v>
+                  <c:v>583.5867772134374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="545563672"/>
-        <c:axId val="545602472"/>
+        <c:axId val="647096216"/>
+        <c:axId val="647115256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="545563672"/>
+        <c:axId val="647096216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,14 +1520,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545602472"/>
+        <c:crossAx val="647115256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="545602472"/>
+        <c:axId val="647115256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1529,7 +1573,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545563672"/>
+        <c:crossAx val="647096216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1605,11 +1649,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="589924264"/>
-        <c:axId val="589915272"/>
+        <c:axId val="647172344"/>
+        <c:axId val="647163368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="589924264"/>
+        <c:axId val="647172344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,14 +1669,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589915272"/>
+        <c:crossAx val="647163368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="589915272"/>
+        <c:axId val="647163368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1711,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589924264"/>
+        <c:crossAx val="647172344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1823,11 +1867,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="589965480"/>
-        <c:axId val="589985736"/>
+        <c:axId val="630951512"/>
+        <c:axId val="630933256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="589965480"/>
+        <c:axId val="630951512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,14 +1912,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589985736"/>
+        <c:crossAx val="630933256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="589985736"/>
+        <c:axId val="630933256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +1954,173 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589965480"/>
+        <c:crossAx val="630951512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="de-DE"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Repex!$K$2:$K$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.614883109574099</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.577157175881028</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Repex!$K$2:$K$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.614883109574099</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.577157175881028</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Repex!$I$2:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Asia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EU</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>US</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EU/Asia/US</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Repex!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>89.69030650066666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>112.9212904397667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.0194519003333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="647292424"/>
+        <c:axId val="647290504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="647292424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="647290504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="647290504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1400"/>
+                  <a:t>Runtime (in min)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="647292424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2044,6 +2254,41 @@
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3647,12 +3892,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -3660,36 +3905,36 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3709,7 +3954,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3729,7 +3974,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3749,7 +3994,7 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3769,7 +4014,7 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3789,7 +4034,7 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -3809,7 +4054,7 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3829,7 +4074,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3849,7 +4094,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -3869,7 +4114,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3889,7 +4134,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3909,7 +4154,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -3929,7 +4174,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3949,7 +4194,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3969,7 +4214,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -3989,7 +4234,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -4009,7 +4254,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4040,7 +4285,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4071,7 +4316,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -4102,7 +4347,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -4125,7 +4370,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4148,7 +4393,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -4169,7 +4414,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -4190,7 +4435,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -4211,7 +4456,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -4232,7 +4477,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -4253,7 +4498,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -4274,7 +4519,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -4295,7 +4540,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -4316,7 +4561,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -4337,7 +4582,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -4358,7 +4603,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -4379,7 +4624,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -4400,7 +4645,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="44" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="B38" s="44">
         <v>2</v>
@@ -4421,7 +4666,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -4442,7 +4687,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -4463,7 +4708,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -4484,7 +4729,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -4505,7 +4750,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -4526,7 +4771,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4547,7 +4792,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4568,7 +4813,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4599,7 +4844,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4630,7 +4875,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -4651,7 +4896,7 @@
     </row>
     <row r="49" spans="1:8" s="41" customFormat="1">
       <c r="A49" s="41" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B49" s="41">
         <v>2</v>
@@ -4672,7 +4917,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="39" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B50" s="39">
         <v>4</v>
@@ -4693,7 +4938,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -4714,7 +4959,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -4735,7 +4980,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -4756,7 +5001,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -4777,7 +5022,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -4798,7 +5043,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -4819,7 +5064,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -4840,7 +5085,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -4861,7 +5106,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -4882,7 +5127,7 @@
     </row>
     <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4903,7 +5148,7 @@
     </row>
     <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4915,7 +5160,7 @@
     </row>
     <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -4927,7 +5172,7 @@
     </row>
     <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -4939,7 +5184,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4960,7 +5205,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4981,7 +5226,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5012,7 +5257,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5043,7 +5288,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -5074,7 +5319,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -5097,7 +5342,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -5120,7 +5365,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -5143,7 +5388,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -5166,7 +5411,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -5189,7 +5434,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -5212,7 +5457,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5235,7 +5480,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -5258,7 +5503,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -5281,7 +5526,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -5304,7 +5549,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -5327,7 +5572,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -5350,7 +5595,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -5373,7 +5618,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -5396,7 +5641,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -5419,7 +5664,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5439,7 +5684,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5459,7 +5704,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5479,7 +5724,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5499,7 +5744,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -5519,7 +5764,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -5539,7 +5784,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -5559,7 +5804,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -5579,7 +5824,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5599,7 +5844,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -5619,7 +5864,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -5639,7 +5884,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -5663,12 +5908,12 @@
     <row r="100" spans="1:6" s="66" customFormat="1"/>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -5688,7 +5933,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5708,7 +5953,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5728,7 +5973,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -5748,7 +5993,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -5768,7 +6013,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -5788,7 +6033,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -5808,7 +6053,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -5828,7 +6073,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -5848,7 +6093,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -5868,7 +6113,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -5888,7 +6133,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -5908,7 +6153,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -5928,7 +6173,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5948,7 +6193,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -5968,7 +6213,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5988,7 +6233,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -6008,7 +6253,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6028,7 +6273,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -6048,7 +6293,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6068,7 +6313,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -6088,7 +6333,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -6108,7 +6353,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -6128,7 +6373,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -6148,7 +6393,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -6179,10 +6424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M118" sqref="M118"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6197,45 +6442,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6250,7 +6495,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="I6" s="17">
         <v>221.43898490266665</v>
@@ -6258,7 +6503,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6274,7 +6519,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="I7" s="21">
         <v>27.888301147358074</v>
@@ -6282,7 +6527,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6298,7 +6543,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="18" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I8" s="21">
         <v>6</v>
@@ -6306,7 +6551,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6324,7 +6569,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="I9" s="17">
         <v>230.1513251065</v>
@@ -6332,7 +6577,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6348,7 +6593,7 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="I10" s="21">
         <v>21.442701960879447</v>
@@ -6356,7 +6601,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6372,7 +6617,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="18" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I11" s="21">
         <v>4</v>
@@ -6380,7 +6625,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -6398,7 +6643,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="I12" s="17">
         <v>524.47522211100011</v>
@@ -6406,7 +6651,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -6422,7 +6667,7 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="I13" s="21">
         <v>249.37176975472715</v>
@@ -6430,7 +6675,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -6446,7 +6691,7 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="18" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I14" s="21">
         <v>32</v>
@@ -6454,7 +6699,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -6472,7 +6717,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="I15" s="17">
         <v>338.08045351500004</v>
@@ -6480,7 +6725,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -6496,7 +6741,7 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="I16" s="21">
         <v>46.784586737362908</v>
@@ -6504,7 +6749,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -6520,7 +6765,7 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="18" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I17" s="21">
         <v>16</v>
@@ -6528,7 +6773,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -6543,7 +6788,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="17">
@@ -6552,7 +6797,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -6567,7 +6812,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="17">
@@ -6576,7 +6821,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6591,7 +6836,7 @@
         <v>0.75</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="25">
@@ -6600,7 +6845,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6617,7 +6862,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -6634,7 +6879,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -6651,7 +6896,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -6668,7 +6913,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -6685,19 +6930,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="C26" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="D26" s="2">
         <f>AVERAGE(D6:D25)</f>
         <v>373.44653231864999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2">
         <f>STDEV(D6:D25)</f>
@@ -6707,42 +6952,42 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="26" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6760,7 +7005,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="J31" s="17">
         <v>302.94028916180002</v>
@@ -6768,7 +7013,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6785,7 +7030,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="J32" s="21">
         <v>17.23574117758357</v>
@@ -6793,7 +7038,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6808,7 +7053,7 @@
         <v>0.5625</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -6818,7 +7063,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -6833,7 +7078,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -6843,7 +7088,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6864,7 +7109,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="J35" s="17">
         <v>305.19036102299998</v>
@@ -6872,7 +7117,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -6890,7 +7135,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="J36" s="21" t="e">
         <v>#DIV/0!</v>
@@ -6898,7 +7143,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -6914,7 +7159,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -6924,7 +7169,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -6940,7 +7185,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -6950,7 +7195,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -6972,7 +7217,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="J39" s="17">
         <v>384.05235557549997</v>
@@ -6980,7 +7225,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -6998,7 +7243,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="J40" s="21">
         <v>32.66972061151673</v>
@@ -7006,7 +7251,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -7022,7 +7267,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -7032,7 +7277,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -7047,7 +7292,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -7057,7 +7302,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -7072,7 +7317,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -7082,7 +7327,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -7097,7 +7342,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -7107,7 +7352,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -7124,7 +7369,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -7141,7 +7386,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -7156,19 +7401,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="C48" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2">
         <f>AVERAGE(D30:D47)</f>
         <v>356.83130192700003</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="C49" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D49" s="2">
         <f>STDEV(D31:D47)</f>
@@ -7185,40 +7430,40 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B52" s="26"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -7236,7 +7481,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="I54" s="17">
         <v>14.1872649193</v>
@@ -7244,7 +7489,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -7260,7 +7505,7 @@
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="I55" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7268,7 +7513,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7286,7 +7531,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="I56" s="17">
         <v>44.782275199920001</v>
@@ -7294,7 +7539,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -7310,7 +7555,7 @@
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="I57" s="21">
         <v>15.843792242505828</v>
@@ -7318,7 +7563,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -7336,7 +7581,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="I58" s="17">
         <v>56.964924156674996</v>
@@ -7344,7 +7589,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -7360,7 +7605,7 @@
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="I59" s="21">
         <v>9.4994883808250847</v>
@@ -7368,7 +7613,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -7386,7 +7631,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="I60" s="17">
         <v>187.55037531850999</v>
@@ -7394,7 +7639,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -7410,7 +7655,7 @@
       </c>
       <c r="G61" s="32"/>
       <c r="H61" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="I61" s="21">
         <v>179.97433590633514</v>
@@ -7418,7 +7663,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -7433,7 +7678,7 @@
         <v>0.59236111111111112</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="17">
@@ -7442,7 +7687,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -7457,7 +7702,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="25">
@@ -7466,7 +7711,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -7483,7 +7728,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -7500,7 +7745,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -7517,7 +7762,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -7534,7 +7779,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -7551,7 +7796,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -7568,7 +7813,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -7585,7 +7830,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -7602,7 +7847,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -7619,7 +7864,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -7634,36 +7879,36 @@
     </row>
     <row r="74" spans="1:10">
       <c r="C74" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="D74" s="2">
         <f>AVERAGE(D54:D73)</f>
         <v>117.073104536535</v>
       </c>
       <c r="E74" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H74" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I74" s="55">
         <f>AVERAGE(D54:D63,D65:D66,D68:D70,D73)</f>
         <v>53.003791779293749</v>
       </c>
       <c r="J74" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="C75" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D75" s="2">
         <f>STDEV(D54:D73)</f>
         <v>143.93518726021225</v>
       </c>
       <c r="H75" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="I75" s="55">
         <f>STDEV(D54:D63,D65:D66,D68:D70,D73)</f>
@@ -7679,26 +7924,26 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="26" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -7712,7 +7957,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -7726,7 +7971,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -7740,7 +7985,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -7754,7 +7999,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -7768,7 +8013,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -7782,7 +8027,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -7796,7 +8041,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -7810,7 +8055,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -7824,7 +8069,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -7838,7 +8083,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -7852,7 +8097,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -7866,7 +8111,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -7880,7 +8125,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -7898,7 +8143,7 @@
         <v>331.21428571428572</v>
       </c>
       <c r="E95" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -7907,34 +8152,34 @@
         <v>1.5281246137528048</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:6">
       <c r="D97" s="55"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:6">
       <c r="A98" s="68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="52">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="52">
       <c r="A99" s="67" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -7948,10 +8193,13 @@
       <c r="E100" s="55">
         <v>540.78749203699999</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="F100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -7965,10 +8213,13 @@
       <c r="E101" s="55">
         <v>535.53545093499997</v>
       </c>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="F101" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -7982,10 +8233,13 @@
       <c r="E102" s="55">
         <v>545.29999999999995</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="F102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -7999,10 +8253,13 @@
       <c r="E103" s="55">
         <v>803.84470940000006</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="F103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8016,10 +8273,13 @@
       <c r="E104" s="55">
         <v>513.75138115899995</v>
       </c>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="F104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8033,10 +8293,13 @@
       <c r="E105" s="55">
         <v>533.84486103100005</v>
       </c>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="F105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -8050,11 +8313,13 @@
       <c r="E106" s="55">
         <v>530.13947606099998</v>
       </c>
-      <c r="F106" s="55"/>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="F106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8068,11 +8333,13 @@
       <c r="E107" s="55">
         <v>540.12562584900002</v>
       </c>
-      <c r="F107" s="55"/>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="F107" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B108">
         <v>16</v>
@@ -8086,11 +8353,13 @@
       <c r="E108" s="55">
         <v>640.48868703799997</v>
       </c>
-      <c r="F108" s="55"/>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="F108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B109">
         <v>16</v>
@@ -8104,86 +8373,141 @@
       <c r="E109" s="55">
         <v>514.74440503100004</v>
       </c>
-      <c r="F109" s="55"/>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="F109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C110">
-        <v>8</v>
-      </c>
-      <c r="D110" s="55">
-        <v>103.42702317200001</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D110" s="55"/>
       <c r="E110" s="55">
-        <v>621.78100585899995</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>607.65833091699994</v>
+      </c>
+      <c r="F110" s="55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C111">
-        <v>8</v>
-      </c>
-      <c r="D111" s="55">
-        <v>102.724663019</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D111" s="55"/>
       <c r="E111" s="55">
-        <v>635.45893716800003</v>
-      </c>
-      <c r="F111" s="55"/>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8">
+        <v>596.06263589900004</v>
+      </c>
+      <c r="F111" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C112">
         <v>16</v>
       </c>
-      <c r="D112" s="55">
+      <c r="D112" s="55"/>
+      <c r="E112" s="55">
+        <v>547.03834199899995</v>
+      </c>
+      <c r="F112" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>8</v>
+      </c>
+      <c r="D113" s="55">
+        <v>103.42702317200001</v>
+      </c>
+      <c r="E113" s="55">
+        <v>621.78100585899995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="D114" s="55">
+        <v>102.724663019</v>
+      </c>
+      <c r="E114" s="55">
+        <v>635.45893716800003</v>
+      </c>
+      <c r="F114" s="55"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>16</v>
+      </c>
+      <c r="D115" s="55">
         <v>93.759625911699999</v>
       </c>
-      <c r="E112" s="55">
+      <c r="E115" s="55">
         <v>630.82709503199999</v>
       </c>
-      <c r="F112" s="55"/>
-      <c r="H112" s="55"/>
-    </row>
-    <row r="113" spans="4:6">
-      <c r="D113" t="s">
-        <v>148</v>
-      </c>
-      <c r="E113" s="55">
-        <f>AVERAGE(E100:E112)</f>
-        <v>583.58685589230765</v>
-      </c>
-      <c r="F113" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6">
-      <c r="D114" t="s">
-        <v>149</v>
-      </c>
-      <c r="E114">
-        <f>STDEV(E100:E112)</f>
-        <v>81.942630577889261</v>
+      <c r="F115" s="55"/>
+      <c r="H115" s="55"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="D116" t="s">
+        <v>123</v>
+      </c>
+      <c r="E116" s="55">
+        <f>AVERAGE(E100:E115)</f>
+        <v>583.58677721343747</v>
+      </c>
+      <c r="F116" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="D117" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117">
+        <f>STDEV(E100:E115)</f>
+        <v>74.227583074686933</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8217,69 +8541,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="28" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="28" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8314,13 +8638,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8355,13 +8679,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B8" s="31">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8396,7 +8720,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -8434,7 +8758,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -8469,7 +8793,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -8510,7 +8834,7 @@
     </row>
     <row r="12" spans="1:14" s="49" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="49" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B12" s="49">
         <v>32</v>
@@ -8551,7 +8875,7 @@
     </row>
     <row r="13" spans="1:14" ht="40" thickTop="1">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -8582,12 +8906,12 @@
         <v>2</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -8618,12 +8942,12 @@
         <v>2</v>
       </c>
       <c r="N14" s="52" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B15" s="41">
         <v>16</v>
@@ -8654,12 +8978,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -8690,12 +9014,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="52" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -8728,7 +9052,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -8761,7 +9085,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -8800,17 +9124,16 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="28" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -8838,17 +9161,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="56" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -8856,7 +9179,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -8864,39 +9187,39 @@
     </row>
     <row r="8" spans="1:10" s="58" customFormat="1" ht="39">
       <c r="A8" s="29" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1">
       <c r="A9" s="62" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B9" s="63">
         <v>0</v>
@@ -8908,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="F9" s="63">
         <v>0</v>
@@ -8928,7 +9251,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1">
       <c r="A10" s="62" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B10" s="63">
         <v>0</v>
@@ -8940,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="F10" s="63">
         <v>0</v>
@@ -8960,7 +9283,7 @@
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
       <c r="A11" s="62" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B11" s="63">
         <v>0</v>
@@ -8972,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="F11" s="63">
         <v>0</v>
@@ -8992,7 +9315,7 @@
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1">
       <c r="A12" s="62" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B12" s="63">
         <v>0</v>
@@ -9004,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="F12" s="63">
         <v>0</v>
@@ -9024,7 +9347,7 @@
     </row>
     <row r="13" spans="1:10" s="61" customFormat="1">
       <c r="A13" s="64" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="B13" s="65">
         <v>0</v>
@@ -9036,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="F13" s="65">
         <v>0</v>
@@ -9056,7 +9379,7 @@
     </row>
     <row r="14" spans="1:10" s="58" customFormat="1">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9068,7 +9391,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -9088,7 +9411,7 @@
     </row>
     <row r="15" spans="1:10" s="58" customFormat="1">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -9100,7 +9423,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -9120,7 +9443,7 @@
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -9132,7 +9455,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -9152,7 +9475,7 @@
     </row>
     <row r="17" spans="1:10" s="58" customFormat="1">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -9164,7 +9487,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -9184,7 +9507,7 @@
     </row>
     <row r="18" spans="1:10" s="58" customFormat="1">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -9196,7 +9519,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -9216,7 +9539,7 @@
     </row>
     <row r="19" spans="1:10" s="58" customFormat="1">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -9228,7 +9551,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -9248,7 +9571,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -9261,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -9281,7 +9604,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9294,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -9314,7 +9637,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -9327,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -9347,7 +9670,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -9360,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -9380,7 +9703,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -9393,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -9413,7 +9736,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -9426,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -9446,7 +9769,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -9459,7 +9782,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -9479,7 +9802,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -9492,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -9512,7 +9835,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -9525,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -9545,7 +9868,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -9558,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -9578,7 +9901,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -9591,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -9611,7 +9934,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -9624,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -9644,7 +9967,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -9657,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -9677,7 +10000,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -9690,7 +10013,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -9710,7 +10033,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -9723,7 +10046,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -9743,7 +10066,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -9756,7 +10079,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -9776,7 +10099,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -9789,7 +10112,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -9809,7 +10132,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -9822,7 +10145,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -9842,7 +10165,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -9855,7 +10178,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -9875,7 +10198,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -9888,7 +10211,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -9908,7 +10231,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -9921,7 +10244,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -9941,7 +10264,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -9954,7 +10277,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -9974,7 +10297,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -9987,7 +10310,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -10007,7 +10330,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -10020,7 +10343,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -10040,7 +10363,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -10053,7 +10376,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -10073,7 +10396,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -10086,7 +10409,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -10106,7 +10429,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -10119,7 +10442,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -10139,7 +10462,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -10152,7 +10475,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -10172,7 +10495,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -10185,7 +10508,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -10205,20 +10528,20 @@
     </row>
     <row r="69" spans="1:15">
       <c r="O69" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="B74" s="55">
         <f>AVERAGE(J9:J13)</f>
@@ -10231,7 +10554,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="58" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B75" s="55">
         <f>J27</f>
@@ -10244,7 +10567,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B76" s="55">
         <f>AVERAGE(J20:J25)</f>
@@ -10257,7 +10580,7 @@
     </row>
     <row r="77" spans="1:15" ht="39">
       <c r="A77" s="52" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B77" s="55">
         <f>AVERAGE(J14:J19)</f>
@@ -10270,7 +10593,7 @@
     </row>
     <row r="78" spans="1:15" ht="39">
       <c r="A78" s="52" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B78" s="55">
         <f>AVERAGE(J43:J46)</f>
@@ -10283,7 +10606,7 @@
     </row>
     <row r="79" spans="1:15" ht="39">
       <c r="A79" s="52" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B79" s="55">
         <f>AVERAGE(J34:J42)</f>
@@ -10324,50 +10647,50 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="53" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="54" customFormat="1" ht="39">
       <c r="A5" s="54" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B5" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="54" t="s">
-        <v>68</v>
-      </c>
       <c r="D5" s="54" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -10406,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -10517,7 +10840,7 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -10556,7 +10879,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -10822,10 +11145,10 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -10837,7 +11160,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -10861,12 +11184,12 @@
         <v>32</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -10883,7 +11206,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20">
@@ -10900,7 +11223,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -10921,7 +11244,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B8" s="19">
         <v>2070.8984270000001</v>
@@ -10938,7 +11261,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B9" s="19">
         <v>1095.4940549999999</v>
@@ -10965,7 +11288,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -10986,7 +11309,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -11007,7 +11330,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B12" s="23">
         <v>1583.1962410000001</v>
@@ -11048,10 +11371,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11060,34 +11383,313 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26">
+    <row r="1" spans="1:11" ht="26">
       <c r="A1" s="69" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>162</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>120</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>9040</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="55">
+        <f>5381.41839004/60</f>
+        <v>89.690306500666665</v>
+      </c>
+      <c r="K2">
+        <f>STDEV(E10:E11)/60</f>
+        <v>0.6148831095740992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <f>9040/60</f>
+        <v>150.66666666666666</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <f>AVERAGE(E5:E9)/60</f>
+        <v>112.92129043976666</v>
+      </c>
+      <c r="K4">
+        <f>STDEV(E5:E9)/60</f>
+        <v>1.5771571758810281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>6667.9942650800003</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5">
+        <f>E13/60</f>
+        <v>116.01945190033332</v>
+      </c>
+      <c r="K5" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="55">
+        <v>6726.6931519500004</v>
+      </c>
+      <c r="F6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="55">
+        <v>6773.2417349799998</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>6785.3887209900004</v>
+      </c>
+      <c r="F8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="55">
+        <v>6923.0692589299997</v>
+      </c>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="55">
+        <v>5381.4183900400003</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" s="55">
+        <v>5433.5929520099999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>6961.1671140199996</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/papers/cloudcom10/performance/namd_runs.xlsx
+++ b/papers/cloudcom10/performance/namd_runs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="32240" windowHeight="22540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="32240" windowHeight="22540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NAMD Runtimes" sheetId="1" r:id="rId1"/>
@@ -31,23 +31,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="195">
-  <si>
-    <t>Condor Pool         8cr/8rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONI 8cr/6rp
-Science Cloud      8cr/2rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONI 8cr/4rp 
-Condor P.         8cr/4rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU Time (in sec)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="199">
+  <si>
+    <t>Number Instances</t>
+  </si>
+  <si>
+    <t>Daten</t>
+  </si>
+  <si>
+    <t>LONI/Condor</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grid (Poseidon - adjusted)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Science Cloud</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condor Pool</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -55,129 +71,180 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>LONI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gesamt: Summe - Number Instances</t>
-  </si>
-  <si>
-    <t>Cores</t>
+    <t>Condor Ressourcen</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condor Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Size</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>m1.large</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>QB (MPI)</t>
+  </si>
+  <si>
+    <t>QB (MPI)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Instances</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_RUNTIME (in min)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Period (in min)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Cloud Pilots</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Pilot Size</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime (in min)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t># Nimbus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stdev (drop maxima)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Runtime (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon, Oliver</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon (CHARM)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 core</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Number Cores (Total)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m1.large)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runs a Workload of 8 replicas in a fixed distribution</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t># TG</t>
+  </si>
+  <si>
+    <t># Nimbus</t>
+  </si>
+  <si>
+    <t># Condor</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>small</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>QB (CHARM)</t>
-  </si>
-  <si>
-    <t>QB (CHARM)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mittelwert - Walltime (in sec)</t>
-  </si>
-  <si>
-    <t>Number Cores (Total)</t>
-  </si>
-  <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>Gesamtergebnis</t>
-  </si>
-  <si>
-    <t>EC2 (c1.xlarge)</t>
-  </si>
-  <si>
-    <t>EC2 (m1.large)</t>
-  </si>
-  <si>
-    <t>EUCA (Indiana)</t>
-  </si>
-  <si>
-    <t>Nimbus (Chicago)</t>
-  </si>
-  <si>
-    <t>f N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neuer Run 02.08.10</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (cc1)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>4 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>1 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>2 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>4 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>Summe - Number Instances</t>
-  </si>
-  <si>
-    <t>Average (drop maxima)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus (Chicago)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (c1.xlarge)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walltime (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Times</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Time (in s)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
+    <t>EU</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -185,112 +252,7 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Asia</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>US</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mittelwert </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standardabweichung</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU/Asia/US</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-  </si>
-  <si>
-    <t>small</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Size</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Nodes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deployment Initiation (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Azure</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Jobs</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stddev</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mittelwert - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Gesamt: Mittelwert - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Gesamt: STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>Gesamt: Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAGA Pilot Sub-Job Runtime</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead (in s)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead (in %)</t>
+    <t>First SubJob Active (in sec)</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -524,10 +486,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>First SubJob Active (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>Poseidon</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -585,33 +543,25 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Number Instances</t>
-  </si>
-  <si>
-    <t>Daten</t>
-  </si>
-  <si>
-    <t>LONI/Condor</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oliver</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid (Poseidon - adjusted)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Science Cloud</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condor Pool</t>
+    <t>Condor Pool         8cr/8rp</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI 8cr/6rp
+Science Cloud      8cr/2rp</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI 8cr/4rp 
+Condor P.         8cr/4rp</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU Time (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -619,172 +569,238 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>Gesamt: Summe - Number Instances</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB (CHARM)</t>
+  </si>
+  <si>
+    <t>QB (CHARM)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mittelwert - Walltime (in sec)</t>
+  </si>
+  <si>
+    <t>Number Cores (Total)</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>EC2 (c1.xlarge)</t>
+  </si>
+  <si>
+    <t>EC2 (m1.large)</t>
+  </si>
+  <si>
+    <t>EUCA (Indiana)</t>
+  </si>
+  <si>
+    <t>Nimbus (Chicago)</t>
+  </si>
+  <si>
+    <t>f N</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuer Run 02.08.10</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (cc1)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>4 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>1 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>2 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>4 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>Summe - Number Instances</t>
+  </si>
+  <si>
+    <t>Average (drop maxima)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus (Chicago)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (c1.xlarge)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walltime (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Times</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Time (in s)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mittelwert </t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU/Asia/US</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condor Ressourcen</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condor Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job Size</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>QB (MPI)</t>
-  </si>
-  <si>
-    <t>QB (MPI)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>US</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Region</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Instances</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX_RUNTIME (in min)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check Period (in min)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Cloud Pilots</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud Pilot Size</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in min)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t># Nimbus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stdev (drop maxima)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ergebnis</t>
-  </si>
-  <si>
-    <t>Runtime (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon, Oliver</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oliver</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Size</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Nodes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment Initiation (in sec)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 Number Cores</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Jobs</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stddev</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mittelwert - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Gesamt: Mittelwert - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Gesamt: STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>Gesamt: Mittelwert - Startup Time (in s)2</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon (CHARM)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 core</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nodes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Number Cores (Total)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m1.large)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runs a Workload of 8 replicas in a fixed distribution</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t># TG</t>
-  </si>
-  <si>
-    <t># Nimbus</t>
-  </si>
-  <si>
-    <t># Condor</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAGA Pilot Sub-Job Runtime</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead (in s)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead (in %)</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1198,7 +1214,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$117)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$122)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1215,14 +1231,14 @@
                     <c:v>1.528124613752805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>74.22758307468693</c:v>
+                    <c:v>69.73279672374871</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$117)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$122)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1239,7 +1255,7 @@
                     <c:v>1.528124613752805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>74.22758307468693</c:v>
+                    <c:v>69.73279672374871</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1247,7 +1263,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$116)</c:f>
+              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$121)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1270,7 +1286,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$116)</c:f>
+              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$121)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1287,17 +1303,17 @@
                   <c:v>331.2142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.5867772134374</c:v>
+                  <c:v>569.536880438857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="647035032"/>
-        <c:axId val="647043016"/>
+        <c:axId val="655960856"/>
+        <c:axId val="655967624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="647035032"/>
+        <c:axId val="655960856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,14 +1329,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647043016"/>
+        <c:crossAx val="655967624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="647043016"/>
+        <c:axId val="655967624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1366,7 +1382,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647035032"/>
+        <c:crossAx val="655960856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,7 +1421,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$117)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$122)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1422,14 +1438,14 @@
                     <c:v>1.528124613752805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>74.22758307468693</c:v>
+                    <c:v>69.73279672374871</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$117)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$122)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1446,7 +1462,7 @@
                     <c:v>1.528124613752805</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>74.22758307468693</c:v>
+                    <c:v>69.73279672374871</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1454,7 +1470,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$116)</c:f>
+              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$121)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1477,7 +1493,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$116)</c:f>
+              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$121)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1494,17 +1510,17 @@
                   <c:v>331.2142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>583.5867772134374</c:v>
+                  <c:v>569.536880438857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="647096216"/>
-        <c:axId val="647115256"/>
+        <c:axId val="656046776"/>
+        <c:axId val="656049832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="647096216"/>
+        <c:axId val="656046776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,14 +1536,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647115256"/>
+        <c:crossAx val="656049832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="647115256"/>
+        <c:axId val="656049832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1573,7 +1589,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647096216"/>
+        <c:crossAx val="656046776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1649,11 +1665,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="647172344"/>
-        <c:axId val="647163368"/>
+        <c:axId val="656113736"/>
+        <c:axId val="656104760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="647172344"/>
+        <c:axId val="656113736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,14 +1685,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647163368"/>
+        <c:crossAx val="656104760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="647163368"/>
+        <c:axId val="656104760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1711,7 +1727,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="647172344"/>
+        <c:crossAx val="656113736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1867,11 +1883,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="630951512"/>
-        <c:axId val="630933256"/>
+        <c:axId val="656153832"/>
+        <c:axId val="656174088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="630951512"/>
+        <c:axId val="656153832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,14 +1928,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630933256"/>
+        <c:crossAx val="656174088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630933256"/>
+        <c:axId val="656174088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1970,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630951512"/>
+        <c:crossAx val="656153832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2001,13 +2017,13 @@
                     <c:v>0.614883109574099</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0</c:v>
+                    <c:v>1.036838236604875</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>1.577157175881028</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0</c:v>
+                    <c:v>2.407508079111362</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2022,13 +2038,13 @@
                     <c:v>0.614883109574099</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.0</c:v>
+                    <c:v>1.036838236604875</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>1.577157175881028</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.0</c:v>
+                    <c:v>2.407508079111362</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2064,7 +2080,7 @@
                   <c:v>89.69030650066666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.6666666666667</c:v>
+                  <c:v>87.41732799751515</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>112.9212904397667</c:v>
@@ -2076,25 +2092,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="647292424"/>
-        <c:axId val="647290504"/>
+        <c:axId val="656214232"/>
+        <c:axId val="656231512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="647292424"/>
+        <c:axId val="656214232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="647290504"/>
+        <c:crossAx val="656231512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="647290504"/>
+        <c:axId val="656231512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2135,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="647292424"/>
+        <c:crossAx val="656214232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2281,13 +2296,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2364,6 +2379,56 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Torsten Meier" refreshedDate="38663.816388888888" refreshedVersion="3" recordCount="16">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A30:D46" sheet="Setup Times"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Instance" numFmtId="0">
+      <sharedItems count="2">
+        <s v="2 cores"/>
+        <s v="2 core"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Number Instances" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Number Cores" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8" count="3">
+        <n v="2"/>
+        <n v="4"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Startup Time (in s)" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="276.08450388900002" maxValue="472.14579200700001" count="16">
+        <n v="313.49457287799999"/>
+        <n v="295.03079795000002"/>
+        <n v="276.08450388900002"/>
+        <n v="314.97212505300001"/>
+        <n v="315.11944603900002"/>
+        <n v="305.19036102299998"/>
+        <n v="365.65275192299998"/>
+        <n v="472.14579200700001"/>
+        <n v="397.81742381999999"/>
+        <n v="376.035724878"/>
+        <n v="372.41291689899998"/>
+        <n v="373.65681600599999"/>
+        <n v="362.95128488500001"/>
+        <n v="376.37267208100002"/>
+        <n v="361.68812417999999"/>
+        <n v="381.790049076"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Torsten Meier" refreshedDate="38663.819236111114" refreshedVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource ref="A53:E73" sheet="Setup Times"/>
@@ -2435,56 +2500,6 @@
         <d v="1904-01-01T18:55:00"/>
         <d v="1904-01-01T19:30:00"/>
         <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Torsten Meier" refreshedDate="38663.816388888888" refreshedVersion="3" recordCount="16">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A30:D46" sheet="Setup Times"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Instance" numFmtId="0">
-      <sharedItems count="2">
-        <s v="2 cores"/>
-        <s v="2 core"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Number Instances" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Number Cores" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8" count="3">
-        <n v="2"/>
-        <n v="4"/>
-        <n v="8"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Startup Time (in s)" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="276.08450388900002" maxValue="472.14579200700001" count="16">
-        <n v="313.49457287799999"/>
-        <n v="295.03079795000002"/>
-        <n v="276.08450388900002"/>
-        <n v="314.97212505300001"/>
-        <n v="315.11944603900002"/>
-        <n v="305.19036102299998"/>
-        <n v="365.65275192299998"/>
-        <n v="472.14579200700001"/>
-        <n v="397.81742381999999"/>
-        <n v="376.035724878"/>
-        <n v="372.41291689899998"/>
-        <n v="373.65681600599999"/>
-        <n v="362.95128488500001"/>
-        <n v="376.37267208100002"/>
-        <n v="361.68812417999999"/>
-        <n v="381.790049076"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2655,6 +2670,107 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="15"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
   <r>
     <x v="0"/>
@@ -2795,107 +2911,6 @@
     <x v="3"/>
     <x v="19"/>
     <x v="19"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="15"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3218,7 +3233,75 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="G53:I63" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="5">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Mittelwert - Startup Time (in s)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="STABW - Startup Time (in s)" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
+  </dataFields>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="G30:J44" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -3300,74 +3383,6 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Mittelwert - Startup Time (in s)2" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="STABW - Startup Time (in s)" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
-  </dataFields>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="G53:I63" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="5">
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Mittelwert - Startup Time (in s)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="STABW - Startup Time (in s)" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
 </pivotTableDefinition>
@@ -3892,12 +3907,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -3905,36 +3920,36 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>189</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3954,7 +3969,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3974,7 +3989,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3994,7 +4009,7 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4014,7 +4029,7 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4034,7 +4049,7 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -4054,7 +4069,7 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4074,7 +4089,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4094,7 +4109,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -4114,7 +4129,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4134,7 +4149,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4154,7 +4169,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4174,7 +4189,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4194,7 +4209,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -4214,7 +4229,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -4234,7 +4249,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -4254,7 +4269,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4285,7 +4300,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4316,7 +4331,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -4347,7 +4362,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -4370,7 +4385,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4393,7 +4408,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -4414,7 +4429,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -4435,7 +4450,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -4456,7 +4471,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -4477,7 +4492,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -4498,7 +4513,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -4519,7 +4534,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -4540,7 +4555,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -4561,7 +4576,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -4582,7 +4597,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -4603,7 +4618,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -4624,7 +4639,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -4645,7 +4660,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="44" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B38" s="44">
         <v>2</v>
@@ -4666,7 +4681,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -4687,7 +4702,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -4708,7 +4723,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -4729,7 +4744,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -4750,7 +4765,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -4771,7 +4786,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4792,7 +4807,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4813,7 +4828,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4844,7 +4859,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4875,7 +4890,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -4896,7 +4911,7 @@
     </row>
     <row r="49" spans="1:8" s="41" customFormat="1">
       <c r="A49" s="41" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B49" s="41">
         <v>2</v>
@@ -4917,7 +4932,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="39" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B50" s="39">
         <v>4</v>
@@ -4938,7 +4953,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -4959,7 +4974,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -4980,7 +4995,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -5001,7 +5016,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -5022,7 +5037,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -5043,7 +5058,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -5064,7 +5079,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -5085,7 +5100,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -5106,7 +5121,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -5127,7 +5142,7 @@
     </row>
     <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5148,7 +5163,7 @@
     </row>
     <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -5160,7 +5175,7 @@
     </row>
     <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -5172,7 +5187,7 @@
     </row>
     <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -5184,7 +5199,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5205,7 +5220,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5226,7 +5241,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5257,7 +5272,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5288,7 +5303,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -5319,7 +5334,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -5342,7 +5357,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -5365,7 +5380,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -5388,7 +5403,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -5411,7 +5426,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -5434,7 +5449,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -5457,7 +5472,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5480,7 +5495,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -5503,7 +5518,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -5526,7 +5541,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -5549,7 +5564,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -5572,7 +5587,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -5595,7 +5610,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -5618,7 +5633,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -5641,7 +5656,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -5664,7 +5679,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5684,7 +5699,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5704,7 +5719,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5724,7 +5739,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5744,7 +5759,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -5764,7 +5779,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -5784,7 +5799,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -5804,7 +5819,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -5824,7 +5839,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5844,7 +5859,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -5864,7 +5879,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -5884,7 +5899,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -5908,12 +5923,12 @@
     <row r="100" spans="1:6" s="66" customFormat="1"/>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -5933,7 +5948,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5953,7 +5968,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5973,7 +5988,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -5993,7 +6008,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -6013,7 +6028,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -6033,7 +6048,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6053,7 +6068,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -6073,7 +6088,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -6093,7 +6108,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -6113,7 +6128,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -6133,7 +6148,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -6153,7 +6168,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -6173,7 +6188,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -6193,7 +6208,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -6213,7 +6228,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -6233,7 +6248,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -6253,7 +6268,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6273,7 +6288,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -6293,7 +6308,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6313,7 +6328,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -6333,7 +6348,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -6353,7 +6368,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -6373,7 +6388,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -6393,7 +6408,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -6424,10 +6439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:C112"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6442,45 +6457,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6495,7 +6510,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="I6" s="17">
         <v>221.43898490266665</v>
@@ -6503,7 +6518,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6519,7 +6534,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="I7" s="21">
         <v>27.888301147358074</v>
@@ -6527,7 +6542,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6543,7 +6558,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="18" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="I8" s="21">
         <v>6</v>
@@ -6551,7 +6566,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6569,7 +6584,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="I9" s="17">
         <v>230.1513251065</v>
@@ -6577,7 +6592,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6593,7 +6608,7 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="I10" s="21">
         <v>21.442701960879447</v>
@@ -6601,7 +6616,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6617,7 +6632,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="18" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="I11" s="21">
         <v>4</v>
@@ -6625,7 +6640,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -6643,7 +6658,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="I12" s="17">
         <v>524.47522211100011</v>
@@ -6651,7 +6666,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -6667,7 +6682,7 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="I13" s="21">
         <v>249.37176975472715</v>
@@ -6675,7 +6690,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -6691,7 +6706,7 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="18" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="I14" s="21">
         <v>32</v>
@@ -6699,7 +6714,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -6717,7 +6732,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="I15" s="17">
         <v>338.08045351500004</v>
@@ -6725,7 +6740,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -6741,7 +6756,7 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="I16" s="21">
         <v>46.784586737362908</v>
@@ -6749,7 +6764,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -6765,7 +6780,7 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="18" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="I17" s="21">
         <v>16</v>
@@ -6773,7 +6788,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -6788,7 +6803,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="17">
@@ -6797,7 +6812,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -6812,7 +6827,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="17">
@@ -6821,7 +6836,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6836,7 +6851,7 @@
         <v>0.75</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="25">
@@ -6845,7 +6860,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6862,7 +6877,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -6879,7 +6894,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -6896,7 +6911,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -6913,7 +6928,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -6930,19 +6945,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="C26" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="D26" s="2">
         <f>AVERAGE(D6:D25)</f>
         <v>373.44653231864999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="D27" s="2">
         <f>STDEV(D6:D25)</f>
@@ -6952,42 +6967,42 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="26" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7005,7 +7020,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="J31" s="17">
         <v>302.94028916180002</v>
@@ -7013,7 +7028,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7030,7 +7045,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="J32" s="21">
         <v>17.23574117758357</v>
@@ -7038,7 +7053,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7053,7 +7068,7 @@
         <v>0.5625</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -7063,7 +7078,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7078,7 +7093,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -7088,7 +7103,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7109,7 +7124,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="J35" s="17">
         <v>305.19036102299998</v>
@@ -7117,7 +7132,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -7135,7 +7150,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="J36" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7143,7 +7158,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -7159,7 +7174,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -7169,7 +7184,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -7185,7 +7200,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -7195,7 +7210,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -7217,7 +7232,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="J39" s="17">
         <v>384.05235557549997</v>
@@ -7225,7 +7240,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -7243,7 +7258,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="J40" s="21">
         <v>32.66972061151673</v>
@@ -7251,7 +7266,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -7267,7 +7282,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -7277,7 +7292,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -7292,7 +7307,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -7302,7 +7317,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -7317,7 +7332,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -7327,7 +7342,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -7342,7 +7357,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -7352,7 +7367,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -7369,7 +7384,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -7386,7 +7401,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -7401,19 +7416,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="C48" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="D48" s="2">
         <f>AVERAGE(D30:D47)</f>
         <v>356.83130192700003</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>148</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="C49" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="D49" s="2">
         <f>STDEV(D31:D47)</f>
@@ -7430,40 +7445,40 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="B52" s="26"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -7481,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="I54" s="17">
         <v>14.1872649193</v>
@@ -7489,7 +7504,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -7505,7 +7520,7 @@
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="I55" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7513,7 +7528,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7531,7 +7546,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="I56" s="17">
         <v>44.782275199920001</v>
@@ -7539,7 +7554,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -7555,7 +7570,7 @@
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="I57" s="21">
         <v>15.843792242505828</v>
@@ -7563,7 +7578,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -7581,7 +7596,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="I58" s="17">
         <v>56.964924156674996</v>
@@ -7589,7 +7604,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -7605,7 +7620,7 @@
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="I59" s="21">
         <v>9.4994883808250847</v>
@@ -7613,7 +7628,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -7631,7 +7646,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="I60" s="17">
         <v>187.55037531850999</v>
@@ -7639,7 +7654,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -7655,7 +7670,7 @@
       </c>
       <c r="G61" s="32"/>
       <c r="H61" s="18" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="I61" s="21">
         <v>179.97433590633514</v>
@@ -7663,7 +7678,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -7678,7 +7693,7 @@
         <v>0.59236111111111112</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="17">
@@ -7687,7 +7702,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -7702,7 +7717,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="25">
@@ -7711,7 +7726,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -7728,7 +7743,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -7745,7 +7760,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -7762,7 +7777,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -7779,7 +7794,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -7796,7 +7811,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -7813,7 +7828,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -7830,7 +7845,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -7847,7 +7862,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -7864,7 +7879,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -7879,36 +7894,36 @@
     </row>
     <row r="74" spans="1:10">
       <c r="C74" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D74" s="2">
         <f>AVERAGE(D54:D73)</f>
         <v>117.073104536535</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="H74" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="I74" s="55">
         <f>AVERAGE(D54:D63,D65:D66,D68:D70,D73)</f>
         <v>53.003791779293749</v>
       </c>
       <c r="J74" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="C75" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="D75" s="2">
         <f>STDEV(D54:D73)</f>
         <v>143.93518726021225</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="I75" s="55">
         <f>STDEV(D54:D63,D65:D66,D68:D70,D73)</f>
@@ -7924,26 +7939,26 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="26" t="s">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -7957,7 +7972,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -7971,7 +7986,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -7985,7 +8000,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -7999,7 +8014,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8013,7 +8028,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -8027,7 +8042,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -8041,7 +8056,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -8055,7 +8070,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -8069,7 +8084,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -8083,7 +8098,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -8097,7 +8112,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -8111,7 +8126,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -8125,7 +8140,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -8143,7 +8158,7 @@
         <v>331.21428571428572</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -8157,29 +8172,29 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="68" t="s">
-        <v>54</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="67" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8194,12 +8209,12 @@
         <v>540.78749203699999</v>
       </c>
       <c r="F100" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8214,12 +8229,12 @@
         <v>535.53545093499997</v>
       </c>
       <c r="F101" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -8234,12 +8249,12 @@
         <v>545.29999999999995</v>
       </c>
       <c r="F102" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -8254,12 +8269,12 @@
         <v>803.84470940000006</v>
       </c>
       <c r="F103" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8274,12 +8289,12 @@
         <v>513.75138115899995</v>
       </c>
       <c r="F104" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8294,12 +8309,12 @@
         <v>533.84486103100005</v>
       </c>
       <c r="F105" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -8314,12 +8329,12 @@
         <v>530.13947606099998</v>
       </c>
       <c r="F106" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8334,12 +8349,12 @@
         <v>540.12562584900002</v>
       </c>
       <c r="F107" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B108">
         <v>16</v>
@@ -8354,12 +8369,12 @@
         <v>640.48868703799997</v>
       </c>
       <c r="F108" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B109">
         <v>16</v>
@@ -8374,12 +8389,12 @@
         <v>514.74440503100004</v>
       </c>
       <c r="F109" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B110">
         <v>16</v>
@@ -8389,15 +8404,15 @@
       </c>
       <c r="D110" s="55"/>
       <c r="E110" s="55">
-        <v>607.65833091699994</v>
-      </c>
-      <c r="F110" s="55" t="s">
-        <v>163</v>
+        <v>535.21085310000001</v>
+      </c>
+      <c r="F110" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="B111">
         <v>16</v>
@@ -8407,15 +8422,15 @@
       </c>
       <c r="D111" s="55"/>
       <c r="E111" s="55">
-        <v>596.06263589900004</v>
+        <v>607.65833091699994</v>
       </c>
       <c r="F111" s="55" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -8425,86 +8440,176 @@
       </c>
       <c r="D112" s="55"/>
       <c r="E112" s="55">
-        <v>547.03834199899995</v>
+        <v>596.06263589900004</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C113">
-        <v>8</v>
-      </c>
-      <c r="D113" s="55">
-        <v>103.42702317200001</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D113" s="55"/>
       <c r="E113" s="55">
-        <v>621.78100585899995</v>
+        <v>547.03834199899995</v>
+      </c>
+      <c r="F113" s="55" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C114">
-        <v>8</v>
-      </c>
-      <c r="D114" s="55">
-        <v>102.724663019</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D114" s="55"/>
       <c r="E114" s="55">
-        <v>635.45893716800003</v>
-      </c>
-      <c r="F114" s="55"/>
-      <c r="H114" s="2"/>
+        <v>527.22448778199998</v>
+      </c>
+      <c r="F114" s="55" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C115">
         <v>16</v>
       </c>
-      <c r="D115" s="55">
+      <c r="D115" s="55"/>
+      <c r="E115" s="55">
+        <v>547.03834199899995</v>
+      </c>
+      <c r="F115" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>178</v>
+      </c>
+      <c r="B116">
+        <v>16</v>
+      </c>
+      <c r="C116">
+        <v>16</v>
+      </c>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55">
+        <v>500.43472504599998</v>
+      </c>
+      <c r="F116" s="55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>16</v>
+      </c>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55">
+        <v>512.97764587400002</v>
+      </c>
+      <c r="F117" s="55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="D118" s="55">
+        <v>103.42702317200001</v>
+      </c>
+      <c r="E118" s="55">
+        <v>621.78100585899995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119" s="55">
+        <v>102.724663019</v>
+      </c>
+      <c r="E119" s="55">
+        <v>635.45893716800003</v>
+      </c>
+      <c r="F119" s="55"/>
+      <c r="H119" s="2"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>108</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>16</v>
+      </c>
+      <c r="D120" s="55">
         <v>93.759625911699999</v>
       </c>
-      <c r="E115" s="55">
+      <c r="E120" s="55">
         <v>630.82709503199999</v>
       </c>
-      <c r="F115" s="55"/>
-      <c r="H115" s="55"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="D116" t="s">
-        <v>123</v>
-      </c>
-      <c r="E116" s="55">
-        <f>AVERAGE(E100:E115)</f>
-        <v>583.58677721343747</v>
-      </c>
-      <c r="F116" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="D117" t="s">
-        <v>124</v>
-      </c>
-      <c r="E117">
-        <f>STDEV(E100:E115)</f>
-        <v>74.227583074686933</v>
+      <c r="F120" s="55"/>
+      <c r="H120" s="55"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="D121" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" s="55">
+        <f>AVERAGE(E100:E120)</f>
+        <v>569.53688043885711</v>
+      </c>
+      <c r="F121" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="D122" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122">
+        <f>STDEV(E100:E120)</f>
+        <v>69.732796723748706</v>
       </c>
     </row>
   </sheetData>
@@ -8541,69 +8646,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="28" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="28" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8638,13 +8743,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8679,13 +8784,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B8" s="31">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8720,7 +8825,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -8758,7 +8863,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -8793,7 +8898,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -8834,7 +8939,7 @@
     </row>
     <row r="12" spans="1:14" s="49" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="49" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B12" s="49">
         <v>32</v>
@@ -8875,7 +8980,7 @@
     </row>
     <row r="13" spans="1:14" ht="40" thickTop="1">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -8906,12 +9011,12 @@
         <v>2</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -8942,12 +9047,12 @@
         <v>2</v>
       </c>
       <c r="N14" s="52" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B15" s="41">
         <v>16</v>
@@ -8978,12 +9083,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -9014,12 +9119,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="52" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -9052,7 +9157,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -9085,7 +9190,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -9124,16 +9229,17 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="28" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9161,17 +9267,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="56" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -9179,7 +9285,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -9187,39 +9293,39 @@
     </row>
     <row r="8" spans="1:10" s="58" customFormat="1" ht="39">
       <c r="A8" s="29" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1">
       <c r="A9" s="62" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="B9" s="63">
         <v>0</v>
@@ -9231,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="F9" s="63">
         <v>0</v>
@@ -9251,7 +9357,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1">
       <c r="A10" s="62" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="B10" s="63">
         <v>0</v>
@@ -9263,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="F10" s="63">
         <v>0</v>
@@ -9283,7 +9389,7 @@
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
       <c r="A11" s="62" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="B11" s="63">
         <v>0</v>
@@ -9295,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="F11" s="63">
         <v>0</v>
@@ -9315,7 +9421,7 @@
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1">
       <c r="A12" s="62" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="B12" s="63">
         <v>0</v>
@@ -9327,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>67</v>
+        <v>195</v>
       </c>
       <c r="F12" s="63">
         <v>0</v>
@@ -9347,7 +9453,7 @@
     </row>
     <row r="13" spans="1:10" s="61" customFormat="1">
       <c r="A13" s="64" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="B13" s="65">
         <v>0</v>
@@ -9359,7 +9465,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="F13" s="65">
         <v>0</v>
@@ -9379,7 +9485,7 @@
     </row>
     <row r="14" spans="1:10" s="58" customFormat="1">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9391,7 +9497,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -9411,7 +9517,7 @@
     </row>
     <row r="15" spans="1:10" s="58" customFormat="1">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -9423,7 +9529,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -9443,7 +9549,7 @@
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -9455,7 +9561,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -9475,7 +9581,7 @@
     </row>
     <row r="17" spans="1:10" s="58" customFormat="1">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -9487,7 +9593,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -9507,7 +9613,7 @@
     </row>
     <row r="18" spans="1:10" s="58" customFormat="1">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -9519,7 +9625,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -9539,7 +9645,7 @@
     </row>
     <row r="19" spans="1:10" s="58" customFormat="1">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -9551,7 +9657,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -9571,7 +9677,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -9584,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -9604,7 +9710,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9617,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -9637,7 +9743,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -9650,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -9670,7 +9776,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -9683,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -9703,7 +9809,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -9716,7 +9822,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -9736,7 +9842,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -9749,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -9769,7 +9875,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -9782,7 +9888,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -9802,7 +9908,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -9815,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -9835,7 +9941,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -9848,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -9868,7 +9974,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -9881,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -9901,7 +10007,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -9914,7 +10020,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -9934,7 +10040,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -9947,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -9967,7 +10073,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -9980,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -10000,7 +10106,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -10013,7 +10119,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -10033,7 +10139,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -10046,7 +10152,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -10066,7 +10172,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -10079,7 +10185,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -10099,7 +10205,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -10112,7 +10218,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -10132,7 +10238,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -10145,7 +10251,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -10165,7 +10271,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -10178,7 +10284,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -10198,7 +10304,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -10211,7 +10317,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -10231,7 +10337,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -10244,7 +10350,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -10264,7 +10370,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -10277,7 +10383,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -10297,7 +10403,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -10310,7 +10416,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -10330,7 +10436,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -10343,7 +10449,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -10363,7 +10469,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -10376,7 +10482,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -10396,7 +10502,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -10409,7 +10515,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -10429,7 +10535,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -10442,7 +10548,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -10462,7 +10568,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -10475,7 +10581,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -10495,7 +10601,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -10508,7 +10614,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -10528,20 +10634,20 @@
     </row>
     <row r="69" spans="1:15">
       <c r="O69" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B74" s="55">
         <f>AVERAGE(J9:J13)</f>
@@ -10554,7 +10660,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="58" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B75" s="55">
         <f>J27</f>
@@ -10567,7 +10673,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B76" s="55">
         <f>AVERAGE(J20:J25)</f>
@@ -10580,7 +10686,7 @@
     </row>
     <row r="77" spans="1:15" ht="39">
       <c r="A77" s="52" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="B77" s="55">
         <f>AVERAGE(J14:J19)</f>
@@ -10593,7 +10699,7 @@
     </row>
     <row r="78" spans="1:15" ht="39">
       <c r="A78" s="52" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B78" s="55">
         <f>AVERAGE(J43:J46)</f>
@@ -10606,7 +10712,7 @@
     </row>
     <row r="79" spans="1:15" ht="39">
       <c r="A79" s="52" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B79" s="55">
         <f>AVERAGE(J34:J42)</f>
@@ -10618,6 +10724,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
@@ -10647,50 +10754,50 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="53" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="54" customFormat="1" ht="39">
       <c r="A5" s="54" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>170</v>
+        <v>28</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -10729,7 +10836,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -10840,7 +10947,7 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -10879,7 +10986,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11145,10 +11252,10 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -11160,7 +11267,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -11184,12 +11291,12 @@
         <v>32</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -11206,7 +11313,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20">
@@ -11223,7 +11330,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -11244,7 +11351,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="B8" s="19">
         <v>2070.8984270000001</v>
@@ -11261,7 +11368,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B9" s="19">
         <v>1095.4940549999999</v>
@@ -11288,7 +11395,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -11309,7 +11416,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -11330,7 +11437,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="B12" s="23">
         <v>1583.1962410000001</v>
@@ -11371,10 +11478,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11383,38 +11490,39 @@
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26">
       <c r="A1" s="69" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11425,27 +11533,27 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>9040</v>
+      <c r="E2" s="55">
+        <v>5308.8138790100002</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="J2" s="55">
         <f>5381.41839004/60</f>
         <v>89.690306500666665</v>
       </c>
       <c r="K2">
-        <f>STDEV(E10:E11)/60</f>
+        <f>STDEV(E18:E19)/60</f>
         <v>0.6148831095740992</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11456,23 +11564,27 @@
       <c r="D3">
         <v>4</v>
       </c>
+      <c r="E3" s="55">
+        <v>5352.9993340999999</v>
+      </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="J3">
-        <f>9040/60</f>
-        <v>150.66666666666666</v>
+        <f>AVERAGE(E2:E12)/60</f>
+        <v>87.417327997515159</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <f>STDEV(E2:E12)/60</f>
+        <v>1.0368382366048754</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11483,24 +11595,27 @@
       <c r="D4">
         <v>4</v>
       </c>
+      <c r="E4" s="55">
+        <v>5265.4794118399996</v>
+      </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="J4">
-        <f>AVERAGE(E5:E9)/60</f>
+        <f>AVERAGE(E13:E17)/60</f>
         <v>112.92129043976666</v>
       </c>
       <c r="K4">
-        <f>STDEV(E5:E9)/60</f>
+        <f>STDEV(E13:E17)/60</f>
         <v>1.5771571758810281</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -11511,26 +11626,27 @@
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>6667.9942650800003</v>
+      <c r="E5" s="55">
+        <v>5212.9427988500001</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="J5">
-        <f>E13/60</f>
+        <f>E21/60</f>
         <v>116.01945190033332</v>
       </c>
-      <c r="K5" s="55">
-        <v>0</v>
+      <c r="K5">
+        <f>STDEV(E21:E23)/60</f>
+        <v>2.4075080791113619</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11542,15 +11658,15 @@
         <v>4</v>
       </c>
       <c r="E6" s="55">
-        <v>6726.6931519500004</v>
+        <v>5202.5642039799995</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -11562,15 +11678,15 @@
         <v>4</v>
       </c>
       <c r="E7" s="55">
-        <v>6773.2417349799998</v>
+        <v>5188.3370358900002</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -11581,16 +11697,16 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>6785.3887209900004</v>
+      <c r="E8" s="55">
+        <v>5284.6490089899999</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -11602,15 +11718,15 @@
         <v>4</v>
       </c>
       <c r="E9" s="55">
-        <v>6923.0692589299997</v>
+        <v>5202.49168491</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -11622,15 +11738,15 @@
         <v>4</v>
       </c>
       <c r="E10" s="55">
-        <v>5381.4183900400003</v>
+        <v>5155.4024429299998</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -11642,15 +11758,15 @@
         <v>4</v>
       </c>
       <c r="E11" s="55">
-        <v>5433.5929520099999</v>
+        <v>5212.9427988500001</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11661,13 +11777,16 @@
       <c r="D12">
         <v>4</v>
       </c>
+      <c r="E12" s="55">
+        <v>5308.8138790100002</v>
+      </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -11679,13 +11798,211 @@
         <v>4</v>
       </c>
       <c r="E13">
+        <v>6667.9942650800003</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="55">
+        <v>6726.6931519500004</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="55">
+        <v>6773.2417349799998</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>6785.3887209900004</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" s="55">
+        <v>6923.0692589299997</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18" s="55">
+        <v>5381.4183900400003</v>
+      </c>
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" s="55">
+        <v>5433.5929520099999</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
         <v>6961.1671140199996</v>
       </c>
-      <c r="F13" t="s">
-        <v>47</v>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" s="55">
+        <v>6703.2019269499997</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23" s="55">
+        <v>6944.8268718700001</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/papers/cloudcom10/performance/namd_runs.xlsx
+++ b/papers/cloudcom10/performance/namd_runs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="32240" windowHeight="22540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="32240" windowHeight="22540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NAMD Runtimes" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Deadline" sheetId="8" r:id="rId5"/>
     <sheet name="Pivot" sheetId="4" r:id="rId6"/>
     <sheet name="Repex" sheetId="11" r:id="rId7"/>
+    <sheet name="Azure Data" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="2" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -31,542 +32,491 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="199">
-  <si>
-    <t>Number Instances</t>
-  </si>
-  <si>
-    <t>Daten</t>
-  </si>
-  <si>
-    <t>LONI/Condor</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oliver</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid (Poseidon - adjusted)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Science Cloud</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condor Pool</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="212">
+  <si>
+    <t>Download Time (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth (in Mib/s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth (in MiB/s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload Time (sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (c1.xlarge)</t>
+  </si>
+  <si>
+    <t>EC2 (m1.large)</t>
+  </si>
+  <si>
+    <t>EUCA (Indiana)</t>
+  </si>
+  <si>
+    <t>Nimbus (Chicago)</t>
+  </si>
+  <si>
+    <t>f N</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuer Run 02.08.10</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (cc1)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>4 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>1 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>2 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>4 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>Summe - Number Instances</t>
+  </si>
+  <si>
+    <t>Average (drop maxima)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus (Chicago)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (c1.xlarge)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walltime (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Times</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Time (in s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mittelwert </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU/Asia/US</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condor Ressourcen</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condor Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job Size</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Size</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Nodes</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment Initiation (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Jobs</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stddev</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mittelwert - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Gesamt: Mittelwert - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Gesamt: STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>Gesamt: Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAGA Pilot Sub-Job Runtime</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead (in s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead (in %)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>Download Time (in msec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Size (in bytes)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload Time (msec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same Affinity Zone (EU)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>US/EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMType</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores per Replica</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time-to-Completion (in s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>QB (MPI)</t>
-  </si>
-  <si>
-    <t>QB (MPI)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>US</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Region</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Instances</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX_RUNTIME (in min)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check Period (in min)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Cloud Pilots</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud Pilot Size</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in min)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t># Nimbus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stdev (drop maxima)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ergebnis</t>
-  </si>
-  <si>
-    <t>Runtime (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Time (in s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon, Oliver</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oliver</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon (CHARM)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 core</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nodes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Number Cores (Total)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m1.large)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runs a Workload of 8 replicas in a fixed distribution</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t># TG</t>
-  </si>
-  <si>
-    <t># Nimbus</t>
-  </si>
-  <si>
-    <t># Condor</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>small</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>First SubJob Active (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stddev</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>2 cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUCA (Indiana)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Number Steps: </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAMD Run</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Nodes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queue Time
-Nimbus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Poseidon </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>small</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>VMType</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores per Replica</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time-to-Completion (in s)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Time (in s)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stddev</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LONI 8 core
 Nimbus 8 core</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LONI 8 core 
 Nimbus 16 core</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LONI 16 core
 Nimbus 8 core</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Startup Time (in s)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Instance</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t># Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t># Cloud Pilots</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Start Pilot if not sufficient progress is made</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Deadline Scenario</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Job Size Cloud (in Cores)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Job Size TG (in Cores)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>n/a</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LONI 8cr/8rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LONI 8cr/4rp
 Condor P. 8cr/3rp
 Sci. Cloud 8cr/1rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Science Cloud 8cr/8rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Number Replica</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Number Generations</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>small</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>extralarge</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>extralarge</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Stddev</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Azure</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Startup Time (in s)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Adaptive Scenario</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Time for completion for n jobs</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Jobs run as soon as a resource becomes available</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t># TG</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t># Nimbus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t># EC2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Average</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EC2 m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Nimbus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LONI 16 core
 Nimbus 16 core</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Run ID</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Number Replicas</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Memory (in MB)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Condor Pool         8cr/8rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LONI 8cr/6rp
 Science Cloud      8cr/2rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LONI 8cr/4rp 
 Condor P.         8cr/4rp</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>CPU Time (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>LONI</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Gesamt: Summe - Number Instances</t>
@@ -576,18 +526,18 @@
   </si>
   <si>
     <t>m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>small</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>QB (CHARM)</t>
   </si>
   <si>
     <t>QB (CHARM)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Mittelwert - Walltime (in sec)</t>
@@ -602,206 +552,308 @@
     <t>Gesamtergebnis</t>
   </si>
   <si>
-    <t>EC2 (c1.xlarge)</t>
+    <t>Number Instances</t>
+  </si>
+  <si>
+    <t>Daten</t>
+  </si>
+  <si>
+    <t>LONI/Condor</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grid (Poseidon - adjusted)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Science Cloud</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condor Pool</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condor Ressourcen</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condor Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Size</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB (MPI)</t>
+  </si>
+  <si>
+    <t>QB (MPI)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Instances</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_RUNTIME (in min)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Period (in min)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Cloud Pilots</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Pilot Size</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime (in min)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t># Nimbus</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stdev (drop maxima)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Runtime (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon, Oliver</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon (CHARM)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 core</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodes</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Number Cores (Total)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EC2 (m1.large)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runs a Workload of 8 replicas in a fixed distribution</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t># TG</t>
+  </si>
+  <si>
+    <t># Nimbus</t>
+  </si>
+  <si>
+    <t># Condor</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>First SubJob Active (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Szenario</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia/EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EUCA (Indiana)</t>
-  </si>
-  <si>
-    <t>Nimbus (Chicago)</t>
-  </si>
-  <si>
-    <t>f N</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neuer Run 02.08.10</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (cc1)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>4 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>1 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>2 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>4 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>Summe - Number Instances</t>
-  </si>
-  <si>
-    <t>Average (drop maxima)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus (Chicago)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (c1.xlarge)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walltime (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Times</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Time (in s)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>US</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mittelwert </t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standardabweichung</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU/Asia/US</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Number Steps: </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAMD Run</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Nodes</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Poseidon</t>
-  </si>
-  <si>
-    <t>small</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Size</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Nodes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deployment Initiation (in sec)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Azure</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 Number Cores</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Jobs</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue Time
+Nimbus</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>n/a</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Average</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stddev</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mittelwert - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Gesamt: Mittelwert - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Gesamt: STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>Gesamt: Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAGA Pilot Sub-Job Runtime</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead (in s)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead (in %)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Poseidon </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -812,8 +864,18 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -1079,23 +1141,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1114,20 +1176,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1147,29 +1209,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1178,14 +1240,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1309,11 +1373,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="655960856"/>
-        <c:axId val="655967624"/>
+        <c:axId val="681913144"/>
+        <c:axId val="681917752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="655960856"/>
+        <c:axId val="681913144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,14 +1393,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655967624"/>
+        <c:crossAx val="681917752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="655967624"/>
+        <c:axId val="681917752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1365,7 +1429,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1382,7 +1445,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655960856"/>
+        <c:crossAx val="681913144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1516,11 +1579,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="656046776"/>
-        <c:axId val="656049832"/>
+        <c:axId val="681965656"/>
+        <c:axId val="681984664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="656046776"/>
+        <c:axId val="681965656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,14 +1599,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656049832"/>
+        <c:crossAx val="681984664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656049832"/>
+        <c:axId val="681984664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1572,7 +1635,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1589,7 +1651,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656046776"/>
+        <c:crossAx val="681965656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1665,11 +1727,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="656113736"/>
-        <c:axId val="656104760"/>
+        <c:axId val="682037816"/>
+        <c:axId val="682028840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="656113736"/>
+        <c:axId val="682037816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,14 +1747,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656104760"/>
+        <c:crossAx val="682028840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656104760"/>
+        <c:axId val="682028840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1789,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656113736"/>
+        <c:crossAx val="682037816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1883,11 +1945,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="656153832"/>
-        <c:axId val="656174088"/>
+        <c:axId val="682079832"/>
+        <c:axId val="682100088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="656153832"/>
+        <c:axId val="682079832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,14 +1990,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656174088"/>
+        <c:crossAx val="682100088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656174088"/>
+        <c:axId val="682100088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +2032,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="656153832"/>
+        <c:crossAx val="682079832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1994,7 +2056,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="de-DE"/>
-  <c:style val="1"/>
+  <c:style val="17"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2014,10 +2076,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.614883109574099</c:v>
+                    <c:v>1.036838236604875</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.036838236604875</c:v>
+                    <c:v>1.587173379426988</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>1.577157175881028</c:v>
@@ -2035,10 +2097,10 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="4"/>
                   <c:pt idx="0">
-                    <c:v>0.614883109574099</c:v>
+                    <c:v>1.036838236604875</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.036838236604875</c:v>
+                    <c:v>1.587173379426988</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>1.577157175881028</c:v>
@@ -2056,10 +2118,10 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Asia</c:v>
+                  <c:v>EU</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>EU</c:v>
+                  <c:v>Asia</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>US</c:v>
@@ -2074,42 +2136,42 @@
             <c:numRef>
               <c:f>Repex!$J$2:$J$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="#,##0">
-                  <c:v>89.69030650066666</c:v>
+                <c:pt idx="0">
+                  <c:v>87.41732799751515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.41732799751515</c:v>
+                  <c:v>88.17356251741668</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>112.9212904397667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.0194519003333</c:v>
+                  <c:v>114.4955328491111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="656214232"/>
-        <c:axId val="656231512"/>
+        <c:axId val="682138904"/>
+        <c:axId val="682156120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="656214232"/>
+        <c:axId val="682138904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="656231512"/>
+        <c:crossAx val="682156120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="656231512"/>
+        <c:axId val="682156120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,31 +2184,25 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE" sz="1400"/>
+                  <a:rPr lang="de-DE"/>
                   <a:t>Runtime (in min)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="656214232"/>
+        <c:crossAx val="682138904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -2296,13 +2352,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2379,56 +2435,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Torsten Meier" refreshedDate="38663.816388888888" refreshedVersion="3" recordCount="16">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A30:D46" sheet="Setup Times"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Instance" numFmtId="0">
-      <sharedItems count="2">
-        <s v="2 cores"/>
-        <s v="2 core"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Number Instances" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Number Cores" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8" count="3">
-        <n v="2"/>
-        <n v="4"/>
-        <n v="8"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Startup Time (in s)" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="276.08450388900002" maxValue="472.14579200700001" count="16">
-        <n v="313.49457287799999"/>
-        <n v="295.03079795000002"/>
-        <n v="276.08450388900002"/>
-        <n v="314.97212505300001"/>
-        <n v="315.11944603900002"/>
-        <n v="305.19036102299998"/>
-        <n v="365.65275192299998"/>
-        <n v="472.14579200700001"/>
-        <n v="397.81742381999999"/>
-        <n v="376.035724878"/>
-        <n v="372.41291689899998"/>
-        <n v="373.65681600599999"/>
-        <n v="362.95128488500001"/>
-        <n v="376.37267208100002"/>
-        <n v="361.68812417999999"/>
-        <n v="381.790049076"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Torsten Meier" refreshedDate="38663.819236111114" refreshedVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource ref="A53:E73" sheet="Setup Times"/>
@@ -2500,6 +2506,56 @@
         <d v="1904-01-01T18:55:00"/>
         <d v="1904-01-01T19:30:00"/>
         <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Torsten Meier" refreshedDate="38663.816388888888" refreshedVersion="3" recordCount="16">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A30:D46" sheet="Setup Times"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Instance" numFmtId="0">
+      <sharedItems count="2">
+        <s v="2 cores"/>
+        <s v="2 core"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Number Instances" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Number Cores" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8" count="3">
+        <n v="2"/>
+        <n v="4"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Startup Time (in s)" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="276.08450388900002" maxValue="472.14579200700001" count="16">
+        <n v="313.49457287799999"/>
+        <n v="295.03079795000002"/>
+        <n v="276.08450388900002"/>
+        <n v="314.97212505300001"/>
+        <n v="315.11944603900002"/>
+        <n v="305.19036102299998"/>
+        <n v="365.65275192299998"/>
+        <n v="472.14579200700001"/>
+        <n v="397.81742381999999"/>
+        <n v="376.035724878"/>
+        <n v="372.41291689899998"/>
+        <n v="373.65681600599999"/>
+        <n v="362.95128488500001"/>
+        <n v="376.37267208100002"/>
+        <n v="361.68812417999999"/>
+        <n v="381.790049076"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -2670,107 +2726,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="15"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
   <r>
     <x v="0"/>
@@ -2911,6 +2866,107 @@
     <x v="3"/>
     <x v="19"/>
     <x v="19"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="15"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3233,75 +3289,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="G53:I63" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="5">
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Mittelwert - Startup Time (in s)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="STABW - Startup Time (in s)" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
-  </dataFields>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="G30:J44" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -3383,6 +3371,74 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Mittelwert - Startup Time (in s)2" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="STABW - Startup Time (in s)" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
+  </dataFields>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="G53:I63" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="5">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Mittelwert - Startup Time (in s)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="STABW - Startup Time (in s)" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
 </pivotTableDefinition>
@@ -3907,12 +3963,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -3920,36 +3976,36 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3969,7 +4025,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3989,7 +4045,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -4009,7 +4065,7 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4029,7 +4085,7 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4049,7 +4105,7 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -4069,7 +4125,7 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4089,7 +4145,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4109,7 +4165,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -4129,7 +4185,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4149,7 +4205,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4169,7 +4225,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4189,7 +4245,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4209,7 +4265,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -4229,7 +4285,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -4249,7 +4305,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -4269,7 +4325,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4300,7 +4356,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4331,7 +4387,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -4362,7 +4418,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -4385,7 +4441,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4408,7 +4464,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -4429,7 +4485,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -4450,7 +4506,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -4471,7 +4527,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -4492,7 +4548,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -4513,7 +4569,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -4534,7 +4590,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -4555,7 +4611,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -4576,7 +4632,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -4597,7 +4653,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -4618,7 +4674,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -4639,7 +4695,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -4660,7 +4716,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="44" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B38" s="44">
         <v>2</v>
@@ -4681,7 +4737,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -4702,7 +4758,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -4723,7 +4779,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -4744,7 +4800,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -4765,7 +4821,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -4786,7 +4842,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4807,7 +4863,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4828,7 +4884,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4859,7 +4915,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4890,7 +4946,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -4911,7 +4967,7 @@
     </row>
     <row r="49" spans="1:8" s="41" customFormat="1">
       <c r="A49" s="41" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B49" s="41">
         <v>2</v>
@@ -4932,7 +4988,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="39" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B50" s="39">
         <v>4</v>
@@ -4953,7 +5009,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -4974,7 +5030,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -4995,7 +5051,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -5016,7 +5072,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -5037,7 +5093,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -5058,7 +5114,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -5079,7 +5135,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -5100,7 +5156,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -5121,7 +5177,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -5142,7 +5198,7 @@
     </row>
     <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5163,7 +5219,7 @@
     </row>
     <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -5175,7 +5231,7 @@
     </row>
     <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -5187,7 +5243,7 @@
     </row>
     <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -5199,7 +5255,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5220,7 +5276,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5241,7 +5297,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5272,7 +5328,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5303,7 +5359,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -5334,7 +5390,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -5357,7 +5413,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -5380,7 +5436,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -5403,7 +5459,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -5426,7 +5482,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -5449,7 +5505,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -5472,7 +5528,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5495,7 +5551,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -5518,7 +5574,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -5541,7 +5597,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -5564,7 +5620,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -5587,7 +5643,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -5610,7 +5666,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -5633,7 +5689,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -5656,7 +5712,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -5679,7 +5735,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5699,7 +5755,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5719,7 +5775,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5739,7 +5795,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5759,7 +5815,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -5779,7 +5835,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -5799,7 +5855,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -5819,7 +5875,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -5839,7 +5895,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5859,7 +5915,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -5879,7 +5935,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -5899,7 +5955,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -5923,12 +5979,12 @@
     <row r="100" spans="1:6" s="66" customFormat="1"/>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -5948,7 +6004,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5968,7 +6024,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -5988,7 +6044,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -6008,7 +6064,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -6028,7 +6084,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -6048,7 +6104,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6068,7 +6124,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -6088,7 +6144,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -6108,7 +6164,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -6128,7 +6184,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -6148,7 +6204,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -6168,7 +6224,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -6188,7 +6244,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -6208,7 +6264,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -6228,7 +6284,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -6248,7 +6304,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -6268,7 +6324,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6288,7 +6344,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -6308,7 +6364,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6328,7 +6384,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -6348,7 +6404,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -6368,7 +6424,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -6388,7 +6444,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -6408,7 +6464,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -6427,7 +6483,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -6441,8 +6497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="E120" sqref="E100:E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6457,45 +6513,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6510,7 +6566,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="I6" s="17">
         <v>221.43898490266665</v>
@@ -6518,7 +6574,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6534,7 +6590,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="I7" s="21">
         <v>27.888301147358074</v>
@@ -6542,7 +6598,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6558,7 +6614,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="18" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I8" s="21">
         <v>6</v>
@@ -6566,7 +6622,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6584,7 +6640,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="I9" s="17">
         <v>230.1513251065</v>
@@ -6592,7 +6648,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6608,7 +6664,7 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="I10" s="21">
         <v>21.442701960879447</v>
@@ -6616,7 +6672,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6632,7 +6688,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="18" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I11" s="21">
         <v>4</v>
@@ -6640,7 +6696,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -6658,7 +6714,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="I12" s="17">
         <v>524.47522211100011</v>
@@ -6666,7 +6722,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -6682,7 +6738,7 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="I13" s="21">
         <v>249.37176975472715</v>
@@ -6690,7 +6746,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -6706,7 +6762,7 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="18" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I14" s="21">
         <v>32</v>
@@ -6714,7 +6770,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -6732,7 +6788,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="I15" s="17">
         <v>338.08045351500004</v>
@@ -6740,7 +6796,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -6756,7 +6812,7 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="I16" s="21">
         <v>46.784586737362908</v>
@@ -6764,7 +6820,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -6780,7 +6836,7 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="18" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I17" s="21">
         <v>16</v>
@@ -6788,7 +6844,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -6803,7 +6859,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="17">
@@ -6812,7 +6868,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -6827,7 +6883,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="17">
@@ -6836,7 +6892,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6851,7 +6907,7 @@
         <v>0.75</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="25">
@@ -6860,7 +6916,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6877,7 +6933,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -6894,7 +6950,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -6911,7 +6967,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -6928,7 +6984,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -6945,19 +7001,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="C26" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2">
         <f>AVERAGE(D6:D25)</f>
         <v>373.44653231864999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="D27" s="2">
         <f>STDEV(D6:D25)</f>
@@ -6967,42 +7023,42 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="26" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7020,7 +7076,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="J31" s="17">
         <v>302.94028916180002</v>
@@ -7028,7 +7084,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7045,7 +7101,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="J32" s="21">
         <v>17.23574117758357</v>
@@ -7053,7 +7109,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7068,7 +7124,7 @@
         <v>0.5625</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -7078,7 +7134,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7093,7 +7149,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -7103,7 +7159,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7124,7 +7180,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="J35" s="17">
         <v>305.19036102299998</v>
@@ -7132,7 +7188,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -7150,7 +7206,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="J36" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7158,7 +7214,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -7174,7 +7230,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -7184,7 +7240,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -7200,7 +7256,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -7210,7 +7266,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -7232,7 +7288,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="J39" s="17">
         <v>384.05235557549997</v>
@@ -7240,7 +7296,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -7258,7 +7314,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="J40" s="21">
         <v>32.66972061151673</v>
@@ -7266,7 +7322,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -7282,7 +7338,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -7292,7 +7348,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -7307,7 +7363,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -7317,7 +7373,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -7332,7 +7388,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -7342,7 +7398,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -7357,7 +7413,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -7367,7 +7423,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -7384,7 +7440,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -7401,7 +7457,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -7416,19 +7472,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="C48" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2">
         <f>AVERAGE(D30:D47)</f>
         <v>356.83130192700003</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="C49" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="D49" s="2">
         <f>STDEV(D31:D47)</f>
@@ -7445,40 +7501,40 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B52" s="26"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="G53" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>1</v>
-      </c>
       <c r="I53" s="14" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -7496,7 +7552,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="I54" s="17">
         <v>14.1872649193</v>
@@ -7504,7 +7560,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -7520,7 +7576,7 @@
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="I55" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7528,7 +7584,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7546,7 +7602,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="I56" s="17">
         <v>44.782275199920001</v>
@@ -7554,7 +7610,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -7570,7 +7626,7 @@
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="I57" s="21">
         <v>15.843792242505828</v>
@@ -7578,7 +7634,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -7596,7 +7652,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="I58" s="17">
         <v>56.964924156674996</v>
@@ -7604,7 +7660,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -7620,7 +7676,7 @@
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="I59" s="21">
         <v>9.4994883808250847</v>
@@ -7628,7 +7684,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -7646,7 +7702,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="I60" s="17">
         <v>187.55037531850999</v>
@@ -7654,7 +7710,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -7670,7 +7726,7 @@
       </c>
       <c r="G61" s="32"/>
       <c r="H61" s="18" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="I61" s="21">
         <v>179.97433590633514</v>
@@ -7678,7 +7734,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -7693,7 +7749,7 @@
         <v>0.59236111111111112</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>191</v>
+        <v>51</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="17">
@@ -7702,7 +7758,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -7717,7 +7773,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="25">
@@ -7726,7 +7782,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -7743,7 +7799,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -7760,7 +7816,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -7777,7 +7833,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -7794,7 +7850,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -7811,7 +7867,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -7828,7 +7884,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -7845,7 +7901,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -7862,7 +7918,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -7879,7 +7935,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -7894,36 +7950,36 @@
     </row>
     <row r="74" spans="1:10">
       <c r="C74" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D74" s="2">
         <f>AVERAGE(D54:D73)</f>
         <v>117.073104536535</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="H74" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
       <c r="I74" s="55">
         <f>AVERAGE(D54:D63,D65:D66,D68:D70,D73)</f>
         <v>53.003791779293749</v>
       </c>
       <c r="J74" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="C75" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="D75" s="2">
         <f>STDEV(D54:D73)</f>
         <v>143.93518726021225</v>
       </c>
       <c r="H75" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="I75" s="55">
         <f>STDEV(D54:D63,D65:D66,D68:D70,D73)</f>
@@ -7939,26 +7995,26 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="26" t="s">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -7972,7 +8028,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -7986,7 +8042,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -8000,7 +8056,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -8014,7 +8070,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8028,7 +8084,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -8042,7 +8098,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -8056,7 +8112,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -8070,7 +8126,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -8084,7 +8140,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -8098,7 +8154,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -8112,7 +8168,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -8126,7 +8182,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -8140,7 +8196,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -8158,7 +8214,7 @@
         <v>331.21428571428572</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -8172,29 +8228,29 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="68" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="67" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8209,12 +8265,12 @@
         <v>540.78749203699999</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8229,12 +8285,12 @@
         <v>535.53545093499997</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -8249,12 +8305,12 @@
         <v>545.29999999999995</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -8269,12 +8325,12 @@
         <v>803.84470940000006</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8289,12 +8345,12 @@
         <v>513.75138115899995</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8309,12 +8365,12 @@
         <v>533.84486103100005</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -8329,12 +8385,12 @@
         <v>530.13947606099998</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8349,12 +8405,12 @@
         <v>540.12562584900002</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B108">
         <v>16</v>
@@ -8369,12 +8425,12 @@
         <v>640.48868703799997</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B109">
         <v>16</v>
@@ -8389,12 +8445,12 @@
         <v>514.74440503100004</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B110">
         <v>16</v>
@@ -8407,12 +8463,12 @@
         <v>535.21085310000001</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B111">
         <v>16</v>
@@ -8425,12 +8481,12 @@
         <v>607.65833091699994</v>
       </c>
       <c r="F111" s="55" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -8443,12 +8499,12 @@
         <v>596.06263589900004</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B113">
         <v>16</v>
@@ -8461,12 +8517,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B114">
         <v>16</v>
@@ -8479,12 +8535,12 @@
         <v>527.22448778199998</v>
       </c>
       <c r="F114" s="55" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B115">
         <v>16</v>
@@ -8497,12 +8553,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F115" s="55" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B116">
         <v>16</v>
@@ -8515,12 +8571,12 @@
         <v>500.43472504599998</v>
       </c>
       <c r="F116" s="55" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B117">
         <v>16</v>
@@ -8533,12 +8589,12 @@
         <v>512.97764587400002</v>
       </c>
       <c r="F117" s="55" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -8555,7 +8611,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -8574,7 +8630,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -8593,19 +8649,19 @@
     </row>
     <row r="121" spans="1:8">
       <c r="D121" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E121" s="55">
         <f>AVERAGE(E100:E120)</f>
         <v>569.53688043885711</v>
       </c>
       <c r="F121" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="D122" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E122">
         <f>STDEV(E100:E120)</f>
@@ -8613,9 +8669,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -8646,69 +8702,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="28" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="28" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8743,13 +8799,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8784,13 +8840,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B8" s="31">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8825,7 +8881,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -8863,7 +8919,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -8898,7 +8954,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -8939,7 +8995,7 @@
     </row>
     <row r="12" spans="1:14" s="49" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="49" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B12" s="49">
         <v>32</v>
@@ -8980,7 +9036,7 @@
     </row>
     <row r="13" spans="1:14" ht="40" thickTop="1">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -9011,12 +9067,12 @@
         <v>2</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9047,12 +9103,12 @@
         <v>2</v>
       </c>
       <c r="N14" s="52" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B15" s="41">
         <v>16</v>
@@ -9083,12 +9139,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -9119,12 +9175,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="52" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -9157,7 +9213,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -9190,7 +9246,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -9229,18 +9285,18 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="28" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
@@ -9267,17 +9323,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="56" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -9285,7 +9341,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -9293,39 +9349,39 @@
     </row>
     <row r="8" spans="1:10" s="58" customFormat="1" ht="39">
       <c r="A8" s="29" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1">
       <c r="A9" s="62" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="B9" s="63">
         <v>0</v>
@@ -9337,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="F9" s="63">
         <v>0</v>
@@ -9357,7 +9413,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1">
       <c r="A10" s="62" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="B10" s="63">
         <v>0</v>
@@ -9369,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="F10" s="63">
         <v>0</v>
@@ -9389,7 +9445,7 @@
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
       <c r="A11" s="62" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="B11" s="63">
         <v>0</v>
@@ -9401,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="F11" s="63">
         <v>0</v>
@@ -9421,7 +9477,7 @@
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1">
       <c r="A12" s="62" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="B12" s="63">
         <v>0</v>
@@ -9433,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="F12" s="63">
         <v>0</v>
@@ -9453,7 +9509,7 @@
     </row>
     <row r="13" spans="1:10" s="61" customFormat="1">
       <c r="A13" s="64" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="B13" s="65">
         <v>0</v>
@@ -9465,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="F13" s="65">
         <v>0</v>
@@ -9485,7 +9541,7 @@
     </row>
     <row r="14" spans="1:10" s="58" customFormat="1">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9497,7 +9553,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -9517,7 +9573,7 @@
     </row>
     <row r="15" spans="1:10" s="58" customFormat="1">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -9529,7 +9585,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -9549,7 +9605,7 @@
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -9561,7 +9617,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -9581,7 +9637,7 @@
     </row>
     <row r="17" spans="1:10" s="58" customFormat="1">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -9593,7 +9649,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -9613,7 +9669,7 @@
     </row>
     <row r="18" spans="1:10" s="58" customFormat="1">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -9625,7 +9681,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -9645,7 +9701,7 @@
     </row>
     <row r="19" spans="1:10" s="58" customFormat="1">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -9657,7 +9713,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -9677,7 +9733,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -9690,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -9710,7 +9766,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9723,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -9743,7 +9799,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -9756,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -9776,7 +9832,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -9789,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -9809,7 +9865,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -9822,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -9842,7 +9898,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -9855,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -9875,7 +9931,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -9888,7 +9944,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -9908,7 +9964,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -9921,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -9941,7 +9997,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -9954,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -9974,7 +10030,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -9987,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -10007,7 +10063,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -10020,7 +10076,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -10040,7 +10096,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -10053,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -10073,7 +10129,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -10086,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -10106,7 +10162,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -10119,7 +10175,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -10139,7 +10195,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -10152,7 +10208,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -10172,7 +10228,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -10185,7 +10241,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -10205,7 +10261,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -10218,7 +10274,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -10238,7 +10294,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -10251,7 +10307,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -10271,7 +10327,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -10284,7 +10340,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -10304,7 +10360,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -10317,7 +10373,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -10337,7 +10393,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -10350,7 +10406,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -10370,7 +10426,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -10383,7 +10439,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -10403,7 +10459,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -10416,7 +10472,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -10436,7 +10492,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -10449,7 +10505,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -10469,7 +10525,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -10482,7 +10538,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -10502,7 +10558,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -10515,7 +10571,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -10535,7 +10591,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -10548,7 +10604,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -10568,7 +10624,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -10581,7 +10637,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -10601,7 +10657,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -10614,7 +10670,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -10634,20 +10690,20 @@
     </row>
     <row r="69" spans="1:15">
       <c r="O69" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B74" s="55">
         <f>AVERAGE(J9:J13)</f>
@@ -10660,7 +10716,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="58" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B75" s="55">
         <f>J27</f>
@@ -10673,7 +10729,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B76" s="55">
         <f>AVERAGE(J20:J25)</f>
@@ -10686,7 +10742,7 @@
     </row>
     <row r="77" spans="1:15" ht="39">
       <c r="A77" s="52" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B77" s="55">
         <f>AVERAGE(J14:J19)</f>
@@ -10699,7 +10755,7 @@
     </row>
     <row r="78" spans="1:15" ht="39">
       <c r="A78" s="52" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B78" s="55">
         <f>AVERAGE(J43:J46)</f>
@@ -10712,7 +10768,7 @@
     </row>
     <row r="79" spans="1:15" ht="39">
       <c r="A79" s="52" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B79" s="55">
         <f>AVERAGE(J34:J42)</f>
@@ -10725,7 +10781,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError sqref="B79" formulaRange="1"/>
@@ -10754,50 +10810,50 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="53" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="54" customFormat="1" ht="39">
       <c r="A5" s="54" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -10836,7 +10892,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -10947,7 +11003,7 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -10986,7 +11042,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11225,7 +11281,7 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -11252,10 +11308,10 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -11267,7 +11323,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -11291,12 +11347,12 @@
         <v>32</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -11313,7 +11369,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20">
@@ -11330,7 +11386,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -11351,7 +11407,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="B8" s="19">
         <v>2070.8984270000001</v>
@@ -11368,7 +11424,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
       <c r="B9" s="19">
         <v>1095.4940549999999</v>
@@ -11395,7 +11451,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -11416,7 +11472,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -11437,7 +11493,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B12" s="23">
         <v>1583.1962410000001</v>
@@ -11465,8 +11521,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -11478,10 +11533,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11496,33 +11551,33 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26">
       <c r="A1" s="69" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>174</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11537,23 +11592,23 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="J2" s="55">
-        <f>5381.41839004/60</f>
-        <v>89.690306500666665</v>
+        <f>AVERAGE(E2:E12)/60</f>
+        <v>87.417327997515159</v>
       </c>
       <c r="K2">
-        <f>STDEV(E18:E19)/60</f>
-        <v>0.6148831095740992</v>
+        <f>STDEV(E2:E12)/60</f>
+        <v>1.0368382366048754</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11568,23 +11623,23 @@
         <v>5352.9993340999999</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J3">
-        <f>AVERAGE(E2:E12)/60</f>
-        <v>87.417327997515159</v>
+        <v>30</v>
+      </c>
+      <c r="J3" s="55">
+        <f>AVERAGE(E18:E23)/60</f>
+        <v>88.173562517416684</v>
       </c>
       <c r="K3">
-        <f>STDEV(E2:E12)/60</f>
-        <v>1.0368382366048754</v>
+        <f>STDEV(E18:E23)/60</f>
+        <v>1.5871733794269882</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11599,12 +11654,12 @@
         <v>5265.4794118399996</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J4">
+        <v>32</v>
+      </c>
+      <c r="J4" s="55">
         <f>AVERAGE(E13:E17)/60</f>
         <v>112.92129043976666</v>
       </c>
@@ -11615,7 +11670,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -11630,23 +11685,23 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="I5" t="s">
-        <v>175</v>
-      </c>
-      <c r="J5">
-        <f>E21/60</f>
-        <v>116.01945190033332</v>
+        <v>35</v>
+      </c>
+      <c r="J5" s="55">
+        <f>AVERAGE(E24:E26)/60</f>
+        <v>114.49553284911109</v>
       </c>
       <c r="K5">
-        <f>STDEV(E21:E23)/60</f>
+        <f>STDEV(E24:E26)/60</f>
         <v>2.4075080791113619</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11661,12 +11716,12 @@
         <v>5202.5642039799995</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -11681,12 +11736,12 @@
         <v>5188.3370358900002</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -11701,12 +11756,12 @@
         <v>5284.6490089899999</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -11721,12 +11776,12 @@
         <v>5202.49168491</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -11741,12 +11796,12 @@
         <v>5155.4024429299998</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -11761,12 +11816,12 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11781,12 +11836,12 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -11797,16 +11852,16 @@
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="55">
         <v>6667.9942650800003</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -11821,12 +11876,12 @@
         <v>6726.6931519500004</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -11841,12 +11896,12 @@
         <v>6773.2417349799998</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -11857,16 +11912,16 @@
       <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="55">
         <v>6785.3887209900004</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -11881,12 +11936,12 @@
         <v>6923.0692589299997</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -11901,12 +11956,12 @@
         <v>5381.4183900400003</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -11921,12 +11976,12 @@
         <v>5433.5929520099999</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -11937,13 +11992,16 @@
       <c r="D20">
         <v>4</v>
       </c>
+      <c r="E20" s="55">
+        <v>5260.5256700500004</v>
+      </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -11954,16 +12012,16 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21">
-        <v>6961.1671140199996</v>
+      <c r="E21" s="55">
+        <v>5255.02369189</v>
       </c>
       <c r="F21" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -11975,15 +12033,15 @@
         <v>4</v>
       </c>
       <c r="E22" s="55">
-        <v>6703.2019269499997</v>
+        <v>5214.6700560999998</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -11995,17 +12053,76 @@
         <v>4</v>
       </c>
       <c r="E23" s="55">
+        <v>5197.2517461799998</v>
+      </c>
+      <c r="F23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" s="55">
+        <v>6961.1671140199996</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="55">
+        <v>6703.2019269499997</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="55">
         <v>6944.8268718700001</v>
       </c>
-      <c r="F23" t="s">
-        <v>175</v>
+      <c r="F26" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -12013,4 +12130,745 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="71" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2">
+        <v>4355246080</v>
+      </c>
+      <c r="C2">
+        <v>1703546</v>
+      </c>
+      <c r="D2">
+        <f>C2/1000</f>
+        <v>1703.546</v>
+      </c>
+      <c r="E2">
+        <f>B2/(1024*1024)/D2</f>
+        <v>2.438141575352236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3">
+        <v>4355246080</v>
+      </c>
+      <c r="C3">
+        <v>1685499</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D47" si="0">C3/1000</f>
+        <v>1685.499</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E47" si="1">B3/(1024*1024)/D3</f>
+        <v>2.464247281146414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4">
+        <v>4355246080</v>
+      </c>
+      <c r="C4">
+        <v>1688129</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1688.1289999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2.4604081371299231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5">
+        <v>4355246080</v>
+      </c>
+      <c r="C5">
+        <v>1695271</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1695.271</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>2.4500426941326787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6">
+        <v>4355246080</v>
+      </c>
+      <c r="C6">
+        <v>1703947</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1703.9469999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2.4375677929683262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7">
+        <v>4355246080</v>
+      </c>
+      <c r="C7">
+        <v>1666747</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1666.7470000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2.4919716838398389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8">
+        <v>4355246080</v>
+      </c>
+      <c r="C8">
+        <v>1710871</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1710.8710000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>2.4277028064214075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9">
+        <v>4355246080</v>
+      </c>
+      <c r="C9">
+        <v>1684736</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1684.7360000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>2.46536331397026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10">
+        <v>4355246080</v>
+      </c>
+      <c r="C10">
+        <v>1694185</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1694.1849999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>2.451613211145772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11">
+        <v>4355246080</v>
+      </c>
+      <c r="C11">
+        <v>1677345</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1677.345</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>2.4762266129657284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12">
+        <v>4355246080</v>
+      </c>
+      <c r="C12">
+        <v>1712438</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1712.4380000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>2.4254812893225912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13">
+        <v>4355246080</v>
+      </c>
+      <c r="C13">
+        <v>1667097</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1667.097</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2.4914485048710424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14">
+        <v>4355246080</v>
+      </c>
+      <c r="C14">
+        <v>1669436</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1669.4359999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>2.4879578061842444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32">
+        <v>4355246080</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33">
+        <v>4355246080</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34">
+        <v>4355246080</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35">
+        <v>4355246080</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36">
+        <v>4355246080</v>
+      </c>
+      <c r="C36">
+        <v>274028</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>274.02800000000002</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>15.157160319839578</v>
+      </c>
+      <c r="F36">
+        <v>342445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <v>4355246080</v>
+      </c>
+      <c r="C37">
+        <v>275148</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>275.14800000000002</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>15.095462544248912</v>
+      </c>
+      <c r="F37">
+        <v>330437</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>4355246080</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38">
+        <v>335768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>4355246080</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F39">
+        <v>329786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40">
+        <v>4355246080</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40">
+        <v>335190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41">
+        <v>4355246080</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41">
+        <v>325824</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42">
+        <v>4355246080</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42">
+        <v>369794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43">
+        <v>4355246080</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43">
+        <v>372435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44">
+        <v>4355246080</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44">
+        <v>373397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>4355246080</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45">
+        <v>356242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <v>4355246080</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F46">
+        <v>355209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47">
+        <v>4355246080</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F47">
+        <v>362006</v>
+      </c>
+      <c r="G47">
+        <f>F47/1000</f>
+        <v>362.00599999999997</v>
+      </c>
+      <c r="H47">
+        <f>B47/(1024*1024)/G47</f>
+        <v>11.473528969478407</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/papers/cloudcom10/performance/namd_runs.xlsx
+++ b/papers/cloudcom10/performance/namd_runs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="32240" windowHeight="22540" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="37960" windowHeight="22540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NAMD Runtimes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="220">
   <si>
     <t>Download Time (in sec)</t>
     <phoneticPr fontId="16" type="noConversion"/>
@@ -50,6 +50,34 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
+    <t>Same Affinity Zone (EU)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download (stddev)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload (stdev)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU-US</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU-Asia</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU (w/ Affinity)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
     <t>EC2 (c1.xlarge)</t>
   </si>
   <si>
@@ -260,6 +288,10 @@
   </si>
   <si>
     <t>File Size (in bytes)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -2211,6 +2243,267 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="de-DE"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Download</c:v>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Azure Data'!$M$5:$M$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.000584708455951168</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.420774244306718</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.401117031397256</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Azure Data'!$M$5:$M$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.000584708455951168</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.420774244306718</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.401117031397256</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Azure Data'!$K$5:$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>EU-US</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EU-Asia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EU (w/ Affinity)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Azure Data'!$L$5:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.539959343798867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.567257944509446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.7700310780861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Upload</c:v>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Azure Data'!$O$5:$O$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.390400076721143</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.60647479887244</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Azure Data'!$O$5:$O$8</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.390400076721143</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.60647479887244</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Azure Data'!$K$5:$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>EU-US</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EU-Asia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EU (w/ Affinity)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Azure Data'!$N$5:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.037445925769226</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.965566357799068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.92797439796037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="471078904"/>
+        <c:axId val="471081304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="471078904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="471081304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="471081304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Bandwidth (in MiB/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="471078904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2360,6 +2653,41 @@
       <xdr:colOff>431800</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3963,12 +4291,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -3976,36 +4304,36 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4025,7 +4353,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -4045,7 +4373,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -4065,7 +4393,7 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4085,7 +4413,7 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4105,7 +4433,7 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -4125,7 +4453,7 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4145,7 +4473,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4165,7 +4493,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -4185,7 +4513,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4205,7 +4533,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4225,7 +4553,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4245,7 +4573,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4265,7 +4593,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -4285,7 +4613,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -4305,7 +4633,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -4325,7 +4653,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4356,7 +4684,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4387,7 +4715,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -4418,7 +4746,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -4441,7 +4769,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4464,7 +4792,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -4485,7 +4813,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -4506,7 +4834,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -4527,7 +4855,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -4548,7 +4876,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -4569,7 +4897,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -4590,7 +4918,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -4611,7 +4939,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -4632,7 +4960,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -4653,7 +4981,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -4674,7 +5002,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -4695,7 +5023,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -4716,7 +5044,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="44" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B38" s="44">
         <v>2</v>
@@ -4737,7 +5065,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -4758,7 +5086,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -4779,7 +5107,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -4800,7 +5128,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -4821,7 +5149,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -4842,7 +5170,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4863,7 +5191,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4884,7 +5212,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4915,7 +5243,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -4946,7 +5274,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -4967,7 +5295,7 @@
     </row>
     <row r="49" spans="1:8" s="41" customFormat="1">
       <c r="A49" s="41" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B49" s="41">
         <v>2</v>
@@ -4988,7 +5316,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="39" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B50" s="39">
         <v>4</v>
@@ -5009,7 +5337,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -5030,7 +5358,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -5051,7 +5379,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -5072,7 +5400,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -5093,7 +5421,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -5114,7 +5442,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -5135,7 +5463,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -5156,7 +5484,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -5177,7 +5505,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -5198,7 +5526,7 @@
     </row>
     <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5219,7 +5547,7 @@
     </row>
     <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -5231,7 +5559,7 @@
     </row>
     <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -5243,7 +5571,7 @@
     </row>
     <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -5255,7 +5583,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5276,7 +5604,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5297,7 +5625,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5328,7 +5656,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5359,7 +5687,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -5390,7 +5718,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -5413,7 +5741,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -5436,7 +5764,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -5459,7 +5787,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -5482,7 +5810,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -5505,7 +5833,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -5528,7 +5856,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5551,7 +5879,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -5574,7 +5902,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -5597,7 +5925,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -5620,7 +5948,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -5643,7 +5971,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -5666,7 +5994,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -5689,7 +6017,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -5712,7 +6040,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -5735,7 +6063,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -5755,7 +6083,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -5775,7 +6103,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -5795,7 +6123,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -5815,7 +6143,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -5835,7 +6163,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -5855,7 +6183,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -5875,7 +6203,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -5895,7 +6223,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -5915,7 +6243,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -5935,7 +6263,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -5955,7 +6283,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -5979,12 +6307,12 @@
     <row r="100" spans="1:6" s="66" customFormat="1"/>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6004,7 +6332,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -6024,7 +6352,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -6044,7 +6372,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -6064,7 +6392,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -6084,7 +6412,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -6104,7 +6432,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6124,7 +6452,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -6144,7 +6472,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -6164,7 +6492,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -6184,7 +6512,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -6204,7 +6532,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -6224,7 +6552,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -6244,7 +6572,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -6264,7 +6592,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -6284,7 +6612,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -6304,7 +6632,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -6324,7 +6652,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6344,7 +6672,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -6364,7 +6692,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6384,7 +6712,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -6404,7 +6732,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -6424,7 +6752,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -6444,7 +6772,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -6464,7 +6792,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -6513,45 +6841,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6566,7 +6894,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I6" s="17">
         <v>221.43898490266665</v>
@@ -6574,7 +6902,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6590,7 +6918,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I7" s="21">
         <v>27.888301147358074</v>
@@ -6598,7 +6926,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6614,7 +6942,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I8" s="21">
         <v>6</v>
@@ -6622,7 +6950,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6640,7 +6968,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I9" s="17">
         <v>230.1513251065</v>
@@ -6648,7 +6976,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6664,7 +6992,7 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I10" s="21">
         <v>21.442701960879447</v>
@@ -6672,7 +7000,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6688,7 +7016,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I11" s="21">
         <v>4</v>
@@ -6696,7 +7024,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -6714,7 +7042,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I12" s="17">
         <v>524.47522211100011</v>
@@ -6722,7 +7050,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -6738,7 +7066,7 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I13" s="21">
         <v>249.37176975472715</v>
@@ -6746,7 +7074,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -6762,7 +7090,7 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I14" s="21">
         <v>32</v>
@@ -6770,7 +7098,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -6788,7 +7116,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I15" s="17">
         <v>338.08045351500004</v>
@@ -6796,7 +7124,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -6812,7 +7140,7 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I16" s="21">
         <v>46.784586737362908</v>
@@ -6820,7 +7148,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -6836,7 +7164,7 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="18" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I17" s="21">
         <v>16</v>
@@ -6844,7 +7172,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -6859,7 +7187,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="17">
@@ -6868,7 +7196,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -6883,7 +7211,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="17">
@@ -6892,7 +7220,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -6907,7 +7235,7 @@
         <v>0.75</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="25">
@@ -6916,7 +7244,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -6933,7 +7261,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -6950,7 +7278,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -6967,7 +7295,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -6984,7 +7312,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -7001,19 +7329,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="C26" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D26" s="2">
         <f>AVERAGE(D6:D25)</f>
         <v>373.44653231864999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2">
         <f>STDEV(D6:D25)</f>
@@ -7023,42 +7351,42 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="26" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7076,7 +7404,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J31" s="17">
         <v>302.94028916180002</v>
@@ -7084,7 +7412,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7101,7 +7429,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J32" s="21">
         <v>17.23574117758357</v>
@@ -7109,7 +7437,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7124,7 +7452,7 @@
         <v>0.5625</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -7134,7 +7462,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7149,7 +7477,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -7159,7 +7487,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7180,7 +7508,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J35" s="17">
         <v>305.19036102299998</v>
@@ -7188,7 +7516,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -7206,7 +7534,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J36" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7214,7 +7542,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -7230,7 +7558,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -7240,7 +7568,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -7256,7 +7584,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -7266,7 +7594,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -7288,7 +7616,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J39" s="17">
         <v>384.05235557549997</v>
@@ -7296,7 +7624,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -7314,7 +7642,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="J40" s="21">
         <v>32.66972061151673</v>
@@ -7322,7 +7650,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -7338,7 +7666,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -7348,7 +7676,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -7363,7 +7691,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -7373,7 +7701,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -7388,7 +7716,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -7398,7 +7726,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -7413,7 +7741,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -7423,7 +7751,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -7440,7 +7768,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -7457,7 +7785,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -7472,19 +7800,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="C48" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2">
         <f>AVERAGE(D30:D47)</f>
         <v>356.83130192700003</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="C49" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2">
         <f>STDEV(D31:D47)</f>
@@ -7501,40 +7829,40 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B52" s="26"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -7552,7 +7880,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I54" s="17">
         <v>14.1872649193</v>
@@ -7560,7 +7888,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -7576,7 +7904,7 @@
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I55" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7584,7 +7912,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7602,7 +7930,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I56" s="17">
         <v>44.782275199920001</v>
@@ -7610,7 +7938,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -7626,7 +7954,7 @@
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I57" s="21">
         <v>15.843792242505828</v>
@@ -7634,7 +7962,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -7652,7 +7980,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I58" s="17">
         <v>56.964924156674996</v>
@@ -7660,7 +7988,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -7676,7 +8004,7 @@
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I59" s="21">
         <v>9.4994883808250847</v>
@@ -7684,7 +8012,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -7702,7 +8030,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I60" s="17">
         <v>187.55037531850999</v>
@@ -7710,7 +8038,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -7726,7 +8054,7 @@
       </c>
       <c r="G61" s="32"/>
       <c r="H61" s="18" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I61" s="21">
         <v>179.97433590633514</v>
@@ -7734,7 +8062,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -7749,7 +8077,7 @@
         <v>0.59236111111111112</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="17">
@@ -7758,7 +8086,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -7773,7 +8101,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="25">
@@ -7782,7 +8110,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -7799,7 +8127,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -7816,7 +8144,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -7833,7 +8161,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -7850,7 +8178,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -7867,7 +8195,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -7884,7 +8212,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -7901,7 +8229,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -7918,7 +8246,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -7935,7 +8263,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -7950,36 +8278,36 @@
     </row>
     <row r="74" spans="1:10">
       <c r="C74" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D74" s="2">
         <f>AVERAGE(D54:D73)</f>
         <v>117.073104536535</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H74" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I74" s="55">
         <f>AVERAGE(D54:D63,D65:D66,D68:D70,D73)</f>
         <v>53.003791779293749</v>
       </c>
       <c r="J74" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="C75" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D75" s="2">
         <f>STDEV(D54:D73)</f>
         <v>143.93518726021225</v>
       </c>
       <c r="H75" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I75" s="55">
         <f>STDEV(D54:D63,D65:D66,D68:D70,D73)</f>
@@ -7995,26 +8323,26 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="26" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -8028,7 +8356,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -8042,7 +8370,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -8056,7 +8384,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -8070,7 +8398,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8084,7 +8412,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -8098,7 +8426,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -8112,7 +8440,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -8126,7 +8454,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -8140,7 +8468,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -8154,7 +8482,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -8168,7 +8496,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -8182,7 +8510,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -8196,7 +8524,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -8214,7 +8542,7 @@
         <v>331.21428571428572</v>
       </c>
       <c r="E95" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -8228,29 +8556,29 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="68" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="67" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8265,12 +8593,12 @@
         <v>540.78749203699999</v>
       </c>
       <c r="F100" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8285,12 +8613,12 @@
         <v>535.53545093499997</v>
       </c>
       <c r="F101" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -8305,12 +8633,12 @@
         <v>545.29999999999995</v>
       </c>
       <c r="F102" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -8325,12 +8653,12 @@
         <v>803.84470940000006</v>
       </c>
       <c r="F103" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8345,12 +8673,12 @@
         <v>513.75138115899995</v>
       </c>
       <c r="F104" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8365,12 +8693,12 @@
         <v>533.84486103100005</v>
       </c>
       <c r="F105" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -8385,12 +8713,12 @@
         <v>530.13947606099998</v>
       </c>
       <c r="F106" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8405,12 +8733,12 @@
         <v>540.12562584900002</v>
       </c>
       <c r="F107" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B108">
         <v>16</v>
@@ -8425,12 +8753,12 @@
         <v>640.48868703799997</v>
       </c>
       <c r="F108" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B109">
         <v>16</v>
@@ -8445,12 +8773,12 @@
         <v>514.74440503100004</v>
       </c>
       <c r="F109" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B110">
         <v>16</v>
@@ -8463,12 +8791,12 @@
         <v>535.21085310000001</v>
       </c>
       <c r="F110" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B111">
         <v>16</v>
@@ -8481,12 +8809,12 @@
         <v>607.65833091699994</v>
       </c>
       <c r="F111" s="55" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -8499,12 +8827,12 @@
         <v>596.06263589900004</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B113">
         <v>16</v>
@@ -8517,12 +8845,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B114">
         <v>16</v>
@@ -8535,12 +8863,12 @@
         <v>527.22448778199998</v>
       </c>
       <c r="F114" s="55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B115">
         <v>16</v>
@@ -8553,12 +8881,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F115" s="55" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B116">
         <v>16</v>
@@ -8571,12 +8899,12 @@
         <v>500.43472504599998</v>
       </c>
       <c r="F116" s="55" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B117">
         <v>16</v>
@@ -8589,12 +8917,12 @@
         <v>512.97764587400002</v>
       </c>
       <c r="F117" s="55" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -8611,7 +8939,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -8630,7 +8958,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -8649,19 +8977,19 @@
     </row>
     <row r="121" spans="1:8">
       <c r="D121" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E121" s="55">
         <f>AVERAGE(E100:E120)</f>
         <v>569.53688043885711</v>
       </c>
       <c r="F121" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="D122" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E122">
         <f>STDEV(E100:E120)</f>
@@ -8669,7 +8997,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId4"/>
@@ -8702,69 +9029,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="28" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="28" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8799,13 +9126,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8840,13 +9167,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B8" s="31">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8881,7 +9208,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -8919,7 +9246,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -8954,7 +9281,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -8995,7 +9322,7 @@
     </row>
     <row r="12" spans="1:14" s="49" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="49" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B12" s="49">
         <v>32</v>
@@ -9036,7 +9363,7 @@
     </row>
     <row r="13" spans="1:14" ht="40" thickTop="1">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -9067,12 +9394,12 @@
         <v>2</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9103,12 +9430,12 @@
         <v>2</v>
       </c>
       <c r="N14" s="52" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B15" s="41">
         <v>16</v>
@@ -9139,12 +9466,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -9175,12 +9502,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="52" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -9213,7 +9540,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -9246,7 +9573,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -9285,13 +9612,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="28" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -9323,17 +9650,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="56" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -9341,7 +9668,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -9349,39 +9676,39 @@
     </row>
     <row r="8" spans="1:10" s="58" customFormat="1" ht="39">
       <c r="A8" s="29" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1">
       <c r="A9" s="62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B9" s="63">
         <v>0</v>
@@ -9393,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F9" s="63">
         <v>0</v>
@@ -9413,7 +9740,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1">
       <c r="A10" s="62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B10" s="63">
         <v>0</v>
@@ -9425,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F10" s="63">
         <v>0</v>
@@ -9445,7 +9772,7 @@
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
       <c r="A11" s="62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B11" s="63">
         <v>0</v>
@@ -9457,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F11" s="63">
         <v>0</v>
@@ -9477,7 +9804,7 @@
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1">
       <c r="A12" s="62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B12" s="63">
         <v>0</v>
@@ -9489,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F12" s="63">
         <v>0</v>
@@ -9509,7 +9836,7 @@
     </row>
     <row r="13" spans="1:10" s="61" customFormat="1">
       <c r="A13" s="64" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B13" s="65">
         <v>0</v>
@@ -9521,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F13" s="65">
         <v>0</v>
@@ -9541,7 +9868,7 @@
     </row>
     <row r="14" spans="1:10" s="58" customFormat="1">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9553,7 +9880,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -9573,7 +9900,7 @@
     </row>
     <row r="15" spans="1:10" s="58" customFormat="1">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -9585,7 +9912,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -9605,7 +9932,7 @@
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -9617,7 +9944,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -9637,7 +9964,7 @@
     </row>
     <row r="17" spans="1:10" s="58" customFormat="1">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -9649,7 +9976,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -9669,7 +9996,7 @@
     </row>
     <row r="18" spans="1:10" s="58" customFormat="1">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -9681,7 +10008,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -9701,7 +10028,7 @@
     </row>
     <row r="19" spans="1:10" s="58" customFormat="1">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -9713,7 +10040,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -9733,7 +10060,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -9746,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -9766,7 +10093,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -9779,7 +10106,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -9799,7 +10126,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -9812,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -9832,7 +10159,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -9845,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -9865,7 +10192,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -9878,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -9898,7 +10225,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -9911,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -9931,7 +10258,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -9944,7 +10271,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -9964,7 +10291,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -9977,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -9997,7 +10324,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -10010,7 +10337,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -10030,7 +10357,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -10043,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -10063,7 +10390,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -10076,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -10096,7 +10423,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -10109,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -10129,7 +10456,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -10142,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -10162,7 +10489,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -10175,7 +10502,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -10195,7 +10522,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -10208,7 +10535,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -10228,7 +10555,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -10241,7 +10568,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -10261,7 +10588,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -10274,7 +10601,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -10294,7 +10621,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -10307,7 +10634,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -10327,7 +10654,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -10340,7 +10667,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -10360,7 +10687,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -10373,7 +10700,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -10393,7 +10720,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -10406,7 +10733,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -10426,7 +10753,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -10439,7 +10766,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -10459,7 +10786,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -10472,7 +10799,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -10492,7 +10819,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -10505,7 +10832,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -10525,7 +10852,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -10538,7 +10865,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -10558,7 +10885,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -10571,7 +10898,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -10591,7 +10918,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -10604,7 +10931,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -10624,7 +10951,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -10637,7 +10964,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -10657,7 +10984,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -10670,7 +10997,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -10690,20 +11017,20 @@
     </row>
     <row r="69" spans="1:15">
       <c r="O69" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B74" s="55">
         <f>AVERAGE(J9:J13)</f>
@@ -10716,7 +11043,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="58" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B75" s="55">
         <f>J27</f>
@@ -10729,7 +11056,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B76" s="55">
         <f>AVERAGE(J20:J25)</f>
@@ -10742,7 +11069,7 @@
     </row>
     <row r="77" spans="1:15" ht="39">
       <c r="A77" s="52" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B77" s="55">
         <f>AVERAGE(J14:J19)</f>
@@ -10755,7 +11082,7 @@
     </row>
     <row r="78" spans="1:15" ht="39">
       <c r="A78" s="52" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B78" s="55">
         <f>AVERAGE(J43:J46)</f>
@@ -10768,7 +11095,7 @@
     </row>
     <row r="79" spans="1:15" ht="39">
       <c r="A79" s="52" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B79" s="55">
         <f>AVERAGE(J34:J42)</f>
@@ -10810,50 +11137,50 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="53" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="54" customFormat="1" ht="39">
       <c r="A5" s="54" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -10892,7 +11219,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11003,7 +11330,7 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -11042,7 +11369,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11280,7 +11607,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11308,10 +11634,10 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -11323,7 +11649,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -11347,12 +11673,12 @@
         <v>32</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -11369,7 +11695,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20">
@@ -11386,7 +11712,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -11407,7 +11733,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B8" s="19">
         <v>2070.8984270000001</v>
@@ -11424,7 +11750,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9" s="19">
         <v>1095.4940549999999</v>
@@ -11451,7 +11777,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -11472,7 +11798,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -11493,7 +11819,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B12" s="23">
         <v>1583.1962410000001</v>
@@ -11551,33 +11877,33 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26">
       <c r="A1" s="69" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11592,10 +11918,10 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J2" s="55">
         <f>AVERAGE(E2:E12)/60</f>
@@ -11608,7 +11934,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11623,10 +11949,10 @@
         <v>5352.9993340999999</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J3" s="55">
         <f>AVERAGE(E18:E23)/60</f>
@@ -11639,7 +11965,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11654,10 +11980,10 @@
         <v>5265.4794118399996</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J4" s="55">
         <f>AVERAGE(E13:E17)/60</f>
@@ -11670,7 +11996,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -11685,10 +12011,10 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J5" s="55">
         <f>AVERAGE(E24:E26)/60</f>
@@ -11701,7 +12027,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11716,12 +12042,12 @@
         <v>5202.5642039799995</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -11736,12 +12062,12 @@
         <v>5188.3370358900002</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -11756,12 +12082,12 @@
         <v>5284.6490089899999</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -11776,12 +12102,12 @@
         <v>5202.49168491</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -11796,12 +12122,12 @@
         <v>5155.4024429299998</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -11816,12 +12142,12 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11836,12 +12162,12 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -11856,12 +12182,12 @@
         <v>6667.9942650800003</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -11876,12 +12202,12 @@
         <v>6726.6931519500004</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -11896,12 +12222,12 @@
         <v>6773.2417349799998</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -11916,12 +12242,12 @@
         <v>6785.3887209900004</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -11936,12 +12262,12 @@
         <v>6923.0692589299997</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -11956,12 +12282,12 @@
         <v>5381.4183900400003</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -11976,12 +12302,12 @@
         <v>5433.5929520099999</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -11996,12 +12322,12 @@
         <v>5260.5256700500004</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -12016,12 +12342,12 @@
         <v>5255.02369189</v>
       </c>
       <c r="F21" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -12036,12 +12362,12 @@
         <v>5214.6700560999998</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -12056,12 +12382,12 @@
         <v>5197.2517461799998</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -12076,12 +12402,12 @@
         <v>6961.1671140199996</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -12096,12 +12422,12 @@
         <v>6703.2019269499997</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -12116,11 +12442,10 @@
         <v>6944.8268718700001</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -12134,10 +12459,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B34"/>
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12148,17 +12473,19 @@
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" s="70" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D1" s="71" t="s">
         <v>0</v>
@@ -12167,7 +12494,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G1" s="71" t="s">
         <v>3</v>
@@ -12176,12 +12503,12 @@
         <v>2</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B2">
         <v>4355246080</v>
@@ -12197,10 +12524,21 @@
         <f>B2/(1024*1024)/D2</f>
         <v>2.438141575352236</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="F2">
+        <v>668820</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G49" si="0">F2/1000</f>
+        <v>668.82</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H49" si="1">B2/(1024*1024)/G2</f>
+        <v>6.2101706410170143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B3">
         <v>4355246080</v>
@@ -12209,17 +12547,28 @@
         <v>1685499</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D47" si="0">C3/1000</f>
+        <f t="shared" ref="D3:D50" si="2">C3/1000</f>
         <v>1685.499</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E47" si="1">B3/(1024*1024)/D3</f>
+        <f t="shared" ref="E3:E50" si="3">B3/(1024*1024)/D3</f>
         <v>2.464247281146414</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="F3">
+        <v>655307</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>655.30700000000002</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>6.338229758151523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B4">
         <v>4355246080</v>
@@ -12228,17 +12577,40 @@
         <v>1688129</v>
       </c>
       <c r="D4">
+        <f t="shared" si="2"/>
+        <v>1688.1289999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>2.4604081371299231</v>
+      </c>
+      <c r="F4">
+        <v>636038</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>1688.1289999999999</v>
-      </c>
-      <c r="E4">
+        <v>636.03800000000001</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="1"/>
-        <v>2.4604081371299231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>6.5302487086070329</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B5">
         <v>4355246080</v>
@@ -12247,17 +12619,46 @@
         <v>1695271</v>
       </c>
       <c r="D5">
+        <f t="shared" si="2"/>
+        <v>1695.271</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>2.4500426941326787</v>
+      </c>
+      <c r="F5">
+        <v>606384</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>1695.271</v>
-      </c>
-      <c r="E5">
+        <v>606.38400000000001</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>2.4500426941326787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>6.8495974961822865</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(E18:E19)</f>
+        <v>0.53995934379886701</v>
+      </c>
+      <c r="M5">
+        <f>STDEV(E18:E19)</f>
+        <v>5.8470845595116861E-4</v>
+      </c>
+      <c r="N5">
+        <f>AVERAGE(H18)</f>
+        <v>2.0374459257692261</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B6">
         <v>4355246080</v>
@@ -12266,17 +12667,43 @@
         <v>1703947</v>
       </c>
       <c r="D6">
+        <f t="shared" si="2"/>
+        <v>1703.9469999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>2.4375677929683262</v>
+      </c>
+      <c r="F6">
+        <v>638583</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>1703.9469999999999</v>
-      </c>
-      <c r="E6">
+        <v>638.58299999999997</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>2.4375677929683262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>6.5042231442506306</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B7">
         <v>4355246080</v>
@@ -12285,17 +12712,47 @@
         <v>1666747</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>1666.7470000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>2.4919716838398389</v>
+      </c>
+      <c r="F7">
+        <v>643709</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>1666.7470000000001</v>
-      </c>
-      <c r="E7">
+        <v>643.70899999999995</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>2.4919716838398389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>6.4524285478764476</v>
+      </c>
+      <c r="K7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(E2:E16)</f>
+        <v>2.5672579445094459</v>
+      </c>
+      <c r="M7">
+        <f>STDEV(E2:E16)</f>
+        <v>0.4207742443067185</v>
+      </c>
+      <c r="N7">
+        <f>AVERAGE(H2:H11)</f>
+        <v>5.9655663577990685</v>
+      </c>
+      <c r="O7">
+        <f>STDEV(H2:H11)</f>
+        <v>1.3904000767211433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B8">
         <v>4355246080</v>
@@ -12304,17 +12761,47 @@
         <v>1710871</v>
       </c>
       <c r="D8">
+        <f t="shared" si="2"/>
+        <v>1710.8710000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>2.4277028064214075</v>
+      </c>
+      <c r="F8">
+        <v>654158</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>1710.8710000000001</v>
-      </c>
-      <c r="E8">
+        <v>654.15800000000002</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v>2.4277028064214075</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>6.3493625823195616</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(E39:E45)</f>
+        <v>13.770031078086097</v>
+      </c>
+      <c r="M8">
+        <f>STDEV(E39:E45)</f>
+        <v>1.4011170313972556</v>
+      </c>
+      <c r="N8">
+        <f>AVERAGE(H39:H50)</f>
+        <v>11.927974397960371</v>
+      </c>
+      <c r="O8">
+        <f>STDEV(H39:H50)</f>
+        <v>0.6064747988724396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B9">
         <v>4355246080</v>
@@ -12323,17 +12810,28 @@
         <v>1684736</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
+        <v>1684.7360000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>2.46536331397026</v>
+      </c>
+      <c r="F9">
+        <v>673985</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>1684.7360000000001</v>
-      </c>
-      <c r="E9">
+        <v>673.98500000000001</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>2.46536331397026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>6.1625797727323306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B10">
         <v>4355246080</v>
@@ -12342,17 +12840,28 @@
         <v>1694185</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
+        <v>1694.1849999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>2.451613211145772</v>
+      </c>
+      <c r="F10">
+        <v>669021</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>1694.1849999999999</v>
-      </c>
-      <c r="E10">
+        <v>669.02099999999996</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>2.451613211145772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>6.2083048635618319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B11">
         <v>4355246080</v>
@@ -12361,17 +12870,28 @@
         <v>1677345</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>1677.345</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>2.4762266129657284</v>
+      </c>
+      <c r="F11">
+        <v>2025579</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>1677.345</v>
-      </c>
-      <c r="E11">
+        <v>2025.579</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>2.4762266129657284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>2.0505180632920266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B12">
         <v>4355246080</v>
@@ -12380,17 +12900,25 @@
         <v>1712438</v>
       </c>
       <c r="D12">
+        <f t="shared" si="2"/>
+        <v>1712.4380000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>2.4254812893225912</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>1712.4380000000001</v>
-      </c>
-      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="e">
         <f t="shared" si="1"/>
-        <v>2.4254812893225912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B13">
         <v>4355246080</v>
@@ -12399,17 +12927,25 @@
         <v>1667097</v>
       </c>
       <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1667.097</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>2.4914485048710424</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="0"/>
-        <v>1667.097</v>
-      </c>
-      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="e">
         <f t="shared" si="1"/>
-        <v>2.4914485048710424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B14">
         <v>4355246080</v>
@@ -12418,453 +12954,946 @@
         <v>1669436</v>
       </c>
       <c r="D14">
+        <f t="shared" si="2"/>
+        <v>1669.4359999999999</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>2.4879578061842444</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="0"/>
-        <v>1669.4359999999999</v>
-      </c>
-      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="e">
         <f t="shared" si="1"/>
-        <v>2.4879578061842444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="B15">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="C15">
+        <v>1692244</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>1692.2439999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E16" si="4">B15/(1024*1024)/D15</f>
+        <v>2.4544252058952494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="B16">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="C16">
+        <v>1016449</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>1016.449</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>4.0862712522959832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="B17">
         <v>4355246080</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="C18">
+        <v>7686335</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>7686.335</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>0.5403727951130155</v>
+      </c>
+      <c r="F18">
+        <v>2038575</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>2038.575</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2.0374459257692261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="C19">
+        <v>7698115</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>7698.1149999999998</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>0.53954589248471863</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B21">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E21" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E22" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B23">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B29">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B30">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B31">
         <v>4355246080</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B32">
         <v>4355246080</v>
       </c>
       <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" t="e">
+      <c r="H32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B33">
         <v>4355246080</v>
       </c>
       <c r="D33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" t="e">
+      <c r="H33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B34">
         <v>4355246080</v>
       </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E34" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B35">
         <v>4355246080</v>
       </c>
       <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E35" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" t="e">
+      <c r="H35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="B36">
         <v>4355246080</v>
       </c>
-      <c r="C36">
-        <v>274028</v>
-      </c>
       <c r="D36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="0"/>
-        <v>274.02800000000002</v>
-      </c>
-      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="e">
         <f t="shared" si="1"/>
-        <v>15.157160319839578</v>
-      </c>
-      <c r="F36">
-        <v>342445</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="B37">
         <v>4355246080</v>
       </c>
-      <c r="C37">
-        <v>275148</v>
-      </c>
       <c r="D37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="0"/>
-        <v>275.14800000000002</v>
-      </c>
-      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="e">
         <f t="shared" si="1"/>
-        <v>15.095462544248912</v>
-      </c>
-      <c r="F37">
-        <v>330437</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="B38">
         <v>4355246080</v>
       </c>
       <c r="D38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E38" t="e">
+      <c r="H38" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38">
-        <v>335768</v>
-      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B39">
         <v>4355246080</v>
       </c>
+      <c r="C39">
+        <v>274028</v>
+      </c>
       <c r="D39">
+        <f t="shared" si="2"/>
+        <v>274.02800000000002</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>15.157160319839578</v>
+      </c>
+      <c r="F39">
+        <v>342445</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" t="e">
+        <v>342.44499999999999</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39">
-        <v>329786</v>
+        <v>12.128915090379477</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>4355246080</v>
       </c>
+      <c r="C40">
+        <v>275148</v>
+      </c>
       <c r="D40">
+        <f t="shared" si="2"/>
+        <v>275.14800000000002</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>15.095462544248912</v>
+      </c>
+      <c r="F40">
+        <v>330437</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" t="e">
+        <v>330.43700000000001</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40">
-        <v>335190</v>
+        <v>12.569676907020098</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B41">
         <v>4355246080</v>
       </c>
+      <c r="C41">
+        <v>338720</v>
+      </c>
       <c r="D41">
+        <f t="shared" si="2"/>
+        <v>338.72</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>12.262300212933987</v>
+      </c>
+      <c r="F41">
+        <v>335768</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" t="e">
+        <v>335.76799999999997</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41">
-        <v>325824</v>
+        <v>12.37010771760561</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B42">
         <v>4355246080</v>
       </c>
+      <c r="C42">
+        <v>275148</v>
+      </c>
       <c r="D42">
+        <f t="shared" si="2"/>
+        <v>275.14800000000002</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>15.095462544248912</v>
+      </c>
+      <c r="F42">
+        <v>329786</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" t="e">
+        <v>329.786</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42">
-        <v>369794</v>
+        <v>12.594489542081835</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B43">
         <v>4355246080</v>
       </c>
+      <c r="C43">
+        <v>295371</v>
+      </c>
       <c r="D43">
+        <f t="shared" si="2"/>
+        <v>295.37099999999998</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>14.061930007092776</v>
+      </c>
+      <c r="F43">
+        <v>335190</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" t="e">
+        <v>335.19</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43">
-        <v>372435</v>
+        <v>12.391438670977655</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B44">
         <v>4355246080</v>
       </c>
+      <c r="C44">
+        <v>335708</v>
+      </c>
       <c r="D44">
+        <f t="shared" si="2"/>
+        <v>335.70800000000003</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>12.3723185867629</v>
+      </c>
+      <c r="F44">
+        <v>325824</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" t="e">
+        <v>325.82400000000001</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44">
-        <v>373397</v>
+        <v>12.747637768012792</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B45">
         <v>4355246080</v>
       </c>
+      <c r="C45">
+        <v>336435</v>
+      </c>
       <c r="D45">
+        <f t="shared" si="2"/>
+        <v>336.435</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>12.34558333147562</v>
+      </c>
+      <c r="F45">
+        <v>369794</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" t="e">
+        <v>369.79399999999998</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45">
-        <v>356242</v>
+        <v>11.231892156511464</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B46">
         <v>4355246080</v>
       </c>
+      <c r="C46">
+        <v>332613</v>
+      </c>
       <c r="D46">
+        <f t="shared" si="2"/>
+        <v>332.613</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>12.487444351618848</v>
+      </c>
+      <c r="F46">
+        <v>372435</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" t="e">
+        <v>372.435</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46">
-        <v>355209</v>
+        <v>11.152244896760509</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B47">
         <v>4355246080</v>
       </c>
+      <c r="C47">
+        <v>322678</v>
+      </c>
       <c r="D47">
+        <f t="shared" si="2"/>
+        <v>322.678</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>12.871922870865074</v>
+      </c>
+      <c r="F47">
+        <v>373397</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" t="e">
+        <v>373.39699999999999</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47">
+        <v>11.123512851268222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48">
+        <v>4355246080</v>
+      </c>
+      <c r="C48">
+        <v>338743</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>338.74299999999999</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>12.261467626268292</v>
+      </c>
+      <c r="F48">
+        <v>356242</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>356.24200000000002</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>11.659170811204181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49">
+        <v>4355246080</v>
+      </c>
+      <c r="C49">
+        <v>335161</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>335.161</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>12.392510847398713</v>
+      </c>
+      <c r="F49">
+        <v>355209</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>355.209</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>11.693077394224245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50">
+        <v>4355246080</v>
+      </c>
+      <c r="C50">
+        <v>341798</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>341.798</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>12.151874288688056</v>
+      </c>
+      <c r="F50">
         <v>362006</v>
       </c>
-      <c r="G47">
-        <f>F47/1000</f>
+      <c r="G50">
+        <f>F50/1000</f>
         <v>362.00599999999997</v>
       </c>
-      <c r="H47">
-        <f>B47/(1024*1024)/G47</f>
+      <c r="H50">
+        <f>B50/(1024*1024)/G50</f>
         <v>11.473528969478407</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/papers/cloudcom10/performance/namd_runs.xlsx
+++ b/papers/cloudcom10/performance/namd_runs.xlsx
@@ -34,203 +34,299 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="220">
   <si>
-    <t>Download Time (in sec)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth (in Mib/s)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth (in MiB/s)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload Time (sec)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Same Affinity Zone (EU)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download (stddev)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload (stdev)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU-US</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU-Asia</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU (w/ Affinity)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (c1.xlarge)</t>
+    <t>Future Grid Nimbus</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mittelwert - Walltime (in sec)</t>
+  </si>
+  <si>
+    <t>Number Cores (Total)</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>Number Instances</t>
+  </si>
+  <si>
+    <t>Daten</t>
+  </si>
+  <si>
+    <t>LONI/Condor</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grid (Poseidon - adjusted)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condor Pool</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONI</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condor Ressourcen</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condor Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Size</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB (MPI)</t>
+  </si>
+  <si>
+    <t>QB (MPI)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Instances</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAX_RUNTIME (in min)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Period (in min)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max Cloud Pilots</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloud Pilot Size</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime (in min)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runtime (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t># Nimbus</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stdev (drop maxima)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Runtime (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon, Oliver</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oliver</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon (CHARM)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 core</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nodes</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Number Cores (Total)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EC2 (m1.large)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runs a Workload of 8 replicas in a fixed distribution</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t># TG</t>
+  </si>
+  <si>
+    <t># Nimbus</t>
+  </si>
+  <si>
+    <t># Condor</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>First SubJob Active (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Szenario</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia/EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>EUCA (Indiana)</t>
-  </si>
-  <si>
-    <t>Nimbus (Chicago)</t>
-  </si>
-  <si>
-    <t>f N</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neuer Run 02.08.10</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (cc1)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>4 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>1 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>2 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>4 Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>Summe - Number Instances</t>
-  </si>
-  <si>
-    <t>Average (drop maxima)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Machine</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus (Chicago)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (c1.xlarge)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m2.4xlarge)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Walltime (in sec)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Times</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup Time (in s)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instance</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>US</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Mittelwert </t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standardabweichung</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU/Asia/US</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Number Steps: </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAMD Run</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Nodes</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Poseidon</t>
-  </si>
-  <si>
-    <t>small</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Size</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Nodes</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deployment Initiation (in sec)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Azure</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 Number Cores</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Jobs</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue Time
+Nimbus</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -238,60 +334,19 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>Average</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stddev</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mittelwert - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Gesamt: Mittelwert - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Gesamt: STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>Gesamt: Mittelwert - Startup Time (in s)2</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAGA Pilot Sub-Job Runtime</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead (in s)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Overhead (in %)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>Download Time (in msec)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>File Size (in bytes)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Upload</t>
+    <t>Poseidon</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Poseidon </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>TG</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus Number Cores</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -572,319 +627,264 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>Mittelwert - Walltime (in sec)</t>
-  </si>
-  <si>
-    <t>Number Cores (Total)</t>
+    <t>Download Time (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth (in Mib/s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth (in MiB/s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload Time (sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Same Affinity Zone (EU)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download (stddev)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload (stdev)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU-US</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU-Asia</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU (w/ Affinity)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (c1.xlarge)</t>
+  </si>
+  <si>
+    <t>EC2 (m1.large)</t>
+  </si>
+  <si>
+    <t>EUCA (Indiana)</t>
+  </si>
+  <si>
+    <t>Nimbus (Chicago)</t>
+  </si>
+  <si>
+    <t>f N</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuer Run 02.08.10</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (cc1)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>4 STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>1 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>2 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>4 Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>Summe - Number Instances</t>
+  </si>
+  <si>
+    <t>Average (drop maxima)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Machine</t>
-  </si>
-  <si>
-    <t>Gesamtergebnis</t>
-  </si>
-  <si>
-    <t>Number Instances</t>
-  </si>
-  <si>
-    <t>Daten</t>
-  </si>
-  <si>
-    <t>LONI/Condor</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oliver</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid (Poseidon - adjusted)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Science Cloud</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condor Pool</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONI</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimbus (Chicago)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (c1.xlarge)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 (m2.4xlarge)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walltime (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Times</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startup Time (in s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instance</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1.large</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mittelwert </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU/Asia/US</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Cores</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Poseidon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condor Ressourcen</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condor Number Cores</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job Size</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>QB (MPI)</t>
-  </si>
-  <si>
-    <t>QB (MPI)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>US</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Region</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Instances</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAX_RUNTIME (in min)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check Period (in min)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Max Cloud Pilots</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloud Pilot Size</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in min)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runtime (in sec)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t># Nimbus</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stdev (drop maxima)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ergebnis</t>
-  </si>
-  <si>
-    <t>Runtime (in sec)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon, Oliver</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oliver</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>small</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Size</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Nodes</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment Initiation (in sec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azure</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2 Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Jobs</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>n/a</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stddev</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mittelwert - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Gesamt: Mittelwert - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Gesamt: STABW - Startup Time (in s)</t>
+  </si>
+  <si>
+    <t>Mittelwert - Startup Time (in s)2</t>
+  </si>
+  <si>
+    <t>Gesamt: Mittelwert - Startup Time (in s)2</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon (CHARM)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 core</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nodes</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Cores</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>m1.large</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 STABW - Startup Time (in s)</t>
-  </si>
-  <si>
-    <t>Number Cores (Total)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EC2 (m1.large)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runs a Workload of 8 replicas in a fixed distribution</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t># TG</t>
-  </si>
-  <si>
-    <t># Nimbus</t>
-  </si>
-  <si>
-    <t># Condor</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>small</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>First SubJob Active (in sec)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Szenario</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asia/EU</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EU</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Amazon </t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cores</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUCA (Indiana)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Number Steps: </t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAMD Run</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number Nodes</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cores</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queue Time
-Nimbus</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>n/a</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Poseidon </t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>TG</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nimbus Number Cores</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAGA Pilot Sub-Job Runtime</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead (in s)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overhead (in %)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>Download Time (in msec)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>File Size (in bytes)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1366,7 +1366,7 @@
                   <c:v>EC2 m1.large</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Science Cloud</c:v>
+                  <c:v>Future Grid Nimbus</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>LONI</c:v>
@@ -1405,11 +1405,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="681913144"/>
-        <c:axId val="681917752"/>
+        <c:axId val="646493672"/>
+        <c:axId val="646641704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="681913144"/>
+        <c:axId val="646493672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,14 +1425,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681917752"/>
+        <c:crossAx val="646641704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="681917752"/>
+        <c:axId val="646641704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1461,6 +1461,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1477,7 +1478,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681913144"/>
+        <c:crossAx val="646493672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1572,7 +1573,7 @@
                   <c:v>EC2 m1.large</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Science Cloud</c:v>
+                  <c:v>Future Grid Nimbus</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>LONI</c:v>
@@ -1611,11 +1612,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="681965656"/>
-        <c:axId val="681984664"/>
+        <c:axId val="645592264"/>
+        <c:axId val="645611272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="681965656"/>
+        <c:axId val="645592264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,14 +1632,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681984664"/>
+        <c:crossAx val="645611272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="681984664"/>
+        <c:axId val="645611272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1667,6 +1668,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1683,7 +1685,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="681965656"/>
+        <c:crossAx val="645592264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,11 +1761,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="682037816"/>
-        <c:axId val="682028840"/>
+        <c:axId val="645654504"/>
+        <c:axId val="645645528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="682037816"/>
+        <c:axId val="645654504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,14 +1781,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682028840"/>
+        <c:crossAx val="645645528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682028840"/>
+        <c:axId val="645645528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1821,7 +1823,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682037816"/>
+        <c:crossAx val="645654504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,11 +1979,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="682079832"/>
-        <c:axId val="682100088"/>
+        <c:axId val="646693976"/>
+        <c:axId val="646714232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="682079832"/>
+        <c:axId val="646693976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2022,14 +2024,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682100088"/>
+        <c:crossAx val="646714232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682100088"/>
+        <c:axId val="646714232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,7 +2066,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="682079832"/>
+        <c:crossAx val="646693976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2186,24 +2188,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="682138904"/>
-        <c:axId val="682156120"/>
+        <c:axId val="646753016"/>
+        <c:axId val="646770232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="682138904"/>
+        <c:axId val="646753016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682156120"/>
+        <c:crossAx val="646770232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682156120"/>
+        <c:axId val="646770232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,10 +2227,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682138904"/>
+        <c:crossAx val="646753016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2339,7 +2342,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.567257944509446</c:v>
+                  <c:v>2.558660899704312</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13.7700310780861</c:v>
@@ -2370,7 +2373,7 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.390400076721143</c:v>
+                    <c:v>1.439577821682163</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.60647479887244</c:v>
@@ -2391,7 +2394,7 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.390400076721143</c:v>
+                    <c:v>1.439577821682163</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>0.60647479887244</c:v>
@@ -2433,7 +2436,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.965566357799068</c:v>
+                  <c:v>5.791708221098321</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.92797439796037</c:v>
@@ -2442,24 +2445,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="471078904"/>
-        <c:axId val="471081304"/>
+        <c:axId val="646827032"/>
+        <c:axId val="646817944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="471078904"/>
+        <c:axId val="646827032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471081304"/>
+        <c:crossAx val="646817944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="471081304"/>
+        <c:axId val="646817944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,7 +2488,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="471078904"/>
+        <c:crossAx val="646827032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2496,6 +2499,11 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -2763,6 +2771,56 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Torsten Meier" refreshedDate="38663.816388888888" refreshedVersion="3" recordCount="16">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A30:D46" sheet="Setup Times"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Instance" numFmtId="0">
+      <sharedItems count="2">
+        <s v="2 cores"/>
+        <s v="2 core"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Number Instances" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Number Cores" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8" count="3">
+        <n v="2"/>
+        <n v="4"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Startup Time (in s)" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="276.08450388900002" maxValue="472.14579200700001" count="16">
+        <n v="313.49457287799999"/>
+        <n v="295.03079795000002"/>
+        <n v="276.08450388900002"/>
+        <n v="314.97212505300001"/>
+        <n v="315.11944603900002"/>
+        <n v="305.19036102299998"/>
+        <n v="365.65275192299998"/>
+        <n v="472.14579200700001"/>
+        <n v="397.81742381999999"/>
+        <n v="376.035724878"/>
+        <n v="372.41291689899998"/>
+        <n v="373.65681600599999"/>
+        <n v="362.95128488500001"/>
+        <n v="376.37267208100002"/>
+        <n v="361.68812417999999"/>
+        <n v="381.790049076"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Torsten Meier" refreshedDate="38663.819236111114" refreshedVersion="3" recordCount="20">
   <cacheSource type="worksheet">
     <worksheetSource ref="A53:E73" sheet="Setup Times"/>
@@ -2834,56 +2892,6 @@
         <d v="1904-01-01T18:55:00"/>
         <d v="1904-01-01T19:30:00"/>
         <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Torsten Meier" refreshedDate="38663.816388888888" refreshedVersion="3" recordCount="16">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A30:D46" sheet="Setup Times"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="Instance" numFmtId="0">
-      <sharedItems count="2">
-        <s v="2 cores"/>
-        <s v="2 core"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Number Instances" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="4"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Number Cores" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8" count="3">
-        <n v="2"/>
-        <n v="4"/>
-        <n v="8"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Startup Time (in s)" numFmtId="3">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="276.08450388900002" maxValue="472.14579200700001" count="16">
-        <n v="313.49457287799999"/>
-        <n v="295.03079795000002"/>
-        <n v="276.08450388900002"/>
-        <n v="314.97212505300001"/>
-        <n v="315.11944603900002"/>
-        <n v="305.19036102299998"/>
-        <n v="365.65275192299998"/>
-        <n v="472.14579200700001"/>
-        <n v="397.81742381999999"/>
-        <n v="376.035724878"/>
-        <n v="372.41291689899998"/>
-        <n v="373.65681600599999"/>
-        <n v="362.95128488500001"/>
-        <n v="376.37267208100002"/>
-        <n v="361.68812417999999"/>
-        <n v="381.790049076"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3054,6 +3062,107 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="15"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
   <r>
     <x v="0"/>
@@ -3194,107 +3303,6 @@
     <x v="3"/>
     <x v="19"/>
     <x v="19"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="15"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3617,7 +3625,75 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="G53:I63" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="5">
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Mittelwert - Startup Time (in s)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="STABW - Startup Time (in s)" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
+  </dataFields>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="G30:J44" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="4">
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -3699,74 +3775,6 @@
   </colItems>
   <dataFields count="2">
     <dataField name="Mittelwert - Startup Time (in s)2" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="STABW - Startup Time (in s)" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
-  </dataFields>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Daten" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="G53:I63" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="5">
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" includeNewItemsInFilter="1"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Mittelwert - Startup Time (in s)" fld="3" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="STABW - Startup Time (in s)" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
 </pivotTableDefinition>
@@ -4291,12 +4299,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -4304,36 +4312,36 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>64</v>
+        <v>214</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4353,7 +4361,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -4373,7 +4381,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -4393,7 +4401,7 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4413,7 +4421,7 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4433,7 +4441,7 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -4453,7 +4461,7 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4473,7 +4481,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4493,7 +4501,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -4513,7 +4521,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4533,7 +4541,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4553,7 +4561,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4573,7 +4581,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4593,7 +4601,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -4613,7 +4621,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -4633,7 +4641,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -4653,7 +4661,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4684,7 +4692,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4715,7 +4723,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -4746,7 +4754,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -4769,7 +4777,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4792,7 +4800,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -4813,7 +4821,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -4834,7 +4842,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -4855,7 +4863,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -4876,7 +4884,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -4897,7 +4905,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -4918,7 +4926,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -4939,7 +4947,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -4960,7 +4968,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -4981,7 +4989,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -5002,7 +5010,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -5023,7 +5031,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -5044,7 +5052,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="44" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B38" s="44">
         <v>2</v>
@@ -5065,7 +5073,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -5086,7 +5094,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -5107,7 +5115,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -5128,7 +5136,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -5149,7 +5157,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -5170,7 +5178,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5191,7 +5199,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5212,7 +5220,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5243,7 +5251,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -5274,7 +5282,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -5295,7 +5303,7 @@
     </row>
     <row r="49" spans="1:8" s="41" customFormat="1">
       <c r="A49" s="41" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B49" s="41">
         <v>2</v>
@@ -5316,7 +5324,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="39" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B50" s="39">
         <v>4</v>
@@ -5337,7 +5345,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -5358,7 +5366,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -5379,7 +5387,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -5400,7 +5408,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -5421,7 +5429,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -5442,7 +5450,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -5463,7 +5471,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -5484,7 +5492,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -5505,7 +5513,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -5526,7 +5534,7 @@
     </row>
     <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5547,7 +5555,7 @@
     </row>
     <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -5559,7 +5567,7 @@
     </row>
     <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -5571,7 +5579,7 @@
     </row>
     <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -5583,7 +5591,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5604,7 +5612,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5625,7 +5633,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5656,7 +5664,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5687,7 +5695,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -5718,7 +5726,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -5741,7 +5749,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -5764,7 +5772,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -5787,7 +5795,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -5810,7 +5818,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -5833,7 +5841,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -5856,7 +5864,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5879,7 +5887,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -5902,7 +5910,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -5925,7 +5933,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -5948,7 +5956,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -5971,7 +5979,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -5994,7 +6002,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -6017,7 +6025,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -6040,7 +6048,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -6063,7 +6071,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -6083,7 +6091,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6103,7 +6111,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6123,7 +6131,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -6143,7 +6151,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6163,7 +6171,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -6183,7 +6191,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -6203,7 +6211,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -6223,7 +6231,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -6243,7 +6251,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -6263,7 +6271,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -6283,7 +6291,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -6307,12 +6315,12 @@
     <row r="100" spans="1:6" s="66" customFormat="1"/>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6332,7 +6340,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -6352,7 +6360,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -6372,7 +6380,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -6392,7 +6400,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -6412,7 +6420,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -6432,7 +6440,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6452,7 +6460,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -6472,7 +6480,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -6492,7 +6500,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -6512,7 +6520,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -6532,7 +6540,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -6552,7 +6560,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -6572,7 +6580,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -6592,7 +6600,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -6612,7 +6620,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -6632,7 +6640,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -6652,7 +6660,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6672,7 +6680,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -6692,7 +6700,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6712,7 +6720,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -6732,7 +6740,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -6752,7 +6760,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -6772,7 +6780,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -6792,7 +6800,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -6825,8 +6833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="E120" sqref="E100:E120"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6841,45 +6849,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6894,7 +6902,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="I6" s="17">
         <v>221.43898490266665</v>
@@ -6902,7 +6910,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6918,7 +6926,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="I7" s="21">
         <v>27.888301147358074</v>
@@ -6926,7 +6934,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6942,7 +6950,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="18" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="I8" s="21">
         <v>6</v>
@@ -6950,7 +6958,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6968,7 +6976,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="I9" s="17">
         <v>230.1513251065</v>
@@ -6976,7 +6984,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6992,7 +7000,7 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="I10" s="21">
         <v>21.442701960879447</v>
@@ -7000,7 +7008,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7016,7 +7024,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="18" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="I11" s="21">
         <v>4</v>
@@ -7024,7 +7032,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -7042,7 +7050,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="I12" s="17">
         <v>524.47522211100011</v>
@@ -7050,7 +7058,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -7066,7 +7074,7 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="I13" s="21">
         <v>249.37176975472715</v>
@@ -7074,7 +7082,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -7090,7 +7098,7 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="18" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="I14" s="21">
         <v>32</v>
@@ -7098,7 +7106,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -7116,7 +7124,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="I15" s="17">
         <v>338.08045351500004</v>
@@ -7124,7 +7132,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -7140,7 +7148,7 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="I16" s="21">
         <v>46.784586737362908</v>
@@ -7148,7 +7156,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -7164,7 +7172,7 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="18" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="I17" s="21">
         <v>16</v>
@@ -7172,7 +7180,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -7187,7 +7195,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="17">
@@ -7196,7 +7204,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -7211,7 +7219,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="17">
@@ -7220,7 +7228,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -7235,7 +7243,7 @@
         <v>0.75</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="25">
@@ -7244,7 +7252,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -7261,7 +7269,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -7278,7 +7286,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -7295,7 +7303,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -7312,7 +7320,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -7329,19 +7337,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="C26" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D26" s="2">
         <f>AVERAGE(D6:D25)</f>
         <v>373.44653231864999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="D27" s="2">
         <f>STDEV(D6:D25)</f>
@@ -7351,42 +7359,42 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="26" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>183</v>
+        <v>45</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7404,7 +7412,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="J31" s="17">
         <v>302.94028916180002</v>
@@ -7412,7 +7420,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7429,7 +7437,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="J32" s="21">
         <v>17.23574117758357</v>
@@ -7437,7 +7445,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7452,7 +7460,7 @@
         <v>0.5625</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -7462,7 +7470,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7477,7 +7485,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -7487,7 +7495,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7508,7 +7516,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="J35" s="17">
         <v>305.19036102299998</v>
@@ -7516,7 +7524,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -7534,7 +7542,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="J36" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7542,7 +7550,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -7558,7 +7566,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -7568,7 +7576,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -7584,7 +7592,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -7594,7 +7602,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -7616,7 +7624,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="J39" s="17">
         <v>384.05235557549997</v>
@@ -7624,7 +7632,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -7642,7 +7650,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="J40" s="21">
         <v>32.66972061151673</v>
@@ -7650,7 +7658,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -7666,7 +7674,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -7676,7 +7684,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -7691,7 +7699,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -7701,7 +7709,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -7716,7 +7724,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>61</v>
+        <v>211</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -7726,7 +7734,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -7741,7 +7749,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -7751,7 +7759,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -7768,7 +7776,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -7785,7 +7793,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -7800,19 +7808,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="C48" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="D48" s="2">
         <f>AVERAGE(D30:D47)</f>
         <v>356.83130192700003</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="C49" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="D49" s="2">
         <f>STDEV(D31:D47)</f>
@@ -7829,40 +7837,40 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B52" s="26"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B53" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="H53" s="11" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -7880,7 +7888,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="I54" s="17">
         <v>14.1872649193</v>
@@ -7888,7 +7896,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -7904,7 +7912,7 @@
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="I55" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7912,7 +7920,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7930,7 +7938,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="I56" s="17">
         <v>44.782275199920001</v>
@@ -7938,7 +7946,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -7954,7 +7962,7 @@
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="I57" s="21">
         <v>15.843792242505828</v>
@@ -7962,7 +7970,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -7980,7 +7988,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="I58" s="17">
         <v>56.964924156674996</v>
@@ -7988,7 +7996,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -8004,7 +8012,7 @@
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="I59" s="21">
         <v>9.4994883808250847</v>
@@ -8012,7 +8020,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -8030,7 +8038,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="I60" s="17">
         <v>187.55037531850999</v>
@@ -8038,7 +8046,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -8054,7 +8062,7 @@
       </c>
       <c r="G61" s="32"/>
       <c r="H61" s="18" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="I61" s="21">
         <v>179.97433590633514</v>
@@ -8062,7 +8070,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -8077,7 +8085,7 @@
         <v>0.59236111111111112</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="17">
@@ -8086,7 +8094,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -8101,7 +8109,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="25">
@@ -8110,7 +8118,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -8127,7 +8135,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -8144,7 +8152,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -8161,7 +8169,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -8178,7 +8186,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -8195,7 +8203,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -8212,7 +8220,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -8229,7 +8237,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -8246,7 +8254,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -8263,7 +8271,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -8278,36 +8286,36 @@
     </row>
     <row r="74" spans="1:10">
       <c r="C74" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D74" s="2">
         <f>AVERAGE(D54:D73)</f>
         <v>117.073104536535</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="I74" s="55">
         <f>AVERAGE(D54:D63,D65:D66,D68:D70,D73)</f>
         <v>53.003791779293749</v>
       </c>
       <c r="J74" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="C75" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="D75" s="2">
         <f>STDEV(D54:D73)</f>
         <v>143.93518726021225</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="I75" s="55">
         <f>STDEV(D54:D63,D65:D66,D68:D70,D73)</f>
@@ -8323,26 +8331,26 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="26" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -8356,7 +8364,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -8370,7 +8378,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -8384,7 +8392,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -8398,7 +8406,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8412,7 +8420,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -8426,7 +8434,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -8440,7 +8448,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -8454,7 +8462,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -8468,7 +8476,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -8482,7 +8490,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -8496,7 +8504,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -8510,7 +8518,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -8524,7 +8532,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -8542,7 +8550,7 @@
         <v>331.21428571428572</v>
       </c>
       <c r="E95" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -8556,29 +8564,29 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="68" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="67" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>199</v>
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8593,12 +8601,12 @@
         <v>540.78749203699999</v>
       </c>
       <c r="F100" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8613,12 +8621,12 @@
         <v>535.53545093499997</v>
       </c>
       <c r="F101" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -8633,12 +8641,12 @@
         <v>545.29999999999995</v>
       </c>
       <c r="F102" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -8653,12 +8661,12 @@
         <v>803.84470940000006</v>
       </c>
       <c r="F103" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8673,12 +8681,12 @@
         <v>513.75138115899995</v>
       </c>
       <c r="F104" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8693,12 +8701,12 @@
         <v>533.84486103100005</v>
       </c>
       <c r="F105" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -8713,12 +8721,12 @@
         <v>530.13947606099998</v>
       </c>
       <c r="F106" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8733,12 +8741,12 @@
         <v>540.12562584900002</v>
       </c>
       <c r="F107" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B108">
         <v>16</v>
@@ -8753,12 +8761,12 @@
         <v>640.48868703799997</v>
       </c>
       <c r="F108" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B109">
         <v>16</v>
@@ -8773,12 +8781,12 @@
         <v>514.74440503100004</v>
       </c>
       <c r="F109" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B110">
         <v>16</v>
@@ -8791,12 +8799,12 @@
         <v>535.21085310000001</v>
       </c>
       <c r="F110" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B111">
         <v>16</v>
@@ -8809,12 +8817,12 @@
         <v>607.65833091699994</v>
       </c>
       <c r="F111" s="55" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -8827,12 +8835,12 @@
         <v>596.06263589900004</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B113">
         <v>16</v>
@@ -8845,12 +8853,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B114">
         <v>16</v>
@@ -8863,12 +8871,12 @@
         <v>527.22448778199998</v>
       </c>
       <c r="F114" s="55" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B115">
         <v>16</v>
@@ -8881,12 +8889,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F115" s="55" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B116">
         <v>16</v>
@@ -8899,12 +8907,12 @@
         <v>500.43472504599998</v>
       </c>
       <c r="F116" s="55" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B117">
         <v>16</v>
@@ -8917,12 +8925,12 @@
         <v>512.97764587400002</v>
       </c>
       <c r="F117" s="55" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -8939,7 +8947,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -8958,7 +8966,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -8977,19 +8985,19 @@
     </row>
     <row r="121" spans="1:8">
       <c r="D121" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E121" s="55">
         <f>AVERAGE(E100:E120)</f>
         <v>569.53688043885711</v>
       </c>
       <c r="F121" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="D122" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E122">
         <f>STDEV(E100:E120)</f>
@@ -8997,6 +9005,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId4"/>
@@ -9029,69 +9038,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="28" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="28" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>204</v>
+        <v>66</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9126,13 +9135,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9167,13 +9176,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B8" s="31">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9208,7 +9217,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -9246,7 +9255,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -9281,7 +9290,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -9322,7 +9331,7 @@
     </row>
     <row r="12" spans="1:14" s="49" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="49" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B12" s="49">
         <v>32</v>
@@ -9363,7 +9372,7 @@
     </row>
     <row r="13" spans="1:14" ht="40" thickTop="1">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -9394,12 +9403,12 @@
         <v>2</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9430,12 +9439,12 @@
         <v>2</v>
       </c>
       <c r="N14" s="52" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B15" s="41">
         <v>16</v>
@@ -9466,12 +9475,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -9502,12 +9511,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="52" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -9540,7 +9549,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -9573,7 +9582,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -9612,17 +9621,16 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="28" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9650,17 +9658,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="56" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -9668,7 +9676,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -9676,39 +9684,39 @@
     </row>
     <row r="8" spans="1:10" s="58" customFormat="1" ht="39">
       <c r="A8" s="29" t="s">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>174</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1">
       <c r="A9" s="62" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="B9" s="63">
         <v>0</v>
@@ -9720,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="F9" s="63">
         <v>0</v>
@@ -9740,7 +9748,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1">
       <c r="A10" s="62" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="B10" s="63">
         <v>0</v>
@@ -9752,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="F10" s="63">
         <v>0</v>
@@ -9772,7 +9780,7 @@
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
       <c r="A11" s="62" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="B11" s="63">
         <v>0</v>
@@ -9784,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="F11" s="63">
         <v>0</v>
@@ -9804,7 +9812,7 @@
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1">
       <c r="A12" s="62" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="B12" s="63">
         <v>0</v>
@@ -9816,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="F12" s="63">
         <v>0</v>
@@ -9836,7 +9844,7 @@
     </row>
     <row r="13" spans="1:10" s="61" customFormat="1">
       <c r="A13" s="64" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="B13" s="65">
         <v>0</v>
@@ -9848,7 +9856,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="F13" s="65">
         <v>0</v>
@@ -9868,7 +9876,7 @@
     </row>
     <row r="14" spans="1:10" s="58" customFormat="1">
       <c r="A14" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9880,7 +9888,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -9900,7 +9908,7 @@
     </row>
     <row r="15" spans="1:10" s="58" customFormat="1">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -9912,7 +9920,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -9932,7 +9940,7 @@
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -9944,7 +9952,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -9964,7 +9972,7 @@
     </row>
     <row r="17" spans="1:10" s="58" customFormat="1">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -9976,7 +9984,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -9996,7 +10004,7 @@
     </row>
     <row r="18" spans="1:10" s="58" customFormat="1">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -10008,7 +10016,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -10028,7 +10036,7 @@
     </row>
     <row r="19" spans="1:10" s="58" customFormat="1">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -10040,7 +10048,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -10060,7 +10068,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10073,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -10093,7 +10101,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10106,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -10126,7 +10134,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10139,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -10159,7 +10167,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10172,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -10192,7 +10200,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10205,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -10225,7 +10233,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -10238,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -10258,7 +10266,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -10271,7 +10279,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -10291,7 +10299,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -10304,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -10324,7 +10332,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -10337,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -10357,7 +10365,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -10370,7 +10378,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -10390,7 +10398,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -10403,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -10423,7 +10431,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -10436,7 +10444,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -10456,7 +10464,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -10469,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -10489,7 +10497,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -10502,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -10522,7 +10530,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -10535,7 +10543,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -10555,7 +10563,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -10568,7 +10576,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -10588,7 +10596,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -10601,7 +10609,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -10621,7 +10629,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -10634,7 +10642,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -10654,7 +10662,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -10667,7 +10675,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -10687,7 +10695,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -10700,7 +10708,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -10720,7 +10728,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -10733,7 +10741,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -10753,7 +10761,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -10766,7 +10774,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -10786,7 +10794,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -10799,7 +10807,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -10819,7 +10827,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -10832,7 +10840,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -10852,7 +10860,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -10865,7 +10873,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -10885,7 +10893,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -10898,7 +10906,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -10918,7 +10926,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -10931,7 +10939,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -10951,7 +10959,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -10964,7 +10972,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -10984,7 +10992,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -10997,7 +11005,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -11017,20 +11025,20 @@
     </row>
     <row r="69" spans="1:15">
       <c r="O69" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B74" s="55">
         <f>AVERAGE(J9:J13)</f>
@@ -11043,7 +11051,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="58" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B75" s="55">
         <f>J27</f>
@@ -11056,7 +11064,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B76" s="55">
         <f>AVERAGE(J20:J25)</f>
@@ -11069,7 +11077,7 @@
     </row>
     <row r="77" spans="1:15" ht="39">
       <c r="A77" s="52" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B77" s="55">
         <f>AVERAGE(J14:J19)</f>
@@ -11082,7 +11090,7 @@
     </row>
     <row r="78" spans="1:15" ht="39">
       <c r="A78" s="52" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B78" s="55">
         <f>AVERAGE(J43:J46)</f>
@@ -11095,7 +11103,7 @@
     </row>
     <row r="79" spans="1:15" ht="39">
       <c r="A79" s="52" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B79" s="55">
         <f>AVERAGE(J34:J42)</f>
@@ -11137,50 +11145,50 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="53" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="54" customFormat="1" ht="39">
       <c r="A5" s="54" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>214</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11219,7 +11227,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>215</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11330,7 +11338,7 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>215</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -11369,7 +11377,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>215</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11607,6 +11615,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11634,10 +11643,10 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -11649,7 +11658,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -11673,12 +11682,12 @@
         <v>32</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -11695,7 +11704,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20">
@@ -11712,7 +11721,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -11733,7 +11742,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="B8" s="19">
         <v>2070.8984270000001</v>
@@ -11750,7 +11759,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B9" s="19">
         <v>1095.4940549999999</v>
@@ -11777,7 +11786,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -11798,7 +11807,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -11819,7 +11828,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="B12" s="23">
         <v>1583.1962410000001</v>
@@ -11847,6 +11856,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11862,7 +11872,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11877,33 +11887,33 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26">
       <c r="A1" s="69" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11918,10 +11928,10 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="J2" s="55">
         <f>AVERAGE(E2:E12)/60</f>
@@ -11934,7 +11944,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11949,10 +11959,10 @@
         <v>5352.9993340999999</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="J3" s="55">
         <f>AVERAGE(E18:E23)/60</f>
@@ -11965,7 +11975,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11980,10 +11990,10 @@
         <v>5265.4794118399996</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="J4" s="55">
         <f>AVERAGE(E13:E17)/60</f>
@@ -11996,7 +12006,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -12011,10 +12021,10 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="J5" s="55">
         <f>AVERAGE(E24:E26)/60</f>
@@ -12027,7 +12037,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -12042,12 +12052,12 @@
         <v>5202.5642039799995</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -12062,12 +12072,12 @@
         <v>5188.3370358900002</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -12082,12 +12092,12 @@
         <v>5284.6490089899999</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12102,12 +12112,12 @@
         <v>5202.49168491</v>
       </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12122,12 +12132,12 @@
         <v>5155.4024429299998</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -12142,12 +12152,12 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -12162,12 +12172,12 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F12" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -12182,12 +12192,12 @@
         <v>6667.9942650800003</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -12202,12 +12212,12 @@
         <v>6726.6931519500004</v>
       </c>
       <c r="F14" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -12222,12 +12232,12 @@
         <v>6773.2417349799998</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -12242,12 +12252,12 @@
         <v>6785.3887209900004</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -12262,12 +12272,12 @@
         <v>6923.0692589299997</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -12282,12 +12292,12 @@
         <v>5381.4183900400003</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -12302,12 +12312,12 @@
         <v>5433.5929520099999</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -12322,12 +12332,12 @@
         <v>5260.5256700500004</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -12342,12 +12352,12 @@
         <v>5255.02369189</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -12362,12 +12372,12 @@
         <v>5214.6700560999998</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -12382,12 +12392,12 @@
         <v>5197.2517461799998</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -12402,12 +12412,12 @@
         <v>6961.1671140199996</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -12422,12 +12432,12 @@
         <v>6703.2019269499997</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -12442,10 +12452,11 @@
         <v>6944.8268718700001</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -12462,7 +12473,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12479,36 +12490,36 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="70" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>67</v>
+        <v>217</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>4355246080</v>
@@ -12538,7 +12549,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>4355246080</v>
@@ -12568,7 +12579,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>4355246080</v>
@@ -12596,21 +12607,21 @@
         <v>6.5302487086070329</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="O4" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>4355246080</v>
@@ -12638,7 +12649,7 @@
         <v>6.8495974961822865</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="L5">
         <f>AVERAGE(E18:E19)</f>
@@ -12658,7 +12669,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>4355246080</v>
@@ -12686,7 +12697,7 @@
         <v>6.5042231442506306</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -12703,7 +12714,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>4355246080</v>
@@ -12731,28 +12742,28 @@
         <v>6.4524285478764476</v>
       </c>
       <c r="K7" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="L7">
-        <f>AVERAGE(E2:E16)</f>
-        <v>2.5672579445094459</v>
+        <f>AVERAGE(E2:E17)</f>
+        <v>2.5586608997043121</v>
       </c>
       <c r="M7">
         <f>STDEV(E2:E16)</f>
         <v>0.4207742443067185</v>
       </c>
       <c r="N7">
-        <f>AVERAGE(H2:H11)</f>
-        <v>5.9655663577990685</v>
+        <f>AVERAGE(H2:H12)</f>
+        <v>5.7917082210983217</v>
       </c>
       <c r="O7">
-        <f>STDEV(H2:H11)</f>
-        <v>1.3904000767211433</v>
+        <f>STDEV(H2:H12)</f>
+        <v>1.4395778216821631</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>4355246080</v>
@@ -12780,7 +12791,7 @@
         <v>6.3493625823195616</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="L8">
         <f>AVERAGE(E39:E45)</f>
@@ -12801,7 +12812,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>4355246080</v>
@@ -12831,7 +12842,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>4355246080</v>
@@ -12861,7 +12872,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B11">
         <v>4355246080</v>
@@ -12891,7 +12902,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>4355246080</v>
@@ -12907,18 +12918,21 @@
         <f t="shared" si="3"/>
         <v>2.4254812893225912</v>
       </c>
+      <c r="F12">
+        <v>1024761</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" t="e">
+        <v>1024.761</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.0531268540908565</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>4355246080</v>
@@ -12945,7 +12959,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>4355246080</v>
@@ -12972,7 +12986,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>4355246080</v>
@@ -12991,7 +13005,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>4355246080</v>
@@ -13010,15 +13024,26 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>4355246080</v>
       </c>
+      <c r="C17">
+        <v>1709461</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>1709.461</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17" si="5">B17/(1024*1024)/D17</f>
+        <v>2.4297052276273048</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>4355246080</v>
@@ -13048,7 +13073,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B19">
         <v>4355246080</v>
@@ -13075,7 +13100,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B20">
         <v>4355246080</v>
@@ -13099,7 +13124,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B21">
         <v>4355246080</v>
@@ -13123,7 +13148,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>4355246080</v>
@@ -13147,7 +13172,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>4355246080</v>
@@ -13171,7 +13196,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B24">
         <v>4355246080</v>
@@ -13195,7 +13220,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B25">
         <v>4355246080</v>
@@ -13219,7 +13244,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>4355246080</v>
@@ -13243,7 +13268,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>4355246080</v>
@@ -13267,7 +13292,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B28">
         <v>4355246080</v>
@@ -13291,7 +13316,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>4355246080</v>
@@ -13315,7 +13340,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B30">
         <v>4355246080</v>
@@ -13339,7 +13364,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B31">
         <v>4355246080</v>
@@ -13363,7 +13388,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B32">
         <v>4355246080</v>
@@ -13387,7 +13412,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B33">
         <v>4355246080</v>
@@ -13411,7 +13436,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B34">
         <v>4355246080</v>
@@ -13435,7 +13460,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B35">
         <v>4355246080</v>
@@ -13459,7 +13484,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B36">
         <v>4355246080</v>
@@ -13483,7 +13508,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B37">
         <v>4355246080</v>
@@ -13507,7 +13532,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>4355246080</v>
@@ -13531,7 +13556,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B39">
         <v>4355246080</v>
@@ -13561,7 +13586,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="B40">
         <v>4355246080</v>
@@ -13591,7 +13616,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>4355246080</v>
@@ -13621,7 +13646,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>4355246080</v>
@@ -13651,7 +13676,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B43">
         <v>4355246080</v>
@@ -13681,7 +13706,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>4355246080</v>
@@ -13711,7 +13736,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>4355246080</v>
@@ -13741,7 +13766,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>4355246080</v>
@@ -13771,7 +13796,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B47">
         <v>4355246080</v>
@@ -13801,7 +13826,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B48">
         <v>4355246080</v>
@@ -13831,7 +13856,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B49">
         <v>4355246080</v>
@@ -13861,7 +13886,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B50">
         <v>4355246080</v>
@@ -13890,9 +13915,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/cloudcom10/performance/namd_runs.xlsx
+++ b/papers/cloudcom10/performance/namd_runs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="37960" windowHeight="22540" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="35000" windowHeight="22540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NAMD Runtimes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="227">
+  <si>
+    <t>EU (same DC)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU (same DC)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average BW</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>STDDEV</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU (aff)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>extralarge</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>EU (Affinity)</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
   <si>
     <t>Future Grid Nimbus</t>
     <phoneticPr fontId="16" type="noConversion"/>
@@ -1014,7 +1042,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1169,11 +1197,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1282,6 +1319,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1310,7 +1349,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$122)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$130)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1334,7 +1373,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$122)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$130)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1359,7 +1398,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$121)</c:f>
+              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$129)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1382,7 +1421,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$121)</c:f>
+              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$129)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1405,11 +1444,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="646493672"/>
-        <c:axId val="646641704"/>
+        <c:axId val="629840184"/>
+        <c:axId val="629849400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="646493672"/>
+        <c:axId val="629840184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1425,14 +1464,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646641704"/>
+        <c:crossAx val="629849400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="646641704"/>
+        <c:axId val="629849400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1478,7 +1517,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646493672"/>
+        <c:crossAx val="629840184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1517,7 +1556,7 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$122)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$130)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1541,7 +1580,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$122)</c:f>
+                <c:f>('Setup Times'!$D$27,'Setup Times'!$D$49,'Setup Times'!$D$75,'Setup Times'!$D$96,'Setup Times'!$E$130)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1566,7 +1605,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$121)</c:f>
+              <c:f>('Setup Times'!$E$26,'Setup Times'!$E$48,'Setup Times'!$E$74,'Setup Times'!$E$95,'Setup Times'!$F$129)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1589,7 +1628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$121)</c:f>
+              <c:f>('Setup Times'!$D$26,'Setup Times'!$D$48,'Setup Times'!$D$74,'Setup Times'!$D$95,'Setup Times'!$E$129)</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1612,11 +1651,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="645592264"/>
-        <c:axId val="645611272"/>
+        <c:axId val="646235976"/>
+        <c:axId val="646254984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="645592264"/>
+        <c:axId val="646235976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,14 +1671,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645611272"/>
+        <c:crossAx val="646254984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="645611272"/>
+        <c:axId val="646254984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -1685,7 +1724,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645592264"/>
+        <c:crossAx val="646235976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1761,11 +1800,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="645654504"/>
-        <c:axId val="645645528"/>
+        <c:axId val="646300888"/>
+        <c:axId val="646291912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="645654504"/>
+        <c:axId val="646300888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,14 +1820,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645645528"/>
+        <c:crossAx val="646291912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="645645528"/>
+        <c:axId val="646291912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,7 +1862,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645654504"/>
+        <c:crossAx val="646300888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1979,11 +2018,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="646693976"/>
-        <c:axId val="646714232"/>
+        <c:axId val="646340952"/>
+        <c:axId val="646361208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="646693976"/>
+        <c:axId val="646340952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,14 +2063,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646714232"/>
+        <c:crossAx val="646361208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="646714232"/>
+        <c:axId val="646361208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2105,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646693976"/>
+        <c:crossAx val="646340952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2188,24 +2227,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="646753016"/>
-        <c:axId val="646770232"/>
+        <c:axId val="646399848"/>
+        <c:axId val="646417064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="646753016"/>
+        <c:axId val="646399848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="646770232"/>
+        <c:crossAx val="646417064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="646770232"/>
+        <c:axId val="646417064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2270,7 @@
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="646753016"/>
+        <c:crossAx val="646399848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2268,10 +2307,10 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Azure Data'!$M$5:$M$8</c:f>
+                <c:f>'Azure Data'!$M$5:$M$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
                     <c:v>0.000584708455951168</c:v>
                   </c:pt>
@@ -2279,9 +2318,12 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.420774244306718</c:v>
+                    <c:v>4.790417234718872</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>0.823858570240955</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>1.401117031397256</c:v>
                   </c:pt>
                 </c:numCache>
@@ -2289,10 +2331,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Azure Data'!$M$5:$M$8</c:f>
+                <c:f>'Azure Data'!$M$5:$M$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
                     <c:v>0.000584708455951168</c:v>
                   </c:pt>
@@ -2300,9 +2342,12 @@
                     <c:v>0.0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.420774244306718</c:v>
+                    <c:v>4.790417234718872</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>0.823858570240955</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>1.401117031397256</c:v>
                   </c:pt>
                 </c:numCache>
@@ -2311,9 +2356,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Azure Data'!$K$5:$K$8</c:f>
+              <c:f>'Azure Data'!$K$5:$K$18</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>EU-US</c:v>
                 </c:pt>
@@ -2324,6 +2369,21 @@
                   <c:v>EU</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>EU (same DC)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>EU-US</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>EU-Asia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>EU</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EU (same DC)</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>EU (w/ Affinity)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2331,20 +2391,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Azure Data'!$L$5:$L$8</c:f>
+              <c:f>'Azure Data'!$L$5:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.539959343798867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.187218487471803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.558660899704312</c:v>
+                  <c:v>5.637397675056382</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12.87495695005975</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>13.7700310780861</c:v>
                 </c:pt>
               </c:numCache>
@@ -2362,10 +2425,10 @@
             <c:errValType val="cust"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Azure Data'!$O$5:$O$8</c:f>
+                <c:f>'Azure Data'!$O$5:$O$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
                     <c:v>0.0</c:v>
                   </c:pt>
@@ -2376,6 +2439,9 @@
                     <c:v>1.439577821682163</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>0.437133926865905</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.60647479887244</c:v>
                   </c:pt>
                 </c:numCache>
@@ -2383,10 +2449,10 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Azure Data'!$O$5:$O$8</c:f>
+                <c:f>'Azure Data'!$O$5:$O$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="5"/>
                   <c:pt idx="0">
                     <c:v>0.0</c:v>
                   </c:pt>
@@ -2397,6 +2463,9 @@
                     <c:v>1.439577821682163</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>0.437133926865905</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>0.60647479887244</c:v>
                   </c:pt>
                 </c:numCache>
@@ -2405,9 +2474,9 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Azure Data'!$K$5:$K$8</c:f>
+              <c:f>'Azure Data'!$K$5:$K$18</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>EU-US</c:v>
                 </c:pt>
@@ -2418,6 +2487,21 @@
                   <c:v>EU</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>EU (same DC)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>EU-US</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>EU-Asia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>EU</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>EU (same DC)</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>EU (w/ Affinity)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2425,44 +2509,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Azure Data'!$N$5:$N$8</c:f>
+              <c:f>'Azure Data'!$N$5:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>2.037445925769226</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.186890377673017</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5.791708221098321</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12.03503736394791</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>11.92797439796037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="646827032"/>
-        <c:axId val="646817944"/>
+        <c:axId val="646480808"/>
+        <c:axId val="646483864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="646827032"/>
+        <c:axId val="646480808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="646817944"/>
+        <c:crossAx val="646483864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="646817944"/>
+        <c:axId val="646483864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2575,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="646827032"/>
+        <c:crossAx val="646480808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2504,6 +2591,191 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="de-DE"/>
+  <c:style val="17"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Azure Data'!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average BW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Azure Data'!$M$14:$M$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.483300956162787</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.562276139285115</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.991502985167347</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.73732828500386</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.835023988802959</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Azure Data'!$M$14:$M$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.483300956162787</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.562276139285115</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.991502985167347</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.73732828500386</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.835023988802959</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Azure Data'!$K$14:$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>EU-US</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EU-Asia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EU (same DC)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EU (w/ Affinity)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Azure Data'!$L$14:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.662708025488308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.437880555250121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.687321675246422</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.3567087663405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.53779023215209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="514461352"/>
+        <c:axId val="514464520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="514461352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="514464520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="514464520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Bandwidth (in MiB/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="514461352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -2686,16 +2958,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2709,6 +2981,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4299,12 +4601,12 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -4312,36 +4614,36 @@
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4361,7 +4663,7 @@
     </row>
     <row r="6" spans="1:9" s="4" customFormat="1">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -4381,7 +4683,7 @@
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -4401,7 +4703,7 @@
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4421,7 +4723,7 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4441,7 +4743,7 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -4461,7 +4763,7 @@
     </row>
     <row r="11" spans="1:9" s="4" customFormat="1">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4481,7 +4783,7 @@
     </row>
     <row r="12" spans="1:9" s="4" customFormat="1">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4501,7 +4803,7 @@
     </row>
     <row r="13" spans="1:9" s="4" customFormat="1">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -4521,7 +4823,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4541,7 +4843,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4561,7 +4863,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4581,7 +4883,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4601,7 +4903,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -4621,7 +4923,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -4641,7 +4943,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -4661,7 +4963,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4692,7 +4994,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4723,7 +5025,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -4754,7 +5056,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -4777,7 +5079,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -4800,7 +5102,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -4821,7 +5123,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -4842,7 +5144,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -4863,7 +5165,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -4884,7 +5186,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -4905,7 +5207,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -4926,7 +5228,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -4947,7 +5249,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -4968,7 +5270,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -4989,7 +5291,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -5010,7 +5312,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -5031,7 +5333,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -5052,7 +5354,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="44" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B38" s="44">
         <v>2</v>
@@ -5073,7 +5375,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -5094,7 +5396,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -5115,7 +5417,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -5136,7 +5438,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -5157,7 +5459,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -5178,7 +5480,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5199,7 +5501,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5220,7 +5522,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5251,7 +5553,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -5282,7 +5584,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -5303,7 +5605,7 @@
     </row>
     <row r="49" spans="1:8" s="41" customFormat="1">
       <c r="A49" s="41" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B49" s="41">
         <v>2</v>
@@ -5324,7 +5626,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="39" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B50" s="39">
         <v>4</v>
@@ -5345,7 +5647,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -5366,7 +5668,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -5387,7 +5689,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -5408,7 +5710,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -5429,7 +5731,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -5450,7 +5752,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -5471,7 +5773,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -5492,7 +5794,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -5513,7 +5815,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -5534,7 +5836,7 @@
     </row>
     <row r="60" spans="1:8" hidden="1">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -5555,7 +5857,7 @@
     </row>
     <row r="61" spans="1:8" hidden="1">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -5567,7 +5869,7 @@
     </row>
     <row r="62" spans="1:8" hidden="1">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -5579,7 +5881,7 @@
     </row>
     <row r="63" spans="1:8" hidden="1">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -5591,7 +5893,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -5612,7 +5914,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -5633,7 +5935,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -5664,7 +5966,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -5695,7 +5997,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -5726,7 +6028,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -5749,7 +6051,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -5772,7 +6074,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -5795,7 +6097,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -5818,7 +6120,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -5841,7 +6143,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -5864,7 +6166,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -5887,7 +6189,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -5910,7 +6212,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -5933,7 +6235,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -5956,7 +6258,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -5979,7 +6281,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -6002,7 +6304,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -6025,7 +6327,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -6048,7 +6350,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -6071,7 +6373,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -6091,7 +6393,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6111,7 +6413,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6131,7 +6433,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -6151,7 +6453,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6171,7 +6473,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -6191,7 +6493,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -6211,7 +6513,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -6231,7 +6533,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -6251,7 +6553,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -6271,7 +6573,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -6291,7 +6593,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -6315,12 +6617,12 @@
     <row r="100" spans="1:6" s="66" customFormat="1"/>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6340,7 +6642,7 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -6360,7 +6662,7 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -6380,7 +6682,7 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -6400,7 +6702,7 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -6420,7 +6722,7 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -6440,7 +6742,7 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -6460,7 +6762,7 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -6480,7 +6782,7 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -6500,7 +6802,7 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -6520,7 +6822,7 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -6540,7 +6842,7 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -6560,7 +6862,7 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -6580,7 +6882,7 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -6600,7 +6902,7 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -6620,7 +6922,7 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -6640,7 +6942,7 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -6660,7 +6962,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -6680,7 +6982,7 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -6700,7 +7002,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -6720,7 +7022,7 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -6740,7 +7042,7 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -6760,7 +7062,7 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -6780,7 +7082,7 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -6800,7 +7102,7 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -6831,10 +7133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6849,45 +7151,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6902,7 +7204,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I6" s="17">
         <v>221.43898490266665</v>
@@ -6910,7 +7212,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6926,7 +7228,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I7" s="21">
         <v>27.888301147358074</v>
@@ -6934,7 +7236,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6950,7 +7252,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="18" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I8" s="21">
         <v>6</v>
@@ -6958,7 +7260,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6976,7 +7278,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I9" s="17">
         <v>230.1513251065</v>
@@ -6984,7 +7286,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -7000,7 +7302,7 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I10" s="21">
         <v>21.442701960879447</v>
@@ -7008,7 +7310,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7024,7 +7326,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="18" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I11" s="21">
         <v>4</v>
@@ -7032,7 +7334,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -7050,7 +7352,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I12" s="17">
         <v>524.47522211100011</v>
@@ -7058,7 +7360,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -7074,7 +7376,7 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I13" s="21">
         <v>249.37176975472715</v>
@@ -7082,7 +7384,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -7098,7 +7400,7 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="18" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I14" s="21">
         <v>32</v>
@@ -7106,7 +7408,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -7124,7 +7426,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I15" s="17">
         <v>338.08045351500004</v>
@@ -7132,7 +7434,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -7148,7 +7450,7 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I16" s="21">
         <v>46.784586737362908</v>
@@ -7156,7 +7458,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -7172,7 +7474,7 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="18" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I17" s="21">
         <v>16</v>
@@ -7180,7 +7482,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -7195,7 +7497,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="17">
@@ -7204,7 +7506,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -7219,7 +7521,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="17">
@@ -7228,7 +7530,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -7243,7 +7545,7 @@
         <v>0.75</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="25">
@@ -7252,7 +7554,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -7269,7 +7571,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -7286,7 +7588,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -7303,7 +7605,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -7320,7 +7622,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -7337,19 +7639,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="C26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D26" s="2">
         <f>AVERAGE(D6:D25)</f>
         <v>373.44653231864999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D27" s="2">
         <f>STDEV(D6:D25)</f>
@@ -7359,42 +7661,42 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="26" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7412,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J31" s="17">
         <v>302.94028916180002</v>
@@ -7420,7 +7722,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7437,7 +7739,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J32" s="21">
         <v>17.23574117758357</v>
@@ -7445,7 +7747,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7460,7 +7762,7 @@
         <v>0.5625</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -7470,7 +7772,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7485,7 +7787,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -7495,7 +7797,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7516,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J35" s="17">
         <v>305.19036102299998</v>
@@ -7524,7 +7826,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -7542,7 +7844,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J36" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7550,7 +7852,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -7566,7 +7868,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -7576,7 +7878,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -7592,7 +7894,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -7602,7 +7904,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -7624,7 +7926,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="J39" s="17">
         <v>384.05235557549997</v>
@@ -7632,7 +7934,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -7650,7 +7952,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J40" s="21">
         <v>32.66972061151673</v>
@@ -7658,7 +7960,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -7674,7 +7976,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -7684,7 +7986,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -7699,7 +8001,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -7709,7 +8011,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -7724,7 +8026,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -7734,7 +8036,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -7749,7 +8051,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -7759,7 +8061,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -7776,7 +8078,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -7793,7 +8095,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -7808,19 +8110,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="C48" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D48" s="2">
         <f>AVERAGE(D30:D47)</f>
         <v>356.83130192700003</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="C49" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D49" s="2">
         <f>STDEV(D31:D47)</f>
@@ -7837,40 +8139,40 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B52" s="26"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -7888,7 +8190,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I54" s="17">
         <v>14.1872649193</v>
@@ -7896,7 +8198,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -7912,7 +8214,7 @@
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I55" s="21" t="e">
         <v>#DIV/0!</v>
@@ -7920,7 +8222,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -7938,7 +8240,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I56" s="17">
         <v>44.782275199920001</v>
@@ -7946,7 +8248,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -7962,7 +8264,7 @@
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I57" s="21">
         <v>15.843792242505828</v>
@@ -7970,7 +8272,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -7988,7 +8290,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I58" s="17">
         <v>56.964924156674996</v>
@@ -7996,7 +8298,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -8012,7 +8314,7 @@
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I59" s="21">
         <v>9.4994883808250847</v>
@@ -8020,7 +8322,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -8038,7 +8340,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I60" s="17">
         <v>187.55037531850999</v>
@@ -8046,7 +8348,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -8062,7 +8364,7 @@
       </c>
       <c r="G61" s="32"/>
       <c r="H61" s="18" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I61" s="21">
         <v>179.97433590633514</v>
@@ -8070,7 +8372,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -8085,7 +8387,7 @@
         <v>0.59236111111111112</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="17">
@@ -8094,7 +8396,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -8109,7 +8411,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="25">
@@ -8118,7 +8420,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -8135,7 +8437,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -8152,7 +8454,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -8169,7 +8471,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -8186,7 +8488,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -8203,7 +8505,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -8220,7 +8522,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -8237,7 +8539,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -8254,7 +8556,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -8271,7 +8573,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -8286,36 +8588,36 @@
     </row>
     <row r="74" spans="1:10">
       <c r="C74" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D74" s="2">
         <f>AVERAGE(D54:D73)</f>
         <v>117.073104536535</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="I74" s="55">
         <f>AVERAGE(D54:D63,D65:D66,D68:D70,D73)</f>
         <v>53.003791779293749</v>
       </c>
       <c r="J74" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="C75" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D75" s="2">
         <f>STDEV(D54:D73)</f>
         <v>143.93518726021225</v>
       </c>
       <c r="H75" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I75" s="55">
         <f>STDEV(D54:D63,D65:D66,D68:D70,D73)</f>
@@ -8331,26 +8633,26 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="26" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -8364,7 +8666,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -8378,7 +8680,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -8392,7 +8694,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -8406,7 +8708,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -8420,7 +8722,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -8434,7 +8736,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -8448,7 +8750,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -8462,7 +8764,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -8476,7 +8778,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -8490,7 +8792,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -8504,7 +8806,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -8518,7 +8820,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -8532,7 +8834,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -8550,7 +8852,7 @@
         <v>331.21428571428572</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -8564,29 +8866,29 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="68" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="67" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8601,12 +8903,12 @@
         <v>540.78749203699999</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8621,12 +8923,12 @@
         <v>535.53545093499997</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -8641,12 +8943,12 @@
         <v>545.29999999999995</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -8661,12 +8963,12 @@
         <v>803.84470940000006</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8681,12 +8983,12 @@
         <v>513.75138115899995</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8701,12 +9003,12 @@
         <v>533.84486103100005</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -8721,12 +9023,12 @@
         <v>530.13947606099998</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8741,12 +9043,12 @@
         <v>540.12562584900002</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B108">
         <v>16</v>
@@ -8761,12 +9063,12 @@
         <v>640.48868703799997</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B109">
         <v>16</v>
@@ -8781,12 +9083,12 @@
         <v>514.74440503100004</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B110">
         <v>16</v>
@@ -8799,12 +9101,12 @@
         <v>535.21085310000001</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B111">
         <v>16</v>
@@ -8817,12 +9119,12 @@
         <v>607.65833091699994</v>
       </c>
       <c r="F111" s="55" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -8835,12 +9137,12 @@
         <v>596.06263589900004</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B113">
         <v>16</v>
@@ -8853,12 +9155,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B114">
         <v>16</v>
@@ -8871,12 +9173,12 @@
         <v>527.22448778199998</v>
       </c>
       <c r="F114" s="55" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B115">
         <v>16</v>
@@ -8889,12 +9191,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F115" s="55" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B116">
         <v>16</v>
@@ -8907,12 +9209,12 @@
         <v>500.43472504599998</v>
       </c>
       <c r="F116" s="55" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B117">
         <v>16</v>
@@ -8925,12 +9227,12 @@
         <v>512.97764587400002</v>
       </c>
       <c r="F117" s="55" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -8947,7 +9249,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -8966,7 +9268,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -8984,22 +9286,166 @@
       <c r="H120" s="55"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="D121" t="s">
-        <v>120</v>
-      </c>
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121">
+        <v>16</v>
+      </c>
+      <c r="C121">
+        <v>16</v>
+      </c>
+      <c r="D121" s="55"/>
       <c r="E121" s="55">
+        <v>609.56168699299997</v>
+      </c>
+      <c r="F121" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H121" s="55"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122">
+        <v>16</v>
+      </c>
+      <c r="C122">
+        <v>16</v>
+      </c>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55">
+        <v>612.84088611599998</v>
+      </c>
+      <c r="F122" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="55"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>16</v>
+      </c>
+      <c r="D123" s="55"/>
+      <c r="E123" s="55">
+        <v>613.39775299999997</v>
+      </c>
+      <c r="F123" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="55"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>16</v>
+      </c>
+      <c r="C124">
+        <v>16</v>
+      </c>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55">
+        <v>659.99135088900005</v>
+      </c>
+      <c r="F124" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H124" s="55"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>16</v>
+      </c>
+      <c r="C125">
+        <v>16</v>
+      </c>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" s="55"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>16</v>
+      </c>
+      <c r="C126">
+        <v>16</v>
+      </c>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H126" s="55"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>16</v>
+      </c>
+      <c r="C127">
+        <v>16</v>
+      </c>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127" s="55"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <v>16</v>
+      </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+      <c r="D128" s="55"/>
+      <c r="F128" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H128" s="55"/>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="55"/>
+      <c r="D129" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129" s="55">
         <f>AVERAGE(E100:E120)</f>
         <v>569.53688043885711</v>
       </c>
-      <c r="F121" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="D122" t="s">
-        <v>121</v>
-      </c>
-      <c r="E122">
+      <c r="F129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="D130" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130">
         <f>STDEV(E100:E120)</f>
         <v>69.732796723748706</v>
       </c>
@@ -9008,6 +9454,7 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -9038,69 +9485,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="28" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="28" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9135,13 +9582,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9176,13 +9623,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B8" s="31">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9217,7 +9664,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -9255,7 +9702,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -9290,7 +9737,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -9331,7 +9778,7 @@
     </row>
     <row r="12" spans="1:14" s="49" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="49" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B12" s="49">
         <v>32</v>
@@ -9372,7 +9819,7 @@
     </row>
     <row r="13" spans="1:14" ht="40" thickTop="1">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -9403,12 +9850,12 @@
         <v>2</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9439,12 +9886,12 @@
         <v>2</v>
       </c>
       <c r="N14" s="52" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B15" s="41">
         <v>16</v>
@@ -9475,12 +9922,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -9511,12 +9958,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="52" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -9549,7 +9996,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -9582,7 +10029,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -9621,16 +10068,17 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="28" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -9658,17 +10106,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="56" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -9676,7 +10124,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -9684,39 +10132,39 @@
     </row>
     <row r="8" spans="1:10" s="58" customFormat="1" ht="39">
       <c r="A8" s="29" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1">
       <c r="A9" s="62" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B9" s="63">
         <v>0</v>
@@ -9728,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F9" s="63">
         <v>0</v>
@@ -9748,7 +10196,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1">
       <c r="A10" s="62" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B10" s="63">
         <v>0</v>
@@ -9760,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F10" s="63">
         <v>0</v>
@@ -9780,7 +10228,7 @@
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
       <c r="A11" s="62" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B11" s="63">
         <v>0</v>
@@ -9792,7 +10240,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F11" s="63">
         <v>0</v>
@@ -9812,7 +10260,7 @@
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1">
       <c r="A12" s="62" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B12" s="63">
         <v>0</v>
@@ -9824,7 +10272,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F12" s="63">
         <v>0</v>
@@ -9844,7 +10292,7 @@
     </row>
     <row r="13" spans="1:10" s="61" customFormat="1">
       <c r="A13" s="64" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B13" s="65">
         <v>0</v>
@@ -9856,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F13" s="65">
         <v>0</v>
@@ -9876,7 +10324,7 @@
     </row>
     <row r="14" spans="1:10" s="58" customFormat="1">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9888,7 +10336,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -9908,7 +10356,7 @@
     </row>
     <row r="15" spans="1:10" s="58" customFormat="1">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -9920,7 +10368,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -9940,7 +10388,7 @@
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -9952,7 +10400,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -9972,7 +10420,7 @@
     </row>
     <row r="17" spans="1:10" s="58" customFormat="1">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -9984,7 +10432,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -10004,7 +10452,7 @@
     </row>
     <row r="18" spans="1:10" s="58" customFormat="1">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -10016,7 +10464,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -10036,7 +10484,7 @@
     </row>
     <row r="19" spans="1:10" s="58" customFormat="1">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -10048,7 +10496,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -10068,7 +10516,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10081,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -10101,7 +10549,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -10114,7 +10562,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -10134,7 +10582,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -10147,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -10167,7 +10615,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -10180,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -10200,7 +10648,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -10213,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -10233,7 +10681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -10246,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -10266,7 +10714,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -10279,7 +10727,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -10299,7 +10747,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -10312,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -10332,7 +10780,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -10345,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -10365,7 +10813,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -10378,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -10398,7 +10846,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -10411,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -10431,7 +10879,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -10444,7 +10892,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -10464,7 +10912,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -10477,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -10497,7 +10945,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -10510,7 +10958,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -10530,7 +10978,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -10543,7 +10991,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -10563,7 +11011,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -10576,7 +11024,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -10596,7 +11044,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -10609,7 +11057,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -10629,7 +11077,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -10642,7 +11090,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -10662,7 +11110,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -10675,7 +11123,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -10695,7 +11143,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -10708,7 +11156,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -10728,7 +11176,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -10741,7 +11189,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -10761,7 +11209,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -10774,7 +11222,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -10794,7 +11242,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -10807,7 +11255,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -10827,7 +11275,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -10840,7 +11288,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -10860,7 +11308,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -10873,7 +11321,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -10893,7 +11341,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -10906,7 +11354,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -10926,7 +11374,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -10939,7 +11387,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -10959,7 +11407,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -10972,7 +11420,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -10992,7 +11440,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -11005,7 +11453,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -11025,20 +11473,20 @@
     </row>
     <row r="69" spans="1:15">
       <c r="O69" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B74" s="55">
         <f>AVERAGE(J9:J13)</f>
@@ -11051,7 +11499,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="58" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B75" s="55">
         <f>J27</f>
@@ -11064,7 +11512,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B76" s="55">
         <f>AVERAGE(J20:J25)</f>
@@ -11077,7 +11525,7 @@
     </row>
     <row r="77" spans="1:15" ht="39">
       <c r="A77" s="52" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B77" s="55">
         <f>AVERAGE(J14:J19)</f>
@@ -11090,7 +11538,7 @@
     </row>
     <row r="78" spans="1:15" ht="39">
       <c r="A78" s="52" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B78" s="55">
         <f>AVERAGE(J43:J46)</f>
@@ -11103,7 +11551,7 @@
     </row>
     <row r="79" spans="1:15" ht="39">
       <c r="A79" s="52" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B79" s="55">
         <f>AVERAGE(J34:J42)</f>
@@ -11115,7 +11563,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
@@ -11145,50 +11592,50 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="53" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="54" customFormat="1" ht="39">
       <c r="A5" s="54" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11227,7 +11674,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11338,7 +11785,7 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -11377,7 +11824,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -11615,7 +12062,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11643,10 +12089,10 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -11658,7 +12104,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -11682,12 +12128,12 @@
         <v>32</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -11704,7 +12150,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20">
@@ -11721,7 +12167,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -11742,7 +12188,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B8" s="19">
         <v>2070.8984270000001</v>
@@ -11759,7 +12205,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B9" s="19">
         <v>1095.4940549999999</v>
@@ -11786,7 +12232,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -11807,7 +12253,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -11828,7 +12274,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B12" s="23">
         <v>1583.1962410000001</v>
@@ -11856,7 +12302,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -11869,15 +12314,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
@@ -11887,33 +12332,33 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26">
       <c r="A1" s="69" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -11928,10 +12373,10 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J2" s="55">
         <f>AVERAGE(E2:E12)/60</f>
@@ -11944,7 +12389,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -11959,10 +12404,10 @@
         <v>5352.9993340999999</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="J3" s="55">
         <f>AVERAGE(E18:E23)/60</f>
@@ -11975,7 +12420,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -11990,10 +12435,10 @@
         <v>5265.4794118399996</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J4" s="55">
         <f>AVERAGE(E13:E17)/60</f>
@@ -12006,7 +12451,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -12021,10 +12466,10 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J5" s="55">
         <f>AVERAGE(E24:E26)/60</f>
@@ -12037,7 +12482,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -12052,12 +12497,12 @@
         <v>5202.5642039799995</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -12072,12 +12517,12 @@
         <v>5188.3370358900002</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -12092,12 +12537,12 @@
         <v>5284.6490089899999</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12112,12 +12557,12 @@
         <v>5202.49168491</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12132,12 +12577,12 @@
         <v>5155.4024429299998</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -12152,12 +12597,12 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -12172,12 +12617,12 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -12192,12 +12637,12 @@
         <v>6667.9942650800003</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -12212,12 +12657,12 @@
         <v>6726.6931519500004</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -12232,12 +12677,12 @@
         <v>6773.2417349799998</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -12252,12 +12697,12 @@
         <v>6785.3887209900004</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -12272,12 +12717,12 @@
         <v>6923.0692589299997</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -12292,12 +12737,12 @@
         <v>5381.4183900400003</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -12312,12 +12757,12 @@
         <v>5433.5929520099999</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -12332,12 +12777,12 @@
         <v>5260.5256700500004</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -12352,12 +12797,12 @@
         <v>5255.02369189</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -12372,12 +12817,12 @@
         <v>5214.6700560999998</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -12392,12 +12837,12 @@
         <v>5197.2517461799998</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -12412,12 +12857,12 @@
         <v>6961.1671140199996</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -12432,12 +12877,12 @@
         <v>6703.2019269499997</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -12452,13 +12897,216 @@
         <v>6944.8268718700001</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="72">
+        <v>8</v>
+      </c>
+      <c r="C27" s="72">
+        <v>16</v>
+      </c>
+      <c r="D27" s="72">
+        <v>4</v>
+      </c>
+      <c r="E27" s="73">
+        <v>1842.58875704</v>
+      </c>
+      <c r="F27" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="47">
+        <v>8</v>
+      </c>
+      <c r="C28" s="47">
+        <v>16</v>
+      </c>
+      <c r="D28" s="47">
+        <v>4</v>
+      </c>
+      <c r="E28" s="55">
+        <v>1835.8984041199999</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="47">
+        <v>8</v>
+      </c>
+      <c r="C29" s="47">
+        <v>16</v>
+      </c>
+      <c r="D29" s="47">
+        <v>4</v>
+      </c>
+      <c r="E29" s="55">
+        <v>1715.9458088900001</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="47">
+        <v>8</v>
+      </c>
+      <c r="C30" s="47">
+        <v>16</v>
+      </c>
+      <c r="D30" s="47">
+        <v>4</v>
+      </c>
+      <c r="E30" s="55">
+        <v>1759.9219129099999</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="47">
+        <v>8</v>
+      </c>
+      <c r="C31" s="47">
+        <v>16</v>
+      </c>
+      <c r="D31" s="47">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="47">
+        <v>8</v>
+      </c>
+      <c r="C32" s="47">
+        <v>16</v>
+      </c>
+      <c r="D32" s="47">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="47">
+        <v>8</v>
+      </c>
+      <c r="C33" s="47">
+        <v>16</v>
+      </c>
+      <c r="D33" s="47">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="47">
+        <v>8</v>
+      </c>
+      <c r="C34" s="47">
+        <v>16</v>
+      </c>
+      <c r="D34" s="47">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="47">
+        <v>8</v>
+      </c>
+      <c r="C35" s="47">
+        <v>16</v>
+      </c>
+      <c r="D35" s="47">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="47">
+        <v>8</v>
+      </c>
+      <c r="C36" s="47">
+        <v>16</v>
+      </c>
+      <c r="D36" s="47">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37" s="55">
+        <v>1755.41372609</v>
+      </c>
+      <c r="F37" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -12470,10 +13118,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12490,36 +13138,36 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="70" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>4355246080</v>
@@ -12539,17 +13187,17 @@
         <v>668820</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G49" si="0">F2/1000</f>
+        <f t="shared" ref="G2:G66" si="0">F2/1000</f>
         <v>668.82</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H49" si="1">B2/(1024*1024)/G2</f>
+        <f t="shared" ref="H2:H66" si="1">B2/(1024*1024)/G2</f>
         <v>6.2101706410170143</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>4355246080</v>
@@ -12558,11 +13206,11 @@
         <v>1685499</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D50" si="2">C3/1000</f>
+        <f t="shared" ref="D3:D67" si="2">C3/1000</f>
         <v>1685.499</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E50" si="3">B3/(1024*1024)/D3</f>
+        <f t="shared" ref="E3:E67" si="3">B3/(1024*1024)/D3</f>
         <v>2.464247281146414</v>
       </c>
       <c r="F3">
@@ -12579,7 +13227,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B4">
         <v>4355246080</v>
@@ -12607,21 +13255,21 @@
         <v>6.5302487086070329</v>
       </c>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="M4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="N4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>4355246080</v>
@@ -12649,18 +13297,18 @@
         <v>6.8495974961822865</v>
       </c>
       <c r="K5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L5">
-        <f>AVERAGE(E18:E19)</f>
+        <f>AVERAGE(E25:E26)</f>
         <v>0.53995934379886701</v>
       </c>
       <c r="M5">
-        <f>STDEV(E18:E19)</f>
+        <f>STDEV(E25:E26)</f>
         <v>5.8470845595116861E-4</v>
       </c>
       <c r="N5">
-        <f>AVERAGE(H18)</f>
+        <f>AVERAGE(H25)</f>
         <v>2.0374459257692261</v>
       </c>
       <c r="O5">
@@ -12669,7 +13317,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>4355246080</v>
@@ -12697,16 +13345,18 @@
         <v>6.5042231442506306</v>
       </c>
       <c r="K6" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>AVERAGE(E36)</f>
+        <v>0.18721848747180331</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f>AVERAGE(H36)</f>
+        <v>0.18689037767301703</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -12714,7 +13364,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>4355246080</v>
@@ -12742,15 +13392,15 @@
         <v>6.4524285478764476</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L7">
-        <f>AVERAGE(E2:E17)</f>
-        <v>2.5586608997043121</v>
+        <f>AVERAGE(E2:E24)</f>
+        <v>5.6373976750563823</v>
       </c>
       <c r="M7">
-        <f>STDEV(E2:E16)</f>
-        <v>0.4207742443067185</v>
+        <f>STDEV(E2:E24)</f>
+        <v>4.7904172347188725</v>
       </c>
       <c r="N7">
         <f>AVERAGE(H2:H12)</f>
@@ -12763,7 +13413,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B8">
         <v>4355246080</v>
@@ -12791,28 +13441,28 @@
         <v>6.3493625823195616</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <f>AVERAGE(E39:E45)</f>
-        <v>13.770031078086097</v>
+        <f>AVERAGE(E46:E51)</f>
+        <v>12.874956950059754</v>
       </c>
       <c r="M8">
-        <f>STDEV(E39:E45)</f>
-        <v>1.4011170313972556</v>
+        <f>STDEV(E46:E51)</f>
+        <v>0.82385857024095521</v>
       </c>
       <c r="N8">
-        <f>AVERAGE(H39:H50)</f>
-        <v>11.927974397960371</v>
+        <f>AVERAGE(H46:H50)</f>
+        <v>12.035037363947911</v>
       </c>
       <c r="O8">
-        <f>STDEV(H39:H50)</f>
-        <v>0.6064747988724396</v>
+        <f>STDEV(H46:H50)</f>
+        <v>0.43713392686590519</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>4355246080</v>
@@ -12839,10 +13489,26 @@
         <f t="shared" si="1"/>
         <v>6.1625797727323306</v>
       </c>
+      <c r="L9">
+        <f>AVERAGE(E67:E73)</f>
+        <v>13.770031078086097</v>
+      </c>
+      <c r="M9">
+        <f>STDEV(E67:E73)</f>
+        <v>1.4011170313972556</v>
+      </c>
+      <c r="N9">
+        <f>AVERAGE(H67:H78)</f>
+        <v>11.927974397960371</v>
+      </c>
+      <c r="O9">
+        <f>STDEV(H67:H78)</f>
+        <v>0.6064747988724396</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>4355246080</v>
@@ -12872,7 +13538,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>4355246080</v>
@@ -12902,7 +13568,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>4355246080</v>
@@ -12932,7 +13598,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B13">
         <v>4355246080</v>
@@ -12956,10 +13622,16 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>4355246080</v>
@@ -12983,10 +13655,21 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K14" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14">
+        <f>AVERAGE($E$25:$E$33,$H$25)</f>
+        <v>0.66270802548830832</v>
+      </c>
+      <c r="M14">
+        <f>STDEV($E$25:$E$33,$H$25)</f>
+        <v>0.48330095616278679</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B15">
         <v>4355246080</v>
@@ -13002,10 +13685,21 @@
         <f t="shared" ref="E15:E16" si="4">B15/(1024*1024)/D15</f>
         <v>2.4544252058952494</v>
       </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE($E$36:$E$39,$H$36)</f>
+        <v>0.43788055525012098</v>
+      </c>
+      <c r="M15">
+        <f>STDEV($E$36:$E$39,$H$36)</f>
+        <v>0.56227613928511544</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>4355246080</v>
@@ -13021,10 +13715,21 @@
         <f t="shared" si="4"/>
         <v>4.0862712522959832</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGE($E$2:$E$24,$H$2:$H$12)</f>
+        <v>5.6873216752464222</v>
+      </c>
+      <c r="M16">
+        <f>STDEV($E$2:$E$24,$H$2:$H$12)</f>
+        <v>3.9915029851673469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>4355246080</v>
@@ -13040,222 +13745,209 @@
         <f t="shared" ref="E17" si="5">B17/(1024*1024)/D17</f>
         <v>2.4297052276273048</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGE($E$46:$E$59,$H$46:$H$59)</f>
+        <v>12.356708766340491</v>
+      </c>
+      <c r="M17">
+        <f>STDEV($E$46:$E$59,$H$46:$H$59)</f>
+        <v>0.73732828500386016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B18">
         <v>4355246080</v>
       </c>
       <c r="C18">
+        <v>286717</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18" si="6">C18/1000</f>
+        <v>286.71699999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18" si="7">B18/(1024*1024)/D18</f>
+        <v>14.48636226008573</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18">
+        <f>AVERAGE($E$67:$E$92,$H$67:$H$92)</f>
+        <v>12.537790232152085</v>
+      </c>
+      <c r="M18">
+        <f>STDEV($E$67:$E$92,$H$67:$H$92)</f>
+        <v>0.83502398880295914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19">
+        <v>4355246081</v>
+      </c>
+      <c r="C19">
+        <v>338319</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D24" si="8">C19/1000</f>
+        <v>338.31900000000002</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E24" si="9">B19/(1024*1024)/D19</f>
+        <v>12.27683437548194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20">
+        <v>4355246082</v>
+      </c>
+      <c r="C20">
+        <v>343427</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="8"/>
+        <v>343.42700000000002</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="9"/>
+        <v>12.094233505322379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21">
+        <v>4355246083</v>
+      </c>
+      <c r="C21">
+        <v>328322</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="8"/>
+        <v>328.322</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="9"/>
+        <v>12.650648847734915</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22">
+        <v>4355246084</v>
+      </c>
+      <c r="C22">
+        <v>331102</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="8"/>
+        <v>331.10199999999998</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="9"/>
+        <v>12.544431419742851</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23">
+        <v>4355246085</v>
+      </c>
+      <c r="C23">
+        <v>333385</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>333.38499999999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="9"/>
+        <v>12.458527926851453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24">
+        <v>4355246086</v>
+      </c>
+      <c r="C24">
+        <v>340156</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="8"/>
+        <v>340.15600000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="9"/>
+        <v>12.210533795808528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25">
+        <v>4355246080</v>
+      </c>
+      <c r="C25">
         <v>7686335</v>
       </c>
-      <c r="D18">
+      <c r="D25">
         <f t="shared" si="2"/>
         <v>7686.335</v>
       </c>
-      <c r="E18">
+      <c r="E25">
         <f t="shared" si="3"/>
         <v>0.5403727951130155</v>
       </c>
-      <c r="F18">
+      <c r="F25">
         <v>2038575</v>
       </c>
-      <c r="G18">
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>2038.575</v>
       </c>
-      <c r="H18">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>2.0374459257692261</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19">
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26">
         <v>4355246080</v>
       </c>
-      <c r="C19">
+      <c r="C26">
         <v>7698115</v>
       </c>
-      <c r="D19">
+      <c r="D26">
         <f t="shared" si="2"/>
         <v>7698.1149999999998</v>
       </c>
-      <c r="E19">
+      <c r="E26">
         <f t="shared" si="3"/>
         <v>0.53954589248471863</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20">
-        <v>4355246080</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21">
-        <v>4355246080</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22">
-        <v>4355246080</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23">
-        <v>4355246080</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E23" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24">
-        <v>4355246080</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E24" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25">
-        <v>4355246080</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E25" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26">
-        <v>4355246080</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E26" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
@@ -13266,20 +13958,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B27">
         <v>4355246080</v>
       </c>
+      <c r="C27">
+        <v>8306031</v>
+      </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E27" t="e">
+        <v>8306.0310000000009</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.50005668509123069</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
@@ -13290,20 +13985,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>4355246080</v>
       </c>
+      <c r="C28">
+        <v>8303976</v>
+      </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E28" t="e">
+        <v>8303.9760000000006</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.50018043502594411</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
@@ -13314,20 +14012,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B29">
         <v>4355246080</v>
       </c>
+      <c r="C29">
+        <v>8289427</v>
+      </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E29" t="e">
+        <v>8289.4269999999997</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.50105831538476664</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
@@ -13338,20 +14039,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B30">
         <v>4355246080</v>
       </c>
+      <c r="C30">
+        <v>8274647</v>
+      </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E30" t="e">
+        <v>8274.6470000000008</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.50195329518286391</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
@@ -13362,20 +14066,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B31">
         <v>4355246080</v>
       </c>
+      <c r="C31">
+        <v>8258730</v>
+      </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E31" t="e">
+        <v>8258.73</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.50292070670974842</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
@@ -13386,20 +14093,23 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B32">
         <v>4355246080</v>
       </c>
+      <c r="C32">
+        <v>8255123</v>
+      </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E32" t="e">
+        <v>8255.1229999999996</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.50314045328276757</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
@@ -13412,18 +14122,21 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B33">
         <v>4355246080</v>
       </c>
+      <c r="C33">
+        <v>8300237</v>
+      </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" t="e">
+        <v>8300.2369999999992</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.50040575083880146</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
@@ -13436,7 +14149,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B34">
         <v>4355246080</v>
@@ -13460,7 +14173,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B35">
         <v>4355246080</v>
@@ -13484,42 +14197,51 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B36">
         <v>4355246080</v>
       </c>
+      <c r="C36">
+        <v>22185236</v>
+      </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E36" t="e">
+        <v>22185.236000000001</v>
+      </c>
+      <c r="E36">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.18721848747180331</v>
+      </c>
+      <c r="F36">
+        <v>22224185</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" t="e">
+        <v>22224.185000000001</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.18689037767301703</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>4355246080</v>
       </c>
+      <c r="C37">
+        <v>22172687</v>
+      </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E37" t="e">
+        <v>22172.687000000002</v>
+      </c>
+      <c r="E37">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.18732444688029914</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
@@ -13532,18 +14254,21 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B38">
         <v>4355246080</v>
       </c>
+      <c r="C38">
+        <v>2876957</v>
+      </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E38" t="e">
+        <v>2876.9569999999999</v>
+      </c>
+      <c r="E38">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.4437081708642152</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
@@ -13556,368 +14281,1548 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B39">
         <v>4355246080</v>
       </c>
       <c r="C39">
-        <v>274028</v>
+        <v>22541285</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>274.02800000000002</v>
+        <v>22541.285</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>15.157160319839578</v>
-      </c>
-      <c r="F39">
-        <v>342445</v>
+        <v>0.18426129336127023</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>342.44499999999999</v>
-      </c>
-      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="e">
         <f t="shared" si="1"/>
-        <v>12.128915090379477</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>4355246080</v>
       </c>
-      <c r="C40">
-        <v>275148</v>
-      </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>275.14800000000002</v>
-      </c>
-      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="e">
         <f t="shared" si="3"/>
-        <v>15.095462544248912</v>
-      </c>
-      <c r="F40">
-        <v>330437</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>330.43700000000001</v>
-      </c>
-      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="e">
         <f t="shared" si="1"/>
-        <v>12.569676907020098</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>4355246080</v>
       </c>
-      <c r="C41">
-        <v>338720</v>
-      </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>338.72</v>
-      </c>
-      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="e">
         <f t="shared" si="3"/>
-        <v>12.262300212933987</v>
-      </c>
-      <c r="F41">
-        <v>335768</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>335.76799999999997</v>
-      </c>
-      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="H41" t="e">
         <f t="shared" si="1"/>
-        <v>12.37010771760561</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B42">
         <v>4355246080</v>
       </c>
-      <c r="C42">
-        <v>275148</v>
-      </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>275.14800000000002</v>
-      </c>
-      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="e">
         <f t="shared" si="3"/>
-        <v>15.095462544248912</v>
-      </c>
-      <c r="F42">
-        <v>329786</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>329.786</v>
-      </c>
-      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="e">
         <f t="shared" si="1"/>
-        <v>12.594489542081835</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B43">
         <v>4355246080</v>
       </c>
-      <c r="C43">
-        <v>295371</v>
-      </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>295.37099999999998</v>
-      </c>
-      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="e">
         <f t="shared" si="3"/>
-        <v>14.061930007092776</v>
-      </c>
-      <c r="F43">
-        <v>335190</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>335.19</v>
-      </c>
-      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="e">
         <f t="shared" si="1"/>
-        <v>12.391438670977655</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B44">
         <v>4355246080</v>
       </c>
-      <c r="C44">
-        <v>335708</v>
-      </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>335.70800000000003</v>
-      </c>
-      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="e">
         <f t="shared" si="3"/>
-        <v>12.3723185867629</v>
-      </c>
-      <c r="F44">
-        <v>325824</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>325.82400000000001</v>
-      </c>
-      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="e">
         <f t="shared" si="1"/>
-        <v>12.747637768012792</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B45">
         <v>4355246080</v>
       </c>
-      <c r="C45">
-        <v>336435</v>
-      </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>336.435</v>
-      </c>
-      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="e">
         <f t="shared" si="3"/>
-        <v>12.34558333147562</v>
-      </c>
-      <c r="F45">
-        <v>369794</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>369.79399999999998</v>
-      </c>
-      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="e">
         <f t="shared" si="1"/>
-        <v>11.231892156511464</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B46">
         <v>4355246080</v>
       </c>
       <c r="C46">
-        <v>332613</v>
+        <v>286856</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
-        <v>332.613</v>
+        <f t="shared" ref="D46:D54" si="10">C46/1000</f>
+        <v>286.85599999999999</v>
       </c>
       <c r="E46">
-        <f t="shared" si="3"/>
-        <v>12.487444351618848</v>
+        <f t="shared" ref="E46:E54" si="11">B46/(1024*1024)/D46</f>
+        <v>14.479342695028167</v>
       </c>
       <c r="F46">
-        <v>372435</v>
+        <v>330871</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
-        <v>372.435</v>
+        <f t="shared" ref="G46:G54" si="12">F46/1000</f>
+        <v>330.87099999999998</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
-        <v>11.152244896760509</v>
+        <f t="shared" ref="H46:H54" si="13">B46/(1024*1024)/G46</f>
+        <v>12.553189394431667</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B47">
         <v>4355246080</v>
       </c>
       <c r="C47">
-        <v>322678</v>
+        <v>318638</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
-        <v>322.678</v>
+        <f t="shared" si="10"/>
+        <v>318.63799999999998</v>
       </c>
       <c r="E47">
-        <f t="shared" si="3"/>
-        <v>12.871922870865074</v>
+        <f t="shared" si="11"/>
+        <v>13.035125528420968</v>
       </c>
       <c r="F47">
-        <v>373397</v>
+        <v>333129</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
-        <v>373.39699999999999</v>
+        <f t="shared" si="12"/>
+        <v>333.12900000000002</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
-        <v>11.123512851268222</v>
+        <f t="shared" si="13"/>
+        <v>12.468101930858616</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B48">
         <v>4355246080</v>
       </c>
       <c r="C48">
-        <v>338743</v>
+        <v>332872</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
-        <v>338.74299999999999</v>
+        <f t="shared" si="10"/>
+        <v>332.87200000000001</v>
       </c>
       <c r="E48">
-        <f t="shared" si="3"/>
-        <v>12.261467626268292</v>
+        <f t="shared" si="11"/>
+        <v>12.477728160148645</v>
       </c>
       <c r="F48">
-        <v>356242</v>
+        <v>352454</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
-        <v>356.24200000000002</v>
+        <f t="shared" si="12"/>
+        <v>352.45400000000001</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
-        <v>11.659170811204181</v>
+        <f t="shared" si="13"/>
+        <v>11.784477770503385</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>4355246080</v>
       </c>
       <c r="C49">
-        <v>335161</v>
+        <v>336935</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
-        <v>335.161</v>
+        <f t="shared" si="10"/>
+        <v>336.935</v>
       </c>
       <c r="E49">
-        <f t="shared" si="3"/>
-        <v>12.392510847398713</v>
+        <f t="shared" si="11"/>
+        <v>12.327262908647068</v>
       </c>
       <c r="F49">
-        <v>355209</v>
+        <v>355274</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
-        <v>355.209</v>
+        <f t="shared" si="12"/>
+        <v>355.274</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
-        <v>11.693077394224245</v>
+        <f t="shared" si="13"/>
+        <v>11.690938059427371</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B50">
         <v>4355246080</v>
       </c>
       <c r="C50">
+        <v>332855</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="10"/>
+        <v>332.85500000000002</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="11"/>
+        <v>12.478365438779647</v>
+      </c>
+      <c r="F50">
+        <v>355653</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="12"/>
+        <v>355.65300000000002</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="13"/>
+        <v>11.678479664518505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>4355246080</v>
+      </c>
+      <c r="C51">
+        <v>333562</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="10"/>
+        <v>333.56200000000001</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="11"/>
+        <v>12.451916969334036</v>
+      </c>
+      <c r="F51">
+        <v>359521</v>
+      </c>
+      <c r="G51">
+        <f>F51/1000</f>
+        <v>359.52100000000002</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="13"/>
+        <v>11.55283370964422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>4355246080</v>
+      </c>
+      <c r="C52">
+        <v>334445</v>
+      </c>
+      <c r="D52">
+        <f>C52/1000</f>
+        <v>334.44499999999999</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="11"/>
+        <v>12.419041481035746</v>
+      </c>
+      <c r="F52">
+        <v>356603</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="12"/>
+        <v>356.60300000000001</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="13"/>
+        <v>11.647367880037464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>4355246080</v>
+      </c>
+      <c r="C53">
+        <v>332699</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="10"/>
+        <v>332.69900000000001</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="11"/>
+        <v>12.484216448276069</v>
+      </c>
+      <c r="F53">
+        <v>342481</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="12"/>
+        <v>342.48099999999999</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="13"/>
+        <v>12.127640155585274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>4355246080</v>
+      </c>
+      <c r="C54">
+        <v>331304</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="10"/>
+        <v>331.30399999999997</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="11"/>
+        <v>12.536782918784562</v>
+      </c>
+      <c r="F54">
+        <v>353258</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="12"/>
+        <v>353.25799999999998</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="13"/>
+        <v>11.757656806427597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>4355246081</v>
+      </c>
+      <c r="C55">
+        <v>320390</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55" si="14">C55/1000</f>
+        <v>320.39</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55" si="15">B55/(1024*1024)/D55</f>
+        <v>12.963845092164782</v>
+      </c>
+      <c r="F55">
+        <v>350498</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55" si="16">F55/1000</f>
+        <v>350.49799999999999</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55" si="17">B55/(1024*1024)/G55</f>
+        <v>11.850242595046689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>4355246082</v>
+      </c>
+      <c r="C56">
+        <v>285353</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:D58" si="18">C56/1000</f>
+        <v>285.35300000000001</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:E58" si="19">B56/(1024*1024)/D56</f>
+        <v>14.555607721076521</v>
+      </c>
+      <c r="F56">
+        <v>345136</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ref="G56:G58" si="20">F56/1000</f>
+        <v>345.13600000000002</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ref="H56:H58" si="21">B56/(1024*1024)/G56</f>
+        <v>12.034346837282545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>4355246083</v>
+      </c>
+      <c r="C57">
+        <v>335816</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="18"/>
+        <v>335.81599999999997</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="19"/>
+        <v>12.3683395996201</v>
+      </c>
+      <c r="F57">
+        <v>342316</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="20"/>
+        <v>342.31599999999997</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="21"/>
+        <v>12.133485817157315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>4355246084</v>
+      </c>
+      <c r="C58">
+        <v>334638</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="18"/>
+        <v>334.63799999999998</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="19"/>
+        <v>12.411878901797458</v>
+      </c>
+      <c r="F58">
+        <v>343990</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="20"/>
+        <v>343.99</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="21"/>
+        <v>12.074439175382125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>4355246085</v>
+      </c>
+      <c r="C59">
+        <v>336913</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:D66" si="22">C59/1000</f>
+        <v>336.91300000000001</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59:E66" si="23">B59/(1024*1024)/D59</f>
+        <v>12.328067877741054</v>
+      </c>
+      <c r="F59">
+        <v>367009</v>
+      </c>
+      <c r="G59">
+        <f t="shared" ref="G59:G66" si="24">F59/1000</f>
+        <v>367.00900000000001</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59:H66" si="25">B59/(1024*1024)/G59</f>
+        <v>11.317123920376261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>4355246086</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E60" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>4355246087</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E61" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>4355246088</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E62" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>4355246089</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E63" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>4355246090</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E64" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>4355246091</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E65" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>4355246092</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E66" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67">
+        <v>4355246080</v>
+      </c>
+      <c r="C67">
+        <v>274028</v>
+      </c>
+      <c r="D67">
+        <f>C67/1000</f>
+        <v>274.02800000000002</v>
+      </c>
+      <c r="E67">
+        <f>B67/(1024*1024)/D67</f>
+        <v>15.157160319839578</v>
+      </c>
+      <c r="F67">
+        <v>342445</v>
+      </c>
+      <c r="G67">
+        <f>F67/1000</f>
+        <v>342.44499999999999</v>
+      </c>
+      <c r="H67">
+        <f>B67/(1024*1024)/G67</f>
+        <v>12.128915090379477</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68">
+        <v>4355246080</v>
+      </c>
+      <c r="C68">
+        <v>275148</v>
+      </c>
+      <c r="D68">
+        <f>C68/1000</f>
+        <v>275.14800000000002</v>
+      </c>
+      <c r="E68">
+        <f>B68/(1024*1024)/D68</f>
+        <v>15.095462544248912</v>
+      </c>
+      <c r="F68">
+        <v>330437</v>
+      </c>
+      <c r="G68">
+        <f>F68/1000</f>
+        <v>330.43700000000001</v>
+      </c>
+      <c r="H68">
+        <f>B68/(1024*1024)/G68</f>
+        <v>12.569676907020098</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69">
+        <v>4355246080</v>
+      </c>
+      <c r="C69">
+        <v>338720</v>
+      </c>
+      <c r="D69">
+        <f>C69/1000</f>
+        <v>338.72</v>
+      </c>
+      <c r="E69">
+        <f>B69/(1024*1024)/D69</f>
+        <v>12.262300212933987</v>
+      </c>
+      <c r="F69">
+        <v>335768</v>
+      </c>
+      <c r="G69">
+        <f>F69/1000</f>
+        <v>335.76799999999997</v>
+      </c>
+      <c r="H69">
+        <f>B69/(1024*1024)/G69</f>
+        <v>12.37010771760561</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70">
+        <v>4355246080</v>
+      </c>
+      <c r="C70">
+        <v>275148</v>
+      </c>
+      <c r="D70">
+        <f>C70/1000</f>
+        <v>275.14800000000002</v>
+      </c>
+      <c r="E70">
+        <f>B70/(1024*1024)/D70</f>
+        <v>15.095462544248912</v>
+      </c>
+      <c r="F70">
+        <v>329786</v>
+      </c>
+      <c r="G70">
+        <f>F70/1000</f>
+        <v>329.786</v>
+      </c>
+      <c r="H70">
+        <f>B70/(1024*1024)/G70</f>
+        <v>12.594489542081835</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71">
+        <v>4355246080</v>
+      </c>
+      <c r="C71">
+        <v>295371</v>
+      </c>
+      <c r="D71">
+        <f>C71/1000</f>
+        <v>295.37099999999998</v>
+      </c>
+      <c r="E71">
+        <f>B71/(1024*1024)/D71</f>
+        <v>14.061930007092776</v>
+      </c>
+      <c r="F71">
+        <v>335190</v>
+      </c>
+      <c r="G71">
+        <f>F71/1000</f>
+        <v>335.19</v>
+      </c>
+      <c r="H71">
+        <f>B71/(1024*1024)/G71</f>
+        <v>12.391438670977655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72">
+        <v>4355246080</v>
+      </c>
+      <c r="C72">
+        <v>335708</v>
+      </c>
+      <c r="D72">
+        <f>C72/1000</f>
+        <v>335.70800000000003</v>
+      </c>
+      <c r="E72">
+        <f>B72/(1024*1024)/D72</f>
+        <v>12.3723185867629</v>
+      </c>
+      <c r="F72">
+        <v>325824</v>
+      </c>
+      <c r="G72">
+        <f>F72/1000</f>
+        <v>325.82400000000001</v>
+      </c>
+      <c r="H72">
+        <f>B72/(1024*1024)/G72</f>
+        <v>12.747637768012792</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73">
+        <v>4355246080</v>
+      </c>
+      <c r="C73">
+        <v>336435</v>
+      </c>
+      <c r="D73">
+        <f>C73/1000</f>
+        <v>336.435</v>
+      </c>
+      <c r="E73">
+        <f>B73/(1024*1024)/D73</f>
+        <v>12.34558333147562</v>
+      </c>
+      <c r="F73">
+        <v>369794</v>
+      </c>
+      <c r="G73">
+        <f>F73/1000</f>
+        <v>369.79399999999998</v>
+      </c>
+      <c r="H73">
+        <f>B73/(1024*1024)/G73</f>
+        <v>11.231892156511464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74">
+        <v>4355246080</v>
+      </c>
+      <c r="C74">
+        <v>332613</v>
+      </c>
+      <c r="D74">
+        <f>C74/1000</f>
+        <v>332.613</v>
+      </c>
+      <c r="E74">
+        <f>B74/(1024*1024)/D74</f>
+        <v>12.487444351618848</v>
+      </c>
+      <c r="F74">
+        <v>372435</v>
+      </c>
+      <c r="G74">
+        <f>F74/1000</f>
+        <v>372.435</v>
+      </c>
+      <c r="H74">
+        <f>B74/(1024*1024)/G74</f>
+        <v>11.152244896760509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75">
+        <v>4355246080</v>
+      </c>
+      <c r="C75">
+        <v>322678</v>
+      </c>
+      <c r="D75">
+        <f>C75/1000</f>
+        <v>322.678</v>
+      </c>
+      <c r="E75">
+        <f>B75/(1024*1024)/D75</f>
+        <v>12.871922870865074</v>
+      </c>
+      <c r="F75">
+        <v>373397</v>
+      </c>
+      <c r="G75">
+        <f>F75/1000</f>
+        <v>373.39699999999999</v>
+      </c>
+      <c r="H75">
+        <f>B75/(1024*1024)/G75</f>
+        <v>11.123512851268222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76">
+        <v>4355246080</v>
+      </c>
+      <c r="C76">
+        <v>338743</v>
+      </c>
+      <c r="D76">
+        <f>C76/1000</f>
+        <v>338.74299999999999</v>
+      </c>
+      <c r="E76">
+        <f>B76/(1024*1024)/D76</f>
+        <v>12.261467626268292</v>
+      </c>
+      <c r="F76">
+        <v>356242</v>
+      </c>
+      <c r="G76">
+        <f>F76/1000</f>
+        <v>356.24200000000002</v>
+      </c>
+      <c r="H76">
+        <f>B76/(1024*1024)/G76</f>
+        <v>11.659170811204181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77">
+        <v>4355246080</v>
+      </c>
+      <c r="C77">
+        <v>335161</v>
+      </c>
+      <c r="D77">
+        <f>C77/1000</f>
+        <v>335.161</v>
+      </c>
+      <c r="E77">
+        <f>B77/(1024*1024)/D77</f>
+        <v>12.392510847398713</v>
+      </c>
+      <c r="F77">
+        <v>355209</v>
+      </c>
+      <c r="G77">
+        <f>F77/1000</f>
+        <v>355.209</v>
+      </c>
+      <c r="H77">
+        <f>B77/(1024*1024)/G77</f>
+        <v>11.693077394224245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78">
+        <v>4355246080</v>
+      </c>
+      <c r="C78">
         <v>341798</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="2"/>
+      <c r="D78">
+        <f>C78/1000</f>
         <v>341.798</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="3"/>
+      <c r="E78">
+        <f>B78/(1024*1024)/D78</f>
         <v>12.151874288688056</v>
       </c>
-      <c r="F50">
+      <c r="F78">
         <v>362006</v>
       </c>
-      <c r="G50">
-        <f>F50/1000</f>
+      <c r="G78">
+        <f>F78/1000</f>
         <v>362.00599999999997</v>
       </c>
-      <c r="H50">
-        <f>B50/(1024*1024)/G50</f>
+      <c r="H78">
+        <f>B78/(1024*1024)/G78</f>
         <v>11.473528969478407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79">
+        <v>4355246080</v>
+      </c>
+      <c r="C79">
+        <v>333360</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="D79:D90" si="26">C79/1000</f>
+        <v>333.36</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79:E90" si="27">B79/(1024*1024)/D79</f>
+        <v>12.459462227396807</v>
+      </c>
+      <c r="F79">
+        <v>323471</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ref="G79:G92" si="28">F79/1000</f>
+        <v>323.471</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ref="H79:H90" si="29">B79/(1024*1024)/G79</f>
+        <v>12.840366920450364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80">
+        <v>4355246080</v>
+      </c>
+      <c r="C80">
+        <v>331633</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="26"/>
+        <v>331.63299999999998</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="27"/>
+        <v>12.524345671646067</v>
+      </c>
+      <c r="F80">
+        <v>321314</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="28"/>
+        <v>321.31400000000002</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="29"/>
+        <v>12.926565067581866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81">
+        <v>4355246080</v>
+      </c>
+      <c r="C81">
+        <v>334494</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="26"/>
+        <v>334.49400000000003</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="27"/>
+        <v>12.417222216616739</v>
+      </c>
+      <c r="F81">
+        <v>324159</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="28"/>
+        <v>324.15899999999999</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="29"/>
+        <v>12.813114330081843</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82">
+        <v>4355246080</v>
+      </c>
+      <c r="C82">
+        <v>331114</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="26"/>
+        <v>331.11399999999998</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="27"/>
+        <v>12.543976781788146</v>
+      </c>
+      <c r="F82">
+        <v>312137</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="28"/>
+        <v>312.137</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="29"/>
+        <v>13.306613211906951</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83">
+        <v>4355246080</v>
+      </c>
+      <c r="C83">
+        <v>334528</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="26"/>
+        <v>334.52800000000002</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="27"/>
+        <v>12.415960183078845</v>
+      </c>
+      <c r="F83">
+        <v>324248</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="28"/>
+        <v>324.24799999999999</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="29"/>
+        <v>12.809597370299894</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84">
+        <v>4355246080</v>
+      </c>
+      <c r="C84">
+        <v>332863</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="26"/>
+        <v>332.863</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="27"/>
+        <v>12.478065534844665</v>
+      </c>
+      <c r="F84">
+        <v>320090</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="28"/>
+        <v>320.08999999999997</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="29"/>
+        <v>12.975995276719049</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>4355246080</v>
+      </c>
+      <c r="C85">
+        <v>338583</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="26"/>
+        <v>338.58300000000003</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="27"/>
+        <v>12.267261877072977</v>
+      </c>
+      <c r="F85">
+        <v>317698</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="28"/>
+        <v>317.69799999999998</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="29"/>
+        <v>13.073693659151145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>4355246080</v>
+      </c>
+      <c r="C86">
+        <v>340749</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="26"/>
+        <v>340.74900000000002</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="27"/>
+        <v>12.189283983592027</v>
+      </c>
+      <c r="F86">
+        <v>339613</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="28"/>
+        <v>339.613</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="29"/>
+        <v>12.230056941651233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>4355246080</v>
+      </c>
+      <c r="C87">
+        <v>335684</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="26"/>
+        <v>335.68400000000003</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="27"/>
+        <v>12.373203155720855</v>
+      </c>
+      <c r="F87">
+        <v>343237</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="28"/>
+        <v>343.23700000000002</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="29"/>
+        <v>12.100928303548276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>4355246080</v>
+      </c>
+      <c r="C88">
+        <v>336787</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="26"/>
+        <v>336.78699999999998</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="27"/>
+        <v>12.332680086003915</v>
+      </c>
+      <c r="F88">
+        <v>319514</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="28"/>
+        <v>319.51400000000001</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="29"/>
+        <v>12.999387595300988</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>4355246080</v>
+      </c>
+      <c r="C89">
+        <v>334777</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="26"/>
+        <v>334.77699999999999</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="27"/>
+        <v>12.406725456423231</v>
+      </c>
+      <c r="F89">
+        <v>356203</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="28"/>
+        <v>356.20299999999997</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="29"/>
+        <v>11.660447352001528</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>4355246080</v>
+      </c>
+      <c r="C90">
+        <v>333844</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="26"/>
+        <v>333.84399999999999</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="27"/>
+        <v>12.441398761472424</v>
+      </c>
+      <c r="F90">
+        <v>325899</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="28"/>
+        <v>325.899</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="29"/>
+        <v>12.744704120371649</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>4355246081</v>
+      </c>
+      <c r="C91">
+        <v>336748</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ref="D91:D92" si="30">C91/1000</f>
+        <v>336.74799999999999</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ref="E91:E92" si="31">B91/(1024*1024)/D91</f>
+        <v>12.334108380981251</v>
+      </c>
+      <c r="F91">
+        <v>325379</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="28"/>
+        <v>325.37900000000002</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ref="H91:H92" si="32">B91/(1024*1024)/G91</f>
+        <v>12.76507189793648</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>4355246082</v>
+      </c>
+      <c r="C92">
+        <v>336938</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="30"/>
+        <v>336.93799999999999</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="31"/>
+        <v>12.327153155869475</v>
+      </c>
+      <c r="F92">
+        <v>360653</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="28"/>
+        <v>360.65300000000002</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="32"/>
+        <v>11.516572245433556</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/papers/cloudcom10/performance/namd_runs.xlsx
+++ b/papers/cloudcom10/performance/namd_runs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25460" yWindow="-520" windowWidth="35000" windowHeight="22540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-100" yWindow="-80" windowWidth="19020" windowHeight="22540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="NAMD Runtimes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="244">
   <si>
     <t>SAGA Pilot Sub-Job Runtime</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -61,6 +61,9 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>VM-Type</t>
+  </si>
+  <si>
     <t>large</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -90,15 +93,27 @@
   </si>
   <si>
     <t>small (1 core)</t>
+  </si>
+  <si>
+    <t>small (1 core)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>medium (2 cores)</t>
+  </si>
+  <si>
+    <t>medium (2 cores)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>large (4 cores)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>large (4 cores)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra-large (8 cores)</t>
   </si>
   <si>
     <t>extra-large (8 cores)</t>
@@ -5180,12 +5195,12 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -5193,22 +5208,22 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -5220,15 +5235,15 @@
         <v>2</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5248,7 +5263,7 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -5268,7 +5283,7 @@
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -5288,7 +5303,7 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5308,7 +5323,7 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -5328,7 +5343,7 @@
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -5348,7 +5363,7 @@
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5368,7 +5383,7 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -5388,7 +5403,7 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -5408,7 +5423,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5428,7 +5443,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -5448,7 +5463,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -5468,7 +5483,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5488,7 +5503,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -5508,7 +5523,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -5528,7 +5543,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -5548,7 +5563,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5579,7 +5594,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5610,7 +5625,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5641,7 +5656,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -5664,7 +5679,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -5687,7 +5702,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -5708,7 +5723,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -5729,7 +5744,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -5750,7 +5765,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -5771,7 +5786,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -5792,7 +5807,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -5813,7 +5828,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -5834,7 +5849,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -5855,7 +5870,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -5876,7 +5891,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -5897,7 +5912,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -5918,7 +5933,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -5939,7 +5954,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="44" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B38" s="44">
         <v>2</v>
@@ -5960,7 +5975,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -5981,7 +5996,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -6002,7 +6017,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -6023,7 +6038,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -6044,7 +6059,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -6065,7 +6080,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6086,7 +6101,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6107,7 +6122,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6138,7 +6153,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -6169,7 +6184,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -6190,7 +6205,7 @@
     </row>
     <row r="49" spans="1:11" s="41" customFormat="1">
       <c r="A49" s="41" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49" s="41">
         <v>2</v>
@@ -6211,7 +6226,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="39" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50" s="39">
         <v>4</v>
@@ -6232,7 +6247,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -6253,7 +6268,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -6274,7 +6289,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -6295,7 +6310,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -6316,7 +6331,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -6337,7 +6352,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -6358,7 +6373,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -6379,7 +6394,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -6400,7 +6415,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -6421,7 +6436,7 @@
     </row>
     <row r="60" spans="1:11" hidden="1">
       <c r="A60" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -6442,7 +6457,7 @@
     </row>
     <row r="61" spans="1:11" hidden="1">
       <c r="A61" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -6454,7 +6469,7 @@
     </row>
     <row r="62" spans="1:11" hidden="1">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -6466,7 +6481,7 @@
     </row>
     <row r="63" spans="1:11" hidden="1">
       <c r="A63" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -6478,7 +6493,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -6506,7 +6521,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -6534,7 +6549,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6572,7 +6587,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -6610,7 +6625,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -6648,7 +6663,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -6678,7 +6693,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -6708,7 +6723,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -6738,7 +6753,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -6768,7 +6783,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -6798,7 +6813,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -6828,7 +6843,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -6858,7 +6873,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -6888,7 +6903,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -6918,7 +6933,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -6948,7 +6963,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -6978,7 +6993,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -7008,7 +7023,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -7038,7 +7053,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -7068,7 +7083,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -7098,7 +7113,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -7125,7 +7140,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7152,7 +7167,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7179,7 +7194,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -7206,7 +7221,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -7233,7 +7248,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -7260,7 +7275,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -7287,7 +7302,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -7314,7 +7329,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -7341,7 +7356,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -7368,7 +7383,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -7395,7 +7410,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -7428,12 +7443,12 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -7460,7 +7475,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -7487,7 +7502,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -7514,7 +7529,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -7541,7 +7556,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -7568,7 +7583,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -7595,7 +7610,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -7622,7 +7637,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -7649,7 +7664,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -7676,7 +7691,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -7703,7 +7718,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -7730,7 +7745,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -7757,7 +7772,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -7784,7 +7799,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -7811,7 +7826,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -7838,7 +7853,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -7865,7 +7880,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -7892,7 +7907,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -7919,7 +7934,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -7946,7 +7961,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -7973,7 +7988,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -8000,7 +8015,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -8027,7 +8042,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -8054,7 +8069,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -8081,7 +8096,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -8107,7 +8122,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="10" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8139,45 +8153,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8192,7 +8206,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I6" s="17">
         <v>221.43898490266665</v>
@@ -8200,7 +8214,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8216,7 +8230,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I7" s="21">
         <v>27.888301147358074</v>
@@ -8224,7 +8238,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -8240,7 +8254,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I8" s="21">
         <v>6</v>
@@ -8248,7 +8262,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -8266,7 +8280,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I9" s="17">
         <v>230.1513251065</v>
@@ -8274,7 +8288,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -8290,7 +8304,7 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I10" s="21">
         <v>21.442701960879447</v>
@@ -8298,7 +8312,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -8314,7 +8328,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I11" s="21">
         <v>4</v>
@@ -8322,7 +8336,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -8340,7 +8354,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I12" s="17">
         <v>524.47522211100011</v>
@@ -8348,7 +8362,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -8364,7 +8378,7 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I13" s="21">
         <v>249.37176975472715</v>
@@ -8372,7 +8386,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -8388,7 +8402,7 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I14" s="21">
         <v>32</v>
@@ -8396,7 +8410,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -8414,7 +8428,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I15" s="17">
         <v>338.08045351500004</v>
@@ -8422,7 +8436,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -8438,7 +8452,7 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I16" s="21">
         <v>46.784586737362908</v>
@@ -8446,7 +8460,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -8462,7 +8476,7 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I17" s="21">
         <v>16</v>
@@ -8470,7 +8484,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -8485,7 +8499,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="17">
@@ -8494,7 +8508,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -8509,7 +8523,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="17">
@@ -8518,7 +8532,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -8533,7 +8547,7 @@
         <v>0.75</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="25">
@@ -8542,7 +8556,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -8559,7 +8573,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -8576,7 +8590,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -8593,7 +8607,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -8610,7 +8624,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -8627,19 +8641,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="C26" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D26" s="2">
         <f>AVERAGE(D6:D25)</f>
         <v>373.44653231864999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2">
         <f>STDEV(D6:D25)</f>
@@ -8649,42 +8663,42 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="26" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -8702,7 +8716,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J31" s="17">
         <v>302.94028916180002</v>
@@ -8710,7 +8724,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8727,7 +8741,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J32" s="21">
         <v>17.23574117758357</v>
@@ -8735,7 +8749,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8750,7 +8764,7 @@
         <v>0.5625</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8760,7 +8774,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8775,7 +8789,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8785,7 +8799,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8806,7 +8820,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J35" s="17">
         <v>305.19036102299998</v>
@@ -8814,7 +8828,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -8832,7 +8846,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J36" s="21" t="e">
         <v>#DIV/0!</v>
@@ -8840,7 +8854,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -8856,7 +8870,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -8866,7 +8880,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -8882,7 +8896,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -8892,7 +8906,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -8914,7 +8928,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J39" s="17">
         <v>384.05235557549997</v>
@@ -8922,7 +8936,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -8940,7 +8954,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J40" s="21">
         <v>32.66972061151673</v>
@@ -8948,7 +8962,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -8964,7 +8978,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -8974,7 +8988,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -8989,7 +9003,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -8999,7 +9013,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -9014,7 +9028,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -9024,7 +9038,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -9039,7 +9053,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -9049,7 +9063,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -9066,7 +9080,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -9083,7 +9097,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -9098,19 +9112,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="C48" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D48" s="2">
         <f>AVERAGE(D30:D47)</f>
         <v>356.83130192700003</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="C49" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D49" s="2">
         <f>STDEV(D31:D47)</f>
@@ -9127,40 +9141,40 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B52" s="26"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -9178,7 +9192,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I54" s="17">
         <v>14.1872649193</v>
@@ -9186,7 +9200,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -9202,7 +9216,7 @@
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I55" s="21" t="e">
         <v>#DIV/0!</v>
@@ -9210,7 +9224,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -9228,7 +9242,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I56" s="17">
         <v>44.782275199920001</v>
@@ -9236,7 +9250,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -9252,7 +9266,7 @@
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I57" s="21">
         <v>15.843792242505828</v>
@@ -9260,7 +9274,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -9278,7 +9292,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I58" s="17">
         <v>56.964924156674996</v>
@@ -9286,7 +9300,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -9302,7 +9316,7 @@
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I59" s="21">
         <v>9.4994883808250847</v>
@@ -9310,7 +9324,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -9328,7 +9342,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I60" s="17">
         <v>187.55037531850999</v>
@@ -9336,7 +9350,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -9352,7 +9366,7 @@
       </c>
       <c r="G61" s="32"/>
       <c r="H61" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I61" s="21">
         <v>179.97433590633514</v>
@@ -9360,7 +9374,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -9375,7 +9389,7 @@
         <v>0.59236111111111112</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="17">
@@ -9384,7 +9398,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -9399,7 +9413,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="25">
@@ -9408,7 +9422,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -9425,7 +9439,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -9442,7 +9456,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -9459,7 +9473,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -9476,7 +9490,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -9493,7 +9507,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -9510,7 +9524,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -9527,7 +9541,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -9544,7 +9558,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -9561,7 +9575,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -9576,36 +9590,36 @@
     </row>
     <row r="74" spans="1:10">
       <c r="C74" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D74" s="2">
         <f>AVERAGE(D54:D73)</f>
         <v>117.073104536535</v>
       </c>
       <c r="E74" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H74" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I74" s="55">
         <f>AVERAGE(D54:D63,D65:D66,D68:D70,D73)</f>
         <v>53.003791779293749</v>
       </c>
       <c r="J74" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="C75" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D75" s="2">
         <f>STDEV(D54:D73)</f>
         <v>143.93518726021225</v>
       </c>
       <c r="H75" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I75" s="55">
         <f>STDEV(D54:D63,D65:D66,D68:D70,D73)</f>
@@ -9621,26 +9635,26 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="26" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -9654,7 +9668,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -9668,7 +9682,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -9682,7 +9696,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -9696,7 +9710,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -9710,7 +9724,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -9724,7 +9738,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -9738,7 +9752,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -9752,7 +9766,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -9766,7 +9780,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -9780,7 +9794,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -9794,7 +9808,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -9808,7 +9822,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -9822,7 +9836,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -9840,7 +9854,7 @@
         <v>331.21428571428572</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -9854,29 +9868,29 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="68" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="67" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -9891,12 +9905,12 @@
         <v>540.78749203699999</v>
       </c>
       <c r="F100" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -9911,12 +9925,12 @@
         <v>535.53545093499997</v>
       </c>
       <c r="F101" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -9931,12 +9945,12 @@
         <v>545.29999999999995</v>
       </c>
       <c r="F102" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -9951,12 +9965,12 @@
         <v>803.84470940000006</v>
       </c>
       <c r="F103" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -9971,12 +9985,12 @@
         <v>513.75138115899995</v>
       </c>
       <c r="F104" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -9991,12 +10005,12 @@
         <v>533.84486103100005</v>
       </c>
       <c r="F105" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -10011,12 +10025,12 @@
         <v>530.13947606099998</v>
       </c>
       <c r="F106" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -10031,12 +10045,12 @@
         <v>540.12562584900002</v>
       </c>
       <c r="F107" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B108">
         <v>16</v>
@@ -10051,12 +10065,12 @@
         <v>640.48868703799997</v>
       </c>
       <c r="F108" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B109">
         <v>16</v>
@@ -10071,12 +10085,12 @@
         <v>514.74440503100004</v>
       </c>
       <c r="F109" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B110">
         <v>16</v>
@@ -10089,12 +10103,12 @@
         <v>535.21085310000001</v>
       </c>
       <c r="F110" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B111">
         <v>16</v>
@@ -10107,12 +10121,12 @@
         <v>607.65833091699994</v>
       </c>
       <c r="F111" s="55" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -10125,12 +10139,12 @@
         <v>596.06263589900004</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B113">
         <v>16</v>
@@ -10143,12 +10157,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B114">
         <v>16</v>
@@ -10161,12 +10175,12 @@
         <v>527.22448778199998</v>
       </c>
       <c r="F114" s="55" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B115">
         <v>16</v>
@@ -10179,12 +10193,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F115" s="55" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B116">
         <v>16</v>
@@ -10197,12 +10211,12 @@
         <v>500.43472504599998</v>
       </c>
       <c r="F116" s="55" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B117">
         <v>16</v>
@@ -10215,12 +10229,12 @@
         <v>512.97764587400002</v>
       </c>
       <c r="F117" s="55" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -10237,7 +10251,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -10256,7 +10270,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -10275,7 +10289,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B121">
         <v>16</v>
@@ -10288,13 +10302,13 @@
         <v>609.56168699299997</v>
       </c>
       <c r="F121" s="55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H121" s="55"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B122">
         <v>16</v>
@@ -10307,13 +10321,13 @@
         <v>612.84088611599998</v>
       </c>
       <c r="F122" s="55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H122" s="55"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B123">
         <v>16</v>
@@ -10326,13 +10340,13 @@
         <v>613.39775299999997</v>
       </c>
       <c r="F123" s="55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H123" s="55"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B124">
         <v>16</v>
@@ -10345,13 +10359,13 @@
         <v>659.99135088900005</v>
       </c>
       <c r="F124" s="55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H124" s="55"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B125">
         <v>16</v>
@@ -10362,13 +10376,13 @@
       <c r="D125" s="55"/>
       <c r="E125" s="55"/>
       <c r="F125" s="55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H125" s="55"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B126">
         <v>16</v>
@@ -10379,13 +10393,13 @@
       <c r="D126" s="55"/>
       <c r="E126" s="55"/>
       <c r="F126" s="55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H126" s="55"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B127">
         <v>16</v>
@@ -10396,13 +10410,13 @@
       <c r="D127" s="55"/>
       <c r="E127" s="55"/>
       <c r="F127" s="55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H127" s="55"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B128">
         <v>16</v>
@@ -10412,26 +10426,26 @@
       </c>
       <c r="D128" s="55"/>
       <c r="F128" s="55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H128" s="55"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="55"/>
       <c r="D129" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E129" s="55">
         <f>AVERAGE(E100:E120)</f>
         <v>569.53688043885711</v>
       </c>
       <c r="F129" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="D130" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E130">
         <f>STDEV(E100:E120)</f>
@@ -10439,7 +10453,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId4"/>
@@ -10472,69 +10485,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="28" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="28" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10569,13 +10582,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10610,13 +10623,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B8" s="31">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10651,7 +10664,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -10689,7 +10702,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -10724,7 +10737,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -10765,7 +10778,7 @@
     </row>
     <row r="12" spans="1:14" s="49" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="49" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B12" s="49">
         <v>32</v>
@@ -10806,7 +10819,7 @@
     </row>
     <row r="13" spans="1:14" ht="40" thickTop="1">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -10837,12 +10850,12 @@
         <v>2</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -10873,12 +10886,12 @@
         <v>2</v>
       </c>
       <c r="N14" s="52" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B15" s="41">
         <v>16</v>
@@ -10909,12 +10922,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -10945,12 +10958,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="52" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -10983,7 +10996,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -11016,7 +11029,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -11055,17 +11068,16 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="28" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -11093,17 +11105,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="56" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -11111,7 +11123,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -11119,39 +11131,39 @@
     </row>
     <row r="8" spans="1:10" s="58" customFormat="1" ht="39">
       <c r="A8" s="29" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1">
       <c r="A9" s="62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B9" s="63">
         <v>0</v>
@@ -11163,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F9" s="63">
         <v>0</v>
@@ -11183,7 +11195,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1">
       <c r="A10" s="62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B10" s="63">
         <v>0</v>
@@ -11195,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F10" s="63">
         <v>0</v>
@@ -11215,7 +11227,7 @@
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
       <c r="A11" s="62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B11" s="63">
         <v>0</v>
@@ -11227,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F11" s="63">
         <v>0</v>
@@ -11247,7 +11259,7 @@
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1">
       <c r="A12" s="62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B12" s="63">
         <v>0</v>
@@ -11259,7 +11271,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F12" s="63">
         <v>0</v>
@@ -11279,7 +11291,7 @@
     </row>
     <row r="13" spans="1:10" s="61" customFormat="1">
       <c r="A13" s="64" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B13" s="65">
         <v>0</v>
@@ -11291,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F13" s="65">
         <v>0</v>
@@ -11311,7 +11323,7 @@
     </row>
     <row r="14" spans="1:10" s="58" customFormat="1">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -11323,7 +11335,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -11343,7 +11355,7 @@
     </row>
     <row r="15" spans="1:10" s="58" customFormat="1">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -11355,7 +11367,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -11375,7 +11387,7 @@
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -11387,7 +11399,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -11407,7 +11419,7 @@
     </row>
     <row r="17" spans="1:10" s="58" customFormat="1">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -11419,7 +11431,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -11439,7 +11451,7 @@
     </row>
     <row r="18" spans="1:10" s="58" customFormat="1">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -11451,7 +11463,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -11471,7 +11483,7 @@
     </row>
     <row r="19" spans="1:10" s="58" customFormat="1">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -11483,7 +11495,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -11503,7 +11515,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -11516,7 +11528,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -11536,7 +11548,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -11549,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -11569,7 +11581,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11582,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -11602,7 +11614,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -11615,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -11635,7 +11647,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11648,7 +11660,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -11668,7 +11680,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11681,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -11701,7 +11713,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11714,7 +11726,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -11734,7 +11746,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -11747,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -11767,7 +11779,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -11780,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -11800,7 +11812,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -11813,7 +11825,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -11833,7 +11845,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -11846,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -11866,7 +11878,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -11879,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -11899,7 +11911,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -11912,7 +11924,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -11932,7 +11944,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -11945,7 +11957,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -11965,7 +11977,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -11978,7 +11990,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -11998,7 +12010,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -12011,7 +12023,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -12031,7 +12043,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -12044,7 +12056,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -12064,7 +12076,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -12077,7 +12089,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -12097,7 +12109,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -12110,7 +12122,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -12130,7 +12142,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -12143,7 +12155,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -12163,7 +12175,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -12176,7 +12188,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -12196,7 +12208,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -12209,7 +12221,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -12229,7 +12241,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -12242,7 +12254,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -12262,7 +12274,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -12275,7 +12287,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -12295,7 +12307,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -12308,7 +12320,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -12328,7 +12340,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -12341,7 +12353,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -12361,7 +12373,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -12374,7 +12386,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -12394,7 +12406,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -12407,7 +12419,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -12427,7 +12439,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -12440,7 +12452,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -12460,20 +12472,20 @@
     </row>
     <row r="69" spans="1:15">
       <c r="O69" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B74" s="55">
         <f>AVERAGE(J9:J13)</f>
@@ -12486,7 +12498,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="58" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B75" s="55">
         <f>J27</f>
@@ -12499,7 +12511,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B76" s="55">
         <f>AVERAGE(J20:J25)</f>
@@ -12512,7 +12524,7 @@
     </row>
     <row r="77" spans="1:15" ht="39">
       <c r="A77" s="52" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B77" s="55">
         <f>AVERAGE(J14:J19)</f>
@@ -12525,7 +12537,7 @@
     </row>
     <row r="78" spans="1:15" ht="39">
       <c r="A78" s="52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B78" s="55">
         <f>AVERAGE(J43:J46)</f>
@@ -12538,7 +12550,7 @@
     </row>
     <row r="79" spans="1:15" ht="39">
       <c r="A79" s="52" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B79" s="55">
         <f>AVERAGE(J34:J42)</f>
@@ -12579,50 +12591,50 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="53" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="54" customFormat="1" ht="39">
       <c r="A5" s="54" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -12661,7 +12673,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -12772,7 +12784,7 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12811,7 +12823,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -13076,10 +13088,10 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -13091,7 +13103,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -13115,12 +13127,12 @@
         <v>32</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -13137,7 +13149,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20">
@@ -13154,7 +13166,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -13175,7 +13187,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B8" s="19">
         <v>2070.8984270000001</v>
@@ -13192,7 +13204,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B9" s="19">
         <v>1095.4940549999999</v>
@@ -13219,7 +13231,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -13240,7 +13252,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -13261,7 +13273,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B12" s="23">
         <v>1583.1962410000001</v>
@@ -13303,9 +13315,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -13321,33 +13333,33 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26">
       <c r="A1" s="69" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B2" s="78">
         <v>1</v>
@@ -13362,12 +13374,12 @@
         <v>5467.0610818900004</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B3" s="78">
         <v>1</v>
@@ -13382,12 +13394,12 @@
         <v>5425.6983258700002</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B4" s="78">
         <v>1</v>
@@ -13402,12 +13414,12 @@
         <v>5366.32453394</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B5" s="78">
         <v>1</v>
@@ -13422,12 +13434,12 @@
         <v>5464.4371781299997</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B6" s="78">
         <v>1</v>
@@ -13442,10 +13454,10 @@
         <v>5491.1035299300001</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K6" s="55">
         <f>AVERAGE(E12:E22)/60</f>
@@ -13458,7 +13470,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B7" s="78">
         <v>1</v>
@@ -13473,10 +13485,10 @@
         <v>5444.7614481399996</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K7" s="55">
         <f>AVERAGE(E28:E33)/60</f>
@@ -13494,10 +13506,10 @@
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
       <c r="F8" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K8" s="55">
         <f>AVERAGE(E23:E27)/60</f>
@@ -13515,10 +13527,10 @@
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
       <c r="F9" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K9" s="55">
         <f>AVERAGE(E34:E36)/60</f>
@@ -13536,7 +13548,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
       <c r="F10" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -13546,12 +13558,12 @@
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
       <c r="F11" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B12" s="78">
         <v>1</v>
@@ -13566,12 +13578,12 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B13" s="78">
         <v>1</v>
@@ -13586,12 +13598,12 @@
         <v>5352.9993340999999</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B14" s="78">
         <v>1</v>
@@ -13606,12 +13618,12 @@
         <v>5265.4794118399996</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="78" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B15" s="78">
         <v>1</v>
@@ -13626,12 +13638,12 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="78" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B16" s="78">
         <v>1</v>
@@ -13646,12 +13658,12 @@
         <v>5202.5642039799995</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="78" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B17" s="78">
         <v>1</v>
@@ -13666,12 +13678,12 @@
         <v>5188.3370358900002</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="78" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B18" s="78">
         <v>1</v>
@@ -13686,12 +13698,12 @@
         <v>5284.6490089899999</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="78" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B19" s="78">
         <v>1</v>
@@ -13706,12 +13718,12 @@
         <v>5202.49168491</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="78" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B20" s="78">
         <v>1</v>
@@ -13726,12 +13738,12 @@
         <v>5155.4024429299998</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="78" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B21" s="78">
         <v>1</v>
@@ -13746,12 +13758,12 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="78" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B22" s="78">
         <v>1</v>
@@ -13766,12 +13778,12 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B23" s="78">
         <v>1</v>
@@ -13786,12 +13798,12 @@
         <v>6667.9942650800003</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B24" s="78">
         <v>1</v>
@@ -13806,12 +13818,12 @@
         <v>6726.6931519500004</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B25" s="78">
         <v>1</v>
@@ -13826,12 +13838,12 @@
         <v>6773.2417349799998</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B26" s="78">
         <v>1</v>
@@ -13846,12 +13858,12 @@
         <v>6785.3887209900004</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B27" s="78">
         <v>1</v>
@@ -13866,12 +13878,12 @@
         <v>6923.0692589299997</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B28" s="78">
         <v>1</v>
@@ -13886,12 +13898,12 @@
         <v>5381.4183900400003</v>
       </c>
       <c r="F28" s="78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B29" s="78">
         <v>1</v>
@@ -13906,12 +13918,12 @@
         <v>5433.5929520099999</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B30" s="78">
         <v>1</v>
@@ -13926,15 +13938,15 @@
         <v>5260.5256700500004</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J30" s="83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B31" s="78">
         <v>1</v>
@@ -13949,10 +13961,10 @@
         <v>5255.02369189</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I31" s="83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31" s="83">
         <v>2</v>
@@ -13972,7 +13984,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B32" s="78">
         <v>1</v>
@@ -13987,10 +13999,10 @@
         <v>5214.6700560999998</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I32" s="83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J32" s="82">
         <f>AVERAGE(E2:E3)/60</f>
@@ -14015,7 +14027,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B33" s="78">
         <v>1</v>
@@ -14030,10 +14042,10 @@
         <v>5197.2517461799998</v>
       </c>
       <c r="F33" s="78" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I33" s="83" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J33" s="82">
         <f>AVERAGE(E38:E39)/60</f>
@@ -14058,7 +14070,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="78" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B34" s="78">
         <v>1</v>
@@ -14073,10 +14085,10 @@
         <v>6961.1671140199996</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I34" s="83" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J34" s="82">
         <f>AVERAGE(E50:E52)/60</f>
@@ -14101,7 +14113,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="78" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B35" s="78">
         <v>1</v>
@@ -14116,35 +14128,35 @@
         <v>6703.2019269499997</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I35" s="83" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J35" s="82">
         <f>AVERAGE(E66:E82)/60</f>
         <v>29.755726918294116</v>
       </c>
       <c r="K35" s="82">
-        <f>AVERAGE(E83:E85)/60</f>
+        <f>AVERAGE(E88:E90)/60</f>
         <v>29.533525637777775</v>
       </c>
       <c r="L35" s="82">
-        <f>AVERAGE(E100:E116)/60</f>
+        <f>AVERAGE(E99:E115)/60</f>
         <v>30.22606411610785</v>
       </c>
       <c r="M35" s="82">
-        <f>AVERAGE(E117:E121)/60</f>
+        <f>AVERAGE(E116:E120)/60</f>
         <v>29.968669529766665</v>
       </c>
       <c r="N35" s="82">
-        <f>AVERAGE(E127:E128)/60</f>
+        <f>AVERAGE(E125:E126)/60</f>
         <v>28.153145275583331</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="78" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B36" s="78">
         <v>1</v>
@@ -14159,12 +14171,12 @@
         <v>6944.8268718700001</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="78" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B37" s="78">
         <v>1</v>
@@ -14179,12 +14191,12 @@
         <v>5636.6851661199998</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -14199,12 +14211,12 @@
         <v>3239.5005390599999</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -14219,12 +14231,27 @@
         <v>3358.32970905</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="I39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -14239,12 +14266,27 @@
         <v>3270.4652380900002</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" s="82">
+        <v>90.772995064666674</v>
+      </c>
+      <c r="K40" s="82">
+        <v>54.981918734250002</v>
+      </c>
+      <c r="L40" s="82">
+        <v>36.058656472611112</v>
+      </c>
+      <c r="M40" s="82">
+        <v>29.755726918294116</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -14259,12 +14301,27 @@
         <v>3368.2116460799998</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" s="82">
+        <v>90.256347600583325</v>
+      </c>
+      <c r="K41" s="82">
+        <v>55.322307368083329</v>
+      </c>
+      <c r="L41" s="82">
+        <v>37.093889689444445</v>
+      </c>
+      <c r="M41" s="82">
+        <v>29.533525637777775</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -14279,12 +14336,27 @@
         <v>3416.4645237899999</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+      <c r="J42" s="82">
+        <v>91.132208150583338</v>
+      </c>
+      <c r="K42" s="82">
+        <v>56.079986642444439</v>
+      </c>
+      <c r="L42" s="82">
+        <v>38.450774529583327</v>
+      </c>
+      <c r="M42" s="82">
+        <v>30.22606411610785</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -14299,12 +14371,27 @@
         <v>3386.5463669300002</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="I43">
+        <v>16</v>
+      </c>
+      <c r="J43" s="82">
+        <v>95.949001352933323</v>
+      </c>
+      <c r="K43" s="82">
+        <v>55.409327467277784</v>
+      </c>
+      <c r="L43" s="82">
+        <v>39.344255583499994</v>
+      </c>
+      <c r="M43" s="82">
+        <v>29.968669529766665</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -14319,12 +14406,27 @@
         <v>3291.3867049199998</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="I44">
+        <v>32</v>
+      </c>
+      <c r="J44" s="82">
+        <v>93.94475276866666</v>
+      </c>
+      <c r="K44" s="82">
+        <v>56.714765632166667</v>
+      </c>
+      <c r="L44" s="82">
+        <v>39.328528523416665</v>
+      </c>
+      <c r="M44" s="82">
+        <v>28.153145275583331</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -14339,12 +14441,12 @@
         <v>3374.3176279099998</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -14359,12 +14461,12 @@
         <v>3251.2442061900001</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -14379,12 +14481,12 @@
         <v>3348.11711001</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -14399,12 +14501,12 @@
         <v>3402.8859379300002</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -14417,12 +14519,12 @@
       </c>
       <c r="E49" s="74"/>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" s="76">
         <v>4</v>
@@ -14437,12 +14539,12 @@
         <v>2062.0451450300002</v>
       </c>
       <c r="F50" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" s="76">
         <v>4</v>
@@ -14457,12 +14559,12 @@
         <v>2197.8351230600001</v>
       </c>
       <c r="F51" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" s="76">
         <v>4</v>
@@ -14477,12 +14579,12 @@
         <v>2230.6778969799998</v>
       </c>
       <c r="F52" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53" s="76">
         <v>4</v>
@@ -14497,12 +14599,12 @@
         <v>2214.5342040099999</v>
       </c>
       <c r="F53" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" s="76">
         <v>4</v>
@@ -14517,12 +14619,12 @@
         <v>2227.3965690099999</v>
       </c>
       <c r="F54" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" s="76">
         <v>4</v>
@@ -14537,12 +14639,12 @@
         <v>2234.9693710800002</v>
       </c>
       <c r="F55" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" s="76">
         <v>4</v>
@@ -14557,12 +14659,12 @@
         <v>2318.40899515</v>
       </c>
       <c r="F56" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" s="76">
         <v>4</v>
@@ -14577,12 +14679,12 @@
         <v>2381.80929685</v>
       </c>
       <c r="F57" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" s="76">
         <v>4</v>
@@ -14597,12 +14699,12 @@
         <v>2220.3577370600001</v>
       </c>
       <c r="F58" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" s="76">
         <v>4</v>
@@ -14617,12 +14719,12 @@
         <v>2307.6098580399998</v>
       </c>
       <c r="F59" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" s="76">
         <v>4</v>
@@ -14637,12 +14739,12 @@
         <v>2470.72962117</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61" s="76">
         <v>4</v>
@@ -14657,12 +14759,12 @@
         <v>2315.60190797</v>
       </c>
       <c r="F61" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" s="76">
         <v>4</v>
@@ -14677,12 +14779,12 @@
         <v>2394.6190059199998</v>
       </c>
       <c r="F62" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" s="76">
         <v>4</v>
@@ -14697,12 +14799,12 @@
         <v>2261.67080498</v>
       </c>
       <c r="F63" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" s="76">
         <v>4</v>
@@ -14717,12 +14819,12 @@
         <v>2428.40984893</v>
       </c>
       <c r="F64" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65" s="76">
         <v>4</v>
@@ -14737,12 +14839,12 @@
         <v>2291.01357388</v>
       </c>
       <c r="F65" s="76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -14757,12 +14859,12 @@
         <v>1755.41372609</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -14777,12 +14879,12 @@
         <v>1700.6529159500001</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -14797,12 +14899,12 @@
         <v>1791.71858215</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -14817,12 +14919,12 @@
         <v>1754.3026611800001</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -14837,12 +14939,12 @@
         <v>1795.45695019</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -14857,12 +14959,12 @@
         <v>1768.0575780900001</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -14877,12 +14979,12 @@
         <v>1768.25146008</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -14897,12 +14999,12 @@
         <v>1872.71734595</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -14917,12 +15019,12 @@
         <v>1780.7754190000001</v>
       </c>
       <c r="F74" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -14937,12 +15039,12 @@
         <v>1772.9535300699999</v>
       </c>
       <c r="F75" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -14957,12 +15059,12 @@
         <v>1673.50027084</v>
       </c>
       <c r="F76" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B77">
         <v>8</v>
@@ -14977,12 +15079,12 @@
         <v>1788.05790305</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -14997,12 +15099,12 @@
         <v>1892.5188911</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B79">
         <v>8</v>
@@ -15017,12 +15119,12 @@
         <v>1890.1004610099999</v>
       </c>
       <c r="F79" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -15037,12 +15139,12 @@
         <v>1800.52480197</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -15057,12 +15159,12 @@
         <v>1778.2094800499999</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -15077,106 +15179,97 @@
         <v>1767.6294798900001</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B83">
         <v>8</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>4</v>
       </c>
-      <c r="E83" s="55">
-        <v>1727.25121689</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
+      <c r="E83">
+        <v>1755.7615511399999</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B84">
         <v>8</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>4</v>
       </c>
-      <c r="E84" s="55">
-        <v>1818.3420629499999</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
+      <c r="E84">
+        <v>1755.3108708899999</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B85">
         <v>8</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
-      <c r="E85" s="55">
-        <v>1770.4413349599999</v>
-      </c>
-      <c r="F85" t="s">
-        <v>162</v>
+      <c r="E85">
+        <v>1776.3025808299999</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B86">
         <v>8</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>4</v>
       </c>
-      <c r="F86" t="s">
-        <v>162</v>
+      <c r="E86">
+        <v>1775.4375519800001</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B87">
         <v>8</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
-      <c r="F87" t="s">
-        <v>162</v>
+      <c r="E87">
+        <v>1771.63202095</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -15187,13 +15280,16 @@
       <c r="D88">
         <v>4</v>
       </c>
+      <c r="E88" s="55">
+        <v>1727.25121689</v>
+      </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -15204,13 +15300,16 @@
       <c r="D89">
         <v>4</v>
       </c>
+      <c r="E89" s="55">
+        <v>1818.3420629499999</v>
+      </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B90">
         <v>8</v>
@@ -15221,13 +15320,16 @@
       <c r="D90">
         <v>4</v>
       </c>
+      <c r="E90" s="55">
+        <v>1770.4413349599999</v>
+      </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -15238,13 +15340,16 @@
       <c r="D91">
         <v>4</v>
       </c>
+      <c r="E91">
+        <v>1894.0333972000001</v>
+      </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B92">
         <v>8</v>
@@ -15255,13 +15360,16 @@
       <c r="D92">
         <v>4</v>
       </c>
+      <c r="E92">
+        <v>1777.12373996</v>
+      </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B93">
         <v>8</v>
@@ -15272,13 +15380,16 @@
       <c r="D93">
         <v>4</v>
       </c>
+      <c r="E93">
+        <v>1777.3397109499999</v>
+      </c>
       <c r="F93" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B94">
         <v>8</v>
@@ -15289,98 +15400,116 @@
       <c r="D94">
         <v>4</v>
       </c>
+      <c r="E94">
+        <v>1770.9294168900001</v>
+      </c>
       <c r="F94" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B95">
         <v>8</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D95">
         <v>4</v>
       </c>
+      <c r="E95">
+        <v>1827.6398251099999</v>
+      </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B96">
         <v>8</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D96">
         <v>4</v>
       </c>
+      <c r="E96">
+        <v>1673.44356012</v>
+      </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B97">
         <v>8</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D97">
         <v>4</v>
       </c>
+      <c r="E97">
+        <v>1804.07670403</v>
+      </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B98">
         <v>8</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D98">
         <v>4</v>
       </c>
+      <c r="E98">
+        <v>1803.94324398</v>
+      </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B99">
         <v>8</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D99">
         <v>4</v>
       </c>
+      <c r="E99">
+        <v>1806.8634729400001</v>
+      </c>
       <c r="F99" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -15392,15 +15521,15 @@
         <v>4</v>
       </c>
       <c r="E100">
-        <v>1806.8634729400001</v>
+        <v>1810.6687281100001</v>
       </c>
       <c r="F100" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -15412,15 +15541,15 @@
         <v>4</v>
       </c>
       <c r="E101">
-        <v>1810.6687281100001</v>
+        <v>1781.2703998100001</v>
       </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -15432,15 +15561,15 @@
         <v>4</v>
       </c>
       <c r="E102">
-        <v>1781.2703998100001</v>
+        <v>1815.0974919800001</v>
       </c>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -15452,15 +15581,15 @@
         <v>4</v>
       </c>
       <c r="E103">
-        <v>1815.0974919800001</v>
+        <v>1888.6297318899999</v>
       </c>
       <c r="F103" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -15472,15 +15601,15 @@
         <v>4</v>
       </c>
       <c r="E104">
-        <v>1888.6297318899999</v>
+        <v>1798.8409340400001</v>
       </c>
       <c r="F104" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -15492,15 +15621,15 @@
         <v>4</v>
       </c>
       <c r="E105">
-        <v>1798.8409340400001</v>
+        <v>1800.7364668800001</v>
       </c>
       <c r="F105" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -15512,15 +15641,15 @@
         <v>4</v>
       </c>
       <c r="E106">
-        <v>1800.7364668800001</v>
+        <v>1777.75735998</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -15532,15 +15661,15 @@
         <v>4</v>
       </c>
       <c r="E107">
-        <v>1777.75735998</v>
+        <v>1790.2442941700001</v>
       </c>
       <c r="F107" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B108">
         <v>8</v>
@@ -15552,15 +15681,15 @@
         <v>4</v>
       </c>
       <c r="E108">
-        <v>1790.2442941700001</v>
+        <v>1921.4787900399999</v>
       </c>
       <c r="F108" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -15572,15 +15701,15 @@
         <v>4</v>
       </c>
       <c r="E109">
-        <v>1921.4787900399999</v>
+        <v>1807.1237280400001</v>
       </c>
       <c r="F109" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B110">
         <v>8</v>
@@ -15592,15 +15721,15 @@
         <v>4</v>
       </c>
       <c r="E110">
-        <v>1807.1237280400001</v>
+        <v>1918.3057050699999</v>
       </c>
       <c r="F110" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B111">
         <v>8</v>
@@ -15612,15 +15741,15 @@
         <v>4</v>
       </c>
       <c r="E111">
-        <v>1918.3057050699999</v>
+        <v>1782.99450207</v>
       </c>
       <c r="F111" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B112">
         <v>8</v>
@@ -15632,15 +15761,15 @@
         <v>4</v>
       </c>
       <c r="E112">
-        <v>1782.99450207</v>
+        <v>1789.0848701</v>
       </c>
       <c r="F112" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B113">
         <v>8</v>
@@ -15652,15 +15781,15 @@
         <v>4</v>
       </c>
       <c r="E113">
-        <v>1789.0848701</v>
+        <v>1712.9129622</v>
       </c>
       <c r="F113" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -15672,15 +15801,15 @@
         <v>4</v>
       </c>
       <c r="E114">
-        <v>1712.9129622</v>
+        <v>1810.1466629500001</v>
       </c>
       <c r="F114" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -15692,55 +15821,55 @@
         <v>4</v>
       </c>
       <c r="E115">
-        <v>1810.1466629500001</v>
+        <v>1818.4292981599999</v>
       </c>
       <c r="F115" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>164</v>
-      </c>
-      <c r="B116">
-        <v>8</v>
-      </c>
-      <c r="C116">
-        <v>8</v>
-      </c>
-      <c r="D116">
-        <v>4</v>
-      </c>
-      <c r="E116">
-        <v>1818.4292981599999</v>
-      </c>
-      <c r="F116" t="s">
-        <v>162</v>
+      <c r="A116" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="72">
+        <v>8</v>
+      </c>
+      <c r="C116" s="72">
+        <v>16</v>
+      </c>
+      <c r="D116" s="72">
+        <v>4</v>
+      </c>
+      <c r="E116" s="73">
+        <v>1842.58875704</v>
+      </c>
+      <c r="F116" s="72" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="B117" s="72">
-        <v>8</v>
-      </c>
-      <c r="C117" s="72">
+      <c r="A117" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="47">
+        <v>8</v>
+      </c>
+      <c r="C117" s="47">
         <v>16</v>
       </c>
-      <c r="D117" s="72">
-        <v>4</v>
-      </c>
-      <c r="E117" s="73">
-        <v>1842.58875704</v>
-      </c>
-      <c r="F117" s="72" t="s">
-        <v>162</v>
+      <c r="D117" s="47">
+        <v>4</v>
+      </c>
+      <c r="E117" s="55">
+        <v>1835.8984041199999</v>
+      </c>
+      <c r="F117" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B118" s="47">
         <v>8</v>
@@ -15752,15 +15881,15 @@
         <v>4</v>
       </c>
       <c r="E118" s="55">
-        <v>1835.8984041199999</v>
+        <v>1715.9458088900001</v>
       </c>
       <c r="F118" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B119" s="47">
         <v>8</v>
@@ -15772,15 +15901,15 @@
         <v>4</v>
       </c>
       <c r="E119" s="55">
-        <v>1715.9458088900001</v>
+        <v>1759.9219129099999</v>
       </c>
       <c r="F119" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B120" s="47">
         <v>8</v>
@@ -15792,15 +15921,15 @@
         <v>4</v>
       </c>
       <c r="E120" s="55">
-        <v>1759.9219129099999</v>
+        <v>1836.24597597</v>
       </c>
       <c r="F120" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B121" s="47">
         <v>8</v>
@@ -15811,16 +15940,16 @@
       <c r="D121" s="47">
         <v>4</v>
       </c>
-      <c r="E121" s="55">
-        <v>1836.24597597</v>
+      <c r="E121">
+        <v>1839.4019022</v>
       </c>
       <c r="F121" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B122" s="47">
         <v>8</v>
@@ -15831,13 +15960,16 @@
       <c r="D122" s="47">
         <v>4</v>
       </c>
+      <c r="E122">
+        <v>1706.54768085</v>
+      </c>
       <c r="F122" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B123" s="47">
         <v>8</v>
@@ -15848,13 +15980,16 @@
       <c r="D123" s="47">
         <v>4</v>
       </c>
+      <c r="E123">
+        <v>1824.0260689300001</v>
+      </c>
       <c r="F123" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B124" s="47">
         <v>8</v>
@@ -15865,47 +16000,56 @@
       <c r="D124" s="47">
         <v>4</v>
       </c>
+      <c r="E124">
+        <v>1812.6436419500001</v>
+      </c>
       <c r="F124" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>164</v>
-      </c>
-      <c r="B125" s="47">
-        <v>8</v>
-      </c>
-      <c r="C125" s="47">
-        <v>16</v>
-      </c>
-      <c r="D125" s="47">
-        <v>4</v>
+        <v>168</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>32</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125" s="74">
+        <v>1658.3445510900001</v>
       </c>
       <c r="F125" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126" s="47">
-        <v>8</v>
-      </c>
-      <c r="C126" s="47">
-        <v>16</v>
-      </c>
-      <c r="D126" s="47">
-        <v>4</v>
+        <v>168</v>
+      </c>
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>32</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126" s="74">
+        <v>1720.03288198</v>
       </c>
       <c r="F126" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B127">
         <v>8</v>
@@ -15916,13 +16060,16 @@
       <c r="D127">
         <v>4</v>
       </c>
-      <c r="E127" s="74">
-        <v>1658.3445510900001</v>
+      <c r="E127">
+        <v>1711.9533910800001</v>
+      </c>
+      <c r="F127" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -15933,13 +16080,31 @@
       <c r="D128">
         <v>4</v>
       </c>
-      <c r="E128" s="74">
-        <v>1720.03288198</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="E128">
+        <v>1668.2077360200001</v>
+      </c>
+      <c r="F128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>163</v>
+        <v>168</v>
+      </c>
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>32</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>1698.93364692</v>
+      </c>
+      <c r="F129" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -15978,7 +16143,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="70" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>5</v>
@@ -15987,19 +16152,19 @@
         <v>4</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="71" t="s">
         <v>3</v>
@@ -16007,7 +16172,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B2">
         <v>4355246080</v>
@@ -16037,7 +16202,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B3">
         <v>4355246080</v>
@@ -16067,7 +16232,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B4">
         <v>4355246080</v>
@@ -16095,21 +16260,21 @@
         <v>6.5302487086070329</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
         <v>6</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B5">
         <v>4355246080</v>
@@ -16137,7 +16302,7 @@
         <v>6.8495974961822865</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L5">
         <f>AVERAGE(E25:E26)</f>
@@ -16157,7 +16322,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B6">
         <v>4355246080</v>
@@ -16185,7 +16350,7 @@
         <v>6.5042231442506306</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <f>AVERAGE(E36)</f>
@@ -16204,7 +16369,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B7">
         <v>4355246080</v>
@@ -16232,7 +16397,7 @@
         <v>6.4524285478764476</v>
       </c>
       <c r="K7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L7">
         <f>AVERAGE(E2:E24)</f>
@@ -16253,7 +16418,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B8">
         <v>4355246080</v>
@@ -16281,7 +16446,7 @@
         <v>6.3493625823195616</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L8">
         <f>AVERAGE(E46:E51)</f>
@@ -16302,7 +16467,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B9">
         <v>4355246080</v>
@@ -16348,7 +16513,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B10">
         <v>4355246080</v>
@@ -16378,7 +16543,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B11">
         <v>4355246080</v>
@@ -16408,7 +16573,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B12">
         <v>4355246080</v>
@@ -16438,7 +16603,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B13">
         <v>4355246080</v>
@@ -16463,15 +16628,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B14">
         <v>4355246080</v>
@@ -16496,7 +16661,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L14">
         <f>AVERAGE($E$25:$E$33,$H$25)</f>
@@ -16509,7 +16674,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B15">
         <v>4355246080</v>
@@ -16526,7 +16691,7 @@
         <v>2.4544252058952494</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L15">
         <f>AVERAGE($E$36:$E$39,$H$36)</f>
@@ -16539,7 +16704,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B16">
         <v>4355246080</v>
@@ -16556,7 +16721,7 @@
         <v>4.0862712522959832</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L16">
         <f>AVERAGE($E$2:$E$24,$H$2:$H$12)</f>
@@ -16569,7 +16734,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B17">
         <v>4355246080</v>
@@ -16586,7 +16751,7 @@
         <v>2.4297052276273048</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L17">
         <f>AVERAGE($E$46:$E$66,$H$46:$H$66)</f>
@@ -16599,7 +16764,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>4355246080</v>
@@ -16616,7 +16781,7 @@
         <v>14.48636226008573</v>
       </c>
       <c r="K18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L18">
         <f>AVERAGE($E$67:$E$92,$H$67:$H$92)</f>
@@ -16629,7 +16794,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>4355246081</v>
@@ -16648,7 +16813,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>4355246082</v>
@@ -16667,7 +16832,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>4355246083</v>
@@ -16686,7 +16851,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>4355246084</v>
@@ -16705,7 +16870,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>4355246085</v>
@@ -16724,7 +16889,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>4355246086</v>
@@ -16743,7 +16908,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B25">
         <v>4355246080</v>
@@ -16773,7 +16938,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B26">
         <v>4355246080</v>
@@ -16800,7 +16965,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B27">
         <v>4355246080</v>
@@ -16827,7 +16992,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B28">
         <v>4355246080</v>
@@ -16854,7 +17019,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>4355246080</v>
@@ -16881,7 +17046,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B30">
         <v>4355246080</v>
@@ -16908,7 +17073,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B31">
         <v>4355246080</v>
@@ -16935,7 +17100,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B32">
         <v>4355246080</v>
@@ -16962,7 +17127,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B33">
         <v>4355246080</v>
@@ -16989,7 +17154,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B34">
         <v>4355246080</v>
@@ -17013,7 +17178,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>4355246080</v>
@@ -17037,7 +17202,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B36">
         <v>4355246080</v>
@@ -17067,7 +17232,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B37">
         <v>4355246080</v>
@@ -17094,7 +17259,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B38">
         <v>4355246080</v>
@@ -17121,7 +17286,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B39">
         <v>4355246080</v>
@@ -17148,7 +17313,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B40">
         <v>4355246080</v>
@@ -17172,7 +17337,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B41">
         <v>4355246080</v>
@@ -17196,7 +17361,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B42">
         <v>4355246080</v>
@@ -17220,7 +17385,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B43">
         <v>4355246080</v>
@@ -17244,7 +17409,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B44">
         <v>4355246080</v>
@@ -17268,7 +17433,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B45">
         <v>4355246080</v>
@@ -17292,7 +17457,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B46">
         <v>4355246080</v>
@@ -17322,7 +17487,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B47">
         <v>4355246080</v>
@@ -17352,7 +17517,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B48">
         <v>4355246080</v>
@@ -17382,7 +17547,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B49">
         <v>4355246080</v>
@@ -17412,7 +17577,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B50">
         <v>4355246080</v>
@@ -17442,7 +17607,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B51">
         <v>4355246080</v>
@@ -17472,7 +17637,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B52">
         <v>4355246080</v>
@@ -17502,7 +17667,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B53">
         <v>4355246080</v>
@@ -17532,7 +17697,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B54">
         <v>4355246080</v>
@@ -17562,7 +17727,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B55">
         <v>4355246081</v>
@@ -17592,7 +17757,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B56">
         <v>4355246082</v>
@@ -17622,7 +17787,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B57">
         <v>4355246083</v>
@@ -17652,7 +17817,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B58">
         <v>4355246084</v>
@@ -17682,7 +17847,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B59">
         <v>4355246085</v>
@@ -17712,7 +17877,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B60">
         <v>4355246086</v>
@@ -17742,7 +17907,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B61">
         <v>4355246087</v>
@@ -17772,7 +17937,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B62">
         <v>4355246088</v>
@@ -17802,7 +17967,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B63">
         <v>4355246089</v>
@@ -17832,7 +17997,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B64">
         <v>4355246090</v>
@@ -17862,7 +18027,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B65">
         <v>4355246091</v>
@@ -17892,7 +18057,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B66">
         <v>4355246092</v>
@@ -17922,7 +18087,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>4355246080</v>
@@ -17952,7 +18117,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B68">
         <v>4355246080</v>
@@ -17982,7 +18147,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B69">
         <v>4355246080</v>
@@ -18012,7 +18177,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B70">
         <v>4355246080</v>
@@ -18042,7 +18207,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>4355246080</v>
@@ -18072,7 +18237,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B72">
         <v>4355246080</v>
@@ -18102,7 +18267,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B73">
         <v>4355246080</v>
@@ -18132,7 +18297,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B74">
         <v>4355246080</v>
@@ -18162,7 +18327,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B75">
         <v>4355246080</v>
@@ -18192,7 +18357,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B76">
         <v>4355246080</v>
@@ -18222,7 +18387,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B77">
         <v>4355246080</v>
@@ -18252,7 +18417,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B78">
         <v>4355246080</v>
@@ -18282,7 +18447,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B79">
         <v>4355246080</v>
@@ -18312,7 +18477,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B80">
         <v>4355246080</v>
@@ -18342,7 +18507,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B81">
         <v>4355246080</v>
@@ -18372,7 +18537,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B82">
         <v>4355246080</v>
@@ -18402,7 +18567,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>4355246080</v>
@@ -18432,7 +18597,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B84">
         <v>4355246080</v>
@@ -18462,7 +18627,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B85">
         <v>4355246080</v>
@@ -18492,7 +18657,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B86">
         <v>4355246080</v>
@@ -18522,7 +18687,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B87">
         <v>4355246080</v>
@@ -18552,7 +18717,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B88">
         <v>4355246080</v>
@@ -18582,7 +18747,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B89">
         <v>4355246080</v>
@@ -18612,7 +18777,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B90">
         <v>4355246080</v>
@@ -18642,7 +18807,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B91">
         <v>4355246081</v>
@@ -18672,7 +18837,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B92">
         <v>4355246082</v>

--- a/papers/cloudcom10/performance/namd_runs.xlsx
+++ b/papers/cloudcom10/performance/namd_runs.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="247">
   <si>
     <t>SAGA Pilot Sub-Job Runtime</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>extra-large (8 cores)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speedup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficiency</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -5195,12 +5207,12 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>500</v>
@@ -5208,22 +5220,22 @@
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="39">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -5243,7 +5255,7 @@
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5263,7 +5275,7 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -5283,7 +5295,7 @@
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -5303,7 +5315,7 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5323,7 +5335,7 @@
     </row>
     <row r="9" spans="1:11" s="4" customFormat="1">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -5343,7 +5355,7 @@
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -5363,7 +5375,7 @@
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5383,7 +5395,7 @@
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -5403,7 +5415,7 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -5423,7 +5435,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5443,7 +5455,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -5463,7 +5475,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -5483,7 +5495,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5503,7 +5515,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -5523,7 +5535,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -5543,7 +5555,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -5563,7 +5575,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5594,7 +5606,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5625,7 +5637,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -5656,7 +5668,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -5679,7 +5691,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -5702,7 +5714,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -5723,7 +5735,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -5744,7 +5756,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -5765,7 +5777,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -5786,7 +5798,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -5807,7 +5819,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -5828,7 +5840,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -5849,7 +5861,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -5870,7 +5882,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -5891,7 +5903,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -5912,7 +5924,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -5933,7 +5945,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -5954,7 +5966,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="44" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B38" s="44">
         <v>2</v>
@@ -5975,7 +5987,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -5996,7 +6008,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -6017,7 +6029,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -6038,7 +6050,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -6059,7 +6071,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -6080,7 +6092,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6101,7 +6113,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6122,7 +6134,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6153,7 +6165,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -6184,7 +6196,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -6205,7 +6217,7 @@
     </row>
     <row r="49" spans="1:11" s="41" customFormat="1">
       <c r="A49" s="41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B49" s="41">
         <v>2</v>
@@ -6226,7 +6238,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B50" s="39">
         <v>4</v>
@@ -6247,7 +6259,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -6268,7 +6280,7 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -6289,7 +6301,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -6310,7 +6322,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -6331,7 +6343,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -6352,7 +6364,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B56">
         <v>4</v>
@@ -6373,7 +6385,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -6394,7 +6406,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>8</v>
@@ -6415,7 +6427,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -6436,7 +6448,7 @@
     </row>
     <row r="60" spans="1:11" hidden="1">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -6457,7 +6469,7 @@
     </row>
     <row r="61" spans="1:11" hidden="1">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -6469,7 +6481,7 @@
     </row>
     <row r="62" spans="1:11" hidden="1">
       <c r="A62" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B62">
         <v>4</v>
@@ -6481,7 +6493,7 @@
     </row>
     <row r="63" spans="1:11" hidden="1">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -6493,7 +6505,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -6521,7 +6533,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -6549,7 +6561,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -6587,7 +6599,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -6625,7 +6637,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -6663,7 +6675,7 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -6693,7 +6705,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -6723,7 +6735,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -6753,7 +6765,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -6783,7 +6795,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -6813,7 +6825,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -6843,7 +6855,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -6873,7 +6885,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -6903,7 +6915,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B77">
         <v>16</v>
@@ -6933,7 +6945,7 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B78">
         <v>16</v>
@@ -6963,7 +6975,7 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B79">
         <v>16</v>
@@ -6993,7 +7005,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B80">
         <v>16</v>
@@ -7023,7 +7035,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B81">
         <v>16</v>
@@ -7053,7 +7065,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B82">
         <v>16</v>
@@ -7083,7 +7095,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B83">
         <v>16</v>
@@ -7113,7 +7125,7 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -7140,7 +7152,7 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7167,7 +7179,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7194,7 +7206,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -7221,7 +7233,7 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -7248,7 +7260,7 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -7275,7 +7287,7 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -7302,7 +7314,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -7329,7 +7341,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -7356,7 +7368,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -7383,7 +7395,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -7410,7 +7422,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -7443,12 +7455,12 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -7475,7 +7487,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -7502,7 +7514,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -7529,7 +7541,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -7556,7 +7568,7 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -7583,7 +7595,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -7610,7 +7622,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -7637,7 +7649,7 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -7664,7 +7676,7 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -7691,7 +7703,7 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -7718,7 +7730,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -7745,7 +7757,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -7772,7 +7784,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -7799,7 +7811,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -7826,7 +7838,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -7853,7 +7865,7 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -7880,7 +7892,7 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -7907,7 +7919,7 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -7934,7 +7946,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -7961,7 +7973,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -7988,7 +8000,7 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -8015,7 +8027,7 @@
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -8042,7 +8054,7 @@
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -8069,7 +8081,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -8096,7 +8108,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -8153,45 +8165,45 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B4" s="26"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -8206,7 +8218,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I6" s="17">
         <v>221.43898490266665</v>
@@ -8214,7 +8226,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8230,7 +8242,7 @@
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I7" s="21">
         <v>27.888301147358074</v>
@@ -8238,7 +8250,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -8254,7 +8266,7 @@
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I8" s="21">
         <v>6</v>
@@ -8262,7 +8274,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -8280,7 +8292,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I9" s="17">
         <v>230.1513251065</v>
@@ -8288,7 +8300,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -8304,7 +8316,7 @@
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I10" s="21">
         <v>21.442701960879447</v>
@@ -8312,7 +8324,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -8328,7 +8340,7 @@
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I11" s="21">
         <v>4</v>
@@ -8336,7 +8348,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -8354,7 +8366,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I12" s="17">
         <v>524.47522211100011</v>
@@ -8362,7 +8374,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -8378,7 +8390,7 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I13" s="21">
         <v>249.37176975472715</v>
@@ -8386,7 +8398,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -8402,7 +8414,7 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I14" s="21">
         <v>32</v>
@@ -8410,7 +8422,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -8428,7 +8440,7 @@
         <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I15" s="17">
         <v>338.08045351500004</v>
@@ -8436,7 +8448,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -8452,7 +8464,7 @@
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I16" s="21">
         <v>46.784586737362908</v>
@@ -8460,7 +8472,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -8476,7 +8488,7 @@
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I17" s="21">
         <v>16</v>
@@ -8484,7 +8496,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -8499,7 +8511,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="17">
@@ -8508,7 +8520,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -8523,7 +8535,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="17">
@@ -8532,7 +8544,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -8547,7 +8559,7 @@
         <v>0.75</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H20" s="34"/>
       <c r="I20" s="25">
@@ -8556,7 +8568,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -8573,7 +8585,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -8590,7 +8602,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B23">
         <v>8</v>
@@ -8607,7 +8619,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B24">
         <v>16</v>
@@ -8624,7 +8636,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -8641,19 +8653,19 @@
     </row>
     <row r="26" spans="1:10">
       <c r="C26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2">
         <f>AVERAGE(D6:D25)</f>
         <v>373.44653231864999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="C27" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2">
         <f>STDEV(D6:D25)</f>
@@ -8663,42 +8675,42 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="26" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C30" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>216</v>
-      </c>
       <c r="I30" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -8716,7 +8728,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J31" s="17">
         <v>302.94028916180002</v>
@@ -8724,7 +8736,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8741,7 +8753,7 @@
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J32" s="21">
         <v>17.23574117758357</v>
@@ -8749,7 +8761,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8764,7 +8776,7 @@
         <v>0.5625</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8774,7 +8786,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8789,7 +8801,7 @@
         <v>0.89513888888888893</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8799,7 +8811,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8820,7 +8832,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J35" s="17">
         <v>305.19036102299998</v>
@@ -8828,7 +8840,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -8846,7 +8858,7 @@
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J36" s="21" t="e">
         <v>#DIV/0!</v>
@@ -8854,7 +8866,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -8870,7 +8882,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -8880,7 +8892,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -8896,7 +8908,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -8906,7 +8918,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -8928,7 +8940,7 @@
         <v>8</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J39" s="17">
         <v>384.05235557549997</v>
@@ -8936,7 +8948,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -8954,7 +8966,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J40" s="21">
         <v>32.66972061151673</v>
@@ -8962,7 +8974,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -8978,7 +8990,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -8988,7 +9000,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -9003,7 +9015,7 @@
         <v>0.70972222222222225</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
@@ -9013,7 +9025,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -9028,7 +9040,7 @@
         <v>0.71388888888888891</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
@@ -9038,7 +9050,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -9053,7 +9065,7 @@
         <v>0.73749999999999993</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
@@ -9063,7 +9075,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -9080,7 +9092,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -9097,7 +9109,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -9112,19 +9124,19 @@
     </row>
     <row r="48" spans="1:10">
       <c r="C48" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D48" s="2">
         <f>AVERAGE(D30:D47)</f>
         <v>356.83130192700003</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="C49" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D49" s="2">
         <f>STDEV(D31:D47)</f>
@@ -9141,40 +9153,40 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B52" s="26"/>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="26" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I53" s="14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -9192,7 +9204,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I54" s="17">
         <v>14.1872649193</v>
@@ -9200,7 +9212,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -9216,7 +9228,7 @@
       </c>
       <c r="G55" s="32"/>
       <c r="H55" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I55" s="21" t="e">
         <v>#DIV/0!</v>
@@ -9224,7 +9236,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -9242,7 +9254,7 @@
         <v>8</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I56" s="17">
         <v>44.782275199920001</v>
@@ -9250,7 +9262,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -9266,7 +9278,7 @@
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I57" s="21">
         <v>15.843792242505828</v>
@@ -9274,7 +9286,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -9292,7 +9304,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I58" s="17">
         <v>56.964924156674996</v>
@@ -9300,7 +9312,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -9316,7 +9328,7 @@
       </c>
       <c r="G59" s="32"/>
       <c r="H59" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I59" s="21">
         <v>9.4994883808250847</v>
@@ -9324,7 +9336,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B60">
         <v>8</v>
@@ -9342,7 +9354,7 @@
         <v>32</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I60" s="17">
         <v>187.55037531850999</v>
@@ -9350,7 +9362,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -9366,7 +9378,7 @@
       </c>
       <c r="G61" s="32"/>
       <c r="H61" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I61" s="21">
         <v>179.97433590633514</v>
@@ -9374,7 +9386,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B62">
         <v>8</v>
@@ -9389,7 +9401,7 @@
         <v>0.59236111111111112</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="17">
@@ -9398,7 +9410,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B63">
         <v>8</v>
@@ -9413,7 +9425,7 @@
         <v>0.61875000000000002</v>
       </c>
       <c r="G63" s="22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H63" s="34"/>
       <c r="I63" s="25">
@@ -9422,7 +9434,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -9439,7 +9451,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B65">
         <v>8</v>
@@ -9456,7 +9468,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -9473,7 +9485,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -9490,7 +9502,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -9507,7 +9519,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -9524,7 +9536,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -9541,7 +9553,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -9558,7 +9570,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -9575,7 +9587,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -9590,36 +9602,36 @@
     </row>
     <row r="74" spans="1:10">
       <c r="C74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D74" s="2">
         <f>AVERAGE(D54:D73)</f>
         <v>117.073104536535</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H74" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I74" s="55">
         <f>AVERAGE(D54:D63,D65:D66,D68:D70,D73)</f>
         <v>53.003791779293749</v>
       </c>
       <c r="J74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="C75" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D75" s="2">
         <f>STDEV(D54:D73)</f>
         <v>143.93518726021225</v>
       </c>
       <c r="H75" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I75" s="55">
         <f>STDEV(D54:D63,D65:D66,D68:D70,D73)</f>
@@ -9635,26 +9647,26 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="26" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -9668,7 +9680,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B82">
         <v>4</v>
@@ -9682,7 +9694,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -9696,7 +9708,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B84">
         <v>16</v>
@@ -9710,7 +9722,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -9724,7 +9736,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -9738,7 +9750,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -9752,7 +9764,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -9766,7 +9778,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -9780,7 +9792,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -9794,7 +9806,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -9808,7 +9820,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -9822,7 +9834,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -9836,7 +9848,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -9854,7 +9866,7 @@
         <v>331.21428571428572</v>
       </c>
       <c r="E95" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -9868,29 +9880,29 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="68" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="67" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B99" s="67" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D99" s="67" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -9905,12 +9917,12 @@
         <v>540.78749203699999</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -9925,12 +9937,12 @@
         <v>535.53545093499997</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -9945,12 +9957,12 @@
         <v>545.29999999999995</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -9965,12 +9977,12 @@
         <v>803.84470940000006</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -9985,12 +9997,12 @@
         <v>513.75138115899995</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -10005,12 +10017,12 @@
         <v>533.84486103100005</v>
       </c>
       <c r="F105" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -10025,12 +10037,12 @@
         <v>530.13947606099998</v>
       </c>
       <c r="F106" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -10045,12 +10057,12 @@
         <v>540.12562584900002</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B108">
         <v>16</v>
@@ -10065,12 +10077,12 @@
         <v>640.48868703799997</v>
       </c>
       <c r="F108" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B109">
         <v>16</v>
@@ -10085,12 +10097,12 @@
         <v>514.74440503100004</v>
       </c>
       <c r="F109" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B110">
         <v>16</v>
@@ -10103,12 +10115,12 @@
         <v>535.21085310000001</v>
       </c>
       <c r="F110" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B111">
         <v>16</v>
@@ -10121,12 +10133,12 @@
         <v>607.65833091699994</v>
       </c>
       <c r="F111" s="55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B112">
         <v>16</v>
@@ -10139,12 +10151,12 @@
         <v>596.06263589900004</v>
       </c>
       <c r="F112" s="55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B113">
         <v>16</v>
@@ -10157,12 +10169,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F113" s="55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B114">
         <v>16</v>
@@ -10175,12 +10187,12 @@
         <v>527.22448778199998</v>
       </c>
       <c r="F114" s="55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B115">
         <v>16</v>
@@ -10193,12 +10205,12 @@
         <v>547.03834199899995</v>
       </c>
       <c r="F115" s="55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B116">
         <v>16</v>
@@ -10211,12 +10223,12 @@
         <v>500.43472504599998</v>
       </c>
       <c r="F116" s="55" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B117">
         <v>16</v>
@@ -10229,12 +10241,12 @@
         <v>512.97764587400002</v>
       </c>
       <c r="F117" s="55" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -10251,7 +10263,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -10270,7 +10282,7 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -10289,7 +10301,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>16</v>
@@ -10302,13 +10314,13 @@
         <v>609.56168699299997</v>
       </c>
       <c r="F121" s="55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H121" s="55"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B122">
         <v>16</v>
@@ -10321,13 +10333,13 @@
         <v>612.84088611599998</v>
       </c>
       <c r="F122" s="55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H122" s="55"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B123">
         <v>16</v>
@@ -10340,13 +10352,13 @@
         <v>613.39775299999997</v>
       </c>
       <c r="F123" s="55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H123" s="55"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B124">
         <v>16</v>
@@ -10359,13 +10371,13 @@
         <v>659.99135088900005</v>
       </c>
       <c r="F124" s="55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H124" s="55"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B125">
         <v>16</v>
@@ -10376,13 +10388,13 @@
       <c r="D125" s="55"/>
       <c r="E125" s="55"/>
       <c r="F125" s="55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H125" s="55"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B126">
         <v>16</v>
@@ -10393,13 +10405,13 @@
       <c r="D126" s="55"/>
       <c r="E126" s="55"/>
       <c r="F126" s="55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H126" s="55"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B127">
         <v>16</v>
@@ -10410,13 +10422,13 @@
       <c r="D127" s="55"/>
       <c r="E127" s="55"/>
       <c r="F127" s="55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H127" s="55"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B128">
         <v>16</v>
@@ -10426,26 +10438,26 @@
       </c>
       <c r="D128" s="55"/>
       <c r="F128" s="55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H128" s="55"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="55"/>
       <c r="D129" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E129" s="55">
         <f>AVERAGE(E100:E120)</f>
         <v>569.53688043885711</v>
       </c>
       <c r="F129" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="D130" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E130">
         <f>STDEV(E100:E120)</f>
@@ -10485,69 +10497,69 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="28" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="28" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I5" s="29" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L5" s="28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M5" s="28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10582,13 +10594,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10623,13 +10635,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B8" s="31">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -10664,7 +10676,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B9">
         <v>16</v>
@@ -10702,7 +10714,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -10737,7 +10749,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B11">
         <v>32</v>
@@ -10778,7 +10790,7 @@
     </row>
     <row r="12" spans="1:14" s="49" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="49" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B12" s="49">
         <v>32</v>
@@ -10819,7 +10831,7 @@
     </row>
     <row r="13" spans="1:14" ht="40" thickTop="1">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -10850,12 +10862,12 @@
         <v>2</v>
       </c>
       <c r="N13" s="52" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -10886,12 +10898,12 @@
         <v>2</v>
       </c>
       <c r="N14" s="52" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="39">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B15" s="41">
         <v>16</v>
@@ -10922,12 +10934,12 @@
         <v>1</v>
       </c>
       <c r="N15" s="52" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="39">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -10958,12 +10970,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B17">
         <v>32</v>
@@ -10996,7 +11008,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -11029,7 +11041,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B19">
         <v>32</v>
@@ -11068,13 +11080,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -11105,17 +11117,17 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="56" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -11123,7 +11135,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -11131,39 +11143,39 @@
     </row>
     <row r="8" spans="1:10" s="58" customFormat="1" ht="39">
       <c r="A8" s="29" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I8" s="57" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J8" s="57" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="61" customFormat="1">
       <c r="A9" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B9" s="63">
         <v>0</v>
@@ -11175,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F9" s="63">
         <v>0</v>
@@ -11195,7 +11207,7 @@
     </row>
     <row r="10" spans="1:10" s="61" customFormat="1">
       <c r="A10" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B10" s="63">
         <v>0</v>
@@ -11207,7 +11219,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F10" s="63">
         <v>0</v>
@@ -11227,7 +11239,7 @@
     </row>
     <row r="11" spans="1:10" s="61" customFormat="1">
       <c r="A11" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11" s="63">
         <v>0</v>
@@ -11239,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F11" s="63">
         <v>0</v>
@@ -11259,7 +11271,7 @@
     </row>
     <row r="12" spans="1:10" s="61" customFormat="1">
       <c r="A12" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B12" s="63">
         <v>0</v>
@@ -11271,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F12" s="63">
         <v>0</v>
@@ -11291,7 +11303,7 @@
     </row>
     <row r="13" spans="1:10" s="61" customFormat="1">
       <c r="A13" s="64" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B13" s="65">
         <v>0</v>
@@ -11303,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F13" s="65">
         <v>0</v>
@@ -11323,7 +11335,7 @@
     </row>
     <row r="14" spans="1:10" s="58" customFormat="1">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -11335,7 +11347,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -11355,7 +11367,7 @@
     </row>
     <row r="15" spans="1:10" s="58" customFormat="1">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B15">
         <v>8</v>
@@ -11367,7 +11379,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -11387,7 +11399,7 @@
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>8</v>
@@ -11399,7 +11411,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -11419,7 +11431,7 @@
     </row>
     <row r="17" spans="1:10" s="58" customFormat="1">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>8</v>
@@ -11431,7 +11443,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -11451,7 +11463,7 @@
     </row>
     <row r="18" spans="1:10" s="58" customFormat="1">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -11463,7 +11475,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -11483,7 +11495,7 @@
     </row>
     <row r="19" spans="1:10" s="58" customFormat="1">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -11495,7 +11507,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -11515,7 +11527,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -11528,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -11548,7 +11560,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -11561,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -11581,7 +11593,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11594,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F22">
         <v>8</v>
@@ -11614,7 +11626,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -11627,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -11647,7 +11659,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11660,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -11680,7 +11692,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11693,7 +11705,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -11713,7 +11725,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -11726,7 +11738,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -11746,7 +11758,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -11759,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -11779,7 +11791,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -11792,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -11812,7 +11824,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -11825,7 +11837,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -11845,7 +11857,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B30">
         <v>8</v>
@@ -11858,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -11878,7 +11890,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B31">
         <v>8</v>
@@ -11891,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -11911,7 +11923,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B32">
         <v>8</v>
@@ -11924,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -11944,7 +11956,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -11957,7 +11969,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -11977,7 +11989,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -11990,7 +12002,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -12010,7 +12022,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B35">
         <v>8</v>
@@ -12023,7 +12035,7 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -12043,7 +12055,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -12056,7 +12068,7 @@
         <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -12076,7 +12088,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B37">
         <v>8</v>
@@ -12089,7 +12101,7 @@
         <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F37">
         <v>8</v>
@@ -12109,7 +12121,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B38">
         <v>8</v>
@@ -12122,7 +12134,7 @@
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -12142,7 +12154,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B39">
         <v>8</v>
@@ -12155,7 +12167,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -12175,7 +12187,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B40">
         <v>8</v>
@@ -12188,7 +12200,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F40">
         <v>8</v>
@@ -12208,7 +12220,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B41">
         <v>8</v>
@@ -12221,7 +12233,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -12241,7 +12253,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B42">
         <v>8</v>
@@ -12254,7 +12266,7 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -12274,7 +12286,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B43">
         <v>8</v>
@@ -12287,7 +12299,7 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F43">
         <v>8</v>
@@ -12307,7 +12319,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B44">
         <v>8</v>
@@ -12320,7 +12332,7 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F44">
         <v>8</v>
@@ -12340,7 +12352,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B45">
         <v>8</v>
@@ -12353,7 +12365,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -12373,7 +12385,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B46">
         <v>8</v>
@@ -12386,7 +12398,7 @@
         <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -12406,7 +12418,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -12419,7 +12431,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F47">
         <v>8</v>
@@ -12439,7 +12451,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B48">
         <v>8</v>
@@ -12452,7 +12464,7 @@
         <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F48">
         <v>8</v>
@@ -12472,20 +12484,20 @@
     </row>
     <row r="69" spans="1:15">
       <c r="O69" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="B73" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B74" s="55">
         <f>AVERAGE(J9:J13)</f>
@@ -12498,7 +12510,7 @@
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="58" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B75" s="55">
         <f>J27</f>
@@ -12511,7 +12523,7 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B76" s="55">
         <f>AVERAGE(J20:J25)</f>
@@ -12524,7 +12536,7 @@
     </row>
     <row r="77" spans="1:15" ht="39">
       <c r="A77" s="52" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B77" s="55">
         <f>AVERAGE(J14:J19)</f>
@@ -12537,7 +12549,7 @@
     </row>
     <row r="78" spans="1:15" ht="39">
       <c r="A78" s="52" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B78" s="55">
         <f>AVERAGE(J43:J46)</f>
@@ -12550,7 +12562,7 @@
     </row>
     <row r="79" spans="1:15" ht="39">
       <c r="A79" s="52" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B79" s="55">
         <f>AVERAGE(J34:J42)</f>
@@ -12591,50 +12603,50 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="53" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="54" customFormat="1" ht="39">
       <c r="A5" s="54" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D5" s="54" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -12673,7 +12685,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -12784,7 +12796,7 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12823,7 +12835,7 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -13088,10 +13100,10 @@
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -13103,7 +13115,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
@@ -13127,12 +13139,12 @@
         <v>32</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
@@ -13149,7 +13161,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="20">
@@ -13166,7 +13178,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20"/>
@@ -13187,7 +13199,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B8" s="19">
         <v>2070.8984270000001</v>
@@ -13204,7 +13216,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" s="19">
         <v>1095.4940549999999</v>
@@ -13231,7 +13243,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="20"/>
@@ -13252,7 +13264,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -13273,7 +13285,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B12" s="23">
         <v>1583.1962410000001</v>
@@ -13313,11 +13325,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD100"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -13333,33 +13345,33 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26">
       <c r="A1" s="69" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D1" s="69" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E1" s="69" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2" s="78">
         <v>1</v>
@@ -13374,12 +13386,12 @@
         <v>5467.0610818900004</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B3" s="78">
         <v>1</v>
@@ -13394,12 +13406,12 @@
         <v>5425.6983258700002</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B4" s="78">
         <v>1</v>
@@ -13414,12 +13426,12 @@
         <v>5366.32453394</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B5" s="78">
         <v>1</v>
@@ -13434,12 +13446,12 @@
         <v>5464.4371781299997</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B6" s="78">
         <v>1</v>
@@ -13454,10 +13466,10 @@
         <v>5491.1035299300001</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K6" s="55">
         <f>AVERAGE(E12:E22)/60</f>
@@ -13470,7 +13482,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B7" s="78">
         <v>1</v>
@@ -13485,10 +13497,10 @@
         <v>5444.7614481399996</v>
       </c>
       <c r="F7" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K7" s="55">
         <f>AVERAGE(E28:E33)/60</f>
@@ -13506,10 +13518,10 @@
       <c r="D8" s="81"/>
       <c r="E8" s="81"/>
       <c r="F8" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K8" s="55">
         <f>AVERAGE(E23:E27)/60</f>
@@ -13527,10 +13539,10 @@
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
       <c r="F9" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K9" s="55">
         <f>AVERAGE(E34:E36)/60</f>
@@ -13548,7 +13560,7 @@
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
       <c r="F10" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -13558,12 +13570,12 @@
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
       <c r="F11" s="78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B12" s="78">
         <v>1</v>
@@ -13578,12 +13590,12 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F12" s="78" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B13" s="78">
         <v>1</v>
@@ -13598,12 +13610,12 @@
         <v>5352.9993340999999</v>
       </c>
       <c r="F13" s="78" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="78" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B14" s="78">
         <v>1</v>
@@ -13618,12 +13630,12 @@
         <v>5265.4794118399996</v>
       </c>
       <c r="F14" s="78" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B15" s="78">
         <v>1</v>
@@ -13638,12 +13650,12 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B16" s="78">
         <v>1</v>
@@ -13658,12 +13670,12 @@
         <v>5202.5642039799995</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B17" s="78">
         <v>1</v>
@@ -13678,12 +13690,12 @@
         <v>5188.3370358900002</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B18" s="78">
         <v>1</v>
@@ -13698,12 +13710,12 @@
         <v>5284.6490089899999</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B19" s="78">
         <v>1</v>
@@ -13718,12 +13730,12 @@
         <v>5202.49168491</v>
       </c>
       <c r="F19" s="78" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B20" s="78">
         <v>1</v>
@@ -13738,12 +13750,12 @@
         <v>5155.4024429299998</v>
       </c>
       <c r="F20" s="78" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B21" s="78">
         <v>1</v>
@@ -13758,12 +13770,12 @@
         <v>5212.9427988500001</v>
       </c>
       <c r="F21" s="78" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B22" s="78">
         <v>1</v>
@@ -13778,12 +13790,12 @@
         <v>5308.8138790100002</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B23" s="78">
         <v>1</v>
@@ -13798,12 +13810,12 @@
         <v>6667.9942650800003</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B24" s="78">
         <v>1</v>
@@ -13818,12 +13830,12 @@
         <v>6726.6931519500004</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B25" s="78">
         <v>1</v>
@@ -13838,12 +13850,12 @@
         <v>6773.2417349799998</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B26" s="78">
         <v>1</v>
@@ -13858,12 +13870,12 @@
         <v>6785.3887209900004</v>
       </c>
       <c r="F26" s="78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B27" s="78">
         <v>1</v>
@@ -13878,12 +13890,12 @@
         <v>6923.0692589299997</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B28" s="78">
         <v>1</v>
@@ -13898,12 +13910,12 @@
         <v>5381.4183900400003</v>
       </c>
       <c r="F28" s="78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B29" s="78">
         <v>1</v>
@@ -13918,12 +13930,12 @@
         <v>5433.5929520099999</v>
       </c>
       <c r="F29" s="78" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B30" s="78">
         <v>1</v>
@@ -13938,15 +13950,15 @@
         <v>5260.5256700500004</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J30" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:17">
       <c r="A31" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B31" s="78">
         <v>1</v>
@@ -13961,7 +13973,7 @@
         <v>5255.02369189</v>
       </c>
       <c r="F31" s="78" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I31" s="83" t="s">
         <v>13</v>
@@ -13981,10 +13993,19 @@
       <c r="N31" s="83">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B32" s="78">
         <v>1</v>
@@ -13999,7 +14020,7 @@
         <v>5214.6700560999998</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I32" s="83" t="s">
         <v>16</v>
@@ -14024,10 +14045,22 @@
         <f>E37/60</f>
         <v>93.94475276866666</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="82">
+        <f t="shared" ref="O32:O33" si="0">AVERAGE(J32:N32)</f>
+        <v>92.41106098748665</v>
+      </c>
+      <c r="P32">
+        <f>$O$32/O32</f>
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <f>P32/1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B33" s="78">
         <v>1</v>
@@ -14042,7 +14075,7 @@
         <v>5197.2517461799998</v>
       </c>
       <c r="F33" s="78" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I33" s="83" t="s">
         <v>18</v>
@@ -14067,10 +14100,22 @@
         <f>AVERAGE(E48)/60</f>
         <v>56.714765632166667</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="82">
+        <f t="shared" si="0"/>
+        <v>55.701661168844439</v>
+      </c>
+      <c r="P33">
+        <f t="shared" ref="P33:P35" si="1">$O$32/O33</f>
+        <v>1.6590359972814392</v>
+      </c>
+      <c r="Q33">
+        <f>P33/2</f>
+        <v>0.82951799864071962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B34" s="78">
         <v>1</v>
@@ -14085,7 +14130,7 @@
         <v>6961.1671140199996</v>
       </c>
       <c r="F34" s="78" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I34" s="83" t="s">
         <v>20</v>
@@ -14110,10 +14155,22 @@
         <f>AVERAGE(E64:E65)/60</f>
         <v>39.328528523416665</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="82">
+        <f>AVERAGE(J34:N34)</f>
+        <v>38.055220959711107</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>2.4283412014693551</v>
+      </c>
+      <c r="Q34">
+        <f>P34/4</f>
+        <v>0.60708530036733876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="78" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B35" s="78">
         <v>1</v>
@@ -14128,7 +14185,7 @@
         <v>6703.2019269499997</v>
       </c>
       <c r="F35" s="78" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I35" s="83" t="s">
         <v>22</v>
@@ -14153,10 +14210,22 @@
         <f>AVERAGE(E125:E126)/60</f>
         <v>28.153145275583331</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="82">
+        <f>AVERAGE(J35:N35)</f>
+        <v>29.527426295505951</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>3.1296686701594285</v>
+      </c>
+      <c r="Q35">
+        <f>P35/8</f>
+        <v>0.39120858376992856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="78" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B36" s="78">
         <v>1</v>
@@ -14171,12 +14240,12 @@
         <v>6944.8268718700001</v>
       </c>
       <c r="F36" s="78" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="78" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B37" s="78">
         <v>1</v>
@@ -14191,10 +14260,10 @@
         <v>5636.6851661199998</v>
       </c>
       <c r="F37" s="78" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -14211,10 +14280,10 @@
         <v>3239.5005390599999</v>
       </c>
       <c r="F38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -14231,7 +14300,7 @@
         <v>3358.32970905</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -14249,7 +14318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -14266,7 +14335,7 @@
         <v>3270.4652380900002</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -14284,7 +14353,7 @@
         <v>29.755726918294116</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -14301,7 +14370,7 @@
         <v>3368.2116460799998</v>
       </c>
       <c r="F41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I41">
         <v>4</v>
@@ -14319,7 +14388,7 @@
         <v>29.533525637777775</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -14336,7 +14405,7 @@
         <v>3416.4645237899999</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I42">
         <v>8</v>
@@ -14354,7 +14423,7 @@
         <v>30.22606411610785</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -14371,7 +14440,7 @@
         <v>3386.5463669300002</v>
       </c>
       <c r="F43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I43">
         <v>16</v>
@@ -14389,7 +14458,7 @@
         <v>29.968669529766665</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -14406,7 +14475,7 @@
         <v>3291.3867049199998</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I44">
         <v>32</v>
@@ -14424,7 +14493,7 @@
         <v>28.153145275583331</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -14441,10 +14510,10 @@
         <v>3374.3176279099998</v>
       </c>
       <c r="F45" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -14461,10 +14530,10 @@
         <v>3251.2442061900001</v>
       </c>
       <c r="F46" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -14481,10 +14550,10 @@
         <v>3348.11711001</v>
       </c>
       <c r="F47" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -14501,7 +14570,7 @@
         <v>3402.8859379300002</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -14519,7 +14588,7 @@
       </c>
       <c r="E49" s="74"/>
       <c r="F49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -14539,7 +14608,7 @@
         <v>2062.0451450300002</v>
       </c>
       <c r="F50" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -14559,7 +14628,7 @@
         <v>2197.8351230600001</v>
       </c>
       <c r="F51" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -14579,7 +14648,7 @@
         <v>2230.6778969799998</v>
       </c>
       <c r="F52" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -14599,7 +14668,7 @@
         <v>2214.5342040099999</v>
       </c>
       <c r="F53" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -14619,7 +14688,7 @@
         <v>2227.3965690099999</v>
       </c>
       <c r="F54" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -14639,7 +14708,7 @@
         <v>2234.9693710800002</v>
       </c>
       <c r="F55" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -14659,7 +14728,7 @@
         <v>2318.40899515</v>
       </c>
       <c r="F56" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -14679,7 +14748,7 @@
         <v>2381.80929685</v>
       </c>
       <c r="F57" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -14699,7 +14768,7 @@
         <v>2220.3577370600001</v>
       </c>
       <c r="F58" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -14719,7 +14788,7 @@
         <v>2307.6098580399998</v>
       </c>
       <c r="F59" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -14739,7 +14808,7 @@
         <v>2470.72962117</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -14759,7 +14828,7 @@
         <v>2315.60190797</v>
       </c>
       <c r="F61" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -14779,7 +14848,7 @@
         <v>2394.6190059199998</v>
       </c>
       <c r="F62" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -14799,7 +14868,7 @@
         <v>2261.67080498</v>
       </c>
       <c r="F63" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -14819,7 +14888,7 @@
         <v>2428.40984893</v>
       </c>
       <c r="F64" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -14839,12 +14908,12 @@
         <v>2291.01357388</v>
       </c>
       <c r="F65" s="76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -14859,12 +14928,12 @@
         <v>1755.41372609</v>
       </c>
       <c r="F66" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -14879,12 +14948,12 @@
         <v>1700.6529159500001</v>
       </c>
       <c r="F67" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -14899,12 +14968,12 @@
         <v>1791.71858215</v>
       </c>
       <c r="F68" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -14919,12 +14988,12 @@
         <v>1754.3026611800001</v>
       </c>
       <c r="F69" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -14939,12 +15008,12 @@
         <v>1795.45695019</v>
       </c>
       <c r="F70" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -14959,12 +15028,12 @@
         <v>1768.0575780900001</v>
       </c>
       <c r="F71" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B72">
         <v>8</v>
@@ -14979,12 +15048,12 @@
         <v>1768.25146008</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B73">
         <v>8</v>
@@ -14999,12 +15068,12 @@
         <v>1872.71734595</v>
       </c>
       <c r="F73" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B74">
         <v>8</v>
@@ -15019,12 +15088,12 @@
         <v>1780.7754190000001</v>
       </c>
       <c r="F74" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B75">
         <v>8</v>
@@ -15039,12 +15108,12 @@
         <v>1772.9535300699999</v>
       </c>
       <c r="F75" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B76">
         <v>8</v>
@@ -15059,12 +15128,12 @@
         <v>1673.50027084</v>
       </c>
       <c r="F76" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B77">
         <v>8</v>
@@ -15079,12 +15148,12 @@
         <v>1788.05790305</v>
       </c>
       <c r="F77" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -15099,12 +15168,12 @@
         <v>1892.5188911</v>
       </c>
       <c r="F78" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B79">
         <v>8</v>
@@ -15119,12 +15188,12 @@
         <v>1890.1004610099999</v>
       </c>
       <c r="F79" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B80">
         <v>8</v>
@@ -15139,12 +15208,12 @@
         <v>1800.52480197</v>
       </c>
       <c r="F80" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B81">
         <v>8</v>
@@ -15159,12 +15228,12 @@
         <v>1778.2094800499999</v>
       </c>
       <c r="F81" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -15179,12 +15248,12 @@
         <v>1767.6294798900001</v>
       </c>
       <c r="F82" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B83">
         <v>8</v>
@@ -15201,7 +15270,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B84">
         <v>8</v>
@@ -15218,7 +15287,7 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B85">
         <v>8</v>
@@ -15235,7 +15304,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B86">
         <v>8</v>
@@ -15252,7 +15321,7 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B87">
         <v>8</v>
@@ -15269,7 +15338,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B88">
         <v>8</v>
@@ -15284,12 +15353,12 @@
         <v>1727.25121689</v>
       </c>
       <c r="F88" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B89">
         <v>8</v>
@@ -15304,12 +15373,12 @@
         <v>1818.3420629499999</v>
       </c>
       <c r="F89" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B90">
         <v>8</v>
@@ -15324,12 +15393,12 @@
         <v>1770.4413349599999</v>
       </c>
       <c r="F90" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B91">
         <v>8</v>
@@ -15344,12 +15413,12 @@
         <v>1894.0333972000001</v>
       </c>
       <c r="F91" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B92">
         <v>8</v>
@@ -15364,12 +15433,12 @@
         <v>1777.12373996</v>
       </c>
       <c r="F92" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B93">
         <v>8</v>
@@ -15384,12 +15453,12 @@
         <v>1777.3397109499999</v>
       </c>
       <c r="F93" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B94">
         <v>8</v>
@@ -15404,12 +15473,12 @@
         <v>1770.9294168900001</v>
       </c>
       <c r="F94" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B95">
         <v>8</v>
@@ -15424,12 +15493,12 @@
         <v>1827.6398251099999</v>
       </c>
       <c r="F95" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B96">
         <v>8</v>
@@ -15444,12 +15513,12 @@
         <v>1673.44356012</v>
       </c>
       <c r="F96" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B97">
         <v>8</v>
@@ -15464,12 +15533,12 @@
         <v>1804.07670403</v>
       </c>
       <c r="F97" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B98">
         <v>8</v>
@@ -15484,12 +15553,12 @@
         <v>1803.94324398</v>
       </c>
       <c r="F98" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B99">
         <v>8</v>
@@ -15504,12 +15573,12 @@
         <v>1806.8634729400001</v>
       </c>
       <c r="F99" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B100">
         <v>8</v>
@@ -15524,12 +15593,12 @@
         <v>1810.6687281100001</v>
       </c>
       <c r="F100" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B101">
         <v>8</v>
@@ -15544,12 +15613,12 @@
         <v>1781.2703998100001</v>
       </c>
       <c r="F101" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -15564,12 +15633,12 @@
         <v>1815.0974919800001</v>
       </c>
       <c r="F102" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B103">
         <v>8</v>
@@ -15584,12 +15653,12 @@
         <v>1888.6297318899999</v>
       </c>
       <c r="F103" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -15604,12 +15673,12 @@
         <v>1798.8409340400001</v>
       </c>
       <c r="F104" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B105">
         <v>8</v>
@@ -15624,12 +15693,12 @@
         <v>1800.7364668800001</v>
       </c>
       <c r="F105" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B106">
         <v>8</v>
@@ -15644,12 +15713,12 @@
         <v>1777.75735998</v>
       </c>
       <c r="F106" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B107">
         <v>8</v>
@@ -15664,12 +15733,12 @@
         <v>1790.2442941700001</v>
       </c>
       <c r="F107" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B108">
         <v>8</v>
@@ -15684,12 +15753,12 @@
         <v>1921.4787900399999</v>
       </c>
       <c r="F108" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B109">
         <v>8</v>
@@ -15704,12 +15773,12 @@
         <v>1807.1237280400001</v>
       </c>
       <c r="F109" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B110">
         <v>8</v>
@@ -15724,12 +15793,12 @@
         <v>1918.3057050699999</v>
       </c>
       <c r="F110" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B111">
         <v>8</v>
@@ -15744,12 +15813,12 @@
         <v>1782.99450207</v>
       </c>
       <c r="F111" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B112">
         <v>8</v>
@@ -15764,12 +15833,12 @@
         <v>1789.0848701</v>
       </c>
       <c r="F112" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B113">
         <v>8</v>
@@ -15784,12 +15853,12 @@
         <v>1712.9129622</v>
       </c>
       <c r="F113" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B114">
         <v>8</v>
@@ -15804,12 +15873,12 @@
         <v>1810.1466629500001</v>
       </c>
       <c r="F114" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B115">
         <v>8</v>
@@ -15824,12 +15893,12 @@
         <v>1818.4292981599999</v>
       </c>
       <c r="F115" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="72" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B116" s="72">
         <v>8</v>
@@ -15844,12 +15913,12 @@
         <v>1842.58875704</v>
       </c>
       <c r="F116" s="72" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B117" s="47">
         <v>8</v>
@@ -15864,12 +15933,12 @@
         <v>1835.8984041199999</v>
       </c>
       <c r="F117" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B118" s="47">
         <v>8</v>
@@ -15884,12 +15953,12 @@
         <v>1715.9458088900001</v>
       </c>
       <c r="F118" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B119" s="47">
         <v>8</v>
@@ -15904,12 +15973,12 @@
         <v>1759.9219129099999</v>
       </c>
       <c r="F119" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B120" s="47">
         <v>8</v>
@@ -15924,12 +15993,12 @@
         <v>1836.24597597</v>
       </c>
       <c r="F120" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B121" s="47">
         <v>8</v>
@@ -15944,12 +16013,12 @@
         <v>1839.4019022</v>
       </c>
       <c r="F121" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B122" s="47">
         <v>8</v>
@@ -15964,12 +16033,12 @@
         <v>1706.54768085</v>
       </c>
       <c r="F122" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B123" s="47">
         <v>8</v>
@@ -15984,12 +16053,12 @@
         <v>1824.0260689300001</v>
       </c>
       <c r="F123" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B124" s="47">
         <v>8</v>
@@ -16004,12 +16073,12 @@
         <v>1812.6436419500001</v>
       </c>
       <c r="F124" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B125">
         <v>8</v>
@@ -16024,12 +16093,12 @@
         <v>1658.3445510900001</v>
       </c>
       <c r="F125" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B126">
         <v>8</v>
@@ -16044,12 +16113,12 @@
         <v>1720.03288198</v>
       </c>
       <c r="F126" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B127">
         <v>8</v>
@@ -16064,12 +16133,12 @@
         <v>1711.9533910800001</v>
       </c>
       <c r="F127" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B128">
         <v>8</v>
@@ -16084,12 +16153,12 @@
         <v>1668.2077360200001</v>
       </c>
       <c r="F128" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B129">
         <v>8</v>
@@ -16104,7 +16173,7 @@
         <v>1698.93364692</v>
       </c>
       <c r="F129" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -16143,7 +16212,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="70" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>5</v>
@@ -16152,19 +16221,19 @@
         <v>4</v>
       </c>
       <c r="D1" s="71" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="71" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H1" s="71" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1" s="71" t="s">
         <v>3</v>
@@ -16172,7 +16241,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B2">
         <v>4355246080</v>
@@ -16202,7 +16271,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B3">
         <v>4355246080</v>
@@ -16232,7 +16301,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B4">
         <v>4355246080</v>
@@ -16260,21 +16329,21 @@
         <v>6.5302487086070329</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N4" t="s">
         <v>6</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B5">
         <v>4355246080</v>
@@ -16302,7 +16371,7 @@
         <v>6.8495974961822865</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L5">
         <f>AVERAGE(E25:E26)</f>
@@ -16322,7 +16391,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B6">
         <v>4355246080</v>
@@ -16350,7 +16419,7 @@
         <v>6.5042231442506306</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L6">
         <f>AVERAGE(E36)</f>
@@ -16369,7 +16438,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B7">
         <v>4355246080</v>
@@ -16397,7 +16466,7 @@
         <v>6.4524285478764476</v>
       </c>
       <c r="K7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L7">
         <f>AVERAGE(E2:E24)</f>
@@ -16418,7 +16487,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B8">
         <v>4355246080</v>
@@ -16446,7 +16515,7 @@
         <v>6.3493625823195616</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L8">
         <f>AVERAGE(E46:E51)</f>
@@ -16467,7 +16536,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B9">
         <v>4355246080</v>
@@ -16513,7 +16582,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B10">
         <v>4355246080</v>
@@ -16543,7 +16612,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B11">
         <v>4355246080</v>
@@ -16573,7 +16642,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B12">
         <v>4355246080</v>
@@ -16603,7 +16672,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B13">
         <v>4355246080</v>
@@ -16628,15 +16697,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B14">
         <v>4355246080</v>
@@ -16661,7 +16730,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L14">
         <f>AVERAGE($E$25:$E$33,$H$25)</f>
@@ -16674,7 +16743,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B15">
         <v>4355246080</v>
@@ -16691,7 +16760,7 @@
         <v>2.4544252058952494</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L15">
         <f>AVERAGE($E$36:$E$39,$H$36)</f>
@@ -16704,7 +16773,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B16">
         <v>4355246080</v>
@@ -16721,7 +16790,7 @@
         <v>4.0862712522959832</v>
       </c>
       <c r="K16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L16">
         <f>AVERAGE($E$2:$E$24,$H$2:$H$12)</f>
@@ -16734,7 +16803,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B17">
         <v>4355246080</v>
@@ -16751,7 +16820,7 @@
         <v>2.4297052276273048</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L17">
         <f>AVERAGE($E$46:$E$66,$H$46:$H$66)</f>
@@ -16764,7 +16833,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>4355246080</v>
@@ -16781,7 +16850,7 @@
         <v>14.48636226008573</v>
       </c>
       <c r="K18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L18">
         <f>AVERAGE($E$67:$E$92,$H$67:$H$92)</f>
@@ -16794,7 +16863,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>4355246081</v>
@@ -16813,7 +16882,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B20">
         <v>4355246082</v>
@@ -16832,7 +16901,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>4355246083</v>
@@ -16851,7 +16920,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B22">
         <v>4355246084</v>
@@ -16870,7 +16939,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>4355246085</v>
@@ -16889,7 +16958,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>4355246086</v>
@@ -16908,7 +16977,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B25">
         <v>4355246080</v>
@@ -16938,7 +17007,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B26">
         <v>4355246080</v>
@@ -16965,7 +17034,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B27">
         <v>4355246080</v>
@@ -16992,7 +17061,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B28">
         <v>4355246080</v>
@@ -17019,7 +17088,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B29">
         <v>4355246080</v>
@@ -17046,7 +17115,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B30">
         <v>4355246080</v>
@@ -17073,7 +17142,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B31">
         <v>4355246080</v>
@@ -17100,7 +17169,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B32">
         <v>4355246080</v>
@@ -17127,7 +17196,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B33">
         <v>4355246080</v>
@@ -17154,7 +17223,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B34">
         <v>4355246080</v>
@@ -17178,7 +17247,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B35">
         <v>4355246080</v>
@@ -17202,7 +17271,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B36">
         <v>4355246080</v>
@@ -17232,7 +17301,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B37">
         <v>4355246080</v>
@@ -17259,7 +17328,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B38">
         <v>4355246080</v>
@@ -17286,7 +17355,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B39">
         <v>4355246080</v>
@@ -17313,7 +17382,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B40">
         <v>4355246080</v>
@@ -17337,7 +17406,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B41">
         <v>4355246080</v>
@@ -17361,7 +17430,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B42">
         <v>4355246080</v>
@@ -17385,7 +17454,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B43">
         <v>4355246080</v>
@@ -17409,7 +17478,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B44">
         <v>4355246080</v>
@@ -17433,7 +17502,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B45">
         <v>4355246080</v>
@@ -17457,7 +17526,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B46">
         <v>4355246080</v>
@@ -17487,7 +17556,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B47">
         <v>4355246080</v>
@@ -17517,7 +17586,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B48">
         <v>4355246080</v>
@@ -17547,7 +17616,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B49">
         <v>4355246080</v>
@@ -17577,7 +17646,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B50">
         <v>4355246080</v>
@@ -17607,7 +17676,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B51">
         <v>4355246080</v>
@@ -17637,7 +17706,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B52">
         <v>4355246080</v>
@@ -17667,7 +17736,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B53">
         <v>4355246080</v>
@@ -17697,7 +17766,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B54">
         <v>4355246080</v>
@@ -17727,7 +17796,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B55">
         <v>4355246081</v>
@@ -17757,7 +17826,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B56">
         <v>4355246082</v>
@@ -17787,7 +17856,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B57">
         <v>4355246083</v>
@@ -17817,7 +17886,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B58">
         <v>4355246084</v>
@@ -17847,7 +17916,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B59">
         <v>4355246085</v>
@@ -17877,7 +17946,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B60">
         <v>4355246086</v>
@@ -17907,7 +17976,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B61">
         <v>4355246087</v>
@@ -17937,7 +18006,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B62">
         <v>4355246088</v>
@@ -17967,7 +18036,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B63">
         <v>4355246089</v>
@@ -17997,7 +18066,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B64">
         <v>4355246090</v>
@@ -18027,7 +18096,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B65">
         <v>4355246091</v>
@@ -18057,7 +18126,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B66">
         <v>4355246092</v>
@@ -18087,7 +18156,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B67">
         <v>4355246080</v>
@@ -18117,7 +18186,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B68">
         <v>4355246080</v>
@@ -18147,7 +18216,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>4355246080</v>
@@ -18177,7 +18246,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>4355246080</v>
@@ -18207,7 +18276,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B71">
         <v>4355246080</v>
@@ -18237,7 +18306,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B72">
         <v>4355246080</v>
@@ -18267,7 +18336,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B73">
         <v>4355246080</v>
@@ -18297,7 +18366,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>4355246080</v>
@@ -18327,7 +18396,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B75">
         <v>4355246080</v>
@@ -18357,7 +18426,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B76">
         <v>4355246080</v>
@@ -18387,7 +18456,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B77">
         <v>4355246080</v>
@@ -18417,7 +18486,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B78">
         <v>4355246080</v>
@@ -18447,7 +18516,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B79">
         <v>4355246080</v>
@@ -18477,7 +18546,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B80">
         <v>4355246080</v>
@@ -18507,7 +18576,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B81">
         <v>4355246080</v>
@@ -18537,7 +18606,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B82">
         <v>4355246080</v>
@@ -18567,7 +18636,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B83">
         <v>4355246080</v>
@@ -18597,7 +18666,7 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B84">
         <v>4355246080</v>
@@ -18627,7 +18696,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B85">
         <v>4355246080</v>
@@ -18657,7 +18726,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>4355246080</v>
@@ -18687,7 +18756,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B87">
         <v>4355246080</v>
@@ -18717,7 +18786,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B88">
         <v>4355246080</v>
@@ -18747,7 +18816,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B89">
         <v>4355246080</v>
@@ -18777,7 +18846,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B90">
         <v>4355246080</v>
@@ -18807,7 +18876,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B91">
         <v>4355246081</v>
@@ -18837,7 +18906,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B92">
         <v>4355246082</v>

--- a/papers/cloudcom10/performance/namd_runs.xlsx
+++ b/papers/cloudcom10/performance/namd_runs.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="252">
   <si>
     <t>SAGA Pilot Sub-Job Runtime</t>
     <phoneticPr fontId="17" type="noConversion"/>
@@ -75,7 +75,6 @@
   </si>
   <si>
     <t>large</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>large</t>
@@ -2668,19 +2667,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>36.05865647261111</c:v>
+                  <c:v>36.77484585247222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.09388968944445</c:v>
+                  <c:v>36.7542692002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.45077452958333</c:v>
+                  <c:v>36.43405471177778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.34425558349999</c:v>
+                  <c:v>37.77104676233333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.32852852341667</c:v>
+                  <c:v>38.53255338933333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12817,7 +12816,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
@@ -13317,7 +13315,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -13558,7 +13555,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -13571,11 +13567,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:Q159"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -14392,23 +14388,23 @@
         <v>18</v>
       </c>
       <c r="J36" s="76">
-        <f>AVERAGE(E145:E147)/60</f>
+        <f>AVERAGE(E155:E157)/60</f>
         <v>85.873793250944431</v>
       </c>
       <c r="K36" s="76">
-        <f>AVERAGE(E148:E150)/60</f>
+        <f>AVERAGE(E158:E160)/60</f>
         <v>86.0579628335</v>
       </c>
       <c r="L36" s="76">
-        <f>AVERAGE(E154:E156)/60</f>
+        <f>AVERAGE(E164:E166)/60</f>
         <v>86.760683253111111</v>
       </c>
       <c r="M36" s="76">
-        <f>AVERAGE(E154:E156)/60</f>
+        <f>AVERAGE(E164:E166)/60</f>
         <v>86.760683253111111</v>
       </c>
       <c r="N36" s="76">
-        <f>AVERAGE(E157:E158)/60</f>
+        <f>AVERAGE(E167:E168)/60</f>
         <v>90.030957966666662</v>
       </c>
       <c r="O36" s="76">
@@ -14502,36 +14498,36 @@
         <v>22</v>
       </c>
       <c r="J38" s="76">
-        <f>AVERAGE(E60:E62)/60</f>
-        <v>36.058656472611112</v>
+        <f>AVERAGE(E60:E65)/60</f>
+        <v>36.774845852472218</v>
       </c>
       <c r="K38" s="76">
-        <f>AVERAGE(E63:E65)/60</f>
-        <v>37.093889689444445</v>
+        <f>AVERAGE(E66:E70)/60</f>
+        <v>36.7542692002</v>
       </c>
       <c r="L38" s="76">
-        <f>AVERAGE(E66:E69)/60</f>
-        <v>38.450774529583327</v>
+        <f>AVERAGE(E71:E76)/60</f>
+        <v>36.434054711777776</v>
       </c>
       <c r="M38" s="76">
-        <f>AVERAGE(E70:E73)/60</f>
-        <v>39.344255583499994</v>
+        <f>AVERAGE(E77:E82)/60</f>
+        <v>37.771046762333334</v>
       </c>
       <c r="N38" s="76">
-        <f>AVERAGE(E74:E75)/60</f>
-        <v>39.328528523416665</v>
+        <f>AVERAGE(E83:E85)/60</f>
+        <v>38.53255338933333</v>
       </c>
       <c r="O38" s="76">
         <f>AVERAGE(J38:N38)</f>
-        <v>38.055220959711107</v>
+        <v>37.253353983223327</v>
       </c>
       <c r="P38">
         <f t="shared" si="1"/>
-        <v>2.288695582760528</v>
+        <v>2.337959050631786</v>
       </c>
       <c r="Q38">
         <f>P38/4</f>
-        <v>0.572173895690132</v>
+        <v>0.5844897626579465</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -14557,23 +14553,23 @@
         <v>24</v>
       </c>
       <c r="J39" s="76">
-        <f>AVERAGE(E76:E92)/60</f>
+        <f>AVERAGE(E86:E102)/60</f>
         <v>29.755726918294116</v>
       </c>
       <c r="K39" s="76">
-        <f>AVERAGE(E98:E100)/60</f>
+        <f>AVERAGE(E108:E110)/60</f>
         <v>29.533525637777775</v>
       </c>
       <c r="L39" s="76">
-        <f>AVERAGE(E109:E125)/60</f>
+        <f>AVERAGE(E119:E135)/60</f>
         <v>30.22606411610785</v>
       </c>
       <c r="M39" s="76">
-        <f>AVERAGE(E126:E130)/60</f>
+        <f>AVERAGE(E136:E140)/60</f>
         <v>29.968669529766665</v>
       </c>
       <c r="N39" s="76">
-        <f>AVERAGE(E135:E136)/60</f>
+        <f>AVERAGE(E145:E146)/60</f>
         <v>28.153145275583331</v>
       </c>
       <c r="O39" s="76">
@@ -14648,21 +14644,6 @@
       <c r="F42" t="s">
         <v>175</v>
       </c>
-      <c r="I42" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
-      <c r="M42" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
@@ -14683,20 +14664,20 @@
       <c r="F43" t="s">
         <v>175</v>
       </c>
-      <c r="I43">
-        <v>2</v>
-      </c>
-      <c r="J43" s="76">
-        <v>90.772995064666674</v>
-      </c>
-      <c r="K43" s="76">
-        <v>54.981918734250002</v>
-      </c>
-      <c r="L43" s="76">
-        <v>36.058656472611112</v>
-      </c>
-      <c r="M43" s="76">
-        <v>29.755726918294116</v>
+      <c r="I43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -14719,19 +14700,19 @@
         <v>175</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J44" s="76">
-        <v>90.256347600583325</v>
+        <v>85.873793250944431</v>
       </c>
       <c r="K44" s="76">
-        <v>55.322307368083329</v>
+        <v>53.555982869466668</v>
       </c>
       <c r="L44" s="76">
-        <v>37.093889689444445</v>
+        <v>36.774845852472218</v>
       </c>
       <c r="M44" s="76">
-        <v>29.533525637777775</v>
+        <v>29.755726918294116</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -14754,19 +14735,19 @@
         <v>175</v>
       </c>
       <c r="I45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J45" s="76">
-        <v>91.132208150583338</v>
+        <v>86.0579628335</v>
       </c>
       <c r="K45" s="76">
-        <v>56.079986642444439</v>
+        <v>53.937479001249997</v>
       </c>
       <c r="L45" s="76">
-        <v>38.450774529583327</v>
+        <v>36.7542692002</v>
       </c>
       <c r="M45" s="76">
-        <v>30.22606411610785</v>
+        <v>29.533525637777775</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -14789,19 +14770,19 @@
         <v>175</v>
       </c>
       <c r="I46">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J46" s="76">
-        <v>95.949001352933323</v>
+        <v>86.760683253111111</v>
       </c>
       <c r="K46" s="76">
-        <v>55.409327467277784</v>
+        <v>54.959793672277776</v>
       </c>
       <c r="L46" s="76">
-        <v>39.344255583499994</v>
+        <v>36.434054711777776</v>
       </c>
       <c r="M46" s="76">
-        <v>29.968669529766665</v>
+        <v>30.22606411610785</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -14824,19 +14805,19 @@
         <v>175</v>
       </c>
       <c r="I47">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J47" s="76">
-        <v>93.94475276866666</v>
+        <v>86.760683253111111</v>
       </c>
       <c r="K47" s="76">
-        <v>56.714765632166667</v>
+        <v>54.435406076111114</v>
       </c>
       <c r="L47" s="76">
-        <v>39.328528523416665</v>
+        <v>37.771046762333334</v>
       </c>
       <c r="M47" s="76">
-        <v>28.153145275583331</v>
+        <v>29.968669529766665</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -14858,6 +14839,21 @@
       <c r="F48" t="s">
         <v>175</v>
       </c>
+      <c r="I48">
+        <v>32</v>
+      </c>
+      <c r="J48" s="76">
+        <v>90.030957966666662</v>
+      </c>
+      <c r="K48" s="76">
+        <v>57.030591033333344</v>
+      </c>
+      <c r="L48" s="76">
+        <v>38.53255338933333</v>
+      </c>
+      <c r="M48" s="76">
+        <v>28.153145275583331</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
@@ -15081,7 +15077,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" s="74">
         <v>4</v>
@@ -15093,15 +15089,15 @@
         <v>4</v>
       </c>
       <c r="E60" s="82">
-        <v>2062.0451450300002</v>
-      </c>
-      <c r="F60" s="74" t="s">
+        <v>2165.2144379599999</v>
+      </c>
+      <c r="F60" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61" s="74">
         <v>4</v>
@@ -15113,15 +15109,15 @@
         <v>4</v>
       </c>
       <c r="E61" s="82">
-        <v>2197.8351230600001</v>
-      </c>
-      <c r="F61" s="74" t="s">
+        <v>2283.2516999200002</v>
+      </c>
+      <c r="F61" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B62" s="74">
         <v>4</v>
@@ -15133,69 +15129,69 @@
         <v>4</v>
       </c>
       <c r="E62" s="82">
-        <v>2230.6778969799998</v>
-      </c>
-      <c r="F62" s="74" t="s">
+        <v>2173.3167338399999</v>
+      </c>
+      <c r="F62" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B63" s="74">
         <v>4</v>
       </c>
       <c r="C63" s="74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" s="74">
         <v>4</v>
       </c>
       <c r="E63" s="82">
-        <v>2214.5342040099999</v>
-      </c>
-      <c r="F63" s="74" t="s">
+        <v>2185.1247549099999</v>
+      </c>
+      <c r="F63" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64" s="74">
         <v>4</v>
       </c>
       <c r="C64" s="74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" s="74">
         <v>4</v>
       </c>
       <c r="E64" s="82">
-        <v>2227.3965690099999</v>
-      </c>
-      <c r="F64" s="74" t="s">
+        <v>2269.9999311000001</v>
+      </c>
+      <c r="F64" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65" s="74">
         <v>4</v>
       </c>
       <c r="C65" s="74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" s="74">
         <v>4</v>
       </c>
       <c r="E65" s="82">
-        <v>2234.9693710800002</v>
-      </c>
-      <c r="F65" s="74" t="s">
+        <v>2162.0369491599999</v>
+      </c>
+      <c r="F65" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15207,15 +15203,15 @@
         <v>4</v>
       </c>
       <c r="C66" s="74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D66" s="74">
         <v>4</v>
       </c>
       <c r="E66" s="82">
-        <v>2318.40899515</v>
-      </c>
-      <c r="F66" s="74" t="s">
+        <v>2319.98405099</v>
+      </c>
+      <c r="F66" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15227,15 +15223,15 @@
         <v>4</v>
       </c>
       <c r="C67" s="74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D67" s="74">
         <v>4</v>
       </c>
       <c r="E67" s="82">
-        <v>2381.80929685</v>
-      </c>
-      <c r="F67" s="74" t="s">
+        <v>2165.4693579700001</v>
+      </c>
+      <c r="F67" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15247,15 +15243,15 @@
         <v>4</v>
       </c>
       <c r="C68" s="74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D68" s="74">
         <v>4</v>
       </c>
       <c r="E68" s="82">
-        <v>2220.3577370600001</v>
-      </c>
-      <c r="F68" s="74" t="s">
+        <v>2171.7986049699998</v>
+      </c>
+      <c r="F68" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15267,15 +15263,15 @@
         <v>4</v>
       </c>
       <c r="C69" s="74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D69" s="74">
         <v>4</v>
       </c>
       <c r="E69" s="82">
-        <v>2307.6098580399998</v>
-      </c>
-      <c r="F69" s="74" t="s">
+        <v>2183.7792851899999</v>
+      </c>
+      <c r="F69" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15287,15 +15283,15 @@
         <v>4</v>
       </c>
       <c r="C70" s="74">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D70" s="74">
         <v>4</v>
       </c>
       <c r="E70" s="82">
-        <v>2470.72962117</v>
-      </c>
-      <c r="F70" s="74" t="s">
+        <v>2185.2494609400001</v>
+      </c>
+      <c r="F70" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15307,15 +15303,15 @@
         <v>4</v>
       </c>
       <c r="C71" s="74">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D71" s="74">
         <v>4</v>
       </c>
       <c r="E71" s="82">
-        <v>2315.60190797</v>
-      </c>
-      <c r="F71" s="74" t="s">
+        <v>2137.2723250399999</v>
+      </c>
+      <c r="F71" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15327,15 +15323,15 @@
         <v>4</v>
       </c>
       <c r="C72" s="74">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D72" s="74">
         <v>4</v>
       </c>
       <c r="E72" s="82">
-        <v>2394.6190059199998</v>
-      </c>
-      <c r="F72" s="74" t="s">
+        <v>2220.7439541799999</v>
+      </c>
+      <c r="F72" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15347,35 +15343,35 @@
         <v>4</v>
       </c>
       <c r="C73" s="74">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D73" s="74">
         <v>4</v>
       </c>
       <c r="E73" s="82">
-        <v>2261.67080498</v>
-      </c>
-      <c r="F73" s="74" t="s">
+        <v>2110.8885998699998</v>
+      </c>
+      <c r="F73" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="74">
         <v>4</v>
       </c>
       <c r="C74" s="74">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D74" s="74">
         <v>4</v>
       </c>
       <c r="E74" s="82">
-        <v>2428.40984893</v>
-      </c>
-      <c r="F74" s="74" t="s">
+        <v>2212.8257401000001</v>
+      </c>
+      <c r="F74" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15387,215 +15383,215 @@
         <v>4</v>
       </c>
       <c r="C75" s="74">
+        <v>8</v>
+      </c>
+      <c r="D75" s="74">
+        <v>4</v>
+      </c>
+      <c r="E75" s="82">
+        <v>2209.1583819399998</v>
+      </c>
+      <c r="F75" s="82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="74">
+        <v>4</v>
+      </c>
+      <c r="C76" s="74">
+        <v>8</v>
+      </c>
+      <c r="D76" s="74">
+        <v>4</v>
+      </c>
+      <c r="E76" s="82">
+        <v>2225.3706951099998</v>
+      </c>
+      <c r="F76" s="82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="74">
+        <v>4</v>
+      </c>
+      <c r="C77" s="74">
+        <v>16</v>
+      </c>
+      <c r="D77" s="74">
+        <v>4</v>
+      </c>
+      <c r="E77" s="82">
+        <v>2225.0072731999999</v>
+      </c>
+      <c r="F77" s="82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="74">
+        <v>4</v>
+      </c>
+      <c r="C78" s="74">
+        <v>16</v>
+      </c>
+      <c r="D78" s="74">
+        <v>4</v>
+      </c>
+      <c r="E78" s="82">
+        <v>2296.1518640499999</v>
+      </c>
+      <c r="F78" s="82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="74">
+        <v>4</v>
+      </c>
+      <c r="C79" s="74">
+        <v>16</v>
+      </c>
+      <c r="D79" s="74">
+        <v>4</v>
+      </c>
+      <c r="E79" s="82">
+        <v>2285.0504000199999</v>
+      </c>
+      <c r="F79" s="82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="74">
+        <v>4</v>
+      </c>
+      <c r="C80" s="74">
+        <v>16</v>
+      </c>
+      <c r="D80" s="74">
+        <v>4</v>
+      </c>
+      <c r="E80" s="82">
+        <v>2199.4940891299998</v>
+      </c>
+      <c r="F80" s="82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" s="74">
+        <v>4</v>
+      </c>
+      <c r="C81" s="74">
+        <v>16</v>
+      </c>
+      <c r="D81" s="74">
+        <v>4</v>
+      </c>
+      <c r="E81" s="82">
+        <v>2291.9013450100001</v>
+      </c>
+      <c r="F81" s="82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" s="74">
+        <v>4</v>
+      </c>
+      <c r="C82" s="74">
+        <v>16</v>
+      </c>
+      <c r="D82" s="74">
+        <v>4</v>
+      </c>
+      <c r="E82" s="82">
+        <v>2299.9718630299999</v>
+      </c>
+      <c r="F82" s="82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="74">
+        <v>4</v>
+      </c>
+      <c r="C83" s="74">
         <v>32</v>
       </c>
-      <c r="D75" s="74">
-        <v>4</v>
-      </c>
-      <c r="E75" s="82">
-        <v>2291.01357388</v>
-      </c>
-      <c r="F75" s="74" t="s">
+      <c r="D83" s="74">
+        <v>4</v>
+      </c>
+      <c r="E83" s="82">
+        <v>2319.8565950399998</v>
+      </c>
+      <c r="F83" s="82" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76">
-        <v>8</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-      <c r="E76" s="81">
-        <v>1755.41372609</v>
-      </c>
-      <c r="F76" t="s">
+    <row r="84" spans="1:6">
+      <c r="A84" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="74">
+        <v>4</v>
+      </c>
+      <c r="C84" s="74">
+        <v>32</v>
+      </c>
+      <c r="D84" s="74">
+        <v>4</v>
+      </c>
+      <c r="E84" s="82">
+        <v>2326.5095250600002</v>
+      </c>
+      <c r="F84" s="82" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>177</v>
-      </c>
-      <c r="B77">
-        <v>8</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-      <c r="E77" s="81">
-        <v>1700.6529159500001</v>
-      </c>
-      <c r="F77" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>177</v>
-      </c>
-      <c r="B78">
-        <v>8</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>4</v>
-      </c>
-      <c r="E78" s="81">
-        <v>1791.71858215</v>
-      </c>
-      <c r="F78" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>177</v>
-      </c>
-      <c r="B79">
-        <v>8</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>4</v>
-      </c>
-      <c r="E79" s="81">
-        <v>1754.3026611800001</v>
-      </c>
-      <c r="F79" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>177</v>
-      </c>
-      <c r="B80">
-        <v>8</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
-      <c r="E80" s="81">
-        <v>1795.45695019</v>
-      </c>
-      <c r="F80" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>177</v>
-      </c>
-      <c r="B81">
-        <v>8</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-      <c r="E81" s="81">
-        <v>1768.0575780900001</v>
-      </c>
-      <c r="F81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>177</v>
-      </c>
-      <c r="B82">
-        <v>8</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
-        <v>4</v>
-      </c>
-      <c r="E82" s="81">
-        <v>1768.25146008</v>
-      </c>
-      <c r="F82" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83">
-        <v>8</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83">
-        <v>4</v>
-      </c>
-      <c r="E83" s="81">
-        <v>1872.71734595</v>
-      </c>
-      <c r="F83" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>177</v>
-      </c>
-      <c r="B84">
-        <v>8</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
-      </c>
-      <c r="E84" s="81">
-        <v>1780.7754190000001</v>
-      </c>
-      <c r="F84" t="s">
-        <v>175</v>
-      </c>
-    </row>
     <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>177</v>
-      </c>
-      <c r="B85">
-        <v>8</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85" s="81">
-        <v>1772.9535300699999</v>
-      </c>
-      <c r="F85" t="s">
+      <c r="A85" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="74">
+        <v>4</v>
+      </c>
+      <c r="C85" s="74">
+        <v>32</v>
+      </c>
+      <c r="D85" s="74">
+        <v>4</v>
+      </c>
+      <c r="E85" s="82">
+        <v>2289.49348998</v>
+      </c>
+      <c r="F85" s="82" t="s">
         <v>175</v>
       </c>
     </row>
@@ -15613,7 +15609,7 @@
         <v>4</v>
       </c>
       <c r="E86" s="81">
-        <v>1673.50027084</v>
+        <v>1755.41372609</v>
       </c>
       <c r="F86" t="s">
         <v>175</v>
@@ -15633,7 +15629,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="81">
-        <v>1788.05790305</v>
+        <v>1700.6529159500001</v>
       </c>
       <c r="F87" t="s">
         <v>175</v>
@@ -15653,7 +15649,7 @@
         <v>4</v>
       </c>
       <c r="E88" s="81">
-        <v>1892.5188911</v>
+        <v>1791.71858215</v>
       </c>
       <c r="F88" t="s">
         <v>175</v>
@@ -15673,7 +15669,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="81">
-        <v>1890.1004610099999</v>
+        <v>1754.3026611800001</v>
       </c>
       <c r="F89" t="s">
         <v>175</v>
@@ -15693,7 +15689,7 @@
         <v>4</v>
       </c>
       <c r="E90" s="81">
-        <v>1800.52480197</v>
+        <v>1795.45695019</v>
       </c>
       <c r="F90" t="s">
         <v>175</v>
@@ -15713,7 +15709,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="81">
-        <v>1778.2094800499999</v>
+        <v>1768.0575780900001</v>
       </c>
       <c r="F91" t="s">
         <v>175</v>
@@ -15733,7 +15729,7 @@
         <v>4</v>
       </c>
       <c r="E92" s="81">
-        <v>1767.6294798900001</v>
+        <v>1768.25146008</v>
       </c>
       <c r="F92" t="s">
         <v>175</v>
@@ -15753,7 +15749,10 @@
         <v>4</v>
       </c>
       <c r="E93" s="81">
-        <v>1755.7615511399999</v>
+        <v>1872.71734595</v>
+      </c>
+      <c r="F93" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -15770,7 +15769,10 @@
         <v>4</v>
       </c>
       <c r="E94" s="81">
-        <v>1755.3108708899999</v>
+        <v>1780.7754190000001</v>
+      </c>
+      <c r="F94" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -15787,7 +15789,10 @@
         <v>4</v>
       </c>
       <c r="E95" s="81">
-        <v>1776.3025808299999</v>
+        <v>1772.9535300699999</v>
+      </c>
+      <c r="F95" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -15804,7 +15809,10 @@
         <v>4</v>
       </c>
       <c r="E96" s="81">
-        <v>1775.4375519800001</v>
+        <v>1673.50027084</v>
+      </c>
+      <c r="F96" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -15821,7 +15829,10 @@
         <v>4</v>
       </c>
       <c r="E97" s="81">
-        <v>1771.63202095</v>
+        <v>1788.05790305</v>
+      </c>
+      <c r="F97" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -15832,13 +15843,13 @@
         <v>8</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98">
         <v>4</v>
       </c>
       <c r="E98" s="81">
-        <v>1727.25121689</v>
+        <v>1892.5188911</v>
       </c>
       <c r="F98" t="s">
         <v>175</v>
@@ -15852,13 +15863,13 @@
         <v>8</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <v>4</v>
       </c>
       <c r="E99" s="81">
-        <v>1818.3420629499999</v>
+        <v>1890.1004610099999</v>
       </c>
       <c r="F99" t="s">
         <v>175</v>
@@ -15872,13 +15883,13 @@
         <v>8</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100">
         <v>4</v>
       </c>
       <c r="E100" s="81">
-        <v>1770.4413349599999</v>
+        <v>1800.52480197</v>
       </c>
       <c r="F100" t="s">
         <v>175</v>
@@ -15892,13 +15903,13 @@
         <v>8</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101">
         <v>4</v>
       </c>
       <c r="E101" s="81">
-        <v>1894.0333972000001</v>
+        <v>1778.2094800499999</v>
       </c>
       <c r="F101" t="s">
         <v>175</v>
@@ -15912,13 +15923,13 @@
         <v>8</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D102">
         <v>4</v>
       </c>
       <c r="E102" s="81">
-        <v>1777.12373996</v>
+        <v>1767.6294798900001</v>
       </c>
       <c r="F102" t="s">
         <v>175</v>
@@ -15932,16 +15943,13 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D103">
         <v>4</v>
       </c>
       <c r="E103" s="81">
-        <v>1777.3397109499999</v>
-      </c>
-      <c r="F103" t="s">
-        <v>175</v>
+        <v>1755.7615511399999</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -15952,16 +15960,13 @@
         <v>8</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>4</v>
       </c>
       <c r="E104" s="81">
-        <v>1770.9294168900001</v>
-      </c>
-      <c r="F104" t="s">
-        <v>175</v>
+        <v>1755.3108708899999</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -15972,16 +15977,13 @@
         <v>8</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D105">
         <v>4</v>
       </c>
       <c r="E105" s="81">
-        <v>1827.6398251099999</v>
-      </c>
-      <c r="F105" t="s">
-        <v>175</v>
+        <v>1776.3025808299999</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -15992,16 +15994,13 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>4</v>
       </c>
       <c r="E106" s="81">
-        <v>1673.44356012</v>
-      </c>
-      <c r="F106" t="s">
-        <v>175</v>
+        <v>1775.4375519800001</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -16012,16 +16011,13 @@
         <v>8</v>
       </c>
       <c r="C107">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D107">
         <v>4</v>
       </c>
       <c r="E107" s="81">
-        <v>1804.07670403</v>
-      </c>
-      <c r="F107" t="s">
-        <v>175</v>
+        <v>1771.63202095</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -16032,13 +16028,13 @@
         <v>8</v>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D108">
         <v>4</v>
       </c>
       <c r="E108" s="81">
-        <v>1803.94324398</v>
+        <v>1727.25121689</v>
       </c>
       <c r="F108" t="s">
         <v>175</v>
@@ -16052,13 +16048,13 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D109">
         <v>4</v>
       </c>
       <c r="E109" s="81">
-        <v>1806.8634729400001</v>
+        <v>1818.3420629499999</v>
       </c>
       <c r="F109" t="s">
         <v>175</v>
@@ -16072,13 +16068,13 @@
         <v>8</v>
       </c>
       <c r="C110">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D110">
         <v>4</v>
       </c>
       <c r="E110" s="81">
-        <v>1810.6687281100001</v>
+        <v>1770.4413349599999</v>
       </c>
       <c r="F110" t="s">
         <v>175</v>
@@ -16092,13 +16088,13 @@
         <v>8</v>
       </c>
       <c r="C111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D111">
         <v>4</v>
       </c>
       <c r="E111" s="81">
-        <v>1781.2703998100001</v>
+        <v>1894.0333972000001</v>
       </c>
       <c r="F111" t="s">
         <v>175</v>
@@ -16112,13 +16108,13 @@
         <v>8</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112" s="81">
-        <v>1815.0974919800001</v>
+        <v>1777.12373996</v>
       </c>
       <c r="F112" t="s">
         <v>175</v>
@@ -16132,13 +16128,13 @@
         <v>8</v>
       </c>
       <c r="C113">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D113">
         <v>4</v>
       </c>
       <c r="E113" s="81">
-        <v>1888.6297318899999</v>
+        <v>1777.3397109499999</v>
       </c>
       <c r="F113" t="s">
         <v>175</v>
@@ -16152,13 +16148,13 @@
         <v>8</v>
       </c>
       <c r="C114">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D114">
         <v>4</v>
       </c>
       <c r="E114" s="81">
-        <v>1798.8409340400001</v>
+        <v>1770.9294168900001</v>
       </c>
       <c r="F114" t="s">
         <v>175</v>
@@ -16178,7 +16174,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="81">
-        <v>1800.7364668800001</v>
+        <v>1827.6398251099999</v>
       </c>
       <c r="F115" t="s">
         <v>175</v>
@@ -16198,7 +16194,7 @@
         <v>4</v>
       </c>
       <c r="E116" s="81">
-        <v>1777.75735998</v>
+        <v>1673.44356012</v>
       </c>
       <c r="F116" t="s">
         <v>175</v>
@@ -16218,7 +16214,7 @@
         <v>4</v>
       </c>
       <c r="E117" s="81">
-        <v>1790.2442941700001</v>
+        <v>1804.07670403</v>
       </c>
       <c r="F117" t="s">
         <v>175</v>
@@ -16238,7 +16234,7 @@
         <v>4</v>
       </c>
       <c r="E118" s="81">
-        <v>1921.4787900399999</v>
+        <v>1803.94324398</v>
       </c>
       <c r="F118" t="s">
         <v>175</v>
@@ -16258,7 +16254,7 @@
         <v>4</v>
       </c>
       <c r="E119" s="81">
-        <v>1807.1237280400001</v>
+        <v>1806.8634729400001</v>
       </c>
       <c r="F119" t="s">
         <v>175</v>
@@ -16278,7 +16274,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="81">
-        <v>1918.3057050699999</v>
+        <v>1810.6687281100001</v>
       </c>
       <c r="F120" t="s">
         <v>175</v>
@@ -16298,7 +16294,7 @@
         <v>4</v>
       </c>
       <c r="E121" s="81">
-        <v>1782.99450207</v>
+        <v>1781.2703998100001</v>
       </c>
       <c r="F121" t="s">
         <v>175</v>
@@ -16318,7 +16314,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="81">
-        <v>1789.0848701</v>
+        <v>1815.0974919800001</v>
       </c>
       <c r="F122" t="s">
         <v>175</v>
@@ -16338,7 +16334,7 @@
         <v>4</v>
       </c>
       <c r="E123" s="81">
-        <v>1712.9129622</v>
+        <v>1888.6297318899999</v>
       </c>
       <c r="F123" t="s">
         <v>175</v>
@@ -16358,7 +16354,7 @@
         <v>4</v>
       </c>
       <c r="E124" s="81">
-        <v>1810.1466629500001</v>
+        <v>1798.8409340400001</v>
       </c>
       <c r="F124" t="s">
         <v>175</v>
@@ -16378,29 +16374,29 @@
         <v>4</v>
       </c>
       <c r="E125" s="81">
-        <v>1818.4292981599999</v>
+        <v>1800.7364668800001</v>
       </c>
       <c r="F125" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="72" t="s">
+      <c r="A126" t="s">
         <v>177</v>
       </c>
-      <c r="B126" s="72">
-        <v>8</v>
-      </c>
-      <c r="C126" s="72">
-        <v>16</v>
-      </c>
-      <c r="D126" s="72">
-        <v>4</v>
-      </c>
-      <c r="E126" s="83">
-        <v>1842.58875704</v>
-      </c>
-      <c r="F126" s="72" t="s">
+      <c r="B126">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126" s="81">
+        <v>1777.75735998</v>
+      </c>
+      <c r="F126" t="s">
         <v>175</v>
       </c>
     </row>
@@ -16408,17 +16404,17 @@
       <c r="A127" t="s">
         <v>177</v>
       </c>
-      <c r="B127" s="47">
-        <v>8</v>
-      </c>
-      <c r="C127" s="47">
-        <v>16</v>
-      </c>
-      <c r="D127" s="47">
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127">
         <v>4</v>
       </c>
       <c r="E127" s="81">
-        <v>1835.8984041199999</v>
+        <v>1790.2442941700001</v>
       </c>
       <c r="F127" t="s">
         <v>175</v>
@@ -16428,17 +16424,17 @@
       <c r="A128" t="s">
         <v>177</v>
       </c>
-      <c r="B128" s="47">
-        <v>8</v>
-      </c>
-      <c r="C128" s="47">
-        <v>16</v>
-      </c>
-      <c r="D128" s="47">
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>8</v>
+      </c>
+      <c r="D128">
         <v>4</v>
       </c>
       <c r="E128" s="81">
-        <v>1715.9458088900001</v>
+        <v>1921.4787900399999</v>
       </c>
       <c r="F128" t="s">
         <v>175</v>
@@ -16448,17 +16444,17 @@
       <c r="A129" t="s">
         <v>177</v>
       </c>
-      <c r="B129" s="47">
-        <v>8</v>
-      </c>
-      <c r="C129" s="47">
-        <v>16</v>
-      </c>
-      <c r="D129" s="47">
+      <c r="B129">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="D129">
         <v>4</v>
       </c>
       <c r="E129" s="81">
-        <v>1759.9219129099999</v>
+        <v>1807.1237280400001</v>
       </c>
       <c r="F129" t="s">
         <v>175</v>
@@ -16468,17 +16464,17 @@
       <c r="A130" t="s">
         <v>177</v>
       </c>
-      <c r="B130" s="47">
-        <v>8</v>
-      </c>
-      <c r="C130" s="47">
-        <v>16</v>
-      </c>
-      <c r="D130" s="47">
+      <c r="B130">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+      <c r="D130">
         <v>4</v>
       </c>
       <c r="E130" s="81">
-        <v>1836.24597597</v>
+        <v>1918.3057050699999</v>
       </c>
       <c r="F130" t="s">
         <v>175</v>
@@ -16488,17 +16484,17 @@
       <c r="A131" t="s">
         <v>177</v>
       </c>
-      <c r="B131" s="47">
-        <v>8</v>
-      </c>
-      <c r="C131" s="47">
-        <v>16</v>
-      </c>
-      <c r="D131" s="47">
+      <c r="B131">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131">
         <v>4</v>
       </c>
       <c r="E131" s="81">
-        <v>1839.4019022</v>
+        <v>1782.99450207</v>
       </c>
       <c r="F131" t="s">
         <v>175</v>
@@ -16508,17 +16504,17 @@
       <c r="A132" t="s">
         <v>177</v>
       </c>
-      <c r="B132" s="47">
-        <v>8</v>
-      </c>
-      <c r="C132" s="47">
-        <v>16</v>
-      </c>
-      <c r="D132" s="47">
+      <c r="B132">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+      <c r="D132">
         <v>4</v>
       </c>
       <c r="E132" s="81">
-        <v>1706.54768085</v>
+        <v>1789.0848701</v>
       </c>
       <c r="F132" t="s">
         <v>175</v>
@@ -16528,17 +16524,17 @@
       <c r="A133" t="s">
         <v>177</v>
       </c>
-      <c r="B133" s="47">
-        <v>8</v>
-      </c>
-      <c r="C133" s="47">
-        <v>16</v>
-      </c>
-      <c r="D133" s="47">
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133">
         <v>4</v>
       </c>
       <c r="E133" s="81">
-        <v>1824.0260689300001</v>
+        <v>1712.9129622</v>
       </c>
       <c r="F133" t="s">
         <v>175</v>
@@ -16548,17 +16544,17 @@
       <c r="A134" t="s">
         <v>177</v>
       </c>
-      <c r="B134" s="47">
-        <v>8</v>
-      </c>
-      <c r="C134" s="47">
-        <v>16</v>
-      </c>
-      <c r="D134" s="47">
+      <c r="B134">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134">
         <v>4</v>
       </c>
       <c r="E134" s="81">
-        <v>1812.6436419500001</v>
+        <v>1810.1466629500001</v>
       </c>
       <c r="F134" t="s">
         <v>175</v>
@@ -16566,59 +16562,59 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B135">
         <v>8</v>
       </c>
       <c r="C135">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D135">
         <v>4</v>
       </c>
       <c r="E135" s="81">
-        <v>1658.3445510900001</v>
+        <v>1818.4292981599999</v>
       </c>
       <c r="F135" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" t="s">
-        <v>176</v>
-      </c>
-      <c r="B136">
-        <v>8</v>
-      </c>
-      <c r="C136">
-        <v>32</v>
-      </c>
-      <c r="D136">
-        <v>4</v>
-      </c>
-      <c r="E136" s="81">
-        <v>1720.03288198</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="A136" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="72">
+        <v>8</v>
+      </c>
+      <c r="C136" s="72">
+        <v>16</v>
+      </c>
+      <c r="D136" s="72">
+        <v>4</v>
+      </c>
+      <c r="E136" s="83">
+        <v>1842.58875704</v>
+      </c>
+      <c r="F136" s="72" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>176</v>
-      </c>
-      <c r="B137">
-        <v>8</v>
-      </c>
-      <c r="C137">
-        <v>32</v>
-      </c>
-      <c r="D137">
+        <v>177</v>
+      </c>
+      <c r="B137" s="47">
+        <v>8</v>
+      </c>
+      <c r="C137" s="47">
+        <v>16</v>
+      </c>
+      <c r="D137" s="47">
         <v>4</v>
       </c>
       <c r="E137" s="81">
-        <v>1711.9533910800001</v>
+        <v>1835.8984041199999</v>
       </c>
       <c r="F137" t="s">
         <v>175</v>
@@ -16626,19 +16622,19 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>176</v>
-      </c>
-      <c r="B138">
-        <v>8</v>
-      </c>
-      <c r="C138">
-        <v>32</v>
-      </c>
-      <c r="D138">
+        <v>177</v>
+      </c>
+      <c r="B138" s="47">
+        <v>8</v>
+      </c>
+      <c r="C138" s="47">
+        <v>16</v>
+      </c>
+      <c r="D138" s="47">
         <v>4</v>
       </c>
       <c r="E138" s="81">
-        <v>1668.2077360200001</v>
+        <v>1715.9458088900001</v>
       </c>
       <c r="F138" t="s">
         <v>175</v>
@@ -16646,279 +16642,972 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>176</v>
-      </c>
-      <c r="B139">
-        <v>8</v>
-      </c>
-      <c r="C139">
-        <v>32</v>
-      </c>
-      <c r="D139">
+        <v>177</v>
+      </c>
+      <c r="B139" s="47">
+        <v>8</v>
+      </c>
+      <c r="C139" s="47">
+        <v>16</v>
+      </c>
+      <c r="D139" s="47">
         <v>4</v>
       </c>
       <c r="E139" s="81">
-        <v>1698.93364692</v>
+        <v>1759.9219129099999</v>
       </c>
       <c r="F139" t="s">
         <v>175</v>
       </c>
     </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>177</v>
+      </c>
+      <c r="B140" s="47">
+        <v>8</v>
+      </c>
+      <c r="C140" s="47">
+        <v>16</v>
+      </c>
+      <c r="D140" s="47">
+        <v>4</v>
+      </c>
+      <c r="E140" s="81">
+        <v>1836.24597597</v>
+      </c>
+      <c r="F140" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="47">
+        <v>8</v>
+      </c>
+      <c r="C141" s="47">
+        <v>16</v>
+      </c>
+      <c r="D141" s="47">
+        <v>4</v>
+      </c>
+      <c r="E141" s="81">
+        <v>1839.4019022</v>
+      </c>
+      <c r="F141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142" s="47">
+        <v>8</v>
+      </c>
+      <c r="C142" s="47">
+        <v>16</v>
+      </c>
+      <c r="D142" s="47">
+        <v>4</v>
+      </c>
+      <c r="E142" s="81">
+        <v>1706.54768085</v>
+      </c>
+      <c r="F142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" s="47">
+        <v>8</v>
+      </c>
+      <c r="C143" s="47">
+        <v>16</v>
+      </c>
+      <c r="D143" s="47">
+        <v>4</v>
+      </c>
+      <c r="E143" s="81">
+        <v>1824.0260689300001</v>
+      </c>
+      <c r="F143" t="s">
+        <v>175</v>
+      </c>
+    </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" s="47">
+        <v>8</v>
+      </c>
+      <c r="C144" s="47">
+        <v>16</v>
+      </c>
+      <c r="D144" s="47">
+        <v>4</v>
+      </c>
+      <c r="E144" s="81">
+        <v>1812.6436419500001</v>
+      </c>
+      <c r="F144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>176</v>
+      </c>
+      <c r="B145">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>32</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145" s="81">
+        <v>1658.3445510900001</v>
+      </c>
+      <c r="F145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>176</v>
+      </c>
+      <c r="B146">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>32</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146" s="81">
+        <v>1720.03288198</v>
+      </c>
+      <c r="F146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>176</v>
+      </c>
+      <c r="B147">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>32</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147" s="81">
+        <v>1711.9533910800001</v>
+      </c>
+      <c r="F147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>176</v>
+      </c>
+      <c r="B148">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>32</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148" s="81">
+        <v>1668.2077360200001</v>
+      </c>
+      <c r="F148" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>176</v>
+      </c>
+      <c r="B149">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>32</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149" s="81">
+        <v>1698.93364692</v>
+      </c>
+      <c r="F149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" t="s">
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
         <v>9</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>2</v>
-      </c>
-      <c r="D145">
-        <v>4</v>
-      </c>
-      <c r="E145">
-        <v>5144.30550408</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" t="s">
-        <v>9</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>2</v>
-      </c>
-      <c r="D146">
-        <v>4</v>
-      </c>
-      <c r="E146">
-        <v>5111.4611360999997</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>2</v>
-      </c>
-      <c r="D147">
-        <v>4</v>
-      </c>
-      <c r="E147">
-        <v>5201.5161449899997</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-      <c r="C148">
-        <v>4</v>
-      </c>
-      <c r="D148">
-        <v>4</v>
-      </c>
-      <c r="E148">
-        <v>5209.3013448700003</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" t="s">
-        <v>9</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149">
-        <v>4</v>
-      </c>
-      <c r="D149">
-        <v>4</v>
-      </c>
-      <c r="E149">
-        <v>5101.5123591399997</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" t="s">
-        <v>9</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150">
-        <v>4</v>
-      </c>
-      <c r="D150">
-        <v>4</v>
-      </c>
-      <c r="E150">
-        <v>5179.61960602</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
-        <v>8</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-      <c r="C151">
-        <v>8</v>
-      </c>
-      <c r="D151">
-        <v>4</v>
-      </c>
-      <c r="E151">
-        <v>5135.1033690000004</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>8</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-      <c r="C152">
-        <v>8</v>
-      </c>
-      <c r="D152">
-        <v>4</v>
-      </c>
-      <c r="E152">
-        <v>5158.3376369999996</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" t="s">
-        <v>8</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>8</v>
-      </c>
-      <c r="D153">
-        <v>4</v>
-      </c>
-      <c r="E153">
-        <v>5240.7737269999998</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154">
-        <v>16</v>
-      </c>
-      <c r="D154">
-        <v>4</v>
-      </c>
-      <c r="E154">
-        <v>5207.7800388300002</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>8</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D155">
         <v>4</v>
       </c>
       <c r="E155">
-        <v>5193.0061578799996</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>5144.30550408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
       <c r="C156">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <v>4</v>
       </c>
       <c r="E156">
-        <v>5216.1367888499999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>5111.4611360999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
       <c r="C157">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D157">
         <v>4</v>
       </c>
       <c r="E157">
-        <v>5382.3301620000002</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>5201.5161449899997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D158">
         <v>4</v>
       </c>
       <c r="E158">
-        <v>5421.3847939999996</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>5209.3013448700003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
       <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>4</v>
+      </c>
+      <c r="E159">
+        <v>5101.5123591399997</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>9</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>4</v>
+      </c>
+      <c r="D160">
+        <v>4</v>
+      </c>
+      <c r="E160">
+        <v>5179.61960602</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>8</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>5135.1033690000004</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+      <c r="D162">
+        <v>4</v>
+      </c>
+      <c r="E162">
+        <v>5158.3376369999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>8</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>5240.7737269999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>16</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>5207.7800388300002</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>16</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>5193.0061578799996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>16</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>5216.1367888499999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
         <v>32</v>
       </c>
-      <c r="D159">
-        <v>4</v>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>5382.3301620000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>32</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>5421.3847939999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>32</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" s="74">
+        <v>4</v>
+      </c>
+      <c r="C171" s="74">
+        <v>2</v>
+      </c>
+      <c r="D171" s="74">
+        <v>4</v>
+      </c>
+      <c r="E171">
+        <v>2165.2144379599999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" s="74">
+        <v>4</v>
+      </c>
+      <c r="C172" s="74">
+        <v>2</v>
+      </c>
+      <c r="D172" s="74">
+        <v>4</v>
+      </c>
+      <c r="E172">
+        <v>2283.2516999200002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" s="74">
+        <v>4</v>
+      </c>
+      <c r="C173" s="74">
+        <v>2</v>
+      </c>
+      <c r="D173" s="74">
+        <v>4</v>
+      </c>
+      <c r="E173">
+        <v>2173.3167338399999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" s="74">
+        <v>4</v>
+      </c>
+      <c r="C174" s="74">
+        <v>2</v>
+      </c>
+      <c r="D174" s="74">
+        <v>4</v>
+      </c>
+      <c r="E174">
+        <v>2185.1247549099999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" s="74">
+        <v>4</v>
+      </c>
+      <c r="C175" s="74">
+        <v>2</v>
+      </c>
+      <c r="D175" s="74">
+        <v>4</v>
+      </c>
+      <c r="E175">
+        <v>2269.9999311000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" s="74">
+        <v>4</v>
+      </c>
+      <c r="C176" s="74">
+        <v>2</v>
+      </c>
+      <c r="D176" s="74">
+        <v>4</v>
+      </c>
+      <c r="E176">
+        <v>2162.0369491599999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" s="74">
+        <v>4</v>
+      </c>
+      <c r="C177" s="74">
+        <v>4</v>
+      </c>
+      <c r="D177" s="74">
+        <v>4</v>
+      </c>
+      <c r="E177">
+        <v>2319.98405099</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="74">
+        <v>4</v>
+      </c>
+      <c r="C178" s="74">
+        <v>4</v>
+      </c>
+      <c r="D178" s="74">
+        <v>4</v>
+      </c>
+      <c r="E178">
+        <v>2165.4693579700001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" s="74">
+        <v>4</v>
+      </c>
+      <c r="C179" s="74">
+        <v>4</v>
+      </c>
+      <c r="D179" s="74">
+        <v>4</v>
+      </c>
+      <c r="E179">
+        <v>2171.7986049699998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" s="74">
+        <v>4</v>
+      </c>
+      <c r="C180" s="74">
+        <v>4</v>
+      </c>
+      <c r="D180" s="74">
+        <v>4</v>
+      </c>
+      <c r="E180">
+        <v>2183.7792851899999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="74">
+        <v>4</v>
+      </c>
+      <c r="C181" s="74">
+        <v>4</v>
+      </c>
+      <c r="D181" s="74">
+        <v>4</v>
+      </c>
+      <c r="E181">
+        <v>2185.2494609400001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" s="74">
+        <v>4</v>
+      </c>
+      <c r="C182" s="74">
+        <v>8</v>
+      </c>
+      <c r="D182" s="74">
+        <v>4</v>
+      </c>
+      <c r="E182">
+        <v>2137.2723250399999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" s="74">
+        <v>4</v>
+      </c>
+      <c r="C183" s="74">
+        <v>8</v>
+      </c>
+      <c r="D183" s="74">
+        <v>4</v>
+      </c>
+      <c r="E183">
+        <v>2220.7439541799999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="74">
+        <v>4</v>
+      </c>
+      <c r="C184" s="74">
+        <v>8</v>
+      </c>
+      <c r="D184" s="74">
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <v>2110.8885998699998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" s="74">
+        <v>4</v>
+      </c>
+      <c r="C185" s="74">
+        <v>8</v>
+      </c>
+      <c r="D185" s="74">
+        <v>4</v>
+      </c>
+      <c r="E185">
+        <v>2212.8257401000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" s="74">
+        <v>4</v>
+      </c>
+      <c r="C186" s="74">
+        <v>8</v>
+      </c>
+      <c r="D186" s="74">
+        <v>4</v>
+      </c>
+      <c r="E186">
+        <v>2209.1583819399998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" s="74">
+        <v>4</v>
+      </c>
+      <c r="C187" s="74">
+        <v>8</v>
+      </c>
+      <c r="D187" s="74">
+        <v>4</v>
+      </c>
+      <c r="E187">
+        <v>2225.3706951099998</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="74">
+        <v>4</v>
+      </c>
+      <c r="C188" s="74">
+        <v>16</v>
+      </c>
+      <c r="D188" s="74">
+        <v>4</v>
+      </c>
+      <c r="E188">
+        <v>2225.0072731999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" s="74">
+        <v>4</v>
+      </c>
+      <c r="C189" s="74">
+        <v>16</v>
+      </c>
+      <c r="D189" s="74">
+        <v>4</v>
+      </c>
+      <c r="E189">
+        <v>2296.1518640499999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" s="74">
+        <v>4</v>
+      </c>
+      <c r="C190" s="74">
+        <v>16</v>
+      </c>
+      <c r="D190" s="74">
+        <v>4</v>
+      </c>
+      <c r="E190">
+        <v>2285.0504000199999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" s="74">
+        <v>4</v>
+      </c>
+      <c r="C191" s="74">
+        <v>16</v>
+      </c>
+      <c r="D191" s="74">
+        <v>4</v>
+      </c>
+      <c r="E191">
+        <v>2199.4940891299998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" s="74">
+        <v>4</v>
+      </c>
+      <c r="C192" s="74">
+        <v>16</v>
+      </c>
+      <c r="D192" s="74">
+        <v>4</v>
+      </c>
+      <c r="E192">
+        <v>2291.9013450100001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" s="74">
+        <v>4</v>
+      </c>
+      <c r="C193" s="74">
+        <v>16</v>
+      </c>
+      <c r="D193" s="74">
+        <v>4</v>
+      </c>
+      <c r="E193">
+        <v>2299.9718630299999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" s="74">
+        <v>4</v>
+      </c>
+      <c r="C194" s="74">
+        <v>32</v>
+      </c>
+      <c r="D194" s="74">
+        <v>4</v>
+      </c>
+      <c r="E194">
+        <v>3112.5267729799998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" s="74">
+        <v>4</v>
+      </c>
+      <c r="C195" s="74">
+        <v>32</v>
+      </c>
+      <c r="D195" s="74">
+        <v>4</v>
+      </c>
+      <c r="E195">
+        <v>3114.49228692</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" s="74">
+        <v>4</v>
+      </c>
+      <c r="C196" s="74">
+        <v>32</v>
+      </c>
+      <c r="D196" s="74">
+        <v>4</v>
+      </c>
+      <c r="E196">
+        <v>2319.8565950399998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" s="74">
+        <v>4</v>
+      </c>
+      <c r="C197" s="74">
+        <v>32</v>
+      </c>
+      <c r="D197" s="74">
+        <v>4</v>
+      </c>
+      <c r="E197">
+        <v>2326.5095250600002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" s="74">
+        <v>4</v>
+      </c>
+      <c r="C198" s="74">
+        <v>32</v>
+      </c>
+      <c r="D198" s="74">
+        <v>4</v>
+      </c>
+      <c r="E198">
+        <v>3192.1907022</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="74">
+        <v>4</v>
+      </c>
+      <c r="C199" s="74">
+        <v>32</v>
+      </c>
+      <c r="D199" s="74">
+        <v>4</v>
+      </c>
+      <c r="E199">
+        <v>2289.49348998</v>
       </c>
     </row>
   </sheetData>
